--- a/Factures_Excel/1611 - Racine Petits Fruits 2014 Inc.xlsx
+++ b/Factures_Excel/1611 - Racine Petits Fruits 2014 Inc.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Administration\APP\GCF\Factures_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39E52D02-9045-476F-A767-DBACDA1AF6AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89053D2B-CE30-4A9C-AB58-DEBCC6FBB435}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="20-02-22" sheetId="4" r:id="rId1"/>
@@ -29,9 +29,10 @@
     <sheet name="2024-10-17 - 24-24569" sheetId="17" r:id="rId14"/>
     <sheet name="2024-11-16 - 24-24641" sheetId="18" r:id="rId15"/>
     <sheet name="2024-12-22 - 24-24727" sheetId="19" r:id="rId16"/>
+    <sheet name="2025-03-01 - 25-24772" sheetId="20" r:id="rId17"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId17"/>
+    <externalReference r:id="rId18"/>
   </externalReferences>
   <definedNames>
     <definedName name="dnrServices">OFFSET([1]Admin!$Z$11,,,COUNTA([1]Admin!$Z:$Z)-1,1)</definedName>
@@ -56,6 +57,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="13">'2024-10-17 - 24-24569'!$A$1:$F$89</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="14">'2024-11-16 - 24-24641'!$A$1:$F$89</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="15">'2024-12-22 - 24-24727'!$A$1:$F$88</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="16">'2025-03-01 - 25-24772'!$A$1:$F$88</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'21-03-23'!$A$1:$F$90</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'22-12-22'!$A$1:$F$89</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="8">'28-03-24'!$A$1:$F$89</definedName>
@@ -81,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="149">
   <si>
     <t>NOTE D'HONORAIRES</t>
   </si>
@@ -511,6 +513,24 @@
   </si>
   <si>
     <t xml:space="preserve"> - Support dans le cadre de la vérification diligente des acheteurs ;</t>
+  </si>
+  <si>
+    <t>Le 1 MARS 2025</t>
+  </si>
+  <si>
+    <t>25-24772</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Répondre aux diverses demandes dans le cadre de la vérification diligente des acheteurs ;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Diverses discussions téléphoniques avec vous et votre comptable;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Recueullir les différentes informations pertinentes à l'élaboration de la planification fiscale pré-vente;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Analyse, réflexions et recherches fiscales permettant de déterminer le plan d'action fiscal optimal;</t>
   </si>
 </sst>
 </file>
@@ -1489,21 +1509,6 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1516,10 +1521,25 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2045,6 +2065,72 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing16.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>210062</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16385" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{702506F6-F88C-D930-2283-AD0E53ECE5EA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1" y="0"/>
+          <a:ext cx="11678161" cy="3175000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -3252,14 +3338,14 @@
       <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="168" t="s">
+      <c r="A30" s="172" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="168"/>
-      <c r="C30" s="168"/>
-      <c r="D30" s="168"/>
-      <c r="E30" s="168"/>
-      <c r="F30" s="168"/>
+      <c r="B30" s="172"/>
+      <c r="C30" s="172"/>
+      <c r="D30" s="172"/>
+      <c r="E30" s="172"/>
+      <c r="F30" s="172"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="17"/>
@@ -3280,289 +3366,289 @@
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
-      <c r="B33" s="167"/>
-      <c r="C33" s="167"/>
-      <c r="D33" s="167"/>
+      <c r="B33" s="169"/>
+      <c r="C33" s="169"/>
+      <c r="D33" s="169"/>
       <c r="E33" s="28"/>
       <c r="F33" s="21"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="21"/>
-      <c r="B34" s="167" t="s">
+      <c r="B34" s="169" t="s">
         <v>60</v>
       </c>
-      <c r="C34" s="167"/>
-      <c r="D34" s="167"/>
+      <c r="C34" s="169"/>
+      <c r="D34" s="169"/>
       <c r="E34" s="28"/>
       <c r="F34" s="21"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
-      <c r="B35" s="167"/>
-      <c r="C35" s="167"/>
-      <c r="D35" s="167"/>
+      <c r="B35" s="169"/>
+      <c r="C35" s="169"/>
+      <c r="D35" s="169"/>
       <c r="E35" s="28"/>
       <c r="F35" s="21"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="21"/>
-      <c r="B36" s="167" t="s">
+      <c r="B36" s="169" t="s">
         <v>54</v>
       </c>
-      <c r="C36" s="167"/>
-      <c r="D36" s="167"/>
+      <c r="C36" s="169"/>
+      <c r="D36" s="169"/>
       <c r="E36" s="28"/>
       <c r="F36" s="21"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
-      <c r="B37" s="167"/>
-      <c r="C37" s="167"/>
-      <c r="D37" s="167"/>
+      <c r="B37" s="169"/>
+      <c r="C37" s="169"/>
+      <c r="D37" s="169"/>
       <c r="E37" s="28"/>
       <c r="F37" s="21"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="21"/>
-      <c r="B38" s="167" t="s">
+      <c r="B38" s="169" t="s">
         <v>31</v>
       </c>
-      <c r="C38" s="167"/>
-      <c r="D38" s="167"/>
+      <c r="C38" s="169"/>
+      <c r="D38" s="169"/>
       <c r="E38" s="28"/>
       <c r="F38" s="21"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="21"/>
-      <c r="B39" s="167"/>
-      <c r="C39" s="167"/>
-      <c r="D39" s="167"/>
+      <c r="B39" s="169"/>
+      <c r="C39" s="169"/>
+      <c r="D39" s="169"/>
       <c r="E39" s="28"/>
       <c r="F39" s="21"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="21"/>
-      <c r="B40" s="167" t="s">
+      <c r="B40" s="169" t="s">
         <v>30</v>
       </c>
-      <c r="C40" s="167"/>
-      <c r="D40" s="167"/>
+      <c r="C40" s="169"/>
+      <c r="D40" s="169"/>
       <c r="E40" s="28"/>
       <c r="F40" s="21"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="21"/>
-      <c r="B41" s="167"/>
-      <c r="C41" s="167"/>
-      <c r="D41" s="167"/>
+      <c r="B41" s="169"/>
+      <c r="C41" s="169"/>
+      <c r="D41" s="169"/>
       <c r="E41" s="28"/>
       <c r="F41" s="21"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="21"/>
-      <c r="B42" s="167" t="s">
+      <c r="B42" s="169" t="s">
         <v>2</v>
       </c>
-      <c r="C42" s="167"/>
-      <c r="D42" s="167"/>
+      <c r="C42" s="169"/>
+      <c r="D42" s="169"/>
       <c r="E42" s="28"/>
       <c r="F42" s="21"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="21"/>
-      <c r="B43" s="167"/>
-      <c r="C43" s="167"/>
-      <c r="D43" s="167"/>
+      <c r="B43" s="169"/>
+      <c r="C43" s="169"/>
+      <c r="D43" s="169"/>
       <c r="E43" s="28"/>
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
-      <c r="B44" s="167" t="s">
+      <c r="B44" s="169" t="s">
         <v>20</v>
       </c>
-      <c r="C44" s="167"/>
-      <c r="D44" s="167"/>
+      <c r="C44" s="169"/>
+      <c r="D44" s="169"/>
       <c r="E44" s="28"/>
       <c r="F44" s="21"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="21"/>
-      <c r="B45" s="167"/>
-      <c r="C45" s="167"/>
-      <c r="D45" s="167"/>
+      <c r="B45" s="169"/>
+      <c r="C45" s="169"/>
+      <c r="D45" s="169"/>
       <c r="E45" s="28"/>
       <c r="F45" s="21"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="21"/>
-      <c r="B46" s="167" t="s">
+      <c r="B46" s="169" t="s">
         <v>43</v>
       </c>
-      <c r="C46" s="167"/>
-      <c r="D46" s="167"/>
+      <c r="C46" s="169"/>
+      <c r="D46" s="169"/>
       <c r="E46" s="28"/>
       <c r="F46" s="21"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="21"/>
-      <c r="B47" s="167"/>
-      <c r="C47" s="167"/>
-      <c r="D47" s="167"/>
+      <c r="B47" s="169"/>
+      <c r="C47" s="169"/>
+      <c r="D47" s="169"/>
       <c r="E47" s="28"/>
       <c r="F47" s="21"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="21"/>
-      <c r="B48" s="167" t="s">
+      <c r="B48" s="169" t="s">
         <v>34</v>
       </c>
-      <c r="C48" s="167"/>
-      <c r="D48" s="167"/>
+      <c r="C48" s="169"/>
+      <c r="D48" s="169"/>
       <c r="E48" s="28"/>
       <c r="F48" s="21"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="21"/>
-      <c r="B49" s="167"/>
-      <c r="C49" s="167"/>
-      <c r="D49" s="167"/>
+      <c r="B49" s="169"/>
+      <c r="C49" s="169"/>
+      <c r="D49" s="169"/>
       <c r="E49" s="28"/>
       <c r="F49" s="21"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="21"/>
-      <c r="B50" s="167" t="s">
+      <c r="B50" s="169" t="s">
         <v>38</v>
       </c>
-      <c r="C50" s="167"/>
-      <c r="D50" s="167"/>
+      <c r="C50" s="169"/>
+      <c r="D50" s="169"/>
       <c r="E50" s="28"/>
       <c r="F50" s="21"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="21"/>
-      <c r="B51" s="167"/>
-      <c r="C51" s="167"/>
-      <c r="D51" s="167"/>
+      <c r="B51" s="169"/>
+      <c r="C51" s="169"/>
+      <c r="D51" s="169"/>
       <c r="E51" s="28"/>
       <c r="F51" s="21"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="21"/>
-      <c r="B52" s="167" t="s">
+      <c r="B52" s="169" t="s">
         <v>44</v>
       </c>
-      <c r="C52" s="167"/>
-      <c r="D52" s="167"/>
+      <c r="C52" s="169"/>
+      <c r="D52" s="169"/>
       <c r="E52" s="28"/>
       <c r="F52" s="21"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="21"/>
-      <c r="B53" s="167"/>
-      <c r="C53" s="167"/>
-      <c r="D53" s="167"/>
+      <c r="B53" s="169"/>
+      <c r="C53" s="169"/>
+      <c r="D53" s="169"/>
       <c r="E53" s="28"/>
       <c r="F53" s="21"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="21"/>
-      <c r="B54" s="167" t="s">
+      <c r="B54" s="169" t="s">
         <v>45</v>
       </c>
-      <c r="C54" s="167"/>
-      <c r="D54" s="167"/>
+      <c r="C54" s="169"/>
+      <c r="D54" s="169"/>
       <c r="E54" s="28"/>
       <c r="F54" s="21"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="21"/>
-      <c r="B55" s="167"/>
-      <c r="C55" s="167"/>
-      <c r="D55" s="167"/>
+      <c r="B55" s="169"/>
+      <c r="C55" s="169"/>
+      <c r="D55" s="169"/>
       <c r="E55" s="28"/>
       <c r="F55" s="21"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="21"/>
-      <c r="B56" s="167" t="s">
+      <c r="B56" s="169" t="s">
         <v>19</v>
       </c>
-      <c r="C56" s="167"/>
-      <c r="D56" s="167"/>
+      <c r="C56" s="169"/>
+      <c r="D56" s="169"/>
       <c r="E56" s="28"/>
       <c r="F56" s="21"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="21"/>
-      <c r="B57" s="167"/>
-      <c r="C57" s="167"/>
-      <c r="D57" s="167"/>
+      <c r="B57" s="169"/>
+      <c r="C57" s="169"/>
+      <c r="D57" s="169"/>
       <c r="E57" s="28"/>
       <c r="F57" s="21"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="21"/>
-      <c r="B58" s="167" t="s">
+      <c r="B58" s="169" t="s">
         <v>21</v>
       </c>
-      <c r="C58" s="167"/>
-      <c r="D58" s="167"/>
+      <c r="C58" s="169"/>
+      <c r="D58" s="169"/>
       <c r="E58" s="28"/>
       <c r="F58" s="21"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="21"/>
-      <c r="B59" s="167"/>
-      <c r="C59" s="167"/>
-      <c r="D59" s="167"/>
+      <c r="B59" s="169"/>
+      <c r="C59" s="169"/>
+      <c r="D59" s="169"/>
       <c r="E59" s="28"/>
       <c r="F59" s="21"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="21"/>
-      <c r="B60" s="167" t="s">
+      <c r="B60" s="169" t="s">
         <v>8</v>
       </c>
-      <c r="C60" s="167"/>
-      <c r="D60" s="167"/>
+      <c r="C60" s="169"/>
+      <c r="D60" s="169"/>
       <c r="E60" s="28"/>
       <c r="F60" s="21"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="21"/>
-      <c r="B61" s="167"/>
-      <c r="C61" s="167"/>
-      <c r="D61" s="167"/>
+      <c r="B61" s="169"/>
+      <c r="C61" s="169"/>
+      <c r="D61" s="169"/>
       <c r="E61" s="28"/>
       <c r="F61" s="21"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="21"/>
-      <c r="B62" s="167" t="s">
+      <c r="B62" s="169" t="s">
         <v>46</v>
       </c>
-      <c r="C62" s="167"/>
-      <c r="D62" s="167"/>
+      <c r="C62" s="169"/>
+      <c r="D62" s="169"/>
       <c r="E62" s="28"/>
       <c r="F62" s="21"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="21"/>
-      <c r="B63" s="167"/>
-      <c r="C63" s="167"/>
-      <c r="D63" s="167"/>
+      <c r="B63" s="169"/>
+      <c r="C63" s="169"/>
+      <c r="D63" s="169"/>
       <c r="E63" s="28"/>
       <c r="F63" s="21"/>
     </row>
     <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A64" s="21"/>
-      <c r="B64" s="167" t="s">
+      <c r="B64" s="169" t="s">
         <v>32</v>
       </c>
-      <c r="C64" s="167"/>
-      <c r="D64" s="167"/>
+      <c r="C64" s="169"/>
+      <c r="D64" s="169"/>
       <c r="E64" s="28"/>
       <c r="F64" s="21"/>
     </row>
@@ -3592,17 +3678,17 @@
     </row>
     <row r="67" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A67" s="21"/>
-      <c r="B67" s="167"/>
-      <c r="C67" s="167"/>
-      <c r="D67" s="167"/>
+      <c r="B67" s="169"/>
+      <c r="C67" s="169"/>
+      <c r="D67" s="169"/>
       <c r="E67" s="28"/>
       <c r="F67" s="21"/>
     </row>
     <row r="68" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="21"/>
-      <c r="B68" s="167"/>
-      <c r="C68" s="167"/>
-      <c r="D68" s="167"/>
+      <c r="B68" s="169"/>
+      <c r="C68" s="169"/>
+      <c r="D68" s="169"/>
       <c r="E68" s="28"/>
       <c r="F68" s="21"/>
     </row>
@@ -3709,19 +3795,19 @@
     </row>
     <row r="77" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A77" s="21"/>
-      <c r="B77" s="169"/>
-      <c r="C77" s="169"/>
-      <c r="D77" s="169"/>
+      <c r="B77" s="173"/>
+      <c r="C77" s="173"/>
+      <c r="D77" s="173"/>
       <c r="E77" s="36"/>
       <c r="F77" s="21"/>
     </row>
     <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="21"/>
-      <c r="B78" s="174" t="s">
+      <c r="B78" s="170" t="s">
         <v>17</v>
       </c>
-      <c r="C78" s="174"/>
-      <c r="D78" s="174"/>
+      <c r="C78" s="170"/>
+      <c r="D78" s="170"/>
       <c r="E78" s="36">
         <v>0</v>
       </c>
@@ -3729,9 +3815,9 @@
     </row>
     <row r="79" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="21"/>
-      <c r="B79" s="169"/>
-      <c r="C79" s="169"/>
-      <c r="D79" s="169"/>
+      <c r="B79" s="173"/>
+      <c r="C79" s="173"/>
+      <c r="D79" s="173"/>
       <c r="E79" s="36"/>
       <c r="F79" s="21"/>
     </row>
@@ -3766,31 +3852,31 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="21"/>
-      <c r="B83" s="172"/>
-      <c r="C83" s="172"/>
-      <c r="D83" s="172"/>
-      <c r="E83" s="172"/>
+      <c r="B83" s="167"/>
+      <c r="C83" s="167"/>
+      <c r="D83" s="167"/>
+      <c r="E83" s="167"/>
       <c r="F83" s="21"/>
     </row>
     <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="166" t="s">
+      <c r="A84" s="175" t="s">
         <v>28</v>
       </c>
-      <c r="B84" s="166"/>
-      <c r="C84" s="166"/>
-      <c r="D84" s="166"/>
-      <c r="E84" s="166"/>
-      <c r="F84" s="166"/>
+      <c r="B84" s="175"/>
+      <c r="C84" s="175"/>
+      <c r="D84" s="175"/>
+      <c r="E84" s="175"/>
+      <c r="F84" s="175"/>
     </row>
     <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A85" s="175" t="s">
+      <c r="A85" s="171" t="s">
         <v>29</v>
       </c>
-      <c r="B85" s="175"/>
-      <c r="C85" s="175"/>
-      <c r="D85" s="175"/>
-      <c r="E85" s="175"/>
-      <c r="F85" s="175"/>
+      <c r="B85" s="171"/>
+      <c r="C85" s="171"/>
+      <c r="D85" s="171"/>
+      <c r="E85" s="171"/>
+      <c r="F85" s="171"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="21"/>
@@ -3802,26 +3888,26 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="21"/>
-      <c r="B87" s="173"/>
-      <c r="C87" s="173"/>
-      <c r="D87" s="173"/>
-      <c r="E87" s="173"/>
+      <c r="B87" s="168"/>
+      <c r="C87" s="168"/>
+      <c r="D87" s="168"/>
+      <c r="E87" s="168"/>
       <c r="F87" s="21"/>
     </row>
     <row r="88" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A88" s="165" t="s">
+      <c r="A88" s="174" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="165"/>
-      <c r="C88" s="165"/>
-      <c r="D88" s="165"/>
-      <c r="E88" s="165"/>
-      <c r="F88" s="165"/>
+      <c r="B88" s="174"/>
+      <c r="C88" s="174"/>
+      <c r="D88" s="174"/>
+      <c r="E88" s="174"/>
+      <c r="F88" s="174"/>
     </row>
     <row r="90" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="170"/>
-      <c r="C90" s="171"/>
-      <c r="D90" s="171"/>
+      <c r="B90" s="165"/>
+      <c r="C90" s="166"/>
+      <c r="D90" s="166"/>
     </row>
     <row r="91" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
@@ -3831,6 +3917,34 @@
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="A88:F88"/>
+    <mergeCell ref="A84:F84"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="B79:D79"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="B54:D54"/>
     <mergeCell ref="B90:D90"/>
     <mergeCell ref="B83:E83"/>
     <mergeCell ref="B87:E87"/>
@@ -3847,34 +3961,6 @@
     <mergeCell ref="B44:D44"/>
     <mergeCell ref="B78:D78"/>
     <mergeCell ref="A85:F85"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="B79:D79"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="A88:F88"/>
-    <mergeCell ref="A84:F84"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B52:D52"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <dataValidations count="1">
@@ -4033,14 +4119,14 @@
       <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="168" t="s">
+      <c r="A30" s="172" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="168"/>
-      <c r="C30" s="168"/>
-      <c r="D30" s="168"/>
-      <c r="E30" s="168"/>
-      <c r="F30" s="168"/>
+      <c r="B30" s="172"/>
+      <c r="C30" s="172"/>
+      <c r="D30" s="172"/>
+      <c r="E30" s="172"/>
+      <c r="F30" s="172"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="17"/>
@@ -4061,273 +4147,273 @@
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
-      <c r="B33" s="167"/>
-      <c r="C33" s="167"/>
-      <c r="D33" s="167"/>
+      <c r="B33" s="169"/>
+      <c r="C33" s="169"/>
+      <c r="D33" s="169"/>
       <c r="E33" s="28"/>
       <c r="F33" s="21"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="21"/>
-      <c r="B34" s="167" t="s">
+      <c r="B34" s="169" t="s">
         <v>33</v>
       </c>
-      <c r="C34" s="167"/>
-      <c r="D34" s="167"/>
+      <c r="C34" s="169"/>
+      <c r="D34" s="169"/>
       <c r="E34" s="28"/>
       <c r="F34" s="21"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
-      <c r="B35" s="167"/>
-      <c r="C35" s="167"/>
-      <c r="D35" s="167"/>
+      <c r="B35" s="169"/>
+      <c r="C35" s="169"/>
+      <c r="D35" s="169"/>
       <c r="E35" s="28"/>
       <c r="F35" s="21"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="21"/>
-      <c r="B36" s="167" t="s">
+      <c r="B36" s="169" t="s">
         <v>31</v>
       </c>
-      <c r="C36" s="167"/>
-      <c r="D36" s="167"/>
+      <c r="C36" s="169"/>
+      <c r="D36" s="169"/>
       <c r="E36" s="28"/>
       <c r="F36" s="21"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
-      <c r="B37" s="167"/>
-      <c r="C37" s="167"/>
-      <c r="D37" s="167"/>
+      <c r="B37" s="169"/>
+      <c r="C37" s="169"/>
+      <c r="D37" s="169"/>
       <c r="E37" s="28"/>
       <c r="F37" s="21"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="21"/>
-      <c r="B38" s="167" t="s">
+      <c r="B38" s="169" t="s">
         <v>107</v>
       </c>
-      <c r="C38" s="167"/>
-      <c r="D38" s="167"/>
+      <c r="C38" s="169"/>
+      <c r="D38" s="169"/>
       <c r="E38" s="28"/>
       <c r="F38" s="21"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="21"/>
-      <c r="B39" s="167"/>
-      <c r="C39" s="167"/>
-      <c r="D39" s="167"/>
+      <c r="B39" s="169"/>
+      <c r="C39" s="169"/>
+      <c r="D39" s="169"/>
       <c r="E39" s="28"/>
       <c r="F39" s="21"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="21"/>
-      <c r="B40" s="167" t="s">
+      <c r="B40" s="169" t="s">
         <v>38</v>
       </c>
-      <c r="C40" s="167"/>
-      <c r="D40" s="167"/>
+      <c r="C40" s="169"/>
+      <c r="D40" s="169"/>
       <c r="E40" s="28"/>
       <c r="F40" s="21"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="21"/>
-      <c r="B41" s="167"/>
-      <c r="C41" s="167"/>
-      <c r="D41" s="167"/>
+      <c r="B41" s="169"/>
+      <c r="C41" s="169"/>
+      <c r="D41" s="169"/>
       <c r="E41" s="28"/>
       <c r="F41" s="21"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="21"/>
-      <c r="B42" s="167"/>
-      <c r="C42" s="167"/>
-      <c r="D42" s="167"/>
+      <c r="B42" s="169"/>
+      <c r="C42" s="169"/>
+      <c r="D42" s="169"/>
       <c r="E42" s="28"/>
       <c r="F42" s="21"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="21"/>
-      <c r="B43" s="167"/>
-      <c r="C43" s="167"/>
-      <c r="D43" s="167"/>
+      <c r="B43" s="169"/>
+      <c r="C43" s="169"/>
+      <c r="D43" s="169"/>
       <c r="E43" s="28"/>
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
-      <c r="B44" s="167"/>
-      <c r="C44" s="167"/>
-      <c r="D44" s="167"/>
+      <c r="B44" s="169"/>
+      <c r="C44" s="169"/>
+      <c r="D44" s="169"/>
       <c r="E44" s="28"/>
       <c r="F44" s="21"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="21"/>
-      <c r="B45" s="167"/>
-      <c r="C45" s="167"/>
-      <c r="D45" s="167"/>
+      <c r="B45" s="169"/>
+      <c r="C45" s="169"/>
+      <c r="D45" s="169"/>
       <c r="E45" s="28"/>
       <c r="F45" s="21"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="21"/>
-      <c r="B46" s="167"/>
-      <c r="C46" s="167"/>
-      <c r="D46" s="167"/>
+      <c r="B46" s="169"/>
+      <c r="C46" s="169"/>
+      <c r="D46" s="169"/>
       <c r="E46" s="28"/>
       <c r="F46" s="21"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="21"/>
-      <c r="B47" s="167"/>
-      <c r="C47" s="167"/>
-      <c r="D47" s="167"/>
+      <c r="B47" s="169"/>
+      <c r="C47" s="169"/>
+      <c r="D47" s="169"/>
       <c r="E47" s="28"/>
       <c r="F47" s="21"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="21"/>
-      <c r="B48" s="167"/>
-      <c r="C48" s="167"/>
-      <c r="D48" s="167"/>
+      <c r="B48" s="169"/>
+      <c r="C48" s="169"/>
+      <c r="D48" s="169"/>
       <c r="E48" s="28"/>
       <c r="F48" s="21"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="21"/>
-      <c r="B49" s="167"/>
-      <c r="C49" s="167"/>
-      <c r="D49" s="167"/>
+      <c r="B49" s="169"/>
+      <c r="C49" s="169"/>
+      <c r="D49" s="169"/>
       <c r="E49" s="28"/>
       <c r="F49" s="21"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="21"/>
-      <c r="B50" s="167"/>
-      <c r="C50" s="167"/>
-      <c r="D50" s="167"/>
+      <c r="B50" s="169"/>
+      <c r="C50" s="169"/>
+      <c r="D50" s="169"/>
       <c r="E50" s="28"/>
       <c r="F50" s="21"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="21"/>
-      <c r="B51" s="167"/>
-      <c r="C51" s="167"/>
-      <c r="D51" s="167"/>
+      <c r="B51" s="169"/>
+      <c r="C51" s="169"/>
+      <c r="D51" s="169"/>
       <c r="E51" s="28"/>
       <c r="F51" s="21"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="21"/>
-      <c r="B52" s="167"/>
-      <c r="C52" s="167"/>
-      <c r="D52" s="167"/>
+      <c r="B52" s="169"/>
+      <c r="C52" s="169"/>
+      <c r="D52" s="169"/>
       <c r="E52" s="28"/>
       <c r="F52" s="21"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="21"/>
-      <c r="B53" s="167"/>
-      <c r="C53" s="167"/>
-      <c r="D53" s="167"/>
+      <c r="B53" s="169"/>
+      <c r="C53" s="169"/>
+      <c r="D53" s="169"/>
       <c r="E53" s="28"/>
       <c r="F53" s="21"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="21"/>
-      <c r="B54" s="167"/>
-      <c r="C54" s="167"/>
-      <c r="D54" s="167"/>
+      <c r="B54" s="169"/>
+      <c r="C54" s="169"/>
+      <c r="D54" s="169"/>
       <c r="E54" s="28"/>
       <c r="F54" s="21"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="21"/>
-      <c r="B55" s="167"/>
-      <c r="C55" s="167"/>
-      <c r="D55" s="167"/>
+      <c r="B55" s="169"/>
+      <c r="C55" s="169"/>
+      <c r="D55" s="169"/>
       <c r="E55" s="28"/>
       <c r="F55" s="21"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="21"/>
-      <c r="B56" s="167"/>
-      <c r="C56" s="167"/>
-      <c r="D56" s="167"/>
+      <c r="B56" s="169"/>
+      <c r="C56" s="169"/>
+      <c r="D56" s="169"/>
       <c r="E56" s="28"/>
       <c r="F56" s="21"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="21"/>
-      <c r="B57" s="167"/>
-      <c r="C57" s="167"/>
-      <c r="D57" s="167"/>
+      <c r="B57" s="169"/>
+      <c r="C57" s="169"/>
+      <c r="D57" s="169"/>
       <c r="E57" s="28"/>
       <c r="F57" s="21"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="21"/>
-      <c r="B58" s="167"/>
-      <c r="C58" s="167"/>
-      <c r="D58" s="167"/>
+      <c r="B58" s="169"/>
+      <c r="C58" s="169"/>
+      <c r="D58" s="169"/>
       <c r="E58" s="28"/>
       <c r="F58" s="21"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="21"/>
-      <c r="B59" s="167"/>
-      <c r="C59" s="167"/>
-      <c r="D59" s="167"/>
+      <c r="B59" s="169"/>
+      <c r="C59" s="169"/>
+      <c r="D59" s="169"/>
       <c r="E59" s="28"/>
       <c r="F59" s="21"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="21"/>
-      <c r="B60" s="167"/>
-      <c r="C60" s="167"/>
-      <c r="D60" s="167"/>
+      <c r="B60" s="169"/>
+      <c r="C60" s="169"/>
+      <c r="D60" s="169"/>
       <c r="E60" s="28"/>
       <c r="F60" s="21"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="21"/>
-      <c r="B61" s="167"/>
-      <c r="C61" s="167"/>
-      <c r="D61" s="167"/>
+      <c r="B61" s="169"/>
+      <c r="C61" s="169"/>
+      <c r="D61" s="169"/>
       <c r="E61" s="28"/>
       <c r="F61" s="21"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="21"/>
-      <c r="B62" s="167"/>
-      <c r="C62" s="167"/>
-      <c r="D62" s="167"/>
+      <c r="B62" s="169"/>
+      <c r="C62" s="169"/>
+      <c r="D62" s="169"/>
       <c r="E62" s="28"/>
       <c r="F62" s="21"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="21"/>
-      <c r="B63" s="167"/>
-      <c r="C63" s="167"/>
-      <c r="D63" s="167"/>
+      <c r="B63" s="169"/>
+      <c r="C63" s="169"/>
+      <c r="D63" s="169"/>
       <c r="E63" s="28"/>
       <c r="F63" s="21"/>
     </row>
     <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A64" s="21"/>
-      <c r="B64" s="167"/>
-      <c r="C64" s="167"/>
-      <c r="D64" s="167"/>
+      <c r="B64" s="169"/>
+      <c r="C64" s="169"/>
+      <c r="D64" s="169"/>
       <c r="E64" s="28"/>
       <c r="F64" s="21"/>
     </row>
     <row r="65" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A65" s="21"/>
-      <c r="B65" s="167"/>
-      <c r="C65" s="167"/>
-      <c r="D65" s="167"/>
+      <c r="B65" s="169"/>
+      <c r="C65" s="169"/>
+      <c r="D65" s="169"/>
       <c r="E65" s="28"/>
       <c r="F65" s="21"/>
     </row>
@@ -4357,17 +4443,17 @@
     </row>
     <row r="68" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A68" s="21"/>
-      <c r="B68" s="167"/>
-      <c r="C68" s="167"/>
-      <c r="D68" s="167"/>
+      <c r="B68" s="169"/>
+      <c r="C68" s="169"/>
+      <c r="D68" s="169"/>
       <c r="E68" s="28"/>
       <c r="F68" s="21"/>
     </row>
     <row r="69" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="21"/>
-      <c r="B69" s="167"/>
-      <c r="C69" s="167"/>
-      <c r="D69" s="167"/>
+      <c r="B69" s="169"/>
+      <c r="C69" s="169"/>
+      <c r="D69" s="169"/>
       <c r="E69" s="28"/>
       <c r="F69" s="21"/>
     </row>
@@ -4474,19 +4560,19 @@
     </row>
     <row r="78" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A78" s="21"/>
-      <c r="B78" s="169"/>
-      <c r="C78" s="169"/>
-      <c r="D78" s="169"/>
+      <c r="B78" s="173"/>
+      <c r="C78" s="173"/>
+      <c r="D78" s="173"/>
       <c r="E78" s="36"/>
       <c r="F78" s="21"/>
     </row>
     <row r="79" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="21"/>
-      <c r="B79" s="174" t="s">
+      <c r="B79" s="170" t="s">
         <v>17</v>
       </c>
-      <c r="C79" s="174"/>
-      <c r="D79" s="174"/>
+      <c r="C79" s="170"/>
+      <c r="D79" s="170"/>
       <c r="E79" s="36">
         <v>0</v>
       </c>
@@ -4494,9 +4580,9 @@
     </row>
     <row r="80" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A80" s="21"/>
-      <c r="B80" s="169"/>
-      <c r="C80" s="169"/>
-      <c r="D80" s="169"/>
+      <c r="B80" s="173"/>
+      <c r="C80" s="173"/>
+      <c r="D80" s="173"/>
       <c r="E80" s="36"/>
       <c r="F80" s="21"/>
     </row>
@@ -4531,31 +4617,31 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" s="21"/>
-      <c r="B84" s="172"/>
-      <c r="C84" s="172"/>
-      <c r="D84" s="172"/>
-      <c r="E84" s="172"/>
+      <c r="B84" s="167"/>
+      <c r="C84" s="167"/>
+      <c r="D84" s="167"/>
+      <c r="E84" s="167"/>
       <c r="F84" s="21"/>
     </row>
     <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A85" s="166" t="s">
+      <c r="A85" s="175" t="s">
         <v>28</v>
       </c>
-      <c r="B85" s="166"/>
-      <c r="C85" s="166"/>
-      <c r="D85" s="166"/>
-      <c r="E85" s="166"/>
-      <c r="F85" s="166"/>
+      <c r="B85" s="175"/>
+      <c r="C85" s="175"/>
+      <c r="D85" s="175"/>
+      <c r="E85" s="175"/>
+      <c r="F85" s="175"/>
     </row>
     <row r="86" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A86" s="175" t="s">
+      <c r="A86" s="171" t="s">
         <v>29</v>
       </c>
-      <c r="B86" s="175"/>
-      <c r="C86" s="175"/>
-      <c r="D86" s="175"/>
-      <c r="E86" s="175"/>
-      <c r="F86" s="175"/>
+      <c r="B86" s="171"/>
+      <c r="C86" s="171"/>
+      <c r="D86" s="171"/>
+      <c r="E86" s="171"/>
+      <c r="F86" s="171"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="21"/>
@@ -4567,26 +4653,26 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" s="21"/>
-      <c r="B88" s="173"/>
-      <c r="C88" s="173"/>
-      <c r="D88" s="173"/>
-      <c r="E88" s="173"/>
+      <c r="B88" s="168"/>
+      <c r="C88" s="168"/>
+      <c r="D88" s="168"/>
+      <c r="E88" s="168"/>
       <c r="F88" s="21"/>
     </row>
     <row r="89" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A89" s="165" t="s">
+      <c r="A89" s="174" t="s">
         <v>7</v>
       </c>
-      <c r="B89" s="165"/>
-      <c r="C89" s="165"/>
-      <c r="D89" s="165"/>
-      <c r="E89" s="165"/>
-      <c r="F89" s="165"/>
+      <c r="B89" s="174"/>
+      <c r="C89" s="174"/>
+      <c r="D89" s="174"/>
+      <c r="E89" s="174"/>
+      <c r="F89" s="174"/>
     </row>
     <row r="91" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B91" s="170"/>
-      <c r="C91" s="171"/>
-      <c r="D91" s="171"/>
+      <c r="B91" s="165"/>
+      <c r="C91" s="166"/>
+      <c r="D91" s="166"/>
     </row>
     <row r="92" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
@@ -4596,35 +4682,6 @@
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B62:D62"/>
     <mergeCell ref="A89:F89"/>
     <mergeCell ref="B91:D91"/>
     <mergeCell ref="B46:D46"/>
@@ -4641,6 +4698,35 @@
     <mergeCell ref="B69:D69"/>
     <mergeCell ref="B78:D78"/>
     <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B42:D42"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B78:B80 B12:B20 B33:B69" xr:uid="{0C730B90-AA6E-44E0-8CCA-A1B935C30BD1}">
@@ -4798,14 +4884,14 @@
       <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="168" t="s">
+      <c r="A30" s="172" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="168"/>
-      <c r="C30" s="168"/>
-      <c r="D30" s="168"/>
-      <c r="E30" s="168"/>
-      <c r="F30" s="168"/>
+      <c r="B30" s="172"/>
+      <c r="C30" s="172"/>
+      <c r="D30" s="172"/>
+      <c r="E30" s="172"/>
+      <c r="F30" s="172"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="17"/>
@@ -4826,275 +4912,275 @@
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
-      <c r="B33" s="167"/>
-      <c r="C33" s="167"/>
-      <c r="D33" s="167"/>
+      <c r="B33" s="169"/>
+      <c r="C33" s="169"/>
+      <c r="D33" s="169"/>
       <c r="E33" s="28"/>
       <c r="F33" s="21"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="21"/>
-      <c r="B34" s="167" t="s">
+      <c r="B34" s="169" t="s">
         <v>33</v>
       </c>
-      <c r="C34" s="167"/>
-      <c r="D34" s="167"/>
+      <c r="C34" s="169"/>
+      <c r="D34" s="169"/>
       <c r="E34" s="28"/>
       <c r="F34" s="21"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
-      <c r="B35" s="167"/>
-      <c r="C35" s="167"/>
-      <c r="D35" s="167"/>
+      <c r="B35" s="169"/>
+      <c r="C35" s="169"/>
+      <c r="D35" s="169"/>
       <c r="E35" s="28"/>
       <c r="F35" s="21"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="21"/>
-      <c r="B36" s="167" t="s">
+      <c r="B36" s="169" t="s">
         <v>110</v>
       </c>
-      <c r="C36" s="167"/>
-      <c r="D36" s="167"/>
+      <c r="C36" s="169"/>
+      <c r="D36" s="169"/>
       <c r="E36" s="28"/>
       <c r="F36" s="21"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
-      <c r="B37" s="167"/>
-      <c r="C37" s="167"/>
-      <c r="D37" s="167"/>
+      <c r="B37" s="169"/>
+      <c r="C37" s="169"/>
+      <c r="D37" s="169"/>
       <c r="E37" s="28"/>
       <c r="F37" s="21"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="21"/>
-      <c r="B38" s="167" t="s">
+      <c r="B38" s="169" t="s">
         <v>38</v>
       </c>
-      <c r="C38" s="167"/>
-      <c r="D38" s="167"/>
+      <c r="C38" s="169"/>
+      <c r="D38" s="169"/>
       <c r="E38" s="28"/>
       <c r="F38" s="21"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="21"/>
-      <c r="B39" s="167"/>
-      <c r="C39" s="167"/>
-      <c r="D39" s="167"/>
+      <c r="B39" s="169"/>
+      <c r="C39" s="169"/>
+      <c r="D39" s="169"/>
       <c r="E39" s="28"/>
       <c r="F39" s="21"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="21"/>
-      <c r="B40" s="167" t="s">
+      <c r="B40" s="169" t="s">
         <v>111</v>
       </c>
-      <c r="C40" s="167"/>
-      <c r="D40" s="167"/>
+      <c r="C40" s="169"/>
+      <c r="D40" s="169"/>
       <c r="E40" s="28"/>
       <c r="F40" s="21"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="21"/>
-      <c r="B41" s="167"/>
-      <c r="C41" s="167"/>
-      <c r="D41" s="167"/>
+      <c r="B41" s="169"/>
+      <c r="C41" s="169"/>
+      <c r="D41" s="169"/>
       <c r="E41" s="28"/>
       <c r="F41" s="21"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="21"/>
-      <c r="B42" s="167" t="s">
+      <c r="B42" s="169" t="s">
         <v>95</v>
       </c>
-      <c r="C42" s="167"/>
-      <c r="D42" s="167"/>
+      <c r="C42" s="169"/>
+      <c r="D42" s="169"/>
       <c r="E42" s="28"/>
       <c r="F42" s="21"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="21"/>
-      <c r="B43" s="167"/>
-      <c r="C43" s="167"/>
-      <c r="D43" s="167"/>
+      <c r="B43" s="169"/>
+      <c r="C43" s="169"/>
+      <c r="D43" s="169"/>
       <c r="E43" s="28"/>
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
-      <c r="B44" s="167"/>
-      <c r="C44" s="167"/>
-      <c r="D44" s="167"/>
+      <c r="B44" s="169"/>
+      <c r="C44" s="169"/>
+      <c r="D44" s="169"/>
       <c r="E44" s="28"/>
       <c r="F44" s="21"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="21"/>
-      <c r="B45" s="167"/>
-      <c r="C45" s="167"/>
-      <c r="D45" s="167"/>
+      <c r="B45" s="169"/>
+      <c r="C45" s="169"/>
+      <c r="D45" s="169"/>
       <c r="E45" s="28"/>
       <c r="F45" s="21"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="21"/>
-      <c r="B46" s="167"/>
-      <c r="C46" s="167"/>
-      <c r="D46" s="167"/>
+      <c r="B46" s="169"/>
+      <c r="C46" s="169"/>
+      <c r="D46" s="169"/>
       <c r="E46" s="28"/>
       <c r="F46" s="21"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="21"/>
-      <c r="B47" s="167"/>
-      <c r="C47" s="167"/>
-      <c r="D47" s="167"/>
+      <c r="B47" s="169"/>
+      <c r="C47" s="169"/>
+      <c r="D47" s="169"/>
       <c r="E47" s="28"/>
       <c r="F47" s="21"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="21"/>
-      <c r="B48" s="167"/>
-      <c r="C48" s="167"/>
-      <c r="D48" s="167"/>
+      <c r="B48" s="169"/>
+      <c r="C48" s="169"/>
+      <c r="D48" s="169"/>
       <c r="E48" s="28"/>
       <c r="F48" s="21"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="21"/>
-      <c r="B49" s="167"/>
-      <c r="C49" s="167"/>
-      <c r="D49" s="167"/>
+      <c r="B49" s="169"/>
+      <c r="C49" s="169"/>
+      <c r="D49" s="169"/>
       <c r="E49" s="28"/>
       <c r="F49" s="21"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="21"/>
-      <c r="B50" s="167"/>
-      <c r="C50" s="167"/>
-      <c r="D50" s="167"/>
+      <c r="B50" s="169"/>
+      <c r="C50" s="169"/>
+      <c r="D50" s="169"/>
       <c r="E50" s="28"/>
       <c r="F50" s="21"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="21"/>
-      <c r="B51" s="167"/>
-      <c r="C51" s="167"/>
-      <c r="D51" s="167"/>
+      <c r="B51" s="169"/>
+      <c r="C51" s="169"/>
+      <c r="D51" s="169"/>
       <c r="E51" s="28"/>
       <c r="F51" s="21"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="21"/>
-      <c r="B52" s="167"/>
-      <c r="C52" s="167"/>
-      <c r="D52" s="167"/>
+      <c r="B52" s="169"/>
+      <c r="C52" s="169"/>
+      <c r="D52" s="169"/>
       <c r="E52" s="28"/>
       <c r="F52" s="21"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="21"/>
-      <c r="B53" s="167"/>
-      <c r="C53" s="167"/>
-      <c r="D53" s="167"/>
+      <c r="B53" s="169"/>
+      <c r="C53" s="169"/>
+      <c r="D53" s="169"/>
       <c r="E53" s="28"/>
       <c r="F53" s="21"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="21"/>
-      <c r="B54" s="167"/>
-      <c r="C54" s="167"/>
-      <c r="D54" s="167"/>
+      <c r="B54" s="169"/>
+      <c r="C54" s="169"/>
+      <c r="D54" s="169"/>
       <c r="E54" s="28"/>
       <c r="F54" s="21"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="21"/>
-      <c r="B55" s="167"/>
-      <c r="C55" s="167"/>
-      <c r="D55" s="167"/>
+      <c r="B55" s="169"/>
+      <c r="C55" s="169"/>
+      <c r="D55" s="169"/>
       <c r="E55" s="28"/>
       <c r="F55" s="21"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="21"/>
-      <c r="B56" s="167"/>
-      <c r="C56" s="167"/>
-      <c r="D56" s="167"/>
+      <c r="B56" s="169"/>
+      <c r="C56" s="169"/>
+      <c r="D56" s="169"/>
       <c r="E56" s="28"/>
       <c r="F56" s="21"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="21"/>
-      <c r="B57" s="167"/>
-      <c r="C57" s="167"/>
-      <c r="D57" s="167"/>
+      <c r="B57" s="169"/>
+      <c r="C57" s="169"/>
+      <c r="D57" s="169"/>
       <c r="E57" s="28"/>
       <c r="F57" s="21"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="21"/>
-      <c r="B58" s="167"/>
-      <c r="C58" s="167"/>
-      <c r="D58" s="167"/>
+      <c r="B58" s="169"/>
+      <c r="C58" s="169"/>
+      <c r="D58" s="169"/>
       <c r="E58" s="28"/>
       <c r="F58" s="21"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="21"/>
-      <c r="B59" s="167"/>
-      <c r="C59" s="167"/>
-      <c r="D59" s="167"/>
+      <c r="B59" s="169"/>
+      <c r="C59" s="169"/>
+      <c r="D59" s="169"/>
       <c r="E59" s="28"/>
       <c r="F59" s="21"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="21"/>
-      <c r="B60" s="167"/>
-      <c r="C60" s="167"/>
-      <c r="D60" s="167"/>
+      <c r="B60" s="169"/>
+      <c r="C60" s="169"/>
+      <c r="D60" s="169"/>
       <c r="E60" s="28"/>
       <c r="F60" s="21"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="21"/>
-      <c r="B61" s="167"/>
-      <c r="C61" s="167"/>
-      <c r="D61" s="167"/>
+      <c r="B61" s="169"/>
+      <c r="C61" s="169"/>
+      <c r="D61" s="169"/>
       <c r="E61" s="28"/>
       <c r="F61" s="21"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="21"/>
-      <c r="B62" s="167"/>
-      <c r="C62" s="167"/>
-      <c r="D62" s="167"/>
+      <c r="B62" s="169"/>
+      <c r="C62" s="169"/>
+      <c r="D62" s="169"/>
       <c r="E62" s="28"/>
       <c r="F62" s="21"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="21"/>
-      <c r="B63" s="167"/>
-      <c r="C63" s="167"/>
-      <c r="D63" s="167"/>
+      <c r="B63" s="169"/>
+      <c r="C63" s="169"/>
+      <c r="D63" s="169"/>
       <c r="E63" s="28"/>
       <c r="F63" s="21"/>
     </row>
     <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A64" s="21"/>
-      <c r="B64" s="167"/>
-      <c r="C64" s="167"/>
-      <c r="D64" s="167"/>
+      <c r="B64" s="169"/>
+      <c r="C64" s="169"/>
+      <c r="D64" s="169"/>
       <c r="E64" s="28"/>
       <c r="F64" s="21"/>
     </row>
     <row r="65" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A65" s="21"/>
-      <c r="B65" s="167"/>
-      <c r="C65" s="167"/>
-      <c r="D65" s="167"/>
+      <c r="B65" s="169"/>
+      <c r="C65" s="169"/>
+      <c r="D65" s="169"/>
       <c r="E65" s="28"/>
       <c r="F65" s="21"/>
     </row>
@@ -5124,17 +5210,17 @@
     </row>
     <row r="68" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A68" s="21"/>
-      <c r="B68" s="167"/>
-      <c r="C68" s="167"/>
-      <c r="D68" s="167"/>
+      <c r="B68" s="169"/>
+      <c r="C68" s="169"/>
+      <c r="D68" s="169"/>
       <c r="E68" s="28"/>
       <c r="F68" s="21"/>
     </row>
     <row r="69" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="21"/>
-      <c r="B69" s="167"/>
-      <c r="C69" s="167"/>
-      <c r="D69" s="167"/>
+      <c r="B69" s="169"/>
+      <c r="C69" s="169"/>
+      <c r="D69" s="169"/>
       <c r="E69" s="28"/>
       <c r="F69" s="21"/>
     </row>
@@ -5241,19 +5327,19 @@
     </row>
     <row r="78" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A78" s="21"/>
-      <c r="B78" s="169"/>
-      <c r="C78" s="169"/>
-      <c r="D78" s="169"/>
+      <c r="B78" s="173"/>
+      <c r="C78" s="173"/>
+      <c r="D78" s="173"/>
       <c r="E78" s="36"/>
       <c r="F78" s="21"/>
     </row>
     <row r="79" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="21"/>
-      <c r="B79" s="174" t="s">
+      <c r="B79" s="170" t="s">
         <v>17</v>
       </c>
-      <c r="C79" s="174"/>
-      <c r="D79" s="174"/>
+      <c r="C79" s="170"/>
+      <c r="D79" s="170"/>
       <c r="E79" s="36">
         <v>0</v>
       </c>
@@ -5261,9 +5347,9 @@
     </row>
     <row r="80" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A80" s="21"/>
-      <c r="B80" s="169"/>
-      <c r="C80" s="169"/>
-      <c r="D80" s="169"/>
+      <c r="B80" s="173"/>
+      <c r="C80" s="173"/>
+      <c r="D80" s="173"/>
       <c r="E80" s="36"/>
       <c r="F80" s="21"/>
     </row>
@@ -5298,31 +5384,31 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" s="21"/>
-      <c r="B84" s="172"/>
-      <c r="C84" s="172"/>
-      <c r="D84" s="172"/>
-      <c r="E84" s="172"/>
+      <c r="B84" s="167"/>
+      <c r="C84" s="167"/>
+      <c r="D84" s="167"/>
+      <c r="E84" s="167"/>
       <c r="F84" s="21"/>
     </row>
     <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A85" s="166" t="s">
+      <c r="A85" s="175" t="s">
         <v>28</v>
       </c>
-      <c r="B85" s="166"/>
-      <c r="C85" s="166"/>
-      <c r="D85" s="166"/>
-      <c r="E85" s="166"/>
-      <c r="F85" s="166"/>
+      <c r="B85" s="175"/>
+      <c r="C85" s="175"/>
+      <c r="D85" s="175"/>
+      <c r="E85" s="175"/>
+      <c r="F85" s="175"/>
     </row>
     <row r="86" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A86" s="175" t="s">
+      <c r="A86" s="171" t="s">
         <v>29</v>
       </c>
-      <c r="B86" s="175"/>
-      <c r="C86" s="175"/>
-      <c r="D86" s="175"/>
-      <c r="E86" s="175"/>
-      <c r="F86" s="175"/>
+      <c r="B86" s="171"/>
+      <c r="C86" s="171"/>
+      <c r="D86" s="171"/>
+      <c r="E86" s="171"/>
+      <c r="F86" s="171"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="21"/>
@@ -5334,26 +5420,26 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" s="21"/>
-      <c r="B88" s="173"/>
-      <c r="C88" s="173"/>
-      <c r="D88" s="173"/>
-      <c r="E88" s="173"/>
+      <c r="B88" s="168"/>
+      <c r="C88" s="168"/>
+      <c r="D88" s="168"/>
+      <c r="E88" s="168"/>
       <c r="F88" s="21"/>
     </row>
     <row r="89" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A89" s="165" t="s">
+      <c r="A89" s="174" t="s">
         <v>7</v>
       </c>
-      <c r="B89" s="165"/>
-      <c r="C89" s="165"/>
-      <c r="D89" s="165"/>
-      <c r="E89" s="165"/>
-      <c r="F89" s="165"/>
+      <c r="B89" s="174"/>
+      <c r="C89" s="174"/>
+      <c r="D89" s="174"/>
+      <c r="E89" s="174"/>
+      <c r="F89" s="174"/>
     </row>
     <row r="91" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B91" s="170"/>
-      <c r="C91" s="171"/>
-      <c r="D91" s="171"/>
+      <c r="B91" s="165"/>
+      <c r="C91" s="166"/>
+      <c r="D91" s="166"/>
     </row>
     <row r="92" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
@@ -5363,15 +5449,30 @@
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="B88:E88"/>
-    <mergeCell ref="A89:F89"/>
-    <mergeCell ref="B91:D91"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="B79:D79"/>
-    <mergeCell ref="B80:D80"/>
-    <mergeCell ref="B84:E84"/>
-    <mergeCell ref="A85:F85"/>
-    <mergeCell ref="A86:F86"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B54:D54"/>
     <mergeCell ref="B69:D69"/>
     <mergeCell ref="B56:D56"/>
     <mergeCell ref="B57:D57"/>
@@ -5384,30 +5485,15 @@
     <mergeCell ref="B64:D64"/>
     <mergeCell ref="B65:D65"/>
     <mergeCell ref="B68:D68"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B88:E88"/>
+    <mergeCell ref="A89:F89"/>
+    <mergeCell ref="B91:D91"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B79:D79"/>
+    <mergeCell ref="B80:D80"/>
+    <mergeCell ref="B84:E84"/>
+    <mergeCell ref="A85:F85"/>
+    <mergeCell ref="A86:F86"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B78:B80 B12:B20 B33:B69" xr:uid="{B85FCF49-C945-46D6-B449-B03438426302}">
@@ -6613,14 +6699,14 @@
       <c r="F87" s="50"/>
     </row>
     <row r="88" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A88" s="165" t="s">
+      <c r="A88" s="174" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="165"/>
-      <c r="C88" s="165"/>
-      <c r="D88" s="165"/>
-      <c r="E88" s="165"/>
-      <c r="F88" s="165"/>
+      <c r="B88" s="174"/>
+      <c r="C88" s="174"/>
+      <c r="D88" s="174"/>
+      <c r="E88" s="174"/>
+      <c r="F88" s="174"/>
     </row>
     <row r="89" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A89" s="62"/>
@@ -8330,6 +8416,829 @@
   </sheetPr>
   <dimension ref="A1:F88"/>
   <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F88"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.140625" customWidth="1"/>
+    <col min="2" max="2" width="120" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="54"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+    </row>
+    <row r="2" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="54"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+    </row>
+    <row r="3" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="54"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+    </row>
+    <row r="4" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="54"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+    </row>
+    <row r="5" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="54"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+    </row>
+    <row r="6" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="54"/>
+      <c r="B6" s="54"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="56"/>
+    </row>
+    <row r="7" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="54"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+    </row>
+    <row r="8" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="54"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="56"/>
+    </row>
+    <row r="9" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="54"/>
+      <c r="B9" s="54"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="56"/>
+    </row>
+    <row r="10" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="54"/>
+      <c r="B10" s="54"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="56"/>
+    </row>
+    <row r="11" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="54"/>
+      <c r="B11" s="54"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="56"/>
+    </row>
+    <row r="12" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="54"/>
+      <c r="B12" s="57"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+    </row>
+    <row r="13" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="54"/>
+      <c r="B13" s="57"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="56"/>
+    </row>
+    <row r="14" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="54"/>
+      <c r="B14" s="57"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+    </row>
+    <row r="15" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="54"/>
+      <c r="B15" s="57"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="56"/>
+      <c r="F15" s="56"/>
+    </row>
+    <row r="16" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="54"/>
+      <c r="B16" s="57"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="56"/>
+    </row>
+    <row r="17" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="54"/>
+      <c r="B17" s="57"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="56"/>
+      <c r="F17" s="56"/>
+    </row>
+    <row r="18" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="54"/>
+      <c r="B18" s="57"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
+    </row>
+    <row r="19" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="54"/>
+      <c r="B19" s="57"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="56"/>
+      <c r="F19" s="56"/>
+    </row>
+    <row r="20" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="54"/>
+      <c r="B20" s="57"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+    </row>
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="62"/>
+      <c r="B21" s="59" t="s">
+        <v>139</v>
+      </c>
+      <c r="C21" s="59"/>
+      <c r="D21" s="60"/>
+      <c r="E21" s="61"/>
+      <c r="F21" s="61"/>
+    </row>
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="62"/>
+      <c r="B22" s="62"/>
+      <c r="C22" s="62"/>
+      <c r="D22" s="60"/>
+      <c r="E22" s="61"/>
+      <c r="F22" s="61"/>
+    </row>
+    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="62"/>
+      <c r="B23" s="59" t="s">
+        <v>112</v>
+      </c>
+      <c r="C23" s="59"/>
+      <c r="D23" s="60"/>
+      <c r="E23" s="61"/>
+      <c r="F23" s="61"/>
+    </row>
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="62"/>
+      <c r="B24" s="59" t="s">
+        <v>113</v>
+      </c>
+      <c r="C24" s="62"/>
+      <c r="D24" s="60"/>
+      <c r="E24" s="61"/>
+      <c r="F24" s="61"/>
+    </row>
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="62"/>
+      <c r="B25" s="136" t="s">
+        <v>114</v>
+      </c>
+      <c r="C25" s="62"/>
+      <c r="D25" s="60"/>
+      <c r="E25" s="61"/>
+      <c r="F25" s="61"/>
+    </row>
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="62"/>
+      <c r="B26" s="136" t="s">
+        <v>126</v>
+      </c>
+      <c r="C26" s="62"/>
+      <c r="D26" s="60"/>
+      <c r="E26" s="61"/>
+      <c r="F26" s="61"/>
+    </row>
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="59"/>
+      <c r="B27" s="62"/>
+      <c r="C27" s="62"/>
+      <c r="D27" s="65"/>
+      <c r="E27" s="66"/>
+      <c r="F27" s="66"/>
+    </row>
+    <row r="28" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="62"/>
+      <c r="B28" s="59"/>
+      <c r="C28" s="59"/>
+      <c r="D28" s="66" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="67" t="s">
+        <v>140</v>
+      </c>
+      <c r="F28" s="67"/>
+    </row>
+    <row r="29" spans="1:6" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="137"/>
+      <c r="B29" s="137"/>
+      <c r="C29" s="137"/>
+      <c r="D29" s="138"/>
+      <c r="E29" s="139"/>
+      <c r="F29" s="139"/>
+    </row>
+    <row r="30" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="190" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="190"/>
+      <c r="C30" s="190"/>
+      <c r="D30" s="190"/>
+      <c r="E30" s="190"/>
+      <c r="F30" s="140"/>
+    </row>
+    <row r="31" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="141"/>
+      <c r="B31" s="141"/>
+      <c r="C31" s="141"/>
+      <c r="D31" s="141"/>
+      <c r="E31" s="141"/>
+      <c r="F31" s="141"/>
+    </row>
+    <row r="32" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="78"/>
+      <c r="B32" s="115" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="142"/>
+      <c r="D32" s="143"/>
+      <c r="E32" s="93"/>
+      <c r="F32" s="93"/>
+    </row>
+    <row r="33" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="78"/>
+      <c r="B33" s="78"/>
+      <c r="C33" s="78"/>
+      <c r="D33" s="143"/>
+      <c r="E33" s="93"/>
+      <c r="F33" s="93"/>
+    </row>
+    <row r="34" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="78"/>
+      <c r="B34" s="144" t="s">
+        <v>141</v>
+      </c>
+      <c r="C34" s="145"/>
+      <c r="D34" s="146"/>
+      <c r="E34" s="146"/>
+      <c r="F34" s="146"/>
+    </row>
+    <row r="35" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="78"/>
+      <c r="B35" s="144" t="s">
+        <v>128</v>
+      </c>
+      <c r="C35" s="147"/>
+      <c r="D35" s="146"/>
+      <c r="E35" s="146"/>
+      <c r="F35" s="146"/>
+    </row>
+    <row r="36" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="78"/>
+      <c r="B36" s="144" t="s">
+        <v>142</v>
+      </c>
+      <c r="C36" s="145"/>
+      <c r="D36" s="146"/>
+      <c r="E36" s="146"/>
+      <c r="F36" s="146"/>
+    </row>
+    <row r="37" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="78"/>
+      <c r="B37" s="144"/>
+      <c r="C37" s="145"/>
+      <c r="D37" s="146"/>
+      <c r="E37" s="146"/>
+      <c r="F37" s="146"/>
+    </row>
+    <row r="38" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="78"/>
+      <c r="B38" s="144"/>
+      <c r="C38" s="145"/>
+      <c r="D38" s="146"/>
+      <c r="E38" s="146"/>
+      <c r="F38" s="146"/>
+    </row>
+    <row r="39" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="78"/>
+      <c r="B39" s="144"/>
+      <c r="C39" s="145"/>
+      <c r="D39" s="146"/>
+      <c r="E39" s="146"/>
+      <c r="F39" s="146"/>
+    </row>
+    <row r="40" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="78"/>
+      <c r="B40" s="144"/>
+      <c r="C40" s="147"/>
+      <c r="D40" s="146"/>
+      <c r="E40" s="146"/>
+      <c r="F40" s="146"/>
+    </row>
+    <row r="41" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="78"/>
+      <c r="B41" s="144"/>
+      <c r="C41" s="145"/>
+      <c r="D41" s="146"/>
+      <c r="E41" s="146"/>
+      <c r="F41" s="146"/>
+    </row>
+    <row r="42" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="78"/>
+      <c r="B42" s="144"/>
+      <c r="C42" s="145"/>
+      <c r="D42" s="146"/>
+      <c r="E42" s="146"/>
+      <c r="F42" s="146"/>
+    </row>
+    <row r="43" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="78"/>
+      <c r="B43" s="144"/>
+      <c r="C43" s="145"/>
+      <c r="D43" s="146"/>
+      <c r="E43" s="146"/>
+      <c r="F43" s="146"/>
+    </row>
+    <row r="44" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="78"/>
+      <c r="B44" s="144"/>
+      <c r="C44" s="145"/>
+      <c r="D44" s="146"/>
+      <c r="E44" s="146"/>
+      <c r="F44" s="146"/>
+    </row>
+    <row r="45" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="78"/>
+      <c r="B45" s="144"/>
+      <c r="C45" s="145"/>
+      <c r="D45" s="146"/>
+      <c r="E45" s="146"/>
+      <c r="F45" s="146"/>
+    </row>
+    <row r="46" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="78"/>
+      <c r="B46" s="144"/>
+      <c r="C46" s="145"/>
+      <c r="D46" s="146"/>
+      <c r="E46" s="146"/>
+      <c r="F46" s="146"/>
+    </row>
+    <row r="47" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="78"/>
+      <c r="B47" s="144"/>
+      <c r="C47" s="145"/>
+      <c r="D47" s="146"/>
+      <c r="E47" s="146"/>
+      <c r="F47" s="146"/>
+    </row>
+    <row r="48" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="78"/>
+      <c r="B48" s="144"/>
+      <c r="C48" s="145"/>
+      <c r="D48" s="146"/>
+      <c r="E48" s="146"/>
+      <c r="F48" s="146"/>
+    </row>
+    <row r="49" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="78"/>
+      <c r="B49" s="144"/>
+      <c r="C49" s="145"/>
+      <c r="D49" s="146"/>
+      <c r="E49" s="146"/>
+      <c r="F49" s="146"/>
+    </row>
+    <row r="50" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="78"/>
+      <c r="B50" s="144"/>
+      <c r="C50" s="148"/>
+      <c r="D50" s="148"/>
+      <c r="E50" s="146"/>
+      <c r="F50" s="146"/>
+    </row>
+    <row r="51" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="78"/>
+      <c r="B51" s="144"/>
+      <c r="C51" s="145"/>
+      <c r="D51" s="146"/>
+      <c r="E51" s="146"/>
+      <c r="F51" s="146"/>
+    </row>
+    <row r="52" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="78"/>
+      <c r="B52" s="144"/>
+      <c r="C52" s="145"/>
+      <c r="D52" s="146"/>
+      <c r="E52" s="146"/>
+      <c r="F52" s="146"/>
+    </row>
+    <row r="53" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="78"/>
+      <c r="B53" s="144"/>
+      <c r="C53" s="145"/>
+      <c r="D53" s="146"/>
+      <c r="E53" s="146"/>
+      <c r="F53" s="146"/>
+    </row>
+    <row r="54" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="78"/>
+      <c r="B54" s="144"/>
+      <c r="C54" s="145"/>
+      <c r="D54" s="146"/>
+      <c r="E54" s="146"/>
+      <c r="F54" s="146"/>
+    </row>
+    <row r="55" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="78"/>
+      <c r="B55" s="144"/>
+      <c r="C55" s="145"/>
+      <c r="D55" s="146"/>
+      <c r="E55" s="146"/>
+      <c r="F55" s="146"/>
+    </row>
+    <row r="56" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="78"/>
+      <c r="B56" s="144"/>
+      <c r="C56" s="145"/>
+      <c r="D56" s="146"/>
+      <c r="E56" s="146"/>
+      <c r="F56" s="146"/>
+    </row>
+    <row r="57" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="78"/>
+      <c r="B57" s="144"/>
+      <c r="C57" s="145"/>
+      <c r="D57" s="146"/>
+      <c r="E57" s="146"/>
+      <c r="F57" s="146"/>
+    </row>
+    <row r="58" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="78"/>
+      <c r="B58" s="144"/>
+      <c r="C58" s="145"/>
+      <c r="D58" s="146"/>
+      <c r="E58" s="146"/>
+      <c r="F58" s="146"/>
+    </row>
+    <row r="59" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="78"/>
+      <c r="B59" s="144"/>
+      <c r="C59" s="145"/>
+      <c r="D59" s="146"/>
+      <c r="E59" s="146"/>
+      <c r="F59" s="146"/>
+    </row>
+    <row r="60" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="78"/>
+      <c r="B60" s="144"/>
+      <c r="C60" s="145"/>
+      <c r="D60" s="146"/>
+      <c r="E60" s="146"/>
+      <c r="F60" s="146"/>
+    </row>
+    <row r="61" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="78"/>
+      <c r="B61" s="144"/>
+      <c r="C61" s="145"/>
+      <c r="D61" s="146"/>
+      <c r="E61" s="146"/>
+      <c r="F61" s="146"/>
+    </row>
+    <row r="62" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="78"/>
+      <c r="B62" s="144"/>
+      <c r="C62" s="145"/>
+      <c r="D62" s="146"/>
+      <c r="E62" s="146"/>
+      <c r="F62" s="146"/>
+    </row>
+    <row r="63" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="78"/>
+      <c r="B63" s="149"/>
+      <c r="C63" s="150"/>
+      <c r="D63" s="151"/>
+      <c r="E63" s="146"/>
+      <c r="F63" s="146"/>
+    </row>
+    <row r="64" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="78"/>
+      <c r="B64" s="144"/>
+      <c r="C64" s="92"/>
+      <c r="D64" s="93"/>
+      <c r="E64" s="146"/>
+      <c r="F64" s="146"/>
+    </row>
+    <row r="65" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="78"/>
+      <c r="B65" s="144"/>
+      <c r="C65" s="154" t="s">
+        <v>36</v>
+      </c>
+      <c r="D65" s="155" t="s">
+        <v>37</v>
+      </c>
+      <c r="E65" s="146"/>
+      <c r="F65" s="146"/>
+    </row>
+    <row r="66" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="78"/>
+      <c r="B66" s="144"/>
+      <c r="C66" s="152">
+        <v>5.75</v>
+      </c>
+      <c r="D66" s="153">
+        <v>350</v>
+      </c>
+      <c r="E66" s="157"/>
+      <c r="F66" s="157"/>
+    </row>
+    <row r="67" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="78"/>
+      <c r="B67" s="149"/>
+      <c r="C67" s="152"/>
+      <c r="D67" s="153"/>
+      <c r="E67" s="146"/>
+      <c r="F67" s="146"/>
+    </row>
+    <row r="68" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="78"/>
+      <c r="B68" s="149"/>
+      <c r="C68" s="160"/>
+      <c r="D68" s="160"/>
+      <c r="E68" s="160"/>
+      <c r="F68" s="78"/>
+    </row>
+    <row r="69" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="62"/>
+      <c r="B69" s="102" t="s">
+        <v>14</v>
+      </c>
+      <c r="C69" s="102"/>
+      <c r="D69" s="60"/>
+      <c r="E69" s="103">
+        <v>2012.5</v>
+      </c>
+      <c r="F69" s="103"/>
+    </row>
+    <row r="70" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="62"/>
+      <c r="B70" s="105" t="s">
+        <v>12</v>
+      </c>
+      <c r="C70" s="106"/>
+      <c r="D70" s="60"/>
+      <c r="E70" s="107">
+        <v>0</v>
+      </c>
+      <c r="F70" s="107"/>
+    </row>
+    <row r="71" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="62"/>
+      <c r="B71" s="161" t="s">
+        <v>123</v>
+      </c>
+      <c r="C71" s="106"/>
+      <c r="D71" s="60"/>
+      <c r="E71" s="107">
+        <v>0</v>
+      </c>
+      <c r="F71" s="107"/>
+    </row>
+    <row r="72" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="62"/>
+      <c r="B72" s="161" t="s">
+        <v>124</v>
+      </c>
+      <c r="C72" s="106"/>
+      <c r="D72" s="60"/>
+      <c r="E72" s="107">
+        <v>0</v>
+      </c>
+      <c r="F72" s="107"/>
+    </row>
+    <row r="73" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="62"/>
+      <c r="B73" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C73" s="102"/>
+      <c r="D73" s="60"/>
+      <c r="E73" s="109">
+        <v>2012.5</v>
+      </c>
+      <c r="F73" s="109"/>
+    </row>
+    <row r="74" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="62"/>
+      <c r="B74" s="106" t="s">
+        <v>5</v>
+      </c>
+      <c r="C74" s="110">
+        <v>0.05</v>
+      </c>
+      <c r="D74" s="106"/>
+      <c r="E74" s="111">
+        <v>100.63</v>
+      </c>
+      <c r="F74" s="111"/>
+    </row>
+    <row r="75" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="62"/>
+      <c r="B75" s="112" t="s">
+        <v>4</v>
+      </c>
+      <c r="C75" s="113">
+        <v>9.9750000000000005E-2</v>
+      </c>
+      <c r="D75" s="106"/>
+      <c r="E75" s="114">
+        <v>200.75</v>
+      </c>
+      <c r="F75" s="111"/>
+    </row>
+    <row r="76" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="62"/>
+      <c r="B76" s="115"/>
+      <c r="C76" s="62"/>
+      <c r="D76" s="60"/>
+      <c r="E76" s="61"/>
+      <c r="F76" s="61"/>
+    </row>
+    <row r="77" spans="1:6" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="62"/>
+      <c r="B77" s="117" t="s">
+        <v>15</v>
+      </c>
+      <c r="C77" s="102"/>
+      <c r="D77" s="118"/>
+      <c r="E77" s="119">
+        <v>2313.88</v>
+      </c>
+      <c r="F77" s="120"/>
+    </row>
+    <row r="78" spans="1:6" ht="15.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="62"/>
+      <c r="B78" s="112"/>
+      <c r="C78" s="112"/>
+      <c r="D78" s="112"/>
+      <c r="E78" s="121"/>
+      <c r="F78" s="112"/>
+    </row>
+    <row r="79" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="62"/>
+      <c r="B79" s="115" t="s">
+        <v>17</v>
+      </c>
+      <c r="C79" s="112"/>
+      <c r="D79" s="60"/>
+      <c r="E79" s="61">
+        <v>0</v>
+      </c>
+      <c r="F79" s="61"/>
+    </row>
+    <row r="80" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="62"/>
+      <c r="B80" s="102"/>
+      <c r="C80" s="112"/>
+      <c r="D80" s="112"/>
+      <c r="E80" s="121"/>
+      <c r="F80" s="112"/>
+    </row>
+    <row r="81" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="62"/>
+      <c r="B81" s="191" t="s">
+        <v>16</v>
+      </c>
+      <c r="C81" s="192"/>
+      <c r="D81" s="162"/>
+      <c r="E81" s="163">
+        <v>2313.88</v>
+      </c>
+      <c r="F81" s="61"/>
+    </row>
+    <row r="82" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="62"/>
+      <c r="B82" s="62"/>
+      <c r="C82" s="62"/>
+      <c r="D82" s="60"/>
+      <c r="E82" s="61"/>
+      <c r="F82" s="61"/>
+    </row>
+    <row r="83" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="130"/>
+      <c r="B83" s="182"/>
+      <c r="C83" s="183"/>
+      <c r="D83" s="183"/>
+      <c r="E83" s="183"/>
+      <c r="F83" s="164"/>
+    </row>
+    <row r="84" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="185" t="s">
+        <v>28</v>
+      </c>
+      <c r="B84" s="185"/>
+      <c r="C84" s="185"/>
+      <c r="D84" s="185"/>
+      <c r="E84" s="185"/>
+      <c r="F84" s="115"/>
+    </row>
+    <row r="85" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="187" t="s">
+        <v>29</v>
+      </c>
+      <c r="B85" s="187"/>
+      <c r="C85" s="187"/>
+      <c r="D85" s="187"/>
+      <c r="E85" s="187"/>
+      <c r="F85" s="46"/>
+    </row>
+    <row r="86" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="132"/>
+      <c r="B86" s="132"/>
+      <c r="C86" s="132"/>
+      <c r="D86" s="132"/>
+      <c r="E86" s="132"/>
+      <c r="F86" s="46"/>
+    </row>
+    <row r="87" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="132"/>
+      <c r="B87" s="132"/>
+      <c r="C87" s="132"/>
+      <c r="D87" s="132"/>
+      <c r="E87" s="132"/>
+      <c r="F87" s="46"/>
+    </row>
+    <row r="88" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="189" t="s">
+        <v>7</v>
+      </c>
+      <c r="B88" s="189"/>
+      <c r="C88" s="189"/>
+      <c r="D88" s="189"/>
+      <c r="E88" s="189"/>
+      <c r="F88" s="189"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A88:F88"/>
+    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B83:E83"/>
+    <mergeCell ref="A84:E84"/>
+    <mergeCell ref="A85:E85"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="119" scale="63" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01D844AC-9F83-4DB2-8819-4C2DBC204F58}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:F88"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:F88"/>
     </sheetView>
@@ -8507,7 +9416,7 @@
     <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="62"/>
       <c r="B21" s="59" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="C21" s="59"/>
       <c r="D21" s="60"/>
@@ -8534,7 +9443,7 @@
     </row>
     <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="62"/>
-      <c r="B24" s="59" t="s">
+      <c r="B24" s="63" t="s">
         <v>113</v>
       </c>
       <c r="C24" s="62"/>
@@ -8544,7 +9453,7 @@
     </row>
     <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="62"/>
-      <c r="B25" s="136" t="s">
+      <c r="B25" s="62" t="s">
         <v>114</v>
       </c>
       <c r="C25" s="62"/>
@@ -8554,7 +9463,7 @@
     </row>
     <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="62"/>
-      <c r="B26" s="136" t="s">
+      <c r="B26" s="62" t="s">
         <v>126</v>
       </c>
       <c r="C26" s="62"/>
@@ -8578,7 +9487,7 @@
         <v>11</v>
       </c>
       <c r="E28" s="67" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="F28" s="67"/>
     </row>
@@ -8629,7 +9538,7 @@
     <row r="34" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="78"/>
       <c r="B34" s="144" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="C34" s="145"/>
       <c r="D34" s="146"/>
@@ -8649,7 +9558,7 @@
     <row r="36" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="78"/>
       <c r="B36" s="144" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="C36" s="145"/>
       <c r="D36" s="146"/>
@@ -8658,7 +9567,9 @@
     </row>
     <row r="37" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="78"/>
-      <c r="B37" s="144"/>
+      <c r="B37" s="144" t="s">
+        <v>128</v>
+      </c>
       <c r="C37" s="145"/>
       <c r="D37" s="146"/>
       <c r="E37" s="146"/>
@@ -8666,7 +9577,9 @@
     </row>
     <row r="38" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="78"/>
-      <c r="B38" s="144"/>
+      <c r="B38" s="144" t="s">
+        <v>38</v>
+      </c>
       <c r="C38" s="145"/>
       <c r="D38" s="146"/>
       <c r="E38" s="146"/>
@@ -8674,7 +9587,9 @@
     </row>
     <row r="39" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="78"/>
-      <c r="B39" s="144"/>
+      <c r="B39" s="144" t="s">
+        <v>128</v>
+      </c>
       <c r="C39" s="145"/>
       <c r="D39" s="146"/>
       <c r="E39" s="146"/>
@@ -8682,7 +9597,9 @@
     </row>
     <row r="40" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="78"/>
-      <c r="B40" s="144"/>
+      <c r="B40" s="144" t="s">
+        <v>147</v>
+      </c>
       <c r="C40" s="147"/>
       <c r="D40" s="146"/>
       <c r="E40" s="146"/>
@@ -8690,7 +9607,9 @@
     </row>
     <row r="41" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="78"/>
-      <c r="B41" s="144"/>
+      <c r="B41" s="144" t="s">
+        <v>128</v>
+      </c>
       <c r="C41" s="145"/>
       <c r="D41" s="146"/>
       <c r="E41" s="146"/>
@@ -8698,7 +9617,9 @@
     </row>
     <row r="42" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="78"/>
-      <c r="B42" s="144"/>
+      <c r="B42" s="144" t="s">
+        <v>2</v>
+      </c>
       <c r="C42" s="145"/>
       <c r="D42" s="146"/>
       <c r="E42" s="146"/>
@@ -8706,7 +9627,9 @@
     </row>
     <row r="43" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="78"/>
-      <c r="B43" s="144"/>
+      <c r="B43" s="144" t="s">
+        <v>128</v>
+      </c>
       <c r="C43" s="145"/>
       <c r="D43" s="146"/>
       <c r="E43" s="146"/>
@@ -8714,7 +9637,9 @@
     </row>
     <row r="44" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="78"/>
-      <c r="B44" s="144"/>
+      <c r="B44" s="144" t="s">
+        <v>148</v>
+      </c>
       <c r="C44" s="145"/>
       <c r="D44" s="146"/>
       <c r="E44" s="146"/>
@@ -8874,7 +9799,7 @@
     </row>
     <row r="64" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="78"/>
-      <c r="B64" s="144"/>
+      <c r="B64" s="149"/>
       <c r="C64" s="92"/>
       <c r="D64" s="93"/>
       <c r="E64" s="146"/>
@@ -8896,10 +9821,10 @@
       <c r="A66" s="78"/>
       <c r="B66" s="144"/>
       <c r="C66" s="152">
-        <v>5.75</v>
+        <v>10.5</v>
       </c>
       <c r="D66" s="153">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="E66" s="157"/>
       <c r="F66" s="157"/>
@@ -8928,7 +9853,7 @@
       <c r="C69" s="102"/>
       <c r="D69" s="60"/>
       <c r="E69" s="103">
-        <v>2012.5</v>
+        <v>4200</v>
       </c>
       <c r="F69" s="103"/>
     </row>
@@ -8976,7 +9901,7 @@
       <c r="C73" s="102"/>
       <c r="D73" s="60"/>
       <c r="E73" s="109">
-        <v>2012.5</v>
+        <v>4200</v>
       </c>
       <c r="F73" s="109"/>
     </row>
@@ -8990,7 +9915,7 @@
       </c>
       <c r="D74" s="106"/>
       <c r="E74" s="111">
-        <v>100.63</v>
+        <v>210</v>
       </c>
       <c r="F74" s="111"/>
     </row>
@@ -9004,7 +9929,7 @@
       </c>
       <c r="D75" s="106"/>
       <c r="E75" s="114">
-        <v>200.75</v>
+        <v>418.95</v>
       </c>
       <c r="F75" s="111"/>
     </row>
@@ -9024,7 +9949,7 @@
       <c r="C77" s="102"/>
       <c r="D77" s="118"/>
       <c r="E77" s="119">
-        <v>2313.88</v>
+        <v>4828.95</v>
       </c>
       <c r="F77" s="120"/>
     </row>
@@ -9064,7 +9989,7 @@
       <c r="C81" s="192"/>
       <c r="D81" s="162"/>
       <c r="E81" s="163">
-        <v>2313.88</v>
+        <v>4828.95</v>
       </c>
       <c r="F81" s="61"/>
     </row>
@@ -9289,14 +10214,14 @@
       <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="168" t="s">
+      <c r="A30" s="172" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="168"/>
-      <c r="C30" s="168"/>
-      <c r="D30" s="168"/>
-      <c r="E30" s="168"/>
-      <c r="F30" s="168"/>
+      <c r="B30" s="172"/>
+      <c r="C30" s="172"/>
+      <c r="D30" s="172"/>
+      <c r="E30" s="172"/>
+      <c r="F30" s="172"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="17"/>
@@ -9317,269 +10242,269 @@
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
-      <c r="B33" s="167"/>
-      <c r="C33" s="167"/>
-      <c r="D33" s="167"/>
+      <c r="B33" s="169"/>
+      <c r="C33" s="169"/>
+      <c r="D33" s="169"/>
       <c r="E33" s="28"/>
       <c r="F33" s="21"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="21"/>
-      <c r="B34" s="167" t="s">
+      <c r="B34" s="169" t="s">
         <v>64</v>
       </c>
-      <c r="C34" s="167"/>
-      <c r="D34" s="167"/>
+      <c r="C34" s="169"/>
+      <c r="D34" s="169"/>
       <c r="E34" s="28"/>
       <c r="F34" s="21"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
-      <c r="B35" s="167"/>
-      <c r="C35" s="167"/>
-      <c r="D35" s="167"/>
+      <c r="B35" s="169"/>
+      <c r="C35" s="169"/>
+      <c r="D35" s="169"/>
       <c r="E35" s="28"/>
       <c r="F35" s="21"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="21"/>
-      <c r="B36" s="167" t="s">
+      <c r="B36" s="169" t="s">
         <v>34</v>
       </c>
-      <c r="C36" s="167"/>
-      <c r="D36" s="167"/>
+      <c r="C36" s="169"/>
+      <c r="D36" s="169"/>
       <c r="E36" s="28"/>
       <c r="F36" s="21"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
-      <c r="B37" s="167"/>
-      <c r="C37" s="167"/>
-      <c r="D37" s="167"/>
+      <c r="B37" s="169"/>
+      <c r="C37" s="169"/>
+      <c r="D37" s="169"/>
       <c r="E37" s="28"/>
       <c r="F37" s="21"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="21"/>
-      <c r="B38" s="167" t="s">
+      <c r="B38" s="169" t="s">
         <v>38</v>
       </c>
-      <c r="C38" s="167"/>
-      <c r="D38" s="167"/>
+      <c r="C38" s="169"/>
+      <c r="D38" s="169"/>
       <c r="E38" s="28"/>
       <c r="F38" s="21"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="21"/>
-      <c r="B39" s="167"/>
-      <c r="C39" s="167"/>
-      <c r="D39" s="167"/>
+      <c r="B39" s="169"/>
+      <c r="C39" s="169"/>
+      <c r="D39" s="169"/>
       <c r="E39" s="28"/>
       <c r="F39" s="21"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="21"/>
-      <c r="B40" s="167" t="s">
+      <c r="B40" s="169" t="s">
         <v>67</v>
       </c>
-      <c r="C40" s="167"/>
-      <c r="D40" s="167"/>
+      <c r="C40" s="169"/>
+      <c r="D40" s="169"/>
       <c r="E40" s="28"/>
       <c r="F40" s="21"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="21"/>
-      <c r="B41" s="167"/>
-      <c r="C41" s="167"/>
-      <c r="D41" s="167"/>
+      <c r="B41" s="169"/>
+      <c r="C41" s="169"/>
+      <c r="D41" s="169"/>
       <c r="E41" s="28"/>
       <c r="F41" s="21"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="21"/>
-      <c r="B42" s="167" t="s">
+      <c r="B42" s="169" t="s">
         <v>65</v>
       </c>
-      <c r="C42" s="167"/>
-      <c r="D42" s="167"/>
+      <c r="C42" s="169"/>
+      <c r="D42" s="169"/>
       <c r="E42" s="28"/>
       <c r="F42" s="21"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="21"/>
-      <c r="B43" s="167"/>
-      <c r="C43" s="167"/>
-      <c r="D43" s="167"/>
+      <c r="B43" s="169"/>
+      <c r="C43" s="169"/>
+      <c r="D43" s="169"/>
       <c r="E43" s="28"/>
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
-      <c r="B44" s="167" t="s">
+      <c r="B44" s="169" t="s">
         <v>66</v>
       </c>
-      <c r="C44" s="167"/>
-      <c r="D44" s="167"/>
+      <c r="C44" s="169"/>
+      <c r="D44" s="169"/>
       <c r="E44" s="28"/>
       <c r="F44" s="21"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="21"/>
-      <c r="B45" s="167"/>
-      <c r="C45" s="167"/>
-      <c r="D45" s="167"/>
+      <c r="B45" s="169"/>
+      <c r="C45" s="169"/>
+      <c r="D45" s="169"/>
       <c r="E45" s="28"/>
       <c r="F45" s="21"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="21"/>
-      <c r="B46" s="167"/>
-      <c r="C46" s="167"/>
-      <c r="D46" s="167"/>
+      <c r="B46" s="169"/>
+      <c r="C46" s="169"/>
+      <c r="D46" s="169"/>
       <c r="E46" s="28"/>
       <c r="F46" s="21"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="21"/>
-      <c r="B47" s="167"/>
-      <c r="C47" s="167"/>
-      <c r="D47" s="167"/>
+      <c r="B47" s="169"/>
+      <c r="C47" s="169"/>
+      <c r="D47" s="169"/>
       <c r="E47" s="28"/>
       <c r="F47" s="21"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="21"/>
-      <c r="B48" s="167"/>
-      <c r="C48" s="167"/>
-      <c r="D48" s="167"/>
+      <c r="B48" s="169"/>
+      <c r="C48" s="169"/>
+      <c r="D48" s="169"/>
       <c r="E48" s="28"/>
       <c r="F48" s="21"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="21"/>
-      <c r="B49" s="167"/>
-      <c r="C49" s="167"/>
-      <c r="D49" s="167"/>
+      <c r="B49" s="169"/>
+      <c r="C49" s="169"/>
+      <c r="D49" s="169"/>
       <c r="E49" s="28"/>
       <c r="F49" s="21"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="21"/>
-      <c r="B50" s="167"/>
-      <c r="C50" s="167"/>
-      <c r="D50" s="167"/>
+      <c r="B50" s="169"/>
+      <c r="C50" s="169"/>
+      <c r="D50" s="169"/>
       <c r="E50" s="28"/>
       <c r="F50" s="21"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="21"/>
-      <c r="B51" s="167"/>
-      <c r="C51" s="167"/>
-      <c r="D51" s="167"/>
+      <c r="B51" s="169"/>
+      <c r="C51" s="169"/>
+      <c r="D51" s="169"/>
       <c r="E51" s="28"/>
       <c r="F51" s="21"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="21"/>
-      <c r="B52" s="167"/>
-      <c r="C52" s="167"/>
-      <c r="D52" s="167"/>
+      <c r="B52" s="169"/>
+      <c r="C52" s="169"/>
+      <c r="D52" s="169"/>
       <c r="E52" s="28"/>
       <c r="F52" s="21"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="21"/>
-      <c r="B53" s="167"/>
-      <c r="C53" s="167"/>
-      <c r="D53" s="167"/>
+      <c r="B53" s="169"/>
+      <c r="C53" s="169"/>
+      <c r="D53" s="169"/>
       <c r="E53" s="28"/>
       <c r="F53" s="21"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="21"/>
-      <c r="B54" s="167"/>
-      <c r="C54" s="167"/>
-      <c r="D54" s="167"/>
+      <c r="B54" s="169"/>
+      <c r="C54" s="169"/>
+      <c r="D54" s="169"/>
       <c r="E54" s="28"/>
       <c r="F54" s="21"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="21"/>
-      <c r="B55" s="167"/>
-      <c r="C55" s="167"/>
-      <c r="D55" s="167"/>
+      <c r="B55" s="169"/>
+      <c r="C55" s="169"/>
+      <c r="D55" s="169"/>
       <c r="E55" s="28"/>
       <c r="F55" s="21"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="21"/>
-      <c r="B56" s="167"/>
-      <c r="C56" s="167"/>
-      <c r="D56" s="167"/>
+      <c r="B56" s="169"/>
+      <c r="C56" s="169"/>
+      <c r="D56" s="169"/>
       <c r="E56" s="28"/>
       <c r="F56" s="21"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="21"/>
-      <c r="B57" s="167"/>
-      <c r="C57" s="167"/>
-      <c r="D57" s="167"/>
+      <c r="B57" s="169"/>
+      <c r="C57" s="169"/>
+      <c r="D57" s="169"/>
       <c r="E57" s="28"/>
       <c r="F57" s="21"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="21"/>
-      <c r="B58" s="167"/>
-      <c r="C58" s="167"/>
-      <c r="D58" s="167"/>
+      <c r="B58" s="169"/>
+      <c r="C58" s="169"/>
+      <c r="D58" s="169"/>
       <c r="E58" s="28"/>
       <c r="F58" s="21"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="21"/>
-      <c r="B59" s="167"/>
-      <c r="C59" s="167"/>
-      <c r="D59" s="167"/>
+      <c r="B59" s="169"/>
+      <c r="C59" s="169"/>
+      <c r="D59" s="169"/>
       <c r="E59" s="28"/>
       <c r="F59" s="21"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="21"/>
-      <c r="B60" s="167"/>
-      <c r="C60" s="167"/>
-      <c r="D60" s="167"/>
+      <c r="B60" s="169"/>
+      <c r="C60" s="169"/>
+      <c r="D60" s="169"/>
       <c r="E60" s="28"/>
       <c r="F60" s="21"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="21"/>
-      <c r="B61" s="167"/>
-      <c r="C61" s="167"/>
-      <c r="D61" s="167"/>
+      <c r="B61" s="169"/>
+      <c r="C61" s="169"/>
+      <c r="D61" s="169"/>
       <c r="E61" s="28"/>
       <c r="F61" s="21"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="21"/>
-      <c r="B62" s="167"/>
-      <c r="C62" s="167"/>
-      <c r="D62" s="167"/>
+      <c r="B62" s="169"/>
+      <c r="C62" s="169"/>
+      <c r="D62" s="169"/>
       <c r="E62" s="28"/>
       <c r="F62" s="21"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="21"/>
-      <c r="B63" s="167"/>
-      <c r="C63" s="167"/>
-      <c r="D63" s="167"/>
+      <c r="B63" s="169"/>
+      <c r="C63" s="169"/>
+      <c r="D63" s="169"/>
       <c r="E63" s="28"/>
       <c r="F63" s="21"/>
     </row>
     <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A64" s="21"/>
-      <c r="B64" s="167"/>
-      <c r="C64" s="167"/>
-      <c r="D64" s="167"/>
+      <c r="B64" s="169"/>
+      <c r="C64" s="169"/>
+      <c r="D64" s="169"/>
       <c r="E64" s="28"/>
       <c r="F64" s="21"/>
     </row>
@@ -9609,17 +10534,17 @@
     </row>
     <row r="67" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A67" s="21"/>
-      <c r="B67" s="167"/>
-      <c r="C67" s="167"/>
-      <c r="D67" s="167"/>
+      <c r="B67" s="169"/>
+      <c r="C67" s="169"/>
+      <c r="D67" s="169"/>
       <c r="E67" s="28"/>
       <c r="F67" s="21"/>
     </row>
     <row r="68" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="21"/>
-      <c r="B68" s="167"/>
-      <c r="C68" s="167"/>
-      <c r="D68" s="167"/>
+      <c r="B68" s="169"/>
+      <c r="C68" s="169"/>
+      <c r="D68" s="169"/>
       <c r="E68" s="28"/>
       <c r="F68" s="21"/>
     </row>
@@ -9726,19 +10651,19 @@
     </row>
     <row r="77" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A77" s="21"/>
-      <c r="B77" s="169"/>
-      <c r="C77" s="169"/>
-      <c r="D77" s="169"/>
+      <c r="B77" s="173"/>
+      <c r="C77" s="173"/>
+      <c r="D77" s="173"/>
       <c r="E77" s="36"/>
       <c r="F77" s="21"/>
     </row>
     <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="21"/>
-      <c r="B78" s="174" t="s">
+      <c r="B78" s="170" t="s">
         <v>17</v>
       </c>
-      <c r="C78" s="174"/>
-      <c r="D78" s="174"/>
+      <c r="C78" s="170"/>
+      <c r="D78" s="170"/>
       <c r="E78" s="36">
         <v>0</v>
       </c>
@@ -9746,9 +10671,9 @@
     </row>
     <row r="79" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="21"/>
-      <c r="B79" s="169"/>
-      <c r="C79" s="169"/>
-      <c r="D79" s="169"/>
+      <c r="B79" s="173"/>
+      <c r="C79" s="173"/>
+      <c r="D79" s="173"/>
       <c r="E79" s="36"/>
       <c r="F79" s="21"/>
     </row>
@@ -9783,31 +10708,31 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="21"/>
-      <c r="B83" s="172"/>
-      <c r="C83" s="172"/>
-      <c r="D83" s="172"/>
-      <c r="E83" s="172"/>
+      <c r="B83" s="167"/>
+      <c r="C83" s="167"/>
+      <c r="D83" s="167"/>
+      <c r="E83" s="167"/>
       <c r="F83" s="21"/>
     </row>
     <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="166" t="s">
+      <c r="A84" s="175" t="s">
         <v>28</v>
       </c>
-      <c r="B84" s="166"/>
-      <c r="C84" s="166"/>
-      <c r="D84" s="166"/>
-      <c r="E84" s="166"/>
-      <c r="F84" s="166"/>
+      <c r="B84" s="175"/>
+      <c r="C84" s="175"/>
+      <c r="D84" s="175"/>
+      <c r="E84" s="175"/>
+      <c r="F84" s="175"/>
     </row>
     <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A85" s="175" t="s">
+      <c r="A85" s="171" t="s">
         <v>29</v>
       </c>
-      <c r="B85" s="175"/>
-      <c r="C85" s="175"/>
-      <c r="D85" s="175"/>
-      <c r="E85" s="175"/>
-      <c r="F85" s="175"/>
+      <c r="B85" s="171"/>
+      <c r="C85" s="171"/>
+      <c r="D85" s="171"/>
+      <c r="E85" s="171"/>
+      <c r="F85" s="171"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="21"/>
@@ -9819,26 +10744,26 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="21"/>
-      <c r="B87" s="173"/>
-      <c r="C87" s="173"/>
-      <c r="D87" s="173"/>
-      <c r="E87" s="173"/>
+      <c r="B87" s="168"/>
+      <c r="C87" s="168"/>
+      <c r="D87" s="168"/>
+      <c r="E87" s="168"/>
       <c r="F87" s="21"/>
     </row>
     <row r="88" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A88" s="165" t="s">
+      <c r="A88" s="174" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="165"/>
-      <c r="C88" s="165"/>
-      <c r="D88" s="165"/>
-      <c r="E88" s="165"/>
-      <c r="F88" s="165"/>
+      <c r="B88" s="174"/>
+      <c r="C88" s="174"/>
+      <c r="D88" s="174"/>
+      <c r="E88" s="174"/>
+      <c r="F88" s="174"/>
     </row>
     <row r="90" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="170"/>
-      <c r="C90" s="171"/>
-      <c r="D90" s="171"/>
+      <c r="B90" s="165"/>
+      <c r="C90" s="166"/>
+      <c r="D90" s="166"/>
     </row>
     <row r="91" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
@@ -9848,18 +10773,26 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="A88:F88"/>
+    <mergeCell ref="B90:D90"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B79:D79"/>
+    <mergeCell ref="B83:E83"/>
+    <mergeCell ref="A84:F84"/>
+    <mergeCell ref="A85:F85"/>
+    <mergeCell ref="B87:E87"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="B68:D68"/>
     <mergeCell ref="B55:D55"/>
     <mergeCell ref="B40:D40"/>
     <mergeCell ref="B45:D45"/>
@@ -9872,26 +10805,18 @@
     <mergeCell ref="B52:D52"/>
     <mergeCell ref="B53:D53"/>
     <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="A88:F88"/>
-    <mergeCell ref="B90:D90"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="B79:D79"/>
-    <mergeCell ref="B83:E83"/>
-    <mergeCell ref="A84:F84"/>
-    <mergeCell ref="A85:F85"/>
-    <mergeCell ref="B87:E87"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B36:D36"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B77:B79 B12:B20 B45:B68 B33:B44" xr:uid="{07B1890D-F45C-4D74-BFDA-1FFF72BC1EC7}">
@@ -10049,14 +10974,14 @@
       <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="168" t="s">
+      <c r="A30" s="172" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="168"/>
-      <c r="C30" s="168"/>
-      <c r="D30" s="168"/>
-      <c r="E30" s="168"/>
-      <c r="F30" s="168"/>
+      <c r="B30" s="172"/>
+      <c r="C30" s="172"/>
+      <c r="D30" s="172"/>
+      <c r="E30" s="172"/>
+      <c r="F30" s="172"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="17"/>
@@ -10077,265 +11002,265 @@
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
-      <c r="B33" s="167"/>
-      <c r="C33" s="167"/>
-      <c r="D33" s="167"/>
+      <c r="B33" s="169"/>
+      <c r="C33" s="169"/>
+      <c r="D33" s="169"/>
       <c r="E33" s="28"/>
       <c r="F33" s="21"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="21"/>
-      <c r="B34" s="167" t="s">
+      <c r="B34" s="169" t="s">
         <v>9</v>
       </c>
-      <c r="C34" s="167"/>
-      <c r="D34" s="167"/>
+      <c r="C34" s="169"/>
+      <c r="D34" s="169"/>
       <c r="E34" s="28"/>
       <c r="F34" s="21"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
-      <c r="B35" s="167"/>
-      <c r="C35" s="167"/>
-      <c r="D35" s="167"/>
+      <c r="B35" s="169"/>
+      <c r="C35" s="169"/>
+      <c r="D35" s="169"/>
       <c r="E35" s="28"/>
       <c r="F35" s="21"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="21"/>
-      <c r="B36" s="167" t="s">
+      <c r="B36" s="169" t="s">
         <v>70</v>
       </c>
-      <c r="C36" s="167"/>
-      <c r="D36" s="167"/>
+      <c r="C36" s="169"/>
+      <c r="D36" s="169"/>
       <c r="E36" s="28"/>
       <c r="F36" s="21"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
-      <c r="B37" s="167"/>
-      <c r="C37" s="167"/>
-      <c r="D37" s="167"/>
+      <c r="B37" s="169"/>
+      <c r="C37" s="169"/>
+      <c r="D37" s="169"/>
       <c r="E37" s="28"/>
       <c r="F37" s="21"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="21"/>
-      <c r="B38" s="167" t="s">
+      <c r="B38" s="169" t="s">
         <v>38</v>
       </c>
-      <c r="C38" s="167"/>
-      <c r="D38" s="167"/>
+      <c r="C38" s="169"/>
+      <c r="D38" s="169"/>
       <c r="E38" s="28"/>
       <c r="F38" s="21"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="21"/>
-      <c r="B39" s="167"/>
-      <c r="C39" s="167"/>
-      <c r="D39" s="167"/>
+      <c r="B39" s="169"/>
+      <c r="C39" s="169"/>
+      <c r="D39" s="169"/>
       <c r="E39" s="28"/>
       <c r="F39" s="21"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="21"/>
-      <c r="B40" s="167" t="s">
+      <c r="B40" s="169" t="s">
         <v>53</v>
       </c>
-      <c r="C40" s="167"/>
-      <c r="D40" s="167"/>
+      <c r="C40" s="169"/>
+      <c r="D40" s="169"/>
       <c r="E40" s="28"/>
       <c r="F40" s="21"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="21"/>
-      <c r="B41" s="167"/>
-      <c r="C41" s="167"/>
-      <c r="D41" s="167"/>
+      <c r="B41" s="169"/>
+      <c r="C41" s="169"/>
+      <c r="D41" s="169"/>
       <c r="E41" s="28"/>
       <c r="F41" s="21"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="21"/>
-      <c r="B42" s="167"/>
-      <c r="C42" s="167"/>
-      <c r="D42" s="167"/>
+      <c r="B42" s="169"/>
+      <c r="C42" s="169"/>
+      <c r="D42" s="169"/>
       <c r="E42" s="28"/>
       <c r="F42" s="21"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="21"/>
-      <c r="B43" s="167"/>
-      <c r="C43" s="167"/>
-      <c r="D43" s="167"/>
+      <c r="B43" s="169"/>
+      <c r="C43" s="169"/>
+      <c r="D43" s="169"/>
       <c r="E43" s="28"/>
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
-      <c r="B44" s="167"/>
-      <c r="C44" s="167"/>
-      <c r="D44" s="167"/>
+      <c r="B44" s="169"/>
+      <c r="C44" s="169"/>
+      <c r="D44" s="169"/>
       <c r="E44" s="28"/>
       <c r="F44" s="21"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="21"/>
-      <c r="B45" s="167"/>
-      <c r="C45" s="167"/>
-      <c r="D45" s="167"/>
+      <c r="B45" s="169"/>
+      <c r="C45" s="169"/>
+      <c r="D45" s="169"/>
       <c r="E45" s="28"/>
       <c r="F45" s="21"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="21"/>
-      <c r="B46" s="167"/>
-      <c r="C46" s="167"/>
-      <c r="D46" s="167"/>
+      <c r="B46" s="169"/>
+      <c r="C46" s="169"/>
+      <c r="D46" s="169"/>
       <c r="E46" s="28"/>
       <c r="F46" s="21"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="21"/>
-      <c r="B47" s="167"/>
-      <c r="C47" s="167"/>
-      <c r="D47" s="167"/>
+      <c r="B47" s="169"/>
+      <c r="C47" s="169"/>
+      <c r="D47" s="169"/>
       <c r="E47" s="28"/>
       <c r="F47" s="21"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="21"/>
-      <c r="B48" s="167"/>
-      <c r="C48" s="167"/>
-      <c r="D48" s="167"/>
+      <c r="B48" s="169"/>
+      <c r="C48" s="169"/>
+      <c r="D48" s="169"/>
       <c r="E48" s="28"/>
       <c r="F48" s="21"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="21"/>
-      <c r="B49" s="167"/>
-      <c r="C49" s="167"/>
-      <c r="D49" s="167"/>
+      <c r="B49" s="169"/>
+      <c r="C49" s="169"/>
+      <c r="D49" s="169"/>
       <c r="E49" s="28"/>
       <c r="F49" s="21"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="21"/>
-      <c r="B50" s="167"/>
-      <c r="C50" s="167"/>
-      <c r="D50" s="167"/>
+      <c r="B50" s="169"/>
+      <c r="C50" s="169"/>
+      <c r="D50" s="169"/>
       <c r="E50" s="28"/>
       <c r="F50" s="21"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="21"/>
-      <c r="B51" s="167"/>
-      <c r="C51" s="167"/>
-      <c r="D51" s="167"/>
+      <c r="B51" s="169"/>
+      <c r="C51" s="169"/>
+      <c r="D51" s="169"/>
       <c r="E51" s="28"/>
       <c r="F51" s="21"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="21"/>
-      <c r="B52" s="167"/>
-      <c r="C52" s="167"/>
-      <c r="D52" s="167"/>
+      <c r="B52" s="169"/>
+      <c r="C52" s="169"/>
+      <c r="D52" s="169"/>
       <c r="E52" s="28"/>
       <c r="F52" s="21"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="21"/>
-      <c r="B53" s="167"/>
-      <c r="C53" s="167"/>
-      <c r="D53" s="167"/>
+      <c r="B53" s="169"/>
+      <c r="C53" s="169"/>
+      <c r="D53" s="169"/>
       <c r="E53" s="28"/>
       <c r="F53" s="21"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="21"/>
-      <c r="B54" s="167"/>
-      <c r="C54" s="167"/>
-      <c r="D54" s="167"/>
+      <c r="B54" s="169"/>
+      <c r="C54" s="169"/>
+      <c r="D54" s="169"/>
       <c r="E54" s="28"/>
       <c r="F54" s="21"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="21"/>
-      <c r="B55" s="167"/>
-      <c r="C55" s="167"/>
-      <c r="D55" s="167"/>
+      <c r="B55" s="169"/>
+      <c r="C55" s="169"/>
+      <c r="D55" s="169"/>
       <c r="E55" s="28"/>
       <c r="F55" s="21"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="21"/>
-      <c r="B56" s="167"/>
-      <c r="C56" s="167"/>
-      <c r="D56" s="167"/>
+      <c r="B56" s="169"/>
+      <c r="C56" s="169"/>
+      <c r="D56" s="169"/>
       <c r="E56" s="28"/>
       <c r="F56" s="21"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="21"/>
-      <c r="B57" s="167"/>
-      <c r="C57" s="167"/>
-      <c r="D57" s="167"/>
+      <c r="B57" s="169"/>
+      <c r="C57" s="169"/>
+      <c r="D57" s="169"/>
       <c r="E57" s="28"/>
       <c r="F57" s="21"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="21"/>
-      <c r="B58" s="167"/>
-      <c r="C58" s="167"/>
-      <c r="D58" s="167"/>
+      <c r="B58" s="169"/>
+      <c r="C58" s="169"/>
+      <c r="D58" s="169"/>
       <c r="E58" s="28"/>
       <c r="F58" s="21"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="21"/>
-      <c r="B59" s="167"/>
-      <c r="C59" s="167"/>
-      <c r="D59" s="167"/>
+      <c r="B59" s="169"/>
+      <c r="C59" s="169"/>
+      <c r="D59" s="169"/>
       <c r="E59" s="28"/>
       <c r="F59" s="21"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="21"/>
-      <c r="B60" s="167"/>
-      <c r="C60" s="167"/>
-      <c r="D60" s="167"/>
+      <c r="B60" s="169"/>
+      <c r="C60" s="169"/>
+      <c r="D60" s="169"/>
       <c r="E60" s="28"/>
       <c r="F60" s="21"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="21"/>
-      <c r="B61" s="167"/>
-      <c r="C61" s="167"/>
-      <c r="D61" s="167"/>
+      <c r="B61" s="169"/>
+      <c r="C61" s="169"/>
+      <c r="D61" s="169"/>
       <c r="E61" s="28"/>
       <c r="F61" s="21"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="21"/>
-      <c r="B62" s="167"/>
-      <c r="C62" s="167"/>
-      <c r="D62" s="167"/>
+      <c r="B62" s="169"/>
+      <c r="C62" s="169"/>
+      <c r="D62" s="169"/>
       <c r="E62" s="28"/>
       <c r="F62" s="21"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="21"/>
-      <c r="B63" s="167"/>
-      <c r="C63" s="167"/>
-      <c r="D63" s="167"/>
+      <c r="B63" s="169"/>
+      <c r="C63" s="169"/>
+      <c r="D63" s="169"/>
       <c r="E63" s="28"/>
       <c r="F63" s="21"/>
     </row>
     <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A64" s="21"/>
-      <c r="B64" s="167"/>
-      <c r="C64" s="167"/>
-      <c r="D64" s="167"/>
+      <c r="B64" s="169"/>
+      <c r="C64" s="169"/>
+      <c r="D64" s="169"/>
       <c r="E64" s="28"/>
       <c r="F64" s="21"/>
     </row>
@@ -10365,17 +11290,17 @@
     </row>
     <row r="67" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A67" s="21"/>
-      <c r="B67" s="167"/>
-      <c r="C67" s="167"/>
-      <c r="D67" s="167"/>
+      <c r="B67" s="169"/>
+      <c r="C67" s="169"/>
+      <c r="D67" s="169"/>
       <c r="E67" s="28"/>
       <c r="F67" s="21"/>
     </row>
     <row r="68" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="21"/>
-      <c r="B68" s="167"/>
-      <c r="C68" s="167"/>
-      <c r="D68" s="167"/>
+      <c r="B68" s="169"/>
+      <c r="C68" s="169"/>
+      <c r="D68" s="169"/>
       <c r="E68" s="28"/>
       <c r="F68" s="21"/>
     </row>
@@ -10482,19 +11407,19 @@
     </row>
     <row r="77" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A77" s="21"/>
-      <c r="B77" s="169"/>
-      <c r="C77" s="169"/>
-      <c r="D77" s="169"/>
+      <c r="B77" s="173"/>
+      <c r="C77" s="173"/>
+      <c r="D77" s="173"/>
       <c r="E77" s="36"/>
       <c r="F77" s="21"/>
     </row>
     <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="21"/>
-      <c r="B78" s="174" t="s">
+      <c r="B78" s="170" t="s">
         <v>17</v>
       </c>
-      <c r="C78" s="174"/>
-      <c r="D78" s="174"/>
+      <c r="C78" s="170"/>
+      <c r="D78" s="170"/>
       <c r="E78" s="36">
         <v>0</v>
       </c>
@@ -10502,9 +11427,9 @@
     </row>
     <row r="79" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="21"/>
-      <c r="B79" s="169"/>
-      <c r="C79" s="169"/>
-      <c r="D79" s="169"/>
+      <c r="B79" s="173"/>
+      <c r="C79" s="173"/>
+      <c r="D79" s="173"/>
       <c r="E79" s="36"/>
       <c r="F79" s="21"/>
     </row>
@@ -10539,31 +11464,31 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="21"/>
-      <c r="B83" s="172"/>
-      <c r="C83" s="172"/>
-      <c r="D83" s="172"/>
-      <c r="E83" s="172"/>
+      <c r="B83" s="167"/>
+      <c r="C83" s="167"/>
+      <c r="D83" s="167"/>
+      <c r="E83" s="167"/>
       <c r="F83" s="21"/>
     </row>
     <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="166" t="s">
+      <c r="A84" s="175" t="s">
         <v>28</v>
       </c>
-      <c r="B84" s="166"/>
-      <c r="C84" s="166"/>
-      <c r="D84" s="166"/>
-      <c r="E84" s="166"/>
-      <c r="F84" s="166"/>
+      <c r="B84" s="175"/>
+      <c r="C84" s="175"/>
+      <c r="D84" s="175"/>
+      <c r="E84" s="175"/>
+      <c r="F84" s="175"/>
     </row>
     <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A85" s="175" t="s">
+      <c r="A85" s="171" t="s">
         <v>29</v>
       </c>
-      <c r="B85" s="175"/>
-      <c r="C85" s="175"/>
-      <c r="D85" s="175"/>
-      <c r="E85" s="175"/>
-      <c r="F85" s="175"/>
+      <c r="B85" s="171"/>
+      <c r="C85" s="171"/>
+      <c r="D85" s="171"/>
+      <c r="E85" s="171"/>
+      <c r="F85" s="171"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="21"/>
@@ -10575,26 +11500,786 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="21"/>
-      <c r="B87" s="173"/>
-      <c r="C87" s="173"/>
-      <c r="D87" s="173"/>
-      <c r="E87" s="173"/>
+      <c r="B87" s="168"/>
+      <c r="C87" s="168"/>
+      <c r="D87" s="168"/>
+      <c r="E87" s="168"/>
       <c r="F87" s="21"/>
     </row>
     <row r="88" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A88" s="165" t="s">
+      <c r="A88" s="174" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="165"/>
-      <c r="C88" s="165"/>
-      <c r="D88" s="165"/>
-      <c r="E88" s="165"/>
-      <c r="F88" s="165"/>
+      <c r="B88" s="174"/>
+      <c r="C88" s="174"/>
+      <c r="D88" s="174"/>
+      <c r="E88" s="174"/>
+      <c r="F88" s="174"/>
     </row>
     <row r="90" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="170"/>
-      <c r="C90" s="171"/>
-      <c r="D90" s="171"/>
+      <c r="B90" s="165"/>
+      <c r="C90" s="166"/>
+      <c r="D90" s="166"/>
+    </row>
+    <row r="91" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B92" s="16"/>
+      <c r="C92" s="16"/>
+      <c r="D92" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="44">
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="A88:F88"/>
+    <mergeCell ref="B90:D90"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B79:D79"/>
+    <mergeCell ref="B83:E83"/>
+    <mergeCell ref="A84:F84"/>
+    <mergeCell ref="A85:F85"/>
+    <mergeCell ref="B87:E87"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B77:B79 B12:B20 B33:B68" xr:uid="{F63D506F-F83F-443F-AF37-651526223AA2}">
+      <formula1>Liste_Activités</formula1>
+    </dataValidation>
+  </dataValidations>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="131" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AE3B675-DC11-46F4-ACB2-343090D91EC4}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A12:F92"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" topLeftCell="A40" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35:D35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="120" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="11.42578125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B12" s="3"/>
+      <c r="E12" s="4"/>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B13" s="3"/>
+      <c r="E13" s="4"/>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B14" s="3"/>
+      <c r="E14" s="4"/>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B15" s="3"/>
+      <c r="E15" s="4"/>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B16" s="3"/>
+      <c r="E16" s="4"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B17" s="3"/>
+      <c r="E17" s="4"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B18" s="3"/>
+      <c r="E18" s="4"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B19" s="3"/>
+      <c r="E19" s="4"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B20" s="3"/>
+      <c r="E20" s="4"/>
+    </row>
+    <row r="21" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A21" s="17"/>
+      <c r="B21" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+    </row>
+    <row r="22" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A22" s="17"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+    </row>
+    <row r="23" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A23" s="17"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+    </row>
+    <row r="24" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A24" s="17"/>
+      <c r="B24" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+    </row>
+    <row r="25" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A25" s="17"/>
+      <c r="B25" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+    </row>
+    <row r="26" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="17"/>
+      <c r="B26" s="53" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="18"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="21"/>
+    </row>
+    <row r="28" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A28" s="17"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="F28" s="21"/>
+    </row>
+    <row r="29" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="19"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="20"/>
+    </row>
+    <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="172" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="172"/>
+      <c r="C30" s="172"/>
+      <c r="D30" s="172"/>
+      <c r="E30" s="172"/>
+      <c r="F30" s="172"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="17"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+    </row>
+    <row r="32" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A32" s="21"/>
+      <c r="B32" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="21"/>
+    </row>
+    <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A33" s="21"/>
+      <c r="B33" s="169"/>
+      <c r="C33" s="169"/>
+      <c r="D33" s="169"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="21"/>
+    </row>
+    <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A34" s="21"/>
+      <c r="B34" s="169" t="s">
+        <v>73</v>
+      </c>
+      <c r="C34" s="169"/>
+      <c r="D34" s="169"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="21"/>
+    </row>
+    <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A35" s="21"/>
+      <c r="B35" s="169"/>
+      <c r="C35" s="169"/>
+      <c r="D35" s="169"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="21"/>
+    </row>
+    <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A36" s="21"/>
+      <c r="B36" s="169" t="s">
+        <v>74</v>
+      </c>
+      <c r="C36" s="169"/>
+      <c r="D36" s="169"/>
+      <c r="E36" s="28"/>
+      <c r="F36" s="21"/>
+    </row>
+    <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A37" s="21"/>
+      <c r="B37" s="169"/>
+      <c r="C37" s="169"/>
+      <c r="D37" s="169"/>
+      <c r="E37" s="28"/>
+      <c r="F37" s="21"/>
+    </row>
+    <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A38" s="21"/>
+      <c r="B38" s="169" t="s">
+        <v>75</v>
+      </c>
+      <c r="C38" s="169"/>
+      <c r="D38" s="169"/>
+      <c r="E38" s="28"/>
+      <c r="F38" s="21"/>
+    </row>
+    <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A39" s="21"/>
+      <c r="B39" s="169"/>
+      <c r="C39" s="169"/>
+      <c r="D39" s="169"/>
+      <c r="E39" s="28"/>
+      <c r="F39" s="21"/>
+    </row>
+    <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A40" s="21"/>
+      <c r="B40" s="169" t="s">
+        <v>76</v>
+      </c>
+      <c r="C40" s="169"/>
+      <c r="D40" s="169"/>
+      <c r="E40" s="28"/>
+      <c r="F40" s="21"/>
+    </row>
+    <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A41" s="21"/>
+      <c r="B41" s="169"/>
+      <c r="C41" s="169"/>
+      <c r="D41" s="169"/>
+      <c r="E41" s="28"/>
+      <c r="F41" s="21"/>
+    </row>
+    <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A42" s="21"/>
+      <c r="B42" s="169" t="s">
+        <v>38</v>
+      </c>
+      <c r="C42" s="169"/>
+      <c r="D42" s="169"/>
+      <c r="E42" s="28"/>
+      <c r="F42" s="21"/>
+    </row>
+    <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A43" s="21"/>
+      <c r="B43" s="169"/>
+      <c r="C43" s="169"/>
+      <c r="D43" s="169"/>
+      <c r="E43" s="28"/>
+      <c r="F43" s="21"/>
+    </row>
+    <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A44" s="21"/>
+      <c r="B44" s="169" t="s">
+        <v>34</v>
+      </c>
+      <c r="C44" s="169"/>
+      <c r="D44" s="169"/>
+      <c r="E44" s="28"/>
+      <c r="F44" s="21"/>
+    </row>
+    <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A45" s="21"/>
+      <c r="B45" s="169"/>
+      <c r="C45" s="169"/>
+      <c r="D45" s="169"/>
+      <c r="E45" s="28"/>
+      <c r="F45" s="21"/>
+    </row>
+    <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A46" s="21"/>
+      <c r="B46" s="169"/>
+      <c r="C46" s="169"/>
+      <c r="D46" s="169"/>
+      <c r="E46" s="28"/>
+      <c r="F46" s="21"/>
+    </row>
+    <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A47" s="21"/>
+      <c r="B47" s="169"/>
+      <c r="C47" s="169"/>
+      <c r="D47" s="169"/>
+      <c r="E47" s="28"/>
+      <c r="F47" s="21"/>
+    </row>
+    <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A48" s="21"/>
+      <c r="B48" s="169"/>
+      <c r="C48" s="169"/>
+      <c r="D48" s="169"/>
+      <c r="E48" s="28"/>
+      <c r="F48" s="21"/>
+    </row>
+    <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A49" s="21"/>
+      <c r="B49" s="169"/>
+      <c r="C49" s="169"/>
+      <c r="D49" s="169"/>
+      <c r="E49" s="28"/>
+      <c r="F49" s="21"/>
+    </row>
+    <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A50" s="21"/>
+      <c r="B50" s="169"/>
+      <c r="C50" s="169"/>
+      <c r="D50" s="169"/>
+      <c r="E50" s="28"/>
+      <c r="F50" s="21"/>
+    </row>
+    <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A51" s="21"/>
+      <c r="B51" s="169"/>
+      <c r="C51" s="169"/>
+      <c r="D51" s="169"/>
+      <c r="E51" s="28"/>
+      <c r="F51" s="21"/>
+    </row>
+    <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A52" s="21"/>
+      <c r="B52" s="169"/>
+      <c r="C52" s="169"/>
+      <c r="D52" s="169"/>
+      <c r="E52" s="28"/>
+      <c r="F52" s="21"/>
+    </row>
+    <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A53" s="21"/>
+      <c r="B53" s="169"/>
+      <c r="C53" s="169"/>
+      <c r="D53" s="169"/>
+      <c r="E53" s="28"/>
+      <c r="F53" s="21"/>
+    </row>
+    <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A54" s="21"/>
+      <c r="B54" s="169"/>
+      <c r="C54" s="169"/>
+      <c r="D54" s="169"/>
+      <c r="E54" s="28"/>
+      <c r="F54" s="21"/>
+    </row>
+    <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A55" s="21"/>
+      <c r="B55" s="169"/>
+      <c r="C55" s="169"/>
+      <c r="D55" s="169"/>
+      <c r="E55" s="28"/>
+      <c r="F55" s="21"/>
+    </row>
+    <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A56" s="21"/>
+      <c r="B56" s="169"/>
+      <c r="C56" s="169"/>
+      <c r="D56" s="169"/>
+      <c r="E56" s="28"/>
+      <c r="F56" s="21"/>
+    </row>
+    <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A57" s="21"/>
+      <c r="B57" s="169"/>
+      <c r="C57" s="169"/>
+      <c r="D57" s="169"/>
+      <c r="E57" s="28"/>
+      <c r="F57" s="21"/>
+    </row>
+    <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A58" s="21"/>
+      <c r="B58" s="169"/>
+      <c r="C58" s="169"/>
+      <c r="D58" s="169"/>
+      <c r="E58" s="28"/>
+      <c r="F58" s="21"/>
+    </row>
+    <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A59" s="21"/>
+      <c r="B59" s="169"/>
+      <c r="C59" s="169"/>
+      <c r="D59" s="169"/>
+      <c r="E59" s="28"/>
+      <c r="F59" s="21"/>
+    </row>
+    <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A60" s="21"/>
+      <c r="B60" s="169"/>
+      <c r="C60" s="169"/>
+      <c r="D60" s="169"/>
+      <c r="E60" s="28"/>
+      <c r="F60" s="21"/>
+    </row>
+    <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A61" s="21"/>
+      <c r="B61" s="169"/>
+      <c r="C61" s="169"/>
+      <c r="D61" s="169"/>
+      <c r="E61" s="28"/>
+      <c r="F61" s="21"/>
+    </row>
+    <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A62" s="21"/>
+      <c r="B62" s="169"/>
+      <c r="C62" s="169"/>
+      <c r="D62" s="169"/>
+      <c r="E62" s="28"/>
+      <c r="F62" s="21"/>
+    </row>
+    <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A63" s="21"/>
+      <c r="B63" s="169"/>
+      <c r="C63" s="169"/>
+      <c r="D63" s="169"/>
+      <c r="E63" s="28"/>
+      <c r="F63" s="21"/>
+    </row>
+    <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A64" s="21"/>
+      <c r="B64" s="169"/>
+      <c r="C64" s="169"/>
+      <c r="D64" s="169"/>
+      <c r="E64" s="28"/>
+      <c r="F64" s="21"/>
+    </row>
+    <row r="65" spans="1:6" s="50" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A65" s="46"/>
+      <c r="B65" s="47"/>
+      <c r="C65" s="48" t="s">
+        <v>36</v>
+      </c>
+      <c r="D65" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="E65" s="49"/>
+      <c r="F65" s="46"/>
+    </row>
+    <row r="66" spans="1:6" s="50" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A66" s="46"/>
+      <c r="B66" s="47"/>
+      <c r="C66" s="51">
+        <v>12.75</v>
+      </c>
+      <c r="D66" s="52">
+        <v>325</v>
+      </c>
+      <c r="E66" s="49"/>
+      <c r="F66" s="46"/>
+    </row>
+    <row r="67" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A67" s="21"/>
+      <c r="B67" s="169"/>
+      <c r="C67" s="169"/>
+      <c r="D67" s="169"/>
+      <c r="E67" s="28"/>
+      <c r="F67" s="21"/>
+    </row>
+    <row r="68" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="21"/>
+      <c r="B68" s="169"/>
+      <c r="C68" s="169"/>
+      <c r="D68" s="169"/>
+      <c r="E68" s="28"/>
+      <c r="F68" s="21"/>
+    </row>
+    <row r="69" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="21"/>
+      <c r="B69" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C69" s="26"/>
+      <c r="D69" s="26"/>
+      <c r="E69" s="29">
+        <f>D66*C66</f>
+        <v>4143.75</v>
+      </c>
+      <c r="F69" s="21"/>
+    </row>
+    <row r="70" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="21"/>
+      <c r="B70" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="C70" s="26"/>
+      <c r="D70" s="26"/>
+      <c r="E70" s="30">
+        <v>0</v>
+      </c>
+      <c r="F70" s="21"/>
+    </row>
+    <row r="71" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="21"/>
+      <c r="B71" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="C71" s="26"/>
+      <c r="D71" s="26"/>
+      <c r="E71" s="30">
+        <v>0</v>
+      </c>
+      <c r="F71" s="21"/>
+    </row>
+    <row r="72" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="21"/>
+      <c r="B72" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C72" s="26"/>
+      <c r="D72" s="26"/>
+      <c r="E72" s="29">
+        <f>SUM(E69:E71)</f>
+        <v>4143.75</v>
+      </c>
+      <c r="F72" s="21"/>
+    </row>
+    <row r="73" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="21"/>
+      <c r="B73" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C73" s="31">
+        <v>0.05</v>
+      </c>
+      <c r="D73" s="26"/>
+      <c r="E73" s="35">
+        <f>ROUND(E72*C73,2)</f>
+        <v>207.19</v>
+      </c>
+      <c r="F73" s="21"/>
+    </row>
+    <row r="74" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="21"/>
+      <c r="B74" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C74" s="42">
+        <v>9.9750000000000005E-2</v>
+      </c>
+      <c r="D74" s="26"/>
+      <c r="E74" s="43">
+        <f>ROUND(E72*C74,2)</f>
+        <v>413.34</v>
+      </c>
+      <c r="F74" s="21"/>
+    </row>
+    <row r="75" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="21"/>
+      <c r="B75" s="26"/>
+      <c r="C75" s="26"/>
+      <c r="D75" s="26"/>
+      <c r="E75" s="32"/>
+      <c r="F75" s="21"/>
+    </row>
+    <row r="76" spans="1:6" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="21"/>
+      <c r="B76" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C76" s="26"/>
+      <c r="D76" s="26"/>
+      <c r="E76" s="33">
+        <f>SUM(E72:E74)</f>
+        <v>4764.28</v>
+      </c>
+      <c r="F76" s="21"/>
+    </row>
+    <row r="77" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="21"/>
+      <c r="B77" s="173"/>
+      <c r="C77" s="173"/>
+      <c r="D77" s="173"/>
+      <c r="E77" s="36"/>
+      <c r="F77" s="21"/>
+    </row>
+    <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A78" s="21"/>
+      <c r="B78" s="170" t="s">
+        <v>17</v>
+      </c>
+      <c r="C78" s="170"/>
+      <c r="D78" s="170"/>
+      <c r="E78" s="36">
+        <v>0</v>
+      </c>
+      <c r="F78" s="21"/>
+    </row>
+    <row r="79" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A79" s="21"/>
+      <c r="B79" s="173"/>
+      <c r="C79" s="173"/>
+      <c r="D79" s="173"/>
+      <c r="E79" s="36"/>
+      <c r="F79" s="21"/>
+    </row>
+    <row r="80" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="21"/>
+      <c r="B80" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="C80" s="38"/>
+      <c r="D80" s="38"/>
+      <c r="E80" s="39">
+        <f>E76-E78</f>
+        <v>4764.28</v>
+      </c>
+      <c r="F80" s="21"/>
+    </row>
+    <row r="81" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="21"/>
+      <c r="B81" s="21"/>
+      <c r="C81" s="21"/>
+      <c r="D81" s="21"/>
+      <c r="E81" s="21"/>
+      <c r="F81" s="21"/>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A82" s="21"/>
+      <c r="B82" s="21"/>
+      <c r="C82" s="21"/>
+      <c r="D82" s="21"/>
+      <c r="E82" s="21"/>
+      <c r="F82" s="21"/>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A83" s="21"/>
+      <c r="B83" s="167"/>
+      <c r="C83" s="167"/>
+      <c r="D83" s="167"/>
+      <c r="E83" s="167"/>
+      <c r="F83" s="21"/>
+    </row>
+    <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A84" s="175" t="s">
+        <v>28</v>
+      </c>
+      <c r="B84" s="175"/>
+      <c r="C84" s="175"/>
+      <c r="D84" s="175"/>
+      <c r="E84" s="175"/>
+      <c r="F84" s="175"/>
+    </row>
+    <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A85" s="171" t="s">
+        <v>29</v>
+      </c>
+      <c r="B85" s="171"/>
+      <c r="C85" s="171"/>
+      <c r="D85" s="171"/>
+      <c r="E85" s="171"/>
+      <c r="F85" s="171"/>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A86" s="21"/>
+      <c r="B86" s="21"/>
+      <c r="C86" s="21"/>
+      <c r="D86" s="21"/>
+      <c r="E86" s="21"/>
+      <c r="F86" s="21"/>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A87" s="21"/>
+      <c r="B87" s="168"/>
+      <c r="C87" s="168"/>
+      <c r="D87" s="168"/>
+      <c r="E87" s="168"/>
+      <c r="F87" s="21"/>
+    </row>
+    <row r="88" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A88" s="174" t="s">
+        <v>7</v>
+      </c>
+      <c r="B88" s="174"/>
+      <c r="C88" s="174"/>
+      <c r="D88" s="174"/>
+      <c r="E88" s="174"/>
+      <c r="F88" s="174"/>
+    </row>
+    <row r="90" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B90" s="165"/>
+      <c r="C90" s="166"/>
+      <c r="D90" s="166"/>
     </row>
     <row r="91" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
@@ -10650,7 +12335,7 @@
     <mergeCell ref="B42:D42"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B77:B79 B12:B20 B33:B68" xr:uid="{F63D506F-F83F-443F-AF37-651526223AA2}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B77:B79 B12:B20 B33:B68" xr:uid="{8F92F1D9-33FE-4AA0-94D6-42CF382A400F}">
       <formula1>Liste_Activités</formula1>
     </dataValidation>
   </dataValidations>
@@ -10662,15 +12347,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AE3B675-DC11-46F4-ACB2-343090D91EC4}">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2501D71E-8250-4A10-89DE-BFE80B334A76}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A12:F92"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A40" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35:D35"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A19" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="B67" sqref="B67:D67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -10723,7 +12408,7 @@
     <row r="21" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="17"/>
       <c r="B21" s="25" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C21" s="21"/>
       <c r="D21" s="21"/>
@@ -10792,7 +12477,7 @@
         <v>11</v>
       </c>
       <c r="E28" s="27" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="F28" s="21"/>
     </row>
@@ -10805,14 +12490,14 @@
       <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="168" t="s">
+      <c r="A30" s="172" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="168"/>
-      <c r="C30" s="168"/>
-      <c r="D30" s="168"/>
-      <c r="E30" s="168"/>
-      <c r="F30" s="168"/>
+      <c r="B30" s="172"/>
+      <c r="C30" s="172"/>
+      <c r="D30" s="172"/>
+      <c r="E30" s="172"/>
+      <c r="F30" s="172"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="17"/>
@@ -10833,269 +12518,263 @@
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
-      <c r="B33" s="167"/>
-      <c r="C33" s="167"/>
-      <c r="D33" s="167"/>
+      <c r="B33" s="169"/>
+      <c r="C33" s="169"/>
+      <c r="D33" s="169"/>
       <c r="E33" s="28"/>
       <c r="F33" s="21"/>
     </row>
-    <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="21"/>
-      <c r="B34" s="167" t="s">
-        <v>73</v>
-      </c>
-      <c r="C34" s="167"/>
-      <c r="D34" s="167"/>
+      <c r="B34" s="169" t="s">
+        <v>80</v>
+      </c>
+      <c r="C34" s="169"/>
+      <c r="D34" s="169"/>
       <c r="E34" s="28"/>
       <c r="F34" s="21"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
-      <c r="B35" s="167"/>
-      <c r="C35" s="167"/>
-      <c r="D35" s="167"/>
+      <c r="B35" s="169"/>
+      <c r="C35" s="169"/>
+      <c r="D35" s="169"/>
       <c r="E35" s="28"/>
       <c r="F35" s="21"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="21"/>
-      <c r="B36" s="167" t="s">
-        <v>74</v>
-      </c>
-      <c r="C36" s="167"/>
-      <c r="D36" s="167"/>
+      <c r="B36" s="169" t="s">
+        <v>79</v>
+      </c>
+      <c r="C36" s="169"/>
+      <c r="D36" s="169"/>
       <c r="E36" s="28"/>
       <c r="F36" s="21"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
-      <c r="B37" s="167"/>
-      <c r="C37" s="167"/>
-      <c r="D37" s="167"/>
+      <c r="B37" s="169"/>
+      <c r="C37" s="169"/>
+      <c r="D37" s="169"/>
       <c r="E37" s="28"/>
       <c r="F37" s="21"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="21"/>
-      <c r="B38" s="167" t="s">
-        <v>75</v>
-      </c>
-      <c r="C38" s="167"/>
-      <c r="D38" s="167"/>
+      <c r="B38" s="169" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" s="169"/>
+      <c r="D38" s="169"/>
       <c r="E38" s="28"/>
       <c r="F38" s="21"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="21"/>
-      <c r="B39" s="167"/>
-      <c r="C39" s="167"/>
-      <c r="D39" s="167"/>
+      <c r="B39" s="169"/>
+      <c r="C39" s="169"/>
+      <c r="D39" s="169"/>
       <c r="E39" s="28"/>
       <c r="F39" s="21"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="21"/>
-      <c r="B40" s="167" t="s">
-        <v>76</v>
-      </c>
-      <c r="C40" s="167"/>
-      <c r="D40" s="167"/>
+      <c r="B40" s="169"/>
+      <c r="C40" s="169"/>
+      <c r="D40" s="169"/>
       <c r="E40" s="28"/>
       <c r="F40" s="21"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="21"/>
-      <c r="B41" s="167"/>
-      <c r="C41" s="167"/>
-      <c r="D41" s="167"/>
+      <c r="B41" s="169"/>
+      <c r="C41" s="169"/>
+      <c r="D41" s="169"/>
       <c r="E41" s="28"/>
       <c r="F41" s="21"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="21"/>
-      <c r="B42" s="167" t="s">
-        <v>38</v>
-      </c>
-      <c r="C42" s="167"/>
-      <c r="D42" s="167"/>
+      <c r="B42" s="169"/>
+      <c r="C42" s="169"/>
+      <c r="D42" s="169"/>
       <c r="E42" s="28"/>
       <c r="F42" s="21"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="21"/>
-      <c r="B43" s="167"/>
-      <c r="C43" s="167"/>
-      <c r="D43" s="167"/>
+      <c r="B43" s="169"/>
+      <c r="C43" s="169"/>
+      <c r="D43" s="169"/>
       <c r="E43" s="28"/>
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
-      <c r="B44" s="167" t="s">
-        <v>34</v>
-      </c>
-      <c r="C44" s="167"/>
-      <c r="D44" s="167"/>
+      <c r="B44" s="169"/>
+      <c r="C44" s="169"/>
+      <c r="D44" s="169"/>
       <c r="E44" s="28"/>
       <c r="F44" s="21"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="21"/>
-      <c r="B45" s="167"/>
-      <c r="C45" s="167"/>
-      <c r="D45" s="167"/>
+      <c r="B45" s="169"/>
+      <c r="C45" s="169"/>
+      <c r="D45" s="169"/>
       <c r="E45" s="28"/>
       <c r="F45" s="21"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="21"/>
-      <c r="B46" s="167"/>
-      <c r="C46" s="167"/>
-      <c r="D46" s="167"/>
+      <c r="B46" s="169"/>
+      <c r="C46" s="169"/>
+      <c r="D46" s="169"/>
       <c r="E46" s="28"/>
       <c r="F46" s="21"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="21"/>
-      <c r="B47" s="167"/>
-      <c r="C47" s="167"/>
-      <c r="D47" s="167"/>
+      <c r="B47" s="169"/>
+      <c r="C47" s="169"/>
+      <c r="D47" s="169"/>
       <c r="E47" s="28"/>
       <c r="F47" s="21"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="21"/>
-      <c r="B48" s="167"/>
-      <c r="C48" s="167"/>
-      <c r="D48" s="167"/>
+      <c r="B48" s="169"/>
+      <c r="C48" s="169"/>
+      <c r="D48" s="169"/>
       <c r="E48" s="28"/>
       <c r="F48" s="21"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="21"/>
-      <c r="B49" s="167"/>
-      <c r="C49" s="167"/>
-      <c r="D49" s="167"/>
+      <c r="B49" s="169"/>
+      <c r="C49" s="169"/>
+      <c r="D49" s="169"/>
       <c r="E49" s="28"/>
       <c r="F49" s="21"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="21"/>
-      <c r="B50" s="167"/>
-      <c r="C50" s="167"/>
-      <c r="D50" s="167"/>
+      <c r="B50" s="169"/>
+      <c r="C50" s="169"/>
+      <c r="D50" s="169"/>
       <c r="E50" s="28"/>
       <c r="F50" s="21"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="21"/>
-      <c r="B51" s="167"/>
-      <c r="C51" s="167"/>
-      <c r="D51" s="167"/>
+      <c r="B51" s="169"/>
+      <c r="C51" s="169"/>
+      <c r="D51" s="169"/>
       <c r="E51" s="28"/>
       <c r="F51" s="21"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="21"/>
-      <c r="B52" s="167"/>
-      <c r="C52" s="167"/>
-      <c r="D52" s="167"/>
+      <c r="B52" s="169"/>
+      <c r="C52" s="169"/>
+      <c r="D52" s="169"/>
       <c r="E52" s="28"/>
       <c r="F52" s="21"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="21"/>
-      <c r="B53" s="167"/>
-      <c r="C53" s="167"/>
-      <c r="D53" s="167"/>
+      <c r="B53" s="169"/>
+      <c r="C53" s="169"/>
+      <c r="D53" s="169"/>
       <c r="E53" s="28"/>
       <c r="F53" s="21"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="21"/>
-      <c r="B54" s="167"/>
-      <c r="C54" s="167"/>
-      <c r="D54" s="167"/>
+      <c r="B54" s="169"/>
+      <c r="C54" s="169"/>
+      <c r="D54" s="169"/>
       <c r="E54" s="28"/>
       <c r="F54" s="21"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="21"/>
-      <c r="B55" s="167"/>
-      <c r="C55" s="167"/>
-      <c r="D55" s="167"/>
+      <c r="B55" s="169"/>
+      <c r="C55" s="169"/>
+      <c r="D55" s="169"/>
       <c r="E55" s="28"/>
       <c r="F55" s="21"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="21"/>
-      <c r="B56" s="167"/>
-      <c r="C56" s="167"/>
-      <c r="D56" s="167"/>
+      <c r="B56" s="169"/>
+      <c r="C56" s="169"/>
+      <c r="D56" s="169"/>
       <c r="E56" s="28"/>
       <c r="F56" s="21"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="21"/>
-      <c r="B57" s="167"/>
-      <c r="C57" s="167"/>
-      <c r="D57" s="167"/>
+      <c r="B57" s="169"/>
+      <c r="C57" s="169"/>
+      <c r="D57" s="169"/>
       <c r="E57" s="28"/>
       <c r="F57" s="21"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="21"/>
-      <c r="B58" s="167"/>
-      <c r="C58" s="167"/>
-      <c r="D58" s="167"/>
+      <c r="B58" s="169"/>
+      <c r="C58" s="169"/>
+      <c r="D58" s="169"/>
       <c r="E58" s="28"/>
       <c r="F58" s="21"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="21"/>
-      <c r="B59" s="167"/>
-      <c r="C59" s="167"/>
-      <c r="D59" s="167"/>
+      <c r="B59" s="169"/>
+      <c r="C59" s="169"/>
+      <c r="D59" s="169"/>
       <c r="E59" s="28"/>
       <c r="F59" s="21"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="21"/>
-      <c r="B60" s="167"/>
-      <c r="C60" s="167"/>
-      <c r="D60" s="167"/>
+      <c r="B60" s="169"/>
+      <c r="C60" s="169"/>
+      <c r="D60" s="169"/>
       <c r="E60" s="28"/>
       <c r="F60" s="21"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="21"/>
-      <c r="B61" s="167"/>
-      <c r="C61" s="167"/>
-      <c r="D61" s="167"/>
+      <c r="B61" s="169"/>
+      <c r="C61" s="169"/>
+      <c r="D61" s="169"/>
       <c r="E61" s="28"/>
       <c r="F61" s="21"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="21"/>
-      <c r="B62" s="167"/>
-      <c r="C62" s="167"/>
-      <c r="D62" s="167"/>
+      <c r="B62" s="169"/>
+      <c r="C62" s="169"/>
+      <c r="D62" s="169"/>
       <c r="E62" s="28"/>
       <c r="F62" s="21"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="21"/>
-      <c r="B63" s="167"/>
-      <c r="C63" s="167"/>
-      <c r="D63" s="167"/>
+      <c r="B63" s="169"/>
+      <c r="C63" s="169"/>
+      <c r="D63" s="169"/>
       <c r="E63" s="28"/>
       <c r="F63" s="21"/>
     </row>
     <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A64" s="21"/>
-      <c r="B64" s="167"/>
-      <c r="C64" s="167"/>
-      <c r="D64" s="167"/>
+      <c r="B64" s="169"/>
+      <c r="C64" s="169"/>
+      <c r="D64" s="169"/>
       <c r="E64" s="28"/>
       <c r="F64" s="21"/>
     </row>
@@ -11115,7 +12794,7 @@
       <c r="A66" s="46"/>
       <c r="B66" s="47"/>
       <c r="C66" s="51">
-        <v>12.75</v>
+        <v>10.75</v>
       </c>
       <c r="D66" s="52">
         <v>325</v>
@@ -11125,17 +12804,17 @@
     </row>
     <row r="67" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A67" s="21"/>
-      <c r="B67" s="167"/>
-      <c r="C67" s="167"/>
-      <c r="D67" s="167"/>
+      <c r="B67" s="169"/>
+      <c r="C67" s="169"/>
+      <c r="D67" s="169"/>
       <c r="E67" s="28"/>
       <c r="F67" s="21"/>
     </row>
     <row r="68" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="21"/>
-      <c r="B68" s="167"/>
-      <c r="C68" s="167"/>
-      <c r="D68" s="167"/>
+      <c r="B68" s="169"/>
+      <c r="C68" s="169"/>
+      <c r="D68" s="169"/>
       <c r="E68" s="28"/>
       <c r="F68" s="21"/>
     </row>
@@ -11148,7 +12827,7 @@
       <c r="D69" s="26"/>
       <c r="E69" s="29">
         <f>D66*C66</f>
-        <v>4143.75</v>
+        <v>3493.75</v>
       </c>
       <c r="F69" s="21"/>
     </row>
@@ -11185,7 +12864,7 @@
       <c r="D72" s="26"/>
       <c r="E72" s="29">
         <f>SUM(E69:E71)</f>
-        <v>4143.75</v>
+        <v>3493.75</v>
       </c>
       <c r="F72" s="21"/>
     </row>
@@ -11200,7 +12879,7 @@
       <c r="D73" s="26"/>
       <c r="E73" s="35">
         <f>ROUND(E72*C73,2)</f>
-        <v>207.19</v>
+        <v>174.69</v>
       </c>
       <c r="F73" s="21"/>
     </row>
@@ -11215,7 +12894,7 @@
       <c r="D74" s="26"/>
       <c r="E74" s="43">
         <f>ROUND(E72*C74,2)</f>
-        <v>413.34</v>
+        <v>348.5</v>
       </c>
       <c r="F74" s="21"/>
     </row>
@@ -11236,25 +12915,25 @@
       <c r="D76" s="26"/>
       <c r="E76" s="33">
         <f>SUM(E72:E74)</f>
-        <v>4764.28</v>
+        <v>4016.94</v>
       </c>
       <c r="F76" s="21"/>
     </row>
     <row r="77" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A77" s="21"/>
-      <c r="B77" s="169"/>
-      <c r="C77" s="169"/>
-      <c r="D77" s="169"/>
+      <c r="B77" s="173"/>
+      <c r="C77" s="173"/>
+      <c r="D77" s="173"/>
       <c r="E77" s="36"/>
       <c r="F77" s="21"/>
     </row>
     <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="21"/>
-      <c r="B78" s="174" t="s">
+      <c r="B78" s="170" t="s">
         <v>17</v>
       </c>
-      <c r="C78" s="174"/>
-      <c r="D78" s="174"/>
+      <c r="C78" s="170"/>
+      <c r="D78" s="170"/>
       <c r="E78" s="36">
         <v>0</v>
       </c>
@@ -11262,9 +12941,9 @@
     </row>
     <row r="79" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="21"/>
-      <c r="B79" s="169"/>
-      <c r="C79" s="169"/>
-      <c r="D79" s="169"/>
+      <c r="B79" s="173"/>
+      <c r="C79" s="173"/>
+      <c r="D79" s="173"/>
       <c r="E79" s="36"/>
       <c r="F79" s="21"/>
     </row>
@@ -11277,7 +12956,7 @@
       <c r="D80" s="38"/>
       <c r="E80" s="39">
         <f>E76-E78</f>
-        <v>4764.28</v>
+        <v>4016.94</v>
       </c>
       <c r="F80" s="21"/>
     </row>
@@ -11299,31 +12978,31 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="21"/>
-      <c r="B83" s="172"/>
-      <c r="C83" s="172"/>
-      <c r="D83" s="172"/>
-      <c r="E83" s="172"/>
+      <c r="B83" s="167"/>
+      <c r="C83" s="167"/>
+      <c r="D83" s="167"/>
+      <c r="E83" s="167"/>
       <c r="F83" s="21"/>
     </row>
     <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="166" t="s">
+      <c r="A84" s="175" t="s">
         <v>28</v>
       </c>
-      <c r="B84" s="166"/>
-      <c r="C84" s="166"/>
-      <c r="D84" s="166"/>
-      <c r="E84" s="166"/>
-      <c r="F84" s="166"/>
+      <c r="B84" s="175"/>
+      <c r="C84" s="175"/>
+      <c r="D84" s="175"/>
+      <c r="E84" s="175"/>
+      <c r="F84" s="175"/>
     </row>
     <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A85" s="175" t="s">
+      <c r="A85" s="171" t="s">
         <v>29</v>
       </c>
-      <c r="B85" s="175"/>
-      <c r="C85" s="175"/>
-      <c r="D85" s="175"/>
-      <c r="E85" s="175"/>
-      <c r="F85" s="175"/>
+      <c r="B85" s="171"/>
+      <c r="C85" s="171"/>
+      <c r="D85" s="171"/>
+      <c r="E85" s="171"/>
+      <c r="F85" s="171"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="21"/>
@@ -11335,26 +13014,26 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="21"/>
-      <c r="B87" s="173"/>
-      <c r="C87" s="173"/>
-      <c r="D87" s="173"/>
-      <c r="E87" s="173"/>
+      <c r="B87" s="168"/>
+      <c r="C87" s="168"/>
+      <c r="D87" s="168"/>
+      <c r="E87" s="168"/>
       <c r="F87" s="21"/>
     </row>
     <row r="88" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A88" s="165" t="s">
+      <c r="A88" s="174" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="165"/>
-      <c r="C88" s="165"/>
-      <c r="D88" s="165"/>
-      <c r="E88" s="165"/>
-      <c r="F88" s="165"/>
+      <c r="B88" s="174"/>
+      <c r="C88" s="174"/>
+      <c r="D88" s="174"/>
+      <c r="E88" s="174"/>
+      <c r="F88" s="174"/>
     </row>
     <row r="90" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="170"/>
-      <c r="C90" s="171"/>
-      <c r="D90" s="171"/>
+      <c r="B90" s="165"/>
+      <c r="C90" s="166"/>
+      <c r="D90" s="166"/>
     </row>
     <row r="91" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
@@ -11410,760 +13089,6 @@
     <mergeCell ref="B87:E87"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B77:B79 B12:B20 B33:B68" xr:uid="{8F92F1D9-33FE-4AA0-94D6-42CF382A400F}">
-      <formula1>Liste_Activités</formula1>
-    </dataValidation>
-  </dataValidations>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="131" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-  <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2501D71E-8250-4A10-89DE-BFE80B334A76}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A12:F92"/>
-  <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A19" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="B67" sqref="B67:D67"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="5.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="120" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="11.42578125" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B12" s="3"/>
-      <c r="E12" s="4"/>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B13" s="3"/>
-      <c r="E13" s="4"/>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B14" s="3"/>
-      <c r="E14" s="4"/>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B15" s="3"/>
-      <c r="E15" s="4"/>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B16" s="3"/>
-      <c r="E16" s="4"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B17" s="3"/>
-      <c r="E17" s="4"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B18" s="3"/>
-      <c r="E18" s="4"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B19" s="3"/>
-      <c r="E19" s="4"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B20" s="3"/>
-      <c r="E20" s="4"/>
-    </row>
-    <row r="21" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A21" s="17"/>
-      <c r="B21" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-    </row>
-    <row r="22" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A22" s="17"/>
-      <c r="B22" s="26"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-    </row>
-    <row r="23" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A23" s="17"/>
-      <c r="B23" s="26"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-    </row>
-    <row r="24" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A24" s="17"/>
-      <c r="B24" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-    </row>
-    <row r="25" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A25" s="17"/>
-      <c r="B25" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-    </row>
-    <row r="26" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="17"/>
-      <c r="B26" s="53" t="s">
-        <v>58</v>
-      </c>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="18"/>
-      <c r="B27" s="21"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="21"/>
-    </row>
-    <row r="28" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A28" s="17"/>
-      <c r="B28" s="23"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="E28" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="F28" s="21"/>
-    </row>
-    <row r="29" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="19"/>
-      <c r="B29" s="19"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="20"/>
-    </row>
-    <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="168" t="s">
-        <v>0</v>
-      </c>
-      <c r="B30" s="168"/>
-      <c r="C30" s="168"/>
-      <c r="D30" s="168"/>
-      <c r="E30" s="168"/>
-      <c r="F30" s="168"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="17"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-    </row>
-    <row r="32" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A32" s="21"/>
-      <c r="B32" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="C32" s="22"/>
-      <c r="D32" s="22"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="21"/>
-    </row>
-    <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A33" s="21"/>
-      <c r="B33" s="167"/>
-      <c r="C33" s="167"/>
-      <c r="D33" s="167"/>
-      <c r="E33" s="28"/>
-      <c r="F33" s="21"/>
-    </row>
-    <row r="34" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="21"/>
-      <c r="B34" s="167" t="s">
-        <v>80</v>
-      </c>
-      <c r="C34" s="167"/>
-      <c r="D34" s="167"/>
-      <c r="E34" s="28"/>
-      <c r="F34" s="21"/>
-    </row>
-    <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A35" s="21"/>
-      <c r="B35" s="167"/>
-      <c r="C35" s="167"/>
-      <c r="D35" s="167"/>
-      <c r="E35" s="28"/>
-      <c r="F35" s="21"/>
-    </row>
-    <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A36" s="21"/>
-      <c r="B36" s="167" t="s">
-        <v>79</v>
-      </c>
-      <c r="C36" s="167"/>
-      <c r="D36" s="167"/>
-      <c r="E36" s="28"/>
-      <c r="F36" s="21"/>
-    </row>
-    <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A37" s="21"/>
-      <c r="B37" s="167"/>
-      <c r="C37" s="167"/>
-      <c r="D37" s="167"/>
-      <c r="E37" s="28"/>
-      <c r="F37" s="21"/>
-    </row>
-    <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A38" s="21"/>
-      <c r="B38" s="167" t="s">
-        <v>38</v>
-      </c>
-      <c r="C38" s="167"/>
-      <c r="D38" s="167"/>
-      <c r="E38" s="28"/>
-      <c r="F38" s="21"/>
-    </row>
-    <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A39" s="21"/>
-      <c r="B39" s="167"/>
-      <c r="C39" s="167"/>
-      <c r="D39" s="167"/>
-      <c r="E39" s="28"/>
-      <c r="F39" s="21"/>
-    </row>
-    <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A40" s="21"/>
-      <c r="B40" s="167"/>
-      <c r="C40" s="167"/>
-      <c r="D40" s="167"/>
-      <c r="E40" s="28"/>
-      <c r="F40" s="21"/>
-    </row>
-    <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A41" s="21"/>
-      <c r="B41" s="167"/>
-      <c r="C41" s="167"/>
-      <c r="D41" s="167"/>
-      <c r="E41" s="28"/>
-      <c r="F41" s="21"/>
-    </row>
-    <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A42" s="21"/>
-      <c r="B42" s="167"/>
-      <c r="C42" s="167"/>
-      <c r="D42" s="167"/>
-      <c r="E42" s="28"/>
-      <c r="F42" s="21"/>
-    </row>
-    <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A43" s="21"/>
-      <c r="B43" s="167"/>
-      <c r="C43" s="167"/>
-      <c r="D43" s="167"/>
-      <c r="E43" s="28"/>
-      <c r="F43" s="21"/>
-    </row>
-    <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A44" s="21"/>
-      <c r="B44" s="167"/>
-      <c r="C44" s="167"/>
-      <c r="D44" s="167"/>
-      <c r="E44" s="28"/>
-      <c r="F44" s="21"/>
-    </row>
-    <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A45" s="21"/>
-      <c r="B45" s="167"/>
-      <c r="C45" s="167"/>
-      <c r="D45" s="167"/>
-      <c r="E45" s="28"/>
-      <c r="F45" s="21"/>
-    </row>
-    <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A46" s="21"/>
-      <c r="B46" s="167"/>
-      <c r="C46" s="167"/>
-      <c r="D46" s="167"/>
-      <c r="E46" s="28"/>
-      <c r="F46" s="21"/>
-    </row>
-    <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A47" s="21"/>
-      <c r="B47" s="167"/>
-      <c r="C47" s="167"/>
-      <c r="D47" s="167"/>
-      <c r="E47" s="28"/>
-      <c r="F47" s="21"/>
-    </row>
-    <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A48" s="21"/>
-      <c r="B48" s="167"/>
-      <c r="C48" s="167"/>
-      <c r="D48" s="167"/>
-      <c r="E48" s="28"/>
-      <c r="F48" s="21"/>
-    </row>
-    <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A49" s="21"/>
-      <c r="B49" s="167"/>
-      <c r="C49" s="167"/>
-      <c r="D49" s="167"/>
-      <c r="E49" s="28"/>
-      <c r="F49" s="21"/>
-    </row>
-    <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A50" s="21"/>
-      <c r="B50" s="167"/>
-      <c r="C50" s="167"/>
-      <c r="D50" s="167"/>
-      <c r="E50" s="28"/>
-      <c r="F50" s="21"/>
-    </row>
-    <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A51" s="21"/>
-      <c r="B51" s="167"/>
-      <c r="C51" s="167"/>
-      <c r="D51" s="167"/>
-      <c r="E51" s="28"/>
-      <c r="F51" s="21"/>
-    </row>
-    <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A52" s="21"/>
-      <c r="B52" s="167"/>
-      <c r="C52" s="167"/>
-      <c r="D52" s="167"/>
-      <c r="E52" s="28"/>
-      <c r="F52" s="21"/>
-    </row>
-    <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A53" s="21"/>
-      <c r="B53" s="167"/>
-      <c r="C53" s="167"/>
-      <c r="D53" s="167"/>
-      <c r="E53" s="28"/>
-      <c r="F53" s="21"/>
-    </row>
-    <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A54" s="21"/>
-      <c r="B54" s="167"/>
-      <c r="C54" s="167"/>
-      <c r="D54" s="167"/>
-      <c r="E54" s="28"/>
-      <c r="F54" s="21"/>
-    </row>
-    <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A55" s="21"/>
-      <c r="B55" s="167"/>
-      <c r="C55" s="167"/>
-      <c r="D55" s="167"/>
-      <c r="E55" s="28"/>
-      <c r="F55" s="21"/>
-    </row>
-    <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A56" s="21"/>
-      <c r="B56" s="167"/>
-      <c r="C56" s="167"/>
-      <c r="D56" s="167"/>
-      <c r="E56" s="28"/>
-      <c r="F56" s="21"/>
-    </row>
-    <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A57" s="21"/>
-      <c r="B57" s="167"/>
-      <c r="C57" s="167"/>
-      <c r="D57" s="167"/>
-      <c r="E57" s="28"/>
-      <c r="F57" s="21"/>
-    </row>
-    <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A58" s="21"/>
-      <c r="B58" s="167"/>
-      <c r="C58" s="167"/>
-      <c r="D58" s="167"/>
-      <c r="E58" s="28"/>
-      <c r="F58" s="21"/>
-    </row>
-    <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A59" s="21"/>
-      <c r="B59" s="167"/>
-      <c r="C59" s="167"/>
-      <c r="D59" s="167"/>
-      <c r="E59" s="28"/>
-      <c r="F59" s="21"/>
-    </row>
-    <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A60" s="21"/>
-      <c r="B60" s="167"/>
-      <c r="C60" s="167"/>
-      <c r="D60" s="167"/>
-      <c r="E60" s="28"/>
-      <c r="F60" s="21"/>
-    </row>
-    <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A61" s="21"/>
-      <c r="B61" s="167"/>
-      <c r="C61" s="167"/>
-      <c r="D61" s="167"/>
-      <c r="E61" s="28"/>
-      <c r="F61" s="21"/>
-    </row>
-    <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A62" s="21"/>
-      <c r="B62" s="167"/>
-      <c r="C62" s="167"/>
-      <c r="D62" s="167"/>
-      <c r="E62" s="28"/>
-      <c r="F62" s="21"/>
-    </row>
-    <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A63" s="21"/>
-      <c r="B63" s="167"/>
-      <c r="C63" s="167"/>
-      <c r="D63" s="167"/>
-      <c r="E63" s="28"/>
-      <c r="F63" s="21"/>
-    </row>
-    <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A64" s="21"/>
-      <c r="B64" s="167"/>
-      <c r="C64" s="167"/>
-      <c r="D64" s="167"/>
-      <c r="E64" s="28"/>
-      <c r="F64" s="21"/>
-    </row>
-    <row r="65" spans="1:6" s="50" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A65" s="46"/>
-      <c r="B65" s="47"/>
-      <c r="C65" s="48" t="s">
-        <v>36</v>
-      </c>
-      <c r="D65" s="48" t="s">
-        <v>37</v>
-      </c>
-      <c r="E65" s="49"/>
-      <c r="F65" s="46"/>
-    </row>
-    <row r="66" spans="1:6" s="50" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A66" s="46"/>
-      <c r="B66" s="47"/>
-      <c r="C66" s="51">
-        <v>10.75</v>
-      </c>
-      <c r="D66" s="52">
-        <v>325</v>
-      </c>
-      <c r="E66" s="49"/>
-      <c r="F66" s="46"/>
-    </row>
-    <row r="67" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A67" s="21"/>
-      <c r="B67" s="167"/>
-      <c r="C67" s="167"/>
-      <c r="D67" s="167"/>
-      <c r="E67" s="28"/>
-      <c r="F67" s="21"/>
-    </row>
-    <row r="68" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="21"/>
-      <c r="B68" s="167"/>
-      <c r="C68" s="167"/>
-      <c r="D68" s="167"/>
-      <c r="E68" s="28"/>
-      <c r="F68" s="21"/>
-    </row>
-    <row r="69" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="21"/>
-      <c r="B69" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="C69" s="26"/>
-      <c r="D69" s="26"/>
-      <c r="E69" s="29">
-        <f>D66*C66</f>
-        <v>3493.75</v>
-      </c>
-      <c r="F69" s="21"/>
-    </row>
-    <row r="70" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="21"/>
-      <c r="B70" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="C70" s="26"/>
-      <c r="D70" s="26"/>
-      <c r="E70" s="30">
-        <v>0</v>
-      </c>
-      <c r="F70" s="21"/>
-    </row>
-    <row r="71" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="21"/>
-      <c r="B71" s="34" t="s">
-        <v>61</v>
-      </c>
-      <c r="C71" s="26"/>
-      <c r="D71" s="26"/>
-      <c r="E71" s="30">
-        <v>0</v>
-      </c>
-      <c r="F71" s="21"/>
-    </row>
-    <row r="72" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="21"/>
-      <c r="B72" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="C72" s="26"/>
-      <c r="D72" s="26"/>
-      <c r="E72" s="29">
-        <f>SUM(E69:E71)</f>
-        <v>3493.75</v>
-      </c>
-      <c r="F72" s="21"/>
-    </row>
-    <row r="73" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="21"/>
-      <c r="B73" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="C73" s="31">
-        <v>0.05</v>
-      </c>
-      <c r="D73" s="26"/>
-      <c r="E73" s="35">
-        <f>ROUND(E72*C73,2)</f>
-        <v>174.69</v>
-      </c>
-      <c r="F73" s="21"/>
-    </row>
-    <row r="74" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="21"/>
-      <c r="B74" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="C74" s="42">
-        <v>9.9750000000000005E-2</v>
-      </c>
-      <c r="D74" s="26"/>
-      <c r="E74" s="43">
-        <f>ROUND(E72*C74,2)</f>
-        <v>348.5</v>
-      </c>
-      <c r="F74" s="21"/>
-    </row>
-    <row r="75" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="21"/>
-      <c r="B75" s="26"/>
-      <c r="C75" s="26"/>
-      <c r="D75" s="26"/>
-      <c r="E75" s="32"/>
-      <c r="F75" s="21"/>
-    </row>
-    <row r="76" spans="1:6" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="21"/>
-      <c r="B76" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="C76" s="26"/>
-      <c r="D76" s="26"/>
-      <c r="E76" s="33">
-        <f>SUM(E72:E74)</f>
-        <v>4016.94</v>
-      </c>
-      <c r="F76" s="21"/>
-    </row>
-    <row r="77" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="21"/>
-      <c r="B77" s="169"/>
-      <c r="C77" s="169"/>
-      <c r="D77" s="169"/>
-      <c r="E77" s="36"/>
-      <c r="F77" s="21"/>
-    </row>
-    <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A78" s="21"/>
-      <c r="B78" s="174" t="s">
-        <v>17</v>
-      </c>
-      <c r="C78" s="174"/>
-      <c r="D78" s="174"/>
-      <c r="E78" s="36">
-        <v>0</v>
-      </c>
-      <c r="F78" s="21"/>
-    </row>
-    <row r="79" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A79" s="21"/>
-      <c r="B79" s="169"/>
-      <c r="C79" s="169"/>
-      <c r="D79" s="169"/>
-      <c r="E79" s="36"/>
-      <c r="F79" s="21"/>
-    </row>
-    <row r="80" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="21"/>
-      <c r="B80" s="37" t="s">
-        <v>16</v>
-      </c>
-      <c r="C80" s="38"/>
-      <c r="D80" s="38"/>
-      <c r="E80" s="39">
-        <f>E76-E78</f>
-        <v>4016.94</v>
-      </c>
-      <c r="F80" s="21"/>
-    </row>
-    <row r="81" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="21"/>
-      <c r="B81" s="21"/>
-      <c r="C81" s="21"/>
-      <c r="D81" s="21"/>
-      <c r="E81" s="21"/>
-      <c r="F81" s="21"/>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A82" s="21"/>
-      <c r="B82" s="21"/>
-      <c r="C82" s="21"/>
-      <c r="D82" s="21"/>
-      <c r="E82" s="21"/>
-      <c r="F82" s="21"/>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A83" s="21"/>
-      <c r="B83" s="172"/>
-      <c r="C83" s="172"/>
-      <c r="D83" s="172"/>
-      <c r="E83" s="172"/>
-      <c r="F83" s="21"/>
-    </row>
-    <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="166" t="s">
-        <v>28</v>
-      </c>
-      <c r="B84" s="166"/>
-      <c r="C84" s="166"/>
-      <c r="D84" s="166"/>
-      <c r="E84" s="166"/>
-      <c r="F84" s="166"/>
-    </row>
-    <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A85" s="175" t="s">
-        <v>29</v>
-      </c>
-      <c r="B85" s="175"/>
-      <c r="C85" s="175"/>
-      <c r="D85" s="175"/>
-      <c r="E85" s="175"/>
-      <c r="F85" s="175"/>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A86" s="21"/>
-      <c r="B86" s="21"/>
-      <c r="C86" s="21"/>
-      <c r="D86" s="21"/>
-      <c r="E86" s="21"/>
-      <c r="F86" s="21"/>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A87" s="21"/>
-      <c r="B87" s="173"/>
-      <c r="C87" s="173"/>
-      <c r="D87" s="173"/>
-      <c r="E87" s="173"/>
-      <c r="F87" s="21"/>
-    </row>
-    <row r="88" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A88" s="165" t="s">
-        <v>7</v>
-      </c>
-      <c r="B88" s="165"/>
-      <c r="C88" s="165"/>
-      <c r="D88" s="165"/>
-      <c r="E88" s="165"/>
-      <c r="F88" s="165"/>
-    </row>
-    <row r="90" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="170"/>
-      <c r="C90" s="171"/>
-      <c r="D90" s="171"/>
-    </row>
-    <row r="91" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B92" s="16"/>
-      <c r="C92" s="16"/>
-      <c r="D92" s="16"/>
-    </row>
-  </sheetData>
-  <mergeCells count="44">
-    <mergeCell ref="A88:F88"/>
-    <mergeCell ref="B90:D90"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="B79:D79"/>
-    <mergeCell ref="B83:E83"/>
-    <mergeCell ref="A84:F84"/>
-    <mergeCell ref="A85:F85"/>
-    <mergeCell ref="B87:E87"/>
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B42:D42"/>
-  </mergeCells>
-  <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B77:B79 B12:B20 B33:B68" xr:uid="{2367A061-2D4B-4AF1-8737-3BB494371874}">
       <formula1>Liste_Activités</formula1>
     </dataValidation>
@@ -12319,14 +13244,14 @@
       <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="168" t="s">
+      <c r="A30" s="172" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="168"/>
-      <c r="C30" s="168"/>
-      <c r="D30" s="168"/>
-      <c r="E30" s="168"/>
-      <c r="F30" s="168"/>
+      <c r="B30" s="172"/>
+      <c r="C30" s="172"/>
+      <c r="D30" s="172"/>
+      <c r="E30" s="172"/>
+      <c r="F30" s="172"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="17"/>
@@ -12347,273 +13272,273 @@
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
-      <c r="B33" s="167"/>
-      <c r="C33" s="167"/>
-      <c r="D33" s="167"/>
+      <c r="B33" s="169"/>
+      <c r="C33" s="169"/>
+      <c r="D33" s="169"/>
       <c r="E33" s="28"/>
       <c r="F33" s="21"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="21"/>
-      <c r="B34" s="167" t="s">
+      <c r="B34" s="169" t="s">
         <v>83</v>
       </c>
-      <c r="C34" s="167"/>
-      <c r="D34" s="167"/>
+      <c r="C34" s="169"/>
+      <c r="D34" s="169"/>
       <c r="E34" s="28"/>
       <c r="F34" s="21"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
-      <c r="B35" s="167"/>
-      <c r="C35" s="167"/>
-      <c r="D35" s="167"/>
+      <c r="B35" s="169"/>
+      <c r="C35" s="169"/>
+      <c r="D35" s="169"/>
       <c r="E35" s="28"/>
       <c r="F35" s="21"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="21"/>
-      <c r="B36" s="167" t="s">
+      <c r="B36" s="169" t="s">
         <v>84</v>
       </c>
-      <c r="C36" s="167"/>
-      <c r="D36" s="167"/>
+      <c r="C36" s="169"/>
+      <c r="D36" s="169"/>
       <c r="E36" s="28"/>
       <c r="F36" s="21"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
-      <c r="B37" s="167"/>
-      <c r="C37" s="167"/>
-      <c r="D37" s="167"/>
+      <c r="B37" s="169"/>
+      <c r="C37" s="169"/>
+      <c r="D37" s="169"/>
       <c r="E37" s="28"/>
       <c r="F37" s="21"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="21"/>
-      <c r="B38" s="167" t="s">
+      <c r="B38" s="169" t="s">
         <v>38</v>
       </c>
-      <c r="C38" s="167"/>
-      <c r="D38" s="167"/>
+      <c r="C38" s="169"/>
+      <c r="D38" s="169"/>
       <c r="E38" s="28"/>
       <c r="F38" s="21"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="21"/>
-      <c r="B39" s="167"/>
-      <c r="C39" s="167"/>
-      <c r="D39" s="167"/>
+      <c r="B39" s="169"/>
+      <c r="C39" s="169"/>
+      <c r="D39" s="169"/>
       <c r="E39" s="28"/>
       <c r="F39" s="21"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="21"/>
-      <c r="B40" s="167" t="s">
+      <c r="B40" s="169" t="s">
         <v>85</v>
       </c>
-      <c r="C40" s="167"/>
-      <c r="D40" s="167"/>
+      <c r="C40" s="169"/>
+      <c r="D40" s="169"/>
       <c r="E40" s="28"/>
       <c r="F40" s="21"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="21"/>
-      <c r="B41" s="167"/>
-      <c r="C41" s="167"/>
-      <c r="D41" s="167"/>
+      <c r="B41" s="169"/>
+      <c r="C41" s="169"/>
+      <c r="D41" s="169"/>
       <c r="E41" s="28"/>
       <c r="F41" s="21"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="21"/>
-      <c r="B42" s="167"/>
-      <c r="C42" s="167"/>
-      <c r="D42" s="167"/>
+      <c r="B42" s="169"/>
+      <c r="C42" s="169"/>
+      <c r="D42" s="169"/>
       <c r="E42" s="28"/>
       <c r="F42" s="21"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="21"/>
-      <c r="B43" s="167"/>
-      <c r="C43" s="167"/>
-      <c r="D43" s="167"/>
+      <c r="B43" s="169"/>
+      <c r="C43" s="169"/>
+      <c r="D43" s="169"/>
       <c r="E43" s="28"/>
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
-      <c r="B44" s="167"/>
-      <c r="C44" s="167"/>
-      <c r="D44" s="167"/>
+      <c r="B44" s="169"/>
+      <c r="C44" s="169"/>
+      <c r="D44" s="169"/>
       <c r="E44" s="28"/>
       <c r="F44" s="21"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="21"/>
-      <c r="B45" s="167"/>
-      <c r="C45" s="167"/>
-      <c r="D45" s="167"/>
+      <c r="B45" s="169"/>
+      <c r="C45" s="169"/>
+      <c r="D45" s="169"/>
       <c r="E45" s="28"/>
       <c r="F45" s="21"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="21"/>
-      <c r="B46" s="167"/>
-      <c r="C46" s="167"/>
-      <c r="D46" s="167"/>
+      <c r="B46" s="169"/>
+      <c r="C46" s="169"/>
+      <c r="D46" s="169"/>
       <c r="E46" s="28"/>
       <c r="F46" s="21"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="21"/>
-      <c r="B47" s="167"/>
-      <c r="C47" s="167"/>
-      <c r="D47" s="167"/>
+      <c r="B47" s="169"/>
+      <c r="C47" s="169"/>
+      <c r="D47" s="169"/>
       <c r="E47" s="28"/>
       <c r="F47" s="21"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="21"/>
-      <c r="B48" s="167"/>
-      <c r="C48" s="167"/>
-      <c r="D48" s="167"/>
+      <c r="B48" s="169"/>
+      <c r="C48" s="169"/>
+      <c r="D48" s="169"/>
       <c r="E48" s="28"/>
       <c r="F48" s="21"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="21"/>
-      <c r="B49" s="167"/>
-      <c r="C49" s="167"/>
-      <c r="D49" s="167"/>
+      <c r="B49" s="169"/>
+      <c r="C49" s="169"/>
+      <c r="D49" s="169"/>
       <c r="E49" s="28"/>
       <c r="F49" s="21"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="21"/>
-      <c r="B50" s="167"/>
-      <c r="C50" s="167"/>
-      <c r="D50" s="167"/>
+      <c r="B50" s="169"/>
+      <c r="C50" s="169"/>
+      <c r="D50" s="169"/>
       <c r="E50" s="28"/>
       <c r="F50" s="21"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="21"/>
-      <c r="B51" s="167"/>
-      <c r="C51" s="167"/>
-      <c r="D51" s="167"/>
+      <c r="B51" s="169"/>
+      <c r="C51" s="169"/>
+      <c r="D51" s="169"/>
       <c r="E51" s="28"/>
       <c r="F51" s="21"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="21"/>
-      <c r="B52" s="167"/>
-      <c r="C52" s="167"/>
-      <c r="D52" s="167"/>
+      <c r="B52" s="169"/>
+      <c r="C52" s="169"/>
+      <c r="D52" s="169"/>
       <c r="E52" s="28"/>
       <c r="F52" s="21"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="21"/>
-      <c r="B53" s="167"/>
-      <c r="C53" s="167"/>
-      <c r="D53" s="167"/>
+      <c r="B53" s="169"/>
+      <c r="C53" s="169"/>
+      <c r="D53" s="169"/>
       <c r="E53" s="28"/>
       <c r="F53" s="21"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="21"/>
-      <c r="B54" s="167"/>
-      <c r="C54" s="167"/>
-      <c r="D54" s="167"/>
+      <c r="B54" s="169"/>
+      <c r="C54" s="169"/>
+      <c r="D54" s="169"/>
       <c r="E54" s="28"/>
       <c r="F54" s="21"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="21"/>
-      <c r="B55" s="167"/>
-      <c r="C55" s="167"/>
-      <c r="D55" s="167"/>
+      <c r="B55" s="169"/>
+      <c r="C55" s="169"/>
+      <c r="D55" s="169"/>
       <c r="E55" s="28"/>
       <c r="F55" s="21"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="21"/>
-      <c r="B56" s="167"/>
-      <c r="C56" s="167"/>
-      <c r="D56" s="167"/>
+      <c r="B56" s="169"/>
+      <c r="C56" s="169"/>
+      <c r="D56" s="169"/>
       <c r="E56" s="28"/>
       <c r="F56" s="21"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="21"/>
-      <c r="B57" s="167"/>
-      <c r="C57" s="167"/>
-      <c r="D57" s="167"/>
+      <c r="B57" s="169"/>
+      <c r="C57" s="169"/>
+      <c r="D57" s="169"/>
       <c r="E57" s="28"/>
       <c r="F57" s="21"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="21"/>
-      <c r="B58" s="167"/>
-      <c r="C58" s="167"/>
-      <c r="D58" s="167"/>
+      <c r="B58" s="169"/>
+      <c r="C58" s="169"/>
+      <c r="D58" s="169"/>
       <c r="E58" s="28"/>
       <c r="F58" s="21"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="21"/>
-      <c r="B59" s="167"/>
-      <c r="C59" s="167"/>
-      <c r="D59" s="167"/>
+      <c r="B59" s="169"/>
+      <c r="C59" s="169"/>
+      <c r="D59" s="169"/>
       <c r="E59" s="28"/>
       <c r="F59" s="21"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="21"/>
-      <c r="B60" s="167"/>
-      <c r="C60" s="167"/>
-      <c r="D60" s="167"/>
+      <c r="B60" s="169"/>
+      <c r="C60" s="169"/>
+      <c r="D60" s="169"/>
       <c r="E60" s="28"/>
       <c r="F60" s="21"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="21"/>
-      <c r="B61" s="167"/>
-      <c r="C61" s="167"/>
-      <c r="D61" s="167"/>
+      <c r="B61" s="169"/>
+      <c r="C61" s="169"/>
+      <c r="D61" s="169"/>
       <c r="E61" s="28"/>
       <c r="F61" s="21"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="21"/>
-      <c r="B62" s="167"/>
-      <c r="C62" s="167"/>
-      <c r="D62" s="167"/>
+      <c r="B62" s="169"/>
+      <c r="C62" s="169"/>
+      <c r="D62" s="169"/>
       <c r="E62" s="28"/>
       <c r="F62" s="21"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="21"/>
-      <c r="B63" s="167"/>
-      <c r="C63" s="167"/>
-      <c r="D63" s="167"/>
+      <c r="B63" s="169"/>
+      <c r="C63" s="169"/>
+      <c r="D63" s="169"/>
       <c r="E63" s="28"/>
       <c r="F63" s="21"/>
     </row>
     <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A64" s="21"/>
-      <c r="B64" s="167"/>
-      <c r="C64" s="167"/>
-      <c r="D64" s="167"/>
+      <c r="B64" s="169"/>
+      <c r="C64" s="169"/>
+      <c r="D64" s="169"/>
       <c r="E64" s="28"/>
       <c r="F64" s="21"/>
     </row>
     <row r="65" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A65" s="21"/>
-      <c r="B65" s="167"/>
-      <c r="C65" s="167"/>
-      <c r="D65" s="167"/>
+      <c r="B65" s="169"/>
+      <c r="C65" s="169"/>
+      <c r="D65" s="169"/>
       <c r="E65" s="28"/>
       <c r="F65" s="21"/>
     </row>
@@ -12643,17 +13568,17 @@
     </row>
     <row r="68" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A68" s="21"/>
-      <c r="B68" s="167"/>
-      <c r="C68" s="167"/>
-      <c r="D68" s="167"/>
+      <c r="B68" s="169"/>
+      <c r="C68" s="169"/>
+      <c r="D68" s="169"/>
       <c r="E68" s="28"/>
       <c r="F68" s="21"/>
     </row>
     <row r="69" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="21"/>
-      <c r="B69" s="167"/>
-      <c r="C69" s="167"/>
-      <c r="D69" s="167"/>
+      <c r="B69" s="169"/>
+      <c r="C69" s="169"/>
+      <c r="D69" s="169"/>
       <c r="E69" s="28"/>
       <c r="F69" s="21"/>
     </row>
@@ -12760,19 +13685,19 @@
     </row>
     <row r="78" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A78" s="21"/>
-      <c r="B78" s="169"/>
-      <c r="C78" s="169"/>
-      <c r="D78" s="169"/>
+      <c r="B78" s="173"/>
+      <c r="C78" s="173"/>
+      <c r="D78" s="173"/>
       <c r="E78" s="36"/>
       <c r="F78" s="21"/>
     </row>
     <row r="79" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="21"/>
-      <c r="B79" s="174" t="s">
+      <c r="B79" s="170" t="s">
         <v>17</v>
       </c>
-      <c r="C79" s="174"/>
-      <c r="D79" s="174"/>
+      <c r="C79" s="170"/>
+      <c r="D79" s="170"/>
       <c r="E79" s="36">
         <v>0</v>
       </c>
@@ -12780,9 +13705,9 @@
     </row>
     <row r="80" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A80" s="21"/>
-      <c r="B80" s="169"/>
-      <c r="C80" s="169"/>
-      <c r="D80" s="169"/>
+      <c r="B80" s="173"/>
+      <c r="C80" s="173"/>
+      <c r="D80" s="173"/>
       <c r="E80" s="36"/>
       <c r="F80" s="21"/>
     </row>
@@ -12817,31 +13742,31 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" s="21"/>
-      <c r="B84" s="172"/>
-      <c r="C84" s="172"/>
-      <c r="D84" s="172"/>
-      <c r="E84" s="172"/>
+      <c r="B84" s="167"/>
+      <c r="C84" s="167"/>
+      <c r="D84" s="167"/>
+      <c r="E84" s="167"/>
       <c r="F84" s="21"/>
     </row>
     <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A85" s="166" t="s">
+      <c r="A85" s="175" t="s">
         <v>28</v>
       </c>
-      <c r="B85" s="166"/>
-      <c r="C85" s="166"/>
-      <c r="D85" s="166"/>
-      <c r="E85" s="166"/>
-      <c r="F85" s="166"/>
+      <c r="B85" s="175"/>
+      <c r="C85" s="175"/>
+      <c r="D85" s="175"/>
+      <c r="E85" s="175"/>
+      <c r="F85" s="175"/>
     </row>
     <row r="86" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A86" s="175" t="s">
+      <c r="A86" s="171" t="s">
         <v>29</v>
       </c>
-      <c r="B86" s="175"/>
-      <c r="C86" s="175"/>
-      <c r="D86" s="175"/>
-      <c r="E86" s="175"/>
-      <c r="F86" s="175"/>
+      <c r="B86" s="171"/>
+      <c r="C86" s="171"/>
+      <c r="D86" s="171"/>
+      <c r="E86" s="171"/>
+      <c r="F86" s="171"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="21"/>
@@ -12853,26 +13778,26 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" s="21"/>
-      <c r="B88" s="173"/>
-      <c r="C88" s="173"/>
-      <c r="D88" s="173"/>
-      <c r="E88" s="173"/>
+      <c r="B88" s="168"/>
+      <c r="C88" s="168"/>
+      <c r="D88" s="168"/>
+      <c r="E88" s="168"/>
       <c r="F88" s="21"/>
     </row>
     <row r="89" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A89" s="165" t="s">
+      <c r="A89" s="174" t="s">
         <v>7</v>
       </c>
-      <c r="B89" s="165"/>
-      <c r="C89" s="165"/>
-      <c r="D89" s="165"/>
-      <c r="E89" s="165"/>
-      <c r="F89" s="165"/>
+      <c r="B89" s="174"/>
+      <c r="C89" s="174"/>
+      <c r="D89" s="174"/>
+      <c r="E89" s="174"/>
+      <c r="F89" s="174"/>
     </row>
     <row r="91" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B91" s="170"/>
-      <c r="C91" s="171"/>
-      <c r="D91" s="171"/>
+      <c r="B91" s="165"/>
+      <c r="C91" s="166"/>
+      <c r="D91" s="166"/>
     </row>
     <row r="92" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
@@ -12882,35 +13807,6 @@
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B62:D62"/>
     <mergeCell ref="A89:F89"/>
     <mergeCell ref="B91:D91"/>
     <mergeCell ref="B41:D41"/>
@@ -12927,6 +13823,35 @@
     <mergeCell ref="B69:D69"/>
     <mergeCell ref="B78:D78"/>
     <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B43:D43"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B78:B80 B12:B20 B33:B69" xr:uid="{C26FE616-E523-41D4-B8D6-F857B5768EA8}">
@@ -13084,14 +14009,14 @@
       <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="168" t="s">
+      <c r="A30" s="172" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="168"/>
-      <c r="C30" s="168"/>
-      <c r="D30" s="168"/>
-      <c r="E30" s="168"/>
-      <c r="F30" s="168"/>
+      <c r="B30" s="172"/>
+      <c r="C30" s="172"/>
+      <c r="D30" s="172"/>
+      <c r="E30" s="172"/>
+      <c r="F30" s="172"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="17"/>
@@ -13112,275 +14037,275 @@
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
-      <c r="B33" s="167"/>
-      <c r="C33" s="167"/>
-      <c r="D33" s="167"/>
+      <c r="B33" s="169"/>
+      <c r="C33" s="169"/>
+      <c r="D33" s="169"/>
       <c r="E33" s="28"/>
       <c r="F33" s="21"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="21"/>
-      <c r="B34" s="167" t="s">
+      <c r="B34" s="169" t="s">
         <v>88</v>
       </c>
-      <c r="C34" s="167"/>
-      <c r="D34" s="167"/>
+      <c r="C34" s="169"/>
+      <c r="D34" s="169"/>
       <c r="E34" s="28"/>
       <c r="F34" s="21"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
-      <c r="B35" s="167"/>
-      <c r="C35" s="167"/>
-      <c r="D35" s="167"/>
+      <c r="B35" s="169"/>
+      <c r="C35" s="169"/>
+      <c r="D35" s="169"/>
       <c r="E35" s="28"/>
       <c r="F35" s="21"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="21"/>
-      <c r="B36" s="167" t="s">
+      <c r="B36" s="169" t="s">
         <v>89</v>
       </c>
-      <c r="C36" s="167"/>
-      <c r="D36" s="167"/>
+      <c r="C36" s="169"/>
+      <c r="D36" s="169"/>
       <c r="E36" s="28"/>
       <c r="F36" s="21"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
-      <c r="B37" s="167"/>
-      <c r="C37" s="167"/>
-      <c r="D37" s="167"/>
+      <c r="B37" s="169"/>
+      <c r="C37" s="169"/>
+      <c r="D37" s="169"/>
       <c r="E37" s="28"/>
       <c r="F37" s="21"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="21"/>
-      <c r="B38" s="167" t="s">
+      <c r="B38" s="169" t="s">
         <v>90</v>
       </c>
-      <c r="C38" s="167"/>
-      <c r="D38" s="167"/>
+      <c r="C38" s="169"/>
+      <c r="D38" s="169"/>
       <c r="E38" s="28"/>
       <c r="F38" s="21"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="21"/>
-      <c r="B39" s="167"/>
-      <c r="C39" s="167"/>
-      <c r="D39" s="167"/>
+      <c r="B39" s="169"/>
+      <c r="C39" s="169"/>
+      <c r="D39" s="169"/>
       <c r="E39" s="28"/>
       <c r="F39" s="21"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="21"/>
-      <c r="B40" s="167" t="s">
+      <c r="B40" s="169" t="s">
         <v>91</v>
       </c>
-      <c r="C40" s="167"/>
-      <c r="D40" s="167"/>
+      <c r="C40" s="169"/>
+      <c r="D40" s="169"/>
       <c r="E40" s="28"/>
       <c r="F40" s="21"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="21"/>
-      <c r="B41" s="167"/>
-      <c r="C41" s="167"/>
-      <c r="D41" s="167"/>
+      <c r="B41" s="169"/>
+      <c r="C41" s="169"/>
+      <c r="D41" s="169"/>
       <c r="E41" s="28"/>
       <c r="F41" s="21"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="21"/>
-      <c r="B42" s="167" t="s">
+      <c r="B42" s="169" t="s">
         <v>38</v>
       </c>
-      <c r="C42" s="167"/>
-      <c r="D42" s="167"/>
+      <c r="C42" s="169"/>
+      <c r="D42" s="169"/>
       <c r="E42" s="28"/>
       <c r="F42" s="21"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="21"/>
-      <c r="B43" s="167"/>
-      <c r="C43" s="167"/>
-      <c r="D43" s="167"/>
+      <c r="B43" s="169"/>
+      <c r="C43" s="169"/>
+      <c r="D43" s="169"/>
       <c r="E43" s="28"/>
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
-      <c r="B44" s="167"/>
-      <c r="C44" s="167"/>
-      <c r="D44" s="167"/>
+      <c r="B44" s="169"/>
+      <c r="C44" s="169"/>
+      <c r="D44" s="169"/>
       <c r="E44" s="28"/>
       <c r="F44" s="21"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="21"/>
-      <c r="B45" s="167"/>
-      <c r="C45" s="167"/>
-      <c r="D45" s="167"/>
+      <c r="B45" s="169"/>
+      <c r="C45" s="169"/>
+      <c r="D45" s="169"/>
       <c r="E45" s="28"/>
       <c r="F45" s="21"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="21"/>
-      <c r="B46" s="167"/>
-      <c r="C46" s="167"/>
-      <c r="D46" s="167"/>
+      <c r="B46" s="169"/>
+      <c r="C46" s="169"/>
+      <c r="D46" s="169"/>
       <c r="E46" s="28"/>
       <c r="F46" s="21"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="21"/>
-      <c r="B47" s="167"/>
-      <c r="C47" s="167"/>
-      <c r="D47" s="167"/>
+      <c r="B47" s="169"/>
+      <c r="C47" s="169"/>
+      <c r="D47" s="169"/>
       <c r="E47" s="28"/>
       <c r="F47" s="21"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="21"/>
-      <c r="B48" s="167"/>
-      <c r="C48" s="167"/>
-      <c r="D48" s="167"/>
+      <c r="B48" s="169"/>
+      <c r="C48" s="169"/>
+      <c r="D48" s="169"/>
       <c r="E48" s="28"/>
       <c r="F48" s="21"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="21"/>
-      <c r="B49" s="167"/>
-      <c r="C49" s="167"/>
-      <c r="D49" s="167"/>
+      <c r="B49" s="169"/>
+      <c r="C49" s="169"/>
+      <c r="D49" s="169"/>
       <c r="E49" s="28"/>
       <c r="F49" s="21"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="21"/>
-      <c r="B50" s="167"/>
-      <c r="C50" s="167"/>
-      <c r="D50" s="167"/>
+      <c r="B50" s="169"/>
+      <c r="C50" s="169"/>
+      <c r="D50" s="169"/>
       <c r="E50" s="28"/>
       <c r="F50" s="21"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="21"/>
-      <c r="B51" s="167"/>
-      <c r="C51" s="167"/>
-      <c r="D51" s="167"/>
+      <c r="B51" s="169"/>
+      <c r="C51" s="169"/>
+      <c r="D51" s="169"/>
       <c r="E51" s="28"/>
       <c r="F51" s="21"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="21"/>
-      <c r="B52" s="167"/>
-      <c r="C52" s="167"/>
-      <c r="D52" s="167"/>
+      <c r="B52" s="169"/>
+      <c r="C52" s="169"/>
+      <c r="D52" s="169"/>
       <c r="E52" s="28"/>
       <c r="F52" s="21"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="21"/>
-      <c r="B53" s="167"/>
-      <c r="C53" s="167"/>
-      <c r="D53" s="167"/>
+      <c r="B53" s="169"/>
+      <c r="C53" s="169"/>
+      <c r="D53" s="169"/>
       <c r="E53" s="28"/>
       <c r="F53" s="21"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="21"/>
-      <c r="B54" s="167"/>
-      <c r="C54" s="167"/>
-      <c r="D54" s="167"/>
+      <c r="B54" s="169"/>
+      <c r="C54" s="169"/>
+      <c r="D54" s="169"/>
       <c r="E54" s="28"/>
       <c r="F54" s="21"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="21"/>
-      <c r="B55" s="167"/>
-      <c r="C55" s="167"/>
-      <c r="D55" s="167"/>
+      <c r="B55" s="169"/>
+      <c r="C55" s="169"/>
+      <c r="D55" s="169"/>
       <c r="E55" s="28"/>
       <c r="F55" s="21"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="21"/>
-      <c r="B56" s="167"/>
-      <c r="C56" s="167"/>
-      <c r="D56" s="167"/>
+      <c r="B56" s="169"/>
+      <c r="C56" s="169"/>
+      <c r="D56" s="169"/>
       <c r="E56" s="28"/>
       <c r="F56" s="21"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="21"/>
-      <c r="B57" s="167"/>
-      <c r="C57" s="167"/>
-      <c r="D57" s="167"/>
+      <c r="B57" s="169"/>
+      <c r="C57" s="169"/>
+      <c r="D57" s="169"/>
       <c r="E57" s="28"/>
       <c r="F57" s="21"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="21"/>
-      <c r="B58" s="167"/>
-      <c r="C58" s="167"/>
-      <c r="D58" s="167"/>
+      <c r="B58" s="169"/>
+      <c r="C58" s="169"/>
+      <c r="D58" s="169"/>
       <c r="E58" s="28"/>
       <c r="F58" s="21"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="21"/>
-      <c r="B59" s="167"/>
-      <c r="C59" s="167"/>
-      <c r="D59" s="167"/>
+      <c r="B59" s="169"/>
+      <c r="C59" s="169"/>
+      <c r="D59" s="169"/>
       <c r="E59" s="28"/>
       <c r="F59" s="21"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="21"/>
-      <c r="B60" s="167"/>
-      <c r="C60" s="167"/>
-      <c r="D60" s="167"/>
+      <c r="B60" s="169"/>
+      <c r="C60" s="169"/>
+      <c r="D60" s="169"/>
       <c r="E60" s="28"/>
       <c r="F60" s="21"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="21"/>
-      <c r="B61" s="167"/>
-      <c r="C61" s="167"/>
-      <c r="D61" s="167"/>
+      <c r="B61" s="169"/>
+      <c r="C61" s="169"/>
+      <c r="D61" s="169"/>
       <c r="E61" s="28"/>
       <c r="F61" s="21"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="21"/>
-      <c r="B62" s="167"/>
-      <c r="C62" s="167"/>
-      <c r="D62" s="167"/>
+      <c r="B62" s="169"/>
+      <c r="C62" s="169"/>
+      <c r="D62" s="169"/>
       <c r="E62" s="28"/>
       <c r="F62" s="21"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="21"/>
-      <c r="B63" s="167"/>
-      <c r="C63" s="167"/>
-      <c r="D63" s="167"/>
+      <c r="B63" s="169"/>
+      <c r="C63" s="169"/>
+      <c r="D63" s="169"/>
       <c r="E63" s="28"/>
       <c r="F63" s="21"/>
     </row>
     <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A64" s="21"/>
-      <c r="B64" s="167"/>
-      <c r="C64" s="167"/>
-      <c r="D64" s="167"/>
+      <c r="B64" s="169"/>
+      <c r="C64" s="169"/>
+      <c r="D64" s="169"/>
       <c r="E64" s="28"/>
       <c r="F64" s="21"/>
     </row>
     <row r="65" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A65" s="21"/>
-      <c r="B65" s="167"/>
-      <c r="C65" s="167"/>
-      <c r="D65" s="167"/>
+      <c r="B65" s="169"/>
+      <c r="C65" s="169"/>
+      <c r="D65" s="169"/>
       <c r="E65" s="28"/>
       <c r="F65" s="21"/>
     </row>
@@ -13410,17 +14335,17 @@
     </row>
     <row r="68" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A68" s="21"/>
-      <c r="B68" s="167"/>
-      <c r="C68" s="167"/>
-      <c r="D68" s="167"/>
+      <c r="B68" s="169"/>
+      <c r="C68" s="169"/>
+      <c r="D68" s="169"/>
       <c r="E68" s="28"/>
       <c r="F68" s="21"/>
     </row>
     <row r="69" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="21"/>
-      <c r="B69" s="167"/>
-      <c r="C69" s="167"/>
-      <c r="D69" s="167"/>
+      <c r="B69" s="169"/>
+      <c r="C69" s="169"/>
+      <c r="D69" s="169"/>
       <c r="E69" s="28"/>
       <c r="F69" s="21"/>
     </row>
@@ -13527,19 +14452,19 @@
     </row>
     <row r="78" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A78" s="21"/>
-      <c r="B78" s="169"/>
-      <c r="C78" s="169"/>
-      <c r="D78" s="169"/>
+      <c r="B78" s="173"/>
+      <c r="C78" s="173"/>
+      <c r="D78" s="173"/>
       <c r="E78" s="36"/>
       <c r="F78" s="21"/>
     </row>
     <row r="79" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="21"/>
-      <c r="B79" s="174" t="s">
+      <c r="B79" s="170" t="s">
         <v>17</v>
       </c>
-      <c r="C79" s="174"/>
-      <c r="D79" s="174"/>
+      <c r="C79" s="170"/>
+      <c r="D79" s="170"/>
       <c r="E79" s="36">
         <v>0</v>
       </c>
@@ -13547,9 +14472,9 @@
     </row>
     <row r="80" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A80" s="21"/>
-      <c r="B80" s="169"/>
-      <c r="C80" s="169"/>
-      <c r="D80" s="169"/>
+      <c r="B80" s="173"/>
+      <c r="C80" s="173"/>
+      <c r="D80" s="173"/>
       <c r="E80" s="36"/>
       <c r="F80" s="21"/>
     </row>
@@ -13584,31 +14509,31 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" s="21"/>
-      <c r="B84" s="172"/>
-      <c r="C84" s="172"/>
-      <c r="D84" s="172"/>
-      <c r="E84" s="172"/>
+      <c r="B84" s="167"/>
+      <c r="C84" s="167"/>
+      <c r="D84" s="167"/>
+      <c r="E84" s="167"/>
       <c r="F84" s="21"/>
     </row>
     <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A85" s="166" t="s">
+      <c r="A85" s="175" t="s">
         <v>28</v>
       </c>
-      <c r="B85" s="166"/>
-      <c r="C85" s="166"/>
-      <c r="D85" s="166"/>
-      <c r="E85" s="166"/>
-      <c r="F85" s="166"/>
+      <c r="B85" s="175"/>
+      <c r="C85" s="175"/>
+      <c r="D85" s="175"/>
+      <c r="E85" s="175"/>
+      <c r="F85" s="175"/>
     </row>
     <row r="86" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A86" s="175" t="s">
+      <c r="A86" s="171" t="s">
         <v>29</v>
       </c>
-      <c r="B86" s="175"/>
-      <c r="C86" s="175"/>
-      <c r="D86" s="175"/>
-      <c r="E86" s="175"/>
-      <c r="F86" s="175"/>
+      <c r="B86" s="171"/>
+      <c r="C86" s="171"/>
+      <c r="D86" s="171"/>
+      <c r="E86" s="171"/>
+      <c r="F86" s="171"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="21"/>
@@ -13620,26 +14545,801 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" s="21"/>
-      <c r="B88" s="173"/>
-      <c r="C88" s="173"/>
-      <c r="D88" s="173"/>
-      <c r="E88" s="173"/>
+      <c r="B88" s="168"/>
+      <c r="C88" s="168"/>
+      <c r="D88" s="168"/>
+      <c r="E88" s="168"/>
       <c r="F88" s="21"/>
     </row>
     <row r="89" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A89" s="165" t="s">
+      <c r="A89" s="174" t="s">
         <v>7</v>
       </c>
-      <c r="B89" s="165"/>
-      <c r="C89" s="165"/>
-      <c r="D89" s="165"/>
-      <c r="E89" s="165"/>
-      <c r="F89" s="165"/>
+      <c r="B89" s="174"/>
+      <c r="C89" s="174"/>
+      <c r="D89" s="174"/>
+      <c r="E89" s="174"/>
+      <c r="F89" s="174"/>
     </row>
     <row r="91" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B91" s="170"/>
-      <c r="C91" s="171"/>
-      <c r="D91" s="171"/>
+      <c r="B91" s="165"/>
+      <c r="C91" s="166"/>
+      <c r="D91" s="166"/>
+    </row>
+    <row r="92" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B93" s="16"/>
+      <c r="C93" s="16"/>
+      <c r="D93" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="45">
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B69:D69"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="B88:E88"/>
+    <mergeCell ref="A89:F89"/>
+    <mergeCell ref="B91:D91"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B79:D79"/>
+    <mergeCell ref="B80:D80"/>
+    <mergeCell ref="B84:E84"/>
+    <mergeCell ref="A85:F85"/>
+    <mergeCell ref="A86:F86"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B78:B80 B12:B20 B33:B69" xr:uid="{E383F8C4-BFC0-491A-9D27-5C56254EEDF2}">
+      <formula1>Liste_Activités</formula1>
+    </dataValidation>
+  </dataValidations>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="131" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E6EA1A3-5BF7-453F-90EF-F9C7BF75F7EB}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A12:F93"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" topLeftCell="A21" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44:D44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="120" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="11.42578125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B12" s="3"/>
+      <c r="E12" s="4"/>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B13" s="3"/>
+      <c r="E13" s="4"/>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B14" s="3"/>
+      <c r="E14" s="4"/>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B15" s="3"/>
+      <c r="E15" s="4"/>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B16" s="3"/>
+      <c r="E16" s="4"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B17" s="3"/>
+      <c r="E17" s="4"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B18" s="3"/>
+      <c r="E18" s="4"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B19" s="3"/>
+      <c r="E19" s="4"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B20" s="3"/>
+      <c r="E20" s="4"/>
+    </row>
+    <row r="21" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A21" s="17"/>
+      <c r="B21" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+    </row>
+    <row r="22" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A22" s="17"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+    </row>
+    <row r="23" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A23" s="17"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+    </row>
+    <row r="24" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A24" s="17"/>
+      <c r="B24" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+    </row>
+    <row r="25" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A25" s="17"/>
+      <c r="B25" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+    </row>
+    <row r="26" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="17"/>
+      <c r="B26" s="53" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="18"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="21"/>
+    </row>
+    <row r="28" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A28" s="17"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="F28" s="21"/>
+    </row>
+    <row r="29" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="19"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="20"/>
+    </row>
+    <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="172" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="172"/>
+      <c r="C30" s="172"/>
+      <c r="D30" s="172"/>
+      <c r="E30" s="172"/>
+      <c r="F30" s="172"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="17"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+    </row>
+    <row r="32" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A32" s="21"/>
+      <c r="B32" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="21"/>
+    </row>
+    <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A33" s="21"/>
+      <c r="B33" s="169"/>
+      <c r="C33" s="169"/>
+      <c r="D33" s="169"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="21"/>
+    </row>
+    <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A34" s="21"/>
+      <c r="B34" s="169"/>
+      <c r="C34" s="169"/>
+      <c r="D34" s="169"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="21"/>
+    </row>
+    <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A35" s="21"/>
+      <c r="B35" s="169" t="s">
+        <v>98</v>
+      </c>
+      <c r="C35" s="169"/>
+      <c r="D35" s="169"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="21"/>
+    </row>
+    <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A36" s="21"/>
+      <c r="B36" s="169"/>
+      <c r="C36" s="169"/>
+      <c r="D36" s="169"/>
+      <c r="E36" s="28"/>
+      <c r="F36" s="21"/>
+    </row>
+    <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A37" s="21"/>
+      <c r="B37" s="169" t="s">
+        <v>32</v>
+      </c>
+      <c r="C37" s="169"/>
+      <c r="D37" s="169"/>
+      <c r="E37" s="28"/>
+      <c r="F37" s="21"/>
+    </row>
+    <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A38" s="21"/>
+      <c r="B38" s="169"/>
+      <c r="C38" s="169"/>
+      <c r="D38" s="169"/>
+      <c r="E38" s="28"/>
+      <c r="F38" s="21"/>
+    </row>
+    <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A39" s="21"/>
+      <c r="B39" s="169" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" s="169"/>
+      <c r="D39" s="169"/>
+      <c r="E39" s="28"/>
+      <c r="F39" s="21"/>
+    </row>
+    <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A40" s="21"/>
+      <c r="B40" s="169"/>
+      <c r="C40" s="169"/>
+      <c r="D40" s="169"/>
+      <c r="E40" s="28"/>
+      <c r="F40" s="21"/>
+    </row>
+    <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A41" s="21"/>
+      <c r="B41" s="169" t="s">
+        <v>99</v>
+      </c>
+      <c r="C41" s="169"/>
+      <c r="D41" s="169"/>
+      <c r="E41" s="28"/>
+      <c r="F41" s="21"/>
+    </row>
+    <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A42" s="21"/>
+      <c r="B42" s="169"/>
+      <c r="C42" s="169"/>
+      <c r="D42" s="169"/>
+      <c r="E42" s="28"/>
+      <c r="F42" s="21"/>
+    </row>
+    <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A43" s="21"/>
+      <c r="B43" s="169" t="s">
+        <v>48</v>
+      </c>
+      <c r="C43" s="169"/>
+      <c r="D43" s="169"/>
+      <c r="E43" s="28"/>
+      <c r="F43" s="21"/>
+    </row>
+    <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A44" s="21"/>
+      <c r="B44" s="169"/>
+      <c r="C44" s="169"/>
+      <c r="D44" s="169"/>
+      <c r="E44" s="28"/>
+      <c r="F44" s="21"/>
+    </row>
+    <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A45" s="21"/>
+      <c r="B45" s="169" t="s">
+        <v>38</v>
+      </c>
+      <c r="C45" s="169"/>
+      <c r="D45" s="169"/>
+      <c r="E45" s="28"/>
+      <c r="F45" s="21"/>
+    </row>
+    <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A46" s="21"/>
+      <c r="B46" s="169"/>
+      <c r="C46" s="169"/>
+      <c r="D46" s="169"/>
+      <c r="E46" s="28"/>
+      <c r="F46" s="21"/>
+    </row>
+    <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A47" s="21"/>
+      <c r="B47" s="169" t="s">
+        <v>53</v>
+      </c>
+      <c r="C47" s="169"/>
+      <c r="D47" s="169"/>
+      <c r="E47" s="28"/>
+      <c r="F47" s="21"/>
+    </row>
+    <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A48" s="21"/>
+      <c r="B48" s="169"/>
+      <c r="C48" s="169"/>
+      <c r="D48" s="169"/>
+      <c r="E48" s="28"/>
+      <c r="F48" s="21"/>
+    </row>
+    <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A49" s="21"/>
+      <c r="B49" s="169" t="s">
+        <v>97</v>
+      </c>
+      <c r="C49" s="169"/>
+      <c r="D49" s="169"/>
+      <c r="E49" s="28"/>
+      <c r="F49" s="21"/>
+    </row>
+    <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A50" s="21"/>
+      <c r="B50" s="169"/>
+      <c r="C50" s="169"/>
+      <c r="D50" s="169"/>
+      <c r="E50" s="28"/>
+      <c r="F50" s="21"/>
+    </row>
+    <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A51" s="21"/>
+      <c r="B51" s="169" t="s">
+        <v>34</v>
+      </c>
+      <c r="C51" s="169"/>
+      <c r="D51" s="169"/>
+      <c r="E51" s="28"/>
+      <c r="F51" s="21"/>
+    </row>
+    <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A52" s="21"/>
+      <c r="B52" s="169"/>
+      <c r="C52" s="169"/>
+      <c r="D52" s="169"/>
+      <c r="E52" s="28"/>
+      <c r="F52" s="21"/>
+    </row>
+    <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A53" s="21"/>
+      <c r="B53" s="169"/>
+      <c r="C53" s="169"/>
+      <c r="D53" s="169"/>
+      <c r="E53" s="28"/>
+      <c r="F53" s="21"/>
+    </row>
+    <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A54" s="21"/>
+      <c r="B54" s="169"/>
+      <c r="C54" s="169"/>
+      <c r="D54" s="169"/>
+      <c r="E54" s="28"/>
+      <c r="F54" s="21"/>
+    </row>
+    <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A55" s="21"/>
+      <c r="B55" s="169"/>
+      <c r="C55" s="169"/>
+      <c r="D55" s="169"/>
+      <c r="E55" s="28"/>
+      <c r="F55" s="21"/>
+    </row>
+    <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A56" s="21"/>
+      <c r="B56" s="169"/>
+      <c r="C56" s="169"/>
+      <c r="D56" s="169"/>
+      <c r="E56" s="28"/>
+      <c r="F56" s="21"/>
+    </row>
+    <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A57" s="21"/>
+      <c r="B57" s="169"/>
+      <c r="C57" s="169"/>
+      <c r="D57" s="169"/>
+      <c r="E57" s="28"/>
+      <c r="F57" s="21"/>
+    </row>
+    <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A58" s="21"/>
+      <c r="B58" s="169"/>
+      <c r="C58" s="169"/>
+      <c r="D58" s="169"/>
+      <c r="E58" s="28"/>
+      <c r="F58" s="21"/>
+    </row>
+    <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A59" s="21"/>
+      <c r="B59" s="169"/>
+      <c r="C59" s="169"/>
+      <c r="D59" s="169"/>
+      <c r="E59" s="28"/>
+      <c r="F59" s="21"/>
+    </row>
+    <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A60" s="21"/>
+      <c r="B60" s="169"/>
+      <c r="C60" s="169"/>
+      <c r="D60" s="169"/>
+      <c r="E60" s="28"/>
+      <c r="F60" s="21"/>
+    </row>
+    <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A61" s="21"/>
+      <c r="B61" s="169"/>
+      <c r="C61" s="169"/>
+      <c r="D61" s="169"/>
+      <c r="E61" s="28"/>
+      <c r="F61" s="21"/>
+    </row>
+    <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A62" s="21"/>
+      <c r="B62" s="169"/>
+      <c r="C62" s="169"/>
+      <c r="D62" s="169"/>
+      <c r="E62" s="28"/>
+      <c r="F62" s="21"/>
+    </row>
+    <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A63" s="21"/>
+      <c r="B63" s="169"/>
+      <c r="C63" s="169"/>
+      <c r="D63" s="169"/>
+      <c r="E63" s="28"/>
+      <c r="F63" s="21"/>
+    </row>
+    <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A64" s="21"/>
+      <c r="B64" s="169"/>
+      <c r="C64" s="169"/>
+      <c r="D64" s="169"/>
+      <c r="E64" s="28"/>
+      <c r="F64" s="21"/>
+    </row>
+    <row r="65" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A65" s="21"/>
+      <c r="B65" s="169"/>
+      <c r="C65" s="169"/>
+      <c r="D65" s="169"/>
+      <c r="E65" s="28"/>
+      <c r="F65" s="21"/>
+    </row>
+    <row r="66" spans="1:6" s="50" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A66" s="46"/>
+      <c r="B66" s="47"/>
+      <c r="C66" s="48" t="s">
+        <v>36</v>
+      </c>
+      <c r="D66" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="E66" s="49"/>
+      <c r="F66" s="46"/>
+    </row>
+    <row r="67" spans="1:6" s="50" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A67" s="46"/>
+      <c r="B67" s="47"/>
+      <c r="C67" s="51">
+        <v>23.75</v>
+      </c>
+      <c r="D67" s="52">
+        <v>350</v>
+      </c>
+      <c r="E67" s="49"/>
+      <c r="F67" s="46"/>
+    </row>
+    <row r="68" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A68" s="21"/>
+      <c r="B68" s="169"/>
+      <c r="C68" s="169"/>
+      <c r="D68" s="169"/>
+      <c r="E68" s="28"/>
+      <c r="F68" s="21"/>
+    </row>
+    <row r="69" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="21"/>
+      <c r="B69" s="169"/>
+      <c r="C69" s="169"/>
+      <c r="D69" s="169"/>
+      <c r="E69" s="28"/>
+      <c r="F69" s="21"/>
+    </row>
+    <row r="70" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="21"/>
+      <c r="B70" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C70" s="26"/>
+      <c r="D70" s="26"/>
+      <c r="E70" s="29">
+        <f>D67*C67</f>
+        <v>8312.5</v>
+      </c>
+      <c r="F70" s="21"/>
+    </row>
+    <row r="71" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="21"/>
+      <c r="B71" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="C71" s="26"/>
+      <c r="D71" s="26"/>
+      <c r="E71" s="30">
+        <v>175</v>
+      </c>
+      <c r="F71" s="21"/>
+    </row>
+    <row r="72" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="21"/>
+      <c r="B72" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="C72" s="26"/>
+      <c r="D72" s="26"/>
+      <c r="E72" s="30">
+        <v>0</v>
+      </c>
+      <c r="F72" s="21"/>
+    </row>
+    <row r="73" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="21"/>
+      <c r="B73" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C73" s="26"/>
+      <c r="D73" s="26"/>
+      <c r="E73" s="29">
+        <f>SUM(E70:E72)</f>
+        <v>8487.5</v>
+      </c>
+      <c r="F73" s="21"/>
+    </row>
+    <row r="74" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="21"/>
+      <c r="B74" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C74" s="31">
+        <v>0.05</v>
+      </c>
+      <c r="D74" s="26"/>
+      <c r="E74" s="35">
+        <f>ROUND(E73*C74,2)</f>
+        <v>424.38</v>
+      </c>
+      <c r="F74" s="21"/>
+    </row>
+    <row r="75" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="21"/>
+      <c r="B75" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C75" s="42">
+        <v>9.9750000000000005E-2</v>
+      </c>
+      <c r="D75" s="26"/>
+      <c r="E75" s="43">
+        <f>ROUND(E73*C75,2)</f>
+        <v>846.63</v>
+      </c>
+      <c r="F75" s="21"/>
+    </row>
+    <row r="76" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="21"/>
+      <c r="B76" s="26"/>
+      <c r="C76" s="26"/>
+      <c r="D76" s="26"/>
+      <c r="E76" s="32"/>
+      <c r="F76" s="21"/>
+    </row>
+    <row r="77" spans="1:6" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="21"/>
+      <c r="B77" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C77" s="26"/>
+      <c r="D77" s="26"/>
+      <c r="E77" s="33">
+        <f>SUM(E73:E75)</f>
+        <v>9758.5099999999984</v>
+      </c>
+      <c r="F77" s="21"/>
+    </row>
+    <row r="78" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="21"/>
+      <c r="B78" s="173"/>
+      <c r="C78" s="173"/>
+      <c r="D78" s="173"/>
+      <c r="E78" s="36"/>
+      <c r="F78" s="21"/>
+    </row>
+    <row r="79" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A79" s="21"/>
+      <c r="B79" s="170" t="s">
+        <v>17</v>
+      </c>
+      <c r="C79" s="170"/>
+      <c r="D79" s="170"/>
+      <c r="E79" s="36">
+        <v>0</v>
+      </c>
+      <c r="F79" s="21"/>
+    </row>
+    <row r="80" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A80" s="21"/>
+      <c r="B80" s="173"/>
+      <c r="C80" s="173"/>
+      <c r="D80" s="173"/>
+      <c r="E80" s="36"/>
+      <c r="F80" s="21"/>
+    </row>
+    <row r="81" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="21"/>
+      <c r="B81" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="C81" s="38"/>
+      <c r="D81" s="38"/>
+      <c r="E81" s="39">
+        <f>E77-E79</f>
+        <v>9758.5099999999984</v>
+      </c>
+      <c r="F81" s="21"/>
+    </row>
+    <row r="82" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="21"/>
+      <c r="B82" s="21"/>
+      <c r="C82" s="21"/>
+      <c r="D82" s="21"/>
+      <c r="E82" s="21"/>
+      <c r="F82" s="21"/>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A83" s="21"/>
+      <c r="B83" s="21"/>
+      <c r="C83" s="21"/>
+      <c r="D83" s="21"/>
+      <c r="E83" s="21"/>
+      <c r="F83" s="21"/>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A84" s="21"/>
+      <c r="B84" s="167"/>
+      <c r="C84" s="167"/>
+      <c r="D84" s="167"/>
+      <c r="E84" s="167"/>
+      <c r="F84" s="21"/>
+    </row>
+    <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A85" s="175" t="s">
+        <v>28</v>
+      </c>
+      <c r="B85" s="175"/>
+      <c r="C85" s="175"/>
+      <c r="D85" s="175"/>
+      <c r="E85" s="175"/>
+      <c r="F85" s="175"/>
+    </row>
+    <row r="86" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A86" s="171" t="s">
+        <v>29</v>
+      </c>
+      <c r="B86" s="171"/>
+      <c r="C86" s="171"/>
+      <c r="D86" s="171"/>
+      <c r="E86" s="171"/>
+      <c r="F86" s="171"/>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A87" s="21"/>
+      <c r="B87" s="21"/>
+      <c r="C87" s="21"/>
+      <c r="D87" s="21"/>
+      <c r="E87" s="21"/>
+      <c r="F87" s="21"/>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A88" s="21"/>
+      <c r="B88" s="168"/>
+      <c r="C88" s="168"/>
+      <c r="D88" s="168"/>
+      <c r="E88" s="168"/>
+      <c r="F88" s="21"/>
+    </row>
+    <row r="89" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A89" s="174" t="s">
+        <v>7</v>
+      </c>
+      <c r="B89" s="174"/>
+      <c r="C89" s="174"/>
+      <c r="D89" s="174"/>
+      <c r="E89" s="174"/>
+      <c r="F89" s="174"/>
+    </row>
+    <row r="91" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B91" s="165"/>
+      <c r="C91" s="166"/>
+      <c r="D91" s="166"/>
     </row>
     <row r="92" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
@@ -13696,781 +15396,6 @@
     <mergeCell ref="B42:D42"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B78:B80 B12:B20 B33:B69" xr:uid="{E383F8C4-BFC0-491A-9D27-5C56254EEDF2}">
-      <formula1>Liste_Activités</formula1>
-    </dataValidation>
-  </dataValidations>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="131" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-  <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E6EA1A3-5BF7-453F-90EF-F9C7BF75F7EB}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A12:F93"/>
-  <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A21" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44:D44"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="5.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="120" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="11.42578125" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B12" s="3"/>
-      <c r="E12" s="4"/>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B13" s="3"/>
-      <c r="E13" s="4"/>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B14" s="3"/>
-      <c r="E14" s="4"/>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B15" s="3"/>
-      <c r="E15" s="4"/>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B16" s="3"/>
-      <c r="E16" s="4"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B17" s="3"/>
-      <c r="E17" s="4"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B18" s="3"/>
-      <c r="E18" s="4"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B19" s="3"/>
-      <c r="E19" s="4"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B20" s="3"/>
-      <c r="E20" s="4"/>
-    </row>
-    <row r="21" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A21" s="17"/>
-      <c r="B21" s="25" t="s">
-        <v>92</v>
-      </c>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-    </row>
-    <row r="22" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A22" s="17"/>
-      <c r="B22" s="26"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-    </row>
-    <row r="23" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A23" s="17"/>
-      <c r="B23" s="26"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-    </row>
-    <row r="24" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A24" s="17"/>
-      <c r="B24" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-    </row>
-    <row r="25" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A25" s="17"/>
-      <c r="B25" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-    </row>
-    <row r="26" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="17"/>
-      <c r="B26" s="53" t="s">
-        <v>58</v>
-      </c>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="18"/>
-      <c r="B27" s="21"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="21"/>
-    </row>
-    <row r="28" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A28" s="17"/>
-      <c r="B28" s="23"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="E28" s="27" t="s">
-        <v>93</v>
-      </c>
-      <c r="F28" s="21"/>
-    </row>
-    <row r="29" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="19"/>
-      <c r="B29" s="19"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="20"/>
-    </row>
-    <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="168" t="s">
-        <v>0</v>
-      </c>
-      <c r="B30" s="168"/>
-      <c r="C30" s="168"/>
-      <c r="D30" s="168"/>
-      <c r="E30" s="168"/>
-      <c r="F30" s="168"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="17"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-    </row>
-    <row r="32" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A32" s="21"/>
-      <c r="B32" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="C32" s="22"/>
-      <c r="D32" s="22"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="21"/>
-    </row>
-    <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A33" s="21"/>
-      <c r="B33" s="167"/>
-      <c r="C33" s="167"/>
-      <c r="D33" s="167"/>
-      <c r="E33" s="28"/>
-      <c r="F33" s="21"/>
-    </row>
-    <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A34" s="21"/>
-      <c r="B34" s="167"/>
-      <c r="C34" s="167"/>
-      <c r="D34" s="167"/>
-      <c r="E34" s="28"/>
-      <c r="F34" s="21"/>
-    </row>
-    <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A35" s="21"/>
-      <c r="B35" s="167" t="s">
-        <v>98</v>
-      </c>
-      <c r="C35" s="167"/>
-      <c r="D35" s="167"/>
-      <c r="E35" s="28"/>
-      <c r="F35" s="21"/>
-    </row>
-    <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A36" s="21"/>
-      <c r="B36" s="167"/>
-      <c r="C36" s="167"/>
-      <c r="D36" s="167"/>
-      <c r="E36" s="28"/>
-      <c r="F36" s="21"/>
-    </row>
-    <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A37" s="21"/>
-      <c r="B37" s="167" t="s">
-        <v>32</v>
-      </c>
-      <c r="C37" s="167"/>
-      <c r="D37" s="167"/>
-      <c r="E37" s="28"/>
-      <c r="F37" s="21"/>
-    </row>
-    <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A38" s="21"/>
-      <c r="B38" s="167"/>
-      <c r="C38" s="167"/>
-      <c r="D38" s="167"/>
-      <c r="E38" s="28"/>
-      <c r="F38" s="21"/>
-    </row>
-    <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A39" s="21"/>
-      <c r="B39" s="167" t="s">
-        <v>9</v>
-      </c>
-      <c r="C39" s="167"/>
-      <c r="D39" s="167"/>
-      <c r="E39" s="28"/>
-      <c r="F39" s="21"/>
-    </row>
-    <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A40" s="21"/>
-      <c r="B40" s="167"/>
-      <c r="C40" s="167"/>
-      <c r="D40" s="167"/>
-      <c r="E40" s="28"/>
-      <c r="F40" s="21"/>
-    </row>
-    <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A41" s="21"/>
-      <c r="B41" s="167" t="s">
-        <v>99</v>
-      </c>
-      <c r="C41" s="167"/>
-      <c r="D41" s="167"/>
-      <c r="E41" s="28"/>
-      <c r="F41" s="21"/>
-    </row>
-    <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A42" s="21"/>
-      <c r="B42" s="167"/>
-      <c r="C42" s="167"/>
-      <c r="D42" s="167"/>
-      <c r="E42" s="28"/>
-      <c r="F42" s="21"/>
-    </row>
-    <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A43" s="21"/>
-      <c r="B43" s="167" t="s">
-        <v>48</v>
-      </c>
-      <c r="C43" s="167"/>
-      <c r="D43" s="167"/>
-      <c r="E43" s="28"/>
-      <c r="F43" s="21"/>
-    </row>
-    <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A44" s="21"/>
-      <c r="B44" s="167"/>
-      <c r="C44" s="167"/>
-      <c r="D44" s="167"/>
-      <c r="E44" s="28"/>
-      <c r="F44" s="21"/>
-    </row>
-    <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A45" s="21"/>
-      <c r="B45" s="167" t="s">
-        <v>38</v>
-      </c>
-      <c r="C45" s="167"/>
-      <c r="D45" s="167"/>
-      <c r="E45" s="28"/>
-      <c r="F45" s="21"/>
-    </row>
-    <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A46" s="21"/>
-      <c r="B46" s="167"/>
-      <c r="C46" s="167"/>
-      <c r="D46" s="167"/>
-      <c r="E46" s="28"/>
-      <c r="F46" s="21"/>
-    </row>
-    <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A47" s="21"/>
-      <c r="B47" s="167" t="s">
-        <v>53</v>
-      </c>
-      <c r="C47" s="167"/>
-      <c r="D47" s="167"/>
-      <c r="E47" s="28"/>
-      <c r="F47" s="21"/>
-    </row>
-    <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A48" s="21"/>
-      <c r="B48" s="167"/>
-      <c r="C48" s="167"/>
-      <c r="D48" s="167"/>
-      <c r="E48" s="28"/>
-      <c r="F48" s="21"/>
-    </row>
-    <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A49" s="21"/>
-      <c r="B49" s="167" t="s">
-        <v>97</v>
-      </c>
-      <c r="C49" s="167"/>
-      <c r="D49" s="167"/>
-      <c r="E49" s="28"/>
-      <c r="F49" s="21"/>
-    </row>
-    <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A50" s="21"/>
-      <c r="B50" s="167"/>
-      <c r="C50" s="167"/>
-      <c r="D50" s="167"/>
-      <c r="E50" s="28"/>
-      <c r="F50" s="21"/>
-    </row>
-    <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A51" s="21"/>
-      <c r="B51" s="167" t="s">
-        <v>34</v>
-      </c>
-      <c r="C51" s="167"/>
-      <c r="D51" s="167"/>
-      <c r="E51" s="28"/>
-      <c r="F51" s="21"/>
-    </row>
-    <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A52" s="21"/>
-      <c r="B52" s="167"/>
-      <c r="C52" s="167"/>
-      <c r="D52" s="167"/>
-      <c r="E52" s="28"/>
-      <c r="F52" s="21"/>
-    </row>
-    <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A53" s="21"/>
-      <c r="B53" s="167"/>
-      <c r="C53" s="167"/>
-      <c r="D53" s="167"/>
-      <c r="E53" s="28"/>
-      <c r="F53" s="21"/>
-    </row>
-    <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A54" s="21"/>
-      <c r="B54" s="167"/>
-      <c r="C54" s="167"/>
-      <c r="D54" s="167"/>
-      <c r="E54" s="28"/>
-      <c r="F54" s="21"/>
-    </row>
-    <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A55" s="21"/>
-      <c r="B55" s="167"/>
-      <c r="C55" s="167"/>
-      <c r="D55" s="167"/>
-      <c r="E55" s="28"/>
-      <c r="F55" s="21"/>
-    </row>
-    <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A56" s="21"/>
-      <c r="B56" s="167"/>
-      <c r="C56" s="167"/>
-      <c r="D56" s="167"/>
-      <c r="E56" s="28"/>
-      <c r="F56" s="21"/>
-    </row>
-    <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A57" s="21"/>
-      <c r="B57" s="167"/>
-      <c r="C57" s="167"/>
-      <c r="D57" s="167"/>
-      <c r="E57" s="28"/>
-      <c r="F57" s="21"/>
-    </row>
-    <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A58" s="21"/>
-      <c r="B58" s="167"/>
-      <c r="C58" s="167"/>
-      <c r="D58" s="167"/>
-      <c r="E58" s="28"/>
-      <c r="F58" s="21"/>
-    </row>
-    <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A59" s="21"/>
-      <c r="B59" s="167"/>
-      <c r="C59" s="167"/>
-      <c r="D59" s="167"/>
-      <c r="E59" s="28"/>
-      <c r="F59" s="21"/>
-    </row>
-    <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A60" s="21"/>
-      <c r="B60" s="167"/>
-      <c r="C60" s="167"/>
-      <c r="D60" s="167"/>
-      <c r="E60" s="28"/>
-      <c r="F60" s="21"/>
-    </row>
-    <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A61" s="21"/>
-      <c r="B61" s="167"/>
-      <c r="C61" s="167"/>
-      <c r="D61" s="167"/>
-      <c r="E61" s="28"/>
-      <c r="F61" s="21"/>
-    </row>
-    <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A62" s="21"/>
-      <c r="B62" s="167"/>
-      <c r="C62" s="167"/>
-      <c r="D62" s="167"/>
-      <c r="E62" s="28"/>
-      <c r="F62" s="21"/>
-    </row>
-    <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A63" s="21"/>
-      <c r="B63" s="167"/>
-      <c r="C63" s="167"/>
-      <c r="D63" s="167"/>
-      <c r="E63" s="28"/>
-      <c r="F63" s="21"/>
-    </row>
-    <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A64" s="21"/>
-      <c r="B64" s="167"/>
-      <c r="C64" s="167"/>
-      <c r="D64" s="167"/>
-      <c r="E64" s="28"/>
-      <c r="F64" s="21"/>
-    </row>
-    <row r="65" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A65" s="21"/>
-      <c r="B65" s="167"/>
-      <c r="C65" s="167"/>
-      <c r="D65" s="167"/>
-      <c r="E65" s="28"/>
-      <c r="F65" s="21"/>
-    </row>
-    <row r="66" spans="1:6" s="50" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A66" s="46"/>
-      <c r="B66" s="47"/>
-      <c r="C66" s="48" t="s">
-        <v>36</v>
-      </c>
-      <c r="D66" s="48" t="s">
-        <v>37</v>
-      </c>
-      <c r="E66" s="49"/>
-      <c r="F66" s="46"/>
-    </row>
-    <row r="67" spans="1:6" s="50" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A67" s="46"/>
-      <c r="B67" s="47"/>
-      <c r="C67" s="51">
-        <v>23.75</v>
-      </c>
-      <c r="D67" s="52">
-        <v>350</v>
-      </c>
-      <c r="E67" s="49"/>
-      <c r="F67" s="46"/>
-    </row>
-    <row r="68" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A68" s="21"/>
-      <c r="B68" s="167"/>
-      <c r="C68" s="167"/>
-      <c r="D68" s="167"/>
-      <c r="E68" s="28"/>
-      <c r="F68" s="21"/>
-    </row>
-    <row r="69" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="21"/>
-      <c r="B69" s="167"/>
-      <c r="C69" s="167"/>
-      <c r="D69" s="167"/>
-      <c r="E69" s="28"/>
-      <c r="F69" s="21"/>
-    </row>
-    <row r="70" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="21"/>
-      <c r="B70" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="C70" s="26"/>
-      <c r="D70" s="26"/>
-      <c r="E70" s="29">
-        <f>D67*C67</f>
-        <v>8312.5</v>
-      </c>
-      <c r="F70" s="21"/>
-    </row>
-    <row r="71" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="21"/>
-      <c r="B71" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="C71" s="26"/>
-      <c r="D71" s="26"/>
-      <c r="E71" s="30">
-        <v>175</v>
-      </c>
-      <c r="F71" s="21"/>
-    </row>
-    <row r="72" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="21"/>
-      <c r="B72" s="34" t="s">
-        <v>61</v>
-      </c>
-      <c r="C72" s="26"/>
-      <c r="D72" s="26"/>
-      <c r="E72" s="30">
-        <v>0</v>
-      </c>
-      <c r="F72" s="21"/>
-    </row>
-    <row r="73" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="21"/>
-      <c r="B73" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="C73" s="26"/>
-      <c r="D73" s="26"/>
-      <c r="E73" s="29">
-        <f>SUM(E70:E72)</f>
-        <v>8487.5</v>
-      </c>
-      <c r="F73" s="21"/>
-    </row>
-    <row r="74" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="21"/>
-      <c r="B74" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="C74" s="31">
-        <v>0.05</v>
-      </c>
-      <c r="D74" s="26"/>
-      <c r="E74" s="35">
-        <f>ROUND(E73*C74,2)</f>
-        <v>424.38</v>
-      </c>
-      <c r="F74" s="21"/>
-    </row>
-    <row r="75" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="21"/>
-      <c r="B75" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="C75" s="42">
-        <v>9.9750000000000005E-2</v>
-      </c>
-      <c r="D75" s="26"/>
-      <c r="E75" s="43">
-        <f>ROUND(E73*C75,2)</f>
-        <v>846.63</v>
-      </c>
-      <c r="F75" s="21"/>
-    </row>
-    <row r="76" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="21"/>
-      <c r="B76" s="26"/>
-      <c r="C76" s="26"/>
-      <c r="D76" s="26"/>
-      <c r="E76" s="32"/>
-      <c r="F76" s="21"/>
-    </row>
-    <row r="77" spans="1:6" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="21"/>
-      <c r="B77" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="C77" s="26"/>
-      <c r="D77" s="26"/>
-      <c r="E77" s="33">
-        <f>SUM(E73:E75)</f>
-        <v>9758.5099999999984</v>
-      </c>
-      <c r="F77" s="21"/>
-    </row>
-    <row r="78" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="21"/>
-      <c r="B78" s="169"/>
-      <c r="C78" s="169"/>
-      <c r="D78" s="169"/>
-      <c r="E78" s="36"/>
-      <c r="F78" s="21"/>
-    </row>
-    <row r="79" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A79" s="21"/>
-      <c r="B79" s="174" t="s">
-        <v>17</v>
-      </c>
-      <c r="C79" s="174"/>
-      <c r="D79" s="174"/>
-      <c r="E79" s="36">
-        <v>0</v>
-      </c>
-      <c r="F79" s="21"/>
-    </row>
-    <row r="80" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A80" s="21"/>
-      <c r="B80" s="169"/>
-      <c r="C80" s="169"/>
-      <c r="D80" s="169"/>
-      <c r="E80" s="36"/>
-      <c r="F80" s="21"/>
-    </row>
-    <row r="81" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="21"/>
-      <c r="B81" s="37" t="s">
-        <v>16</v>
-      </c>
-      <c r="C81" s="38"/>
-      <c r="D81" s="38"/>
-      <c r="E81" s="39">
-        <f>E77-E79</f>
-        <v>9758.5099999999984</v>
-      </c>
-      <c r="F81" s="21"/>
-    </row>
-    <row r="82" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="21"/>
-      <c r="B82" s="21"/>
-      <c r="C82" s="21"/>
-      <c r="D82" s="21"/>
-      <c r="E82" s="21"/>
-      <c r="F82" s="21"/>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A83" s="21"/>
-      <c r="B83" s="21"/>
-      <c r="C83" s="21"/>
-      <c r="D83" s="21"/>
-      <c r="E83" s="21"/>
-      <c r="F83" s="21"/>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A84" s="21"/>
-      <c r="B84" s="172"/>
-      <c r="C84" s="172"/>
-      <c r="D84" s="172"/>
-      <c r="E84" s="172"/>
-      <c r="F84" s="21"/>
-    </row>
-    <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A85" s="166" t="s">
-        <v>28</v>
-      </c>
-      <c r="B85" s="166"/>
-      <c r="C85" s="166"/>
-      <c r="D85" s="166"/>
-      <c r="E85" s="166"/>
-      <c r="F85" s="166"/>
-    </row>
-    <row r="86" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A86" s="175" t="s">
-        <v>29</v>
-      </c>
-      <c r="B86" s="175"/>
-      <c r="C86" s="175"/>
-      <c r="D86" s="175"/>
-      <c r="E86" s="175"/>
-      <c r="F86" s="175"/>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A87" s="21"/>
-      <c r="B87" s="21"/>
-      <c r="C87" s="21"/>
-      <c r="D87" s="21"/>
-      <c r="E87" s="21"/>
-      <c r="F87" s="21"/>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A88" s="21"/>
-      <c r="B88" s="173"/>
-      <c r="C88" s="173"/>
-      <c r="D88" s="173"/>
-      <c r="E88" s="173"/>
-      <c r="F88" s="21"/>
-    </row>
-    <row r="89" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A89" s="165" t="s">
-        <v>7</v>
-      </c>
-      <c r="B89" s="165"/>
-      <c r="C89" s="165"/>
-      <c r="D89" s="165"/>
-      <c r="E89" s="165"/>
-      <c r="F89" s="165"/>
-    </row>
-    <row r="91" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B91" s="170"/>
-      <c r="C91" s="171"/>
-      <c r="D91" s="171"/>
-    </row>
-    <row r="92" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B93" s="16"/>
-      <c r="C93" s="16"/>
-      <c r="D93" s="16"/>
-    </row>
-  </sheetData>
-  <mergeCells count="45">
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B69:D69"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="B65:D65"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="B88:E88"/>
-    <mergeCell ref="A89:F89"/>
-    <mergeCell ref="B91:D91"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="B79:D79"/>
-    <mergeCell ref="B80:D80"/>
-    <mergeCell ref="B84:E84"/>
-    <mergeCell ref="A85:F85"/>
-    <mergeCell ref="A86:F86"/>
-  </mergeCells>
-  <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B78:B80 B12:B20 B33:B69" xr:uid="{20856ED9-B4CF-42A0-905A-206F7E9B590F}">
       <formula1>Liste_Activités</formula1>
     </dataValidation>
@@ -14626,14 +15551,14 @@
       <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="168" t="s">
+      <c r="A30" s="172" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="168"/>
-      <c r="C30" s="168"/>
-      <c r="D30" s="168"/>
-      <c r="E30" s="168"/>
-      <c r="F30" s="168"/>
+      <c r="B30" s="172"/>
+      <c r="C30" s="172"/>
+      <c r="D30" s="172"/>
+      <c r="E30" s="172"/>
+      <c r="F30" s="172"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="17"/>
@@ -14654,267 +15579,267 @@
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
-      <c r="B33" s="167"/>
-      <c r="C33" s="167"/>
-      <c r="D33" s="167"/>
+      <c r="B33" s="169"/>
+      <c r="C33" s="169"/>
+      <c r="D33" s="169"/>
       <c r="E33" s="28"/>
       <c r="F33" s="21"/>
     </row>
     <row r="34" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="21"/>
-      <c r="B34" s="167" t="s">
+      <c r="B34" s="169" t="s">
         <v>88</v>
       </c>
-      <c r="C34" s="167"/>
-      <c r="D34" s="167"/>
+      <c r="C34" s="169"/>
+      <c r="D34" s="169"/>
       <c r="E34" s="28"/>
       <c r="F34" s="21"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
-      <c r="B35" s="167"/>
-      <c r="C35" s="167"/>
-      <c r="D35" s="167"/>
+      <c r="B35" s="169"/>
+      <c r="C35" s="169"/>
+      <c r="D35" s="169"/>
       <c r="E35" s="28"/>
       <c r="F35" s="21"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="21"/>
-      <c r="B36" s="167" t="s">
+      <c r="B36" s="169" t="s">
         <v>102</v>
       </c>
-      <c r="C36" s="167"/>
-      <c r="D36" s="167"/>
+      <c r="C36" s="169"/>
+      <c r="D36" s="169"/>
       <c r="E36" s="28"/>
       <c r="F36" s="21"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
-      <c r="B37" s="167"/>
-      <c r="C37" s="167"/>
-      <c r="D37" s="167"/>
+      <c r="B37" s="169"/>
+      <c r="C37" s="169"/>
+      <c r="D37" s="169"/>
       <c r="E37" s="28"/>
       <c r="F37" s="21"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="21"/>
-      <c r="B38" s="167" t="s">
+      <c r="B38" s="169" t="s">
         <v>103</v>
       </c>
-      <c r="C38" s="167"/>
-      <c r="D38" s="167"/>
+      <c r="C38" s="169"/>
+      <c r="D38" s="169"/>
       <c r="E38" s="28"/>
       <c r="F38" s="21"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="21"/>
-      <c r="B39" s="167"/>
-      <c r="C39" s="167"/>
-      <c r="D39" s="167"/>
+      <c r="B39" s="169"/>
+      <c r="C39" s="169"/>
+      <c r="D39" s="169"/>
       <c r="E39" s="28"/>
       <c r="F39" s="21"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="21"/>
-      <c r="B40" s="167" t="s">
+      <c r="B40" s="169" t="s">
         <v>104</v>
       </c>
-      <c r="C40" s="167"/>
-      <c r="D40" s="167"/>
+      <c r="C40" s="169"/>
+      <c r="D40" s="169"/>
       <c r="E40" s="28"/>
       <c r="F40" s="21"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="21"/>
-      <c r="B41" s="167"/>
-      <c r="C41" s="167"/>
-      <c r="D41" s="167"/>
+      <c r="B41" s="169"/>
+      <c r="C41" s="169"/>
+      <c r="D41" s="169"/>
       <c r="E41" s="28"/>
       <c r="F41" s="21"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="21"/>
-      <c r="B42" s="167" t="s">
+      <c r="B42" s="169" t="s">
         <v>38</v>
       </c>
-      <c r="C42" s="167"/>
-      <c r="D42" s="167"/>
+      <c r="C42" s="169"/>
+      <c r="D42" s="169"/>
       <c r="E42" s="28"/>
       <c r="F42" s="21"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="21"/>
-      <c r="B43" s="167"/>
-      <c r="C43" s="167"/>
-      <c r="D43" s="167"/>
+      <c r="B43" s="169"/>
+      <c r="C43" s="169"/>
+      <c r="D43" s="169"/>
       <c r="E43" s="28"/>
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
-      <c r="B44" s="167"/>
-      <c r="C44" s="167"/>
-      <c r="D44" s="167"/>
+      <c r="B44" s="169"/>
+      <c r="C44" s="169"/>
+      <c r="D44" s="169"/>
       <c r="E44" s="28"/>
       <c r="F44" s="21"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="21"/>
-      <c r="B45" s="167"/>
-      <c r="C45" s="167"/>
-      <c r="D45" s="167"/>
+      <c r="B45" s="169"/>
+      <c r="C45" s="169"/>
+      <c r="D45" s="169"/>
       <c r="E45" s="28"/>
       <c r="F45" s="21"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="21"/>
-      <c r="B46" s="167"/>
-      <c r="C46" s="167"/>
-      <c r="D46" s="167"/>
+      <c r="B46" s="169"/>
+      <c r="C46" s="169"/>
+      <c r="D46" s="169"/>
       <c r="E46" s="28"/>
       <c r="F46" s="21"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="21"/>
-      <c r="B47" s="167"/>
-      <c r="C47" s="167"/>
-      <c r="D47" s="167"/>
+      <c r="B47" s="169"/>
+      <c r="C47" s="169"/>
+      <c r="D47" s="169"/>
       <c r="E47" s="28"/>
       <c r="F47" s="21"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="21"/>
-      <c r="B48" s="167"/>
-      <c r="C48" s="167"/>
-      <c r="D48" s="167"/>
+      <c r="B48" s="169"/>
+      <c r="C48" s="169"/>
+      <c r="D48" s="169"/>
       <c r="E48" s="28"/>
       <c r="F48" s="21"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="21"/>
-      <c r="B49" s="167"/>
-      <c r="C49" s="167"/>
-      <c r="D49" s="167"/>
+      <c r="B49" s="169"/>
+      <c r="C49" s="169"/>
+      <c r="D49" s="169"/>
       <c r="E49" s="28"/>
       <c r="F49" s="21"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="21"/>
-      <c r="B50" s="167"/>
-      <c r="C50" s="167"/>
-      <c r="D50" s="167"/>
+      <c r="B50" s="169"/>
+      <c r="C50" s="169"/>
+      <c r="D50" s="169"/>
       <c r="E50" s="28"/>
       <c r="F50" s="21"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="21"/>
-      <c r="B51" s="167"/>
-      <c r="C51" s="167"/>
-      <c r="D51" s="167"/>
+      <c r="B51" s="169"/>
+      <c r="C51" s="169"/>
+      <c r="D51" s="169"/>
       <c r="E51" s="28"/>
       <c r="F51" s="21"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="21"/>
-      <c r="B52" s="167"/>
-      <c r="C52" s="167"/>
-      <c r="D52" s="167"/>
+      <c r="B52" s="169"/>
+      <c r="C52" s="169"/>
+      <c r="D52" s="169"/>
       <c r="E52" s="28"/>
       <c r="F52" s="21"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="21"/>
-      <c r="B53" s="167"/>
-      <c r="C53" s="167"/>
-      <c r="D53" s="167"/>
+      <c r="B53" s="169"/>
+      <c r="C53" s="169"/>
+      <c r="D53" s="169"/>
       <c r="E53" s="28"/>
       <c r="F53" s="21"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="21"/>
-      <c r="B54" s="167"/>
-      <c r="C54" s="167"/>
-      <c r="D54" s="167"/>
+      <c r="B54" s="169"/>
+      <c r="C54" s="169"/>
+      <c r="D54" s="169"/>
       <c r="E54" s="28"/>
       <c r="F54" s="21"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="21"/>
-      <c r="B55" s="167"/>
-      <c r="C55" s="167"/>
-      <c r="D55" s="167"/>
+      <c r="B55" s="169"/>
+      <c r="C55" s="169"/>
+      <c r="D55" s="169"/>
       <c r="E55" s="28"/>
       <c r="F55" s="21"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="21"/>
-      <c r="B56" s="167"/>
-      <c r="C56" s="167"/>
-      <c r="D56" s="167"/>
+      <c r="B56" s="169"/>
+      <c r="C56" s="169"/>
+      <c r="D56" s="169"/>
       <c r="E56" s="28"/>
       <c r="F56" s="21"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="21"/>
-      <c r="B57" s="167"/>
-      <c r="C57" s="167"/>
-      <c r="D57" s="167"/>
+      <c r="B57" s="169"/>
+      <c r="C57" s="169"/>
+      <c r="D57" s="169"/>
       <c r="E57" s="28"/>
       <c r="F57" s="21"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="21"/>
-      <c r="B58" s="167"/>
-      <c r="C58" s="167"/>
-      <c r="D58" s="167"/>
+      <c r="B58" s="169"/>
+      <c r="C58" s="169"/>
+      <c r="D58" s="169"/>
       <c r="E58" s="28"/>
       <c r="F58" s="21"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="21"/>
-      <c r="B59" s="167"/>
-      <c r="C59" s="167"/>
-      <c r="D59" s="167"/>
+      <c r="B59" s="169"/>
+      <c r="C59" s="169"/>
+      <c r="D59" s="169"/>
       <c r="E59" s="28"/>
       <c r="F59" s="21"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="21"/>
-      <c r="B60" s="167"/>
-      <c r="C60" s="167"/>
-      <c r="D60" s="167"/>
+      <c r="B60" s="169"/>
+      <c r="C60" s="169"/>
+      <c r="D60" s="169"/>
       <c r="E60" s="28"/>
       <c r="F60" s="21"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="21"/>
-      <c r="B61" s="167"/>
-      <c r="C61" s="167"/>
-      <c r="D61" s="167"/>
+      <c r="B61" s="169"/>
+      <c r="C61" s="169"/>
+      <c r="D61" s="169"/>
       <c r="E61" s="28"/>
       <c r="F61" s="21"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="21"/>
-      <c r="B62" s="167"/>
-      <c r="C62" s="167"/>
-      <c r="D62" s="167"/>
+      <c r="B62" s="169"/>
+      <c r="C62" s="169"/>
+      <c r="D62" s="169"/>
       <c r="E62" s="28"/>
       <c r="F62" s="21"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="21"/>
-      <c r="B63" s="167"/>
-      <c r="C63" s="167"/>
-      <c r="D63" s="167"/>
+      <c r="B63" s="169"/>
+      <c r="C63" s="169"/>
+      <c r="D63" s="169"/>
       <c r="E63" s="28"/>
       <c r="F63" s="21"/>
     </row>
     <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A64" s="21"/>
-      <c r="B64" s="167"/>
-      <c r="C64" s="167"/>
-      <c r="D64" s="167"/>
+      <c r="B64" s="169"/>
+      <c r="C64" s="169"/>
+      <c r="D64" s="169"/>
       <c r="E64" s="28"/>
       <c r="F64" s="21"/>
     </row>
@@ -14944,17 +15869,17 @@
     </row>
     <row r="67" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A67" s="21"/>
-      <c r="B67" s="167"/>
-      <c r="C67" s="167"/>
-      <c r="D67" s="167"/>
+      <c r="B67" s="169"/>
+      <c r="C67" s="169"/>
+      <c r="D67" s="169"/>
       <c r="E67" s="28"/>
       <c r="F67" s="21"/>
     </row>
     <row r="68" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="21"/>
-      <c r="B68" s="167"/>
-      <c r="C68" s="167"/>
-      <c r="D68" s="167"/>
+      <c r="B68" s="169"/>
+      <c r="C68" s="169"/>
+      <c r="D68" s="169"/>
       <c r="E68" s="28"/>
       <c r="F68" s="21"/>
     </row>
@@ -15061,19 +15986,19 @@
     </row>
     <row r="77" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A77" s="21"/>
-      <c r="B77" s="169"/>
-      <c r="C77" s="169"/>
-      <c r="D77" s="169"/>
+      <c r="B77" s="173"/>
+      <c r="C77" s="173"/>
+      <c r="D77" s="173"/>
       <c r="E77" s="36"/>
       <c r="F77" s="21"/>
     </row>
     <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="21"/>
-      <c r="B78" s="174" t="s">
+      <c r="B78" s="170" t="s">
         <v>17</v>
       </c>
-      <c r="C78" s="174"/>
-      <c r="D78" s="174"/>
+      <c r="C78" s="170"/>
+      <c r="D78" s="170"/>
       <c r="E78" s="36">
         <v>0</v>
       </c>
@@ -15081,9 +16006,9 @@
     </row>
     <row r="79" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="21"/>
-      <c r="B79" s="169"/>
-      <c r="C79" s="169"/>
-      <c r="D79" s="169"/>
+      <c r="B79" s="173"/>
+      <c r="C79" s="173"/>
+      <c r="D79" s="173"/>
       <c r="E79" s="36"/>
       <c r="F79" s="21"/>
     </row>
@@ -15118,31 +16043,31 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="21"/>
-      <c r="B83" s="172"/>
-      <c r="C83" s="172"/>
-      <c r="D83" s="172"/>
-      <c r="E83" s="172"/>
+      <c r="B83" s="167"/>
+      <c r="C83" s="167"/>
+      <c r="D83" s="167"/>
+      <c r="E83" s="167"/>
       <c r="F83" s="21"/>
     </row>
     <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="166" t="s">
+      <c r="A84" s="175" t="s">
         <v>28</v>
       </c>
-      <c r="B84" s="166"/>
-      <c r="C84" s="166"/>
-      <c r="D84" s="166"/>
-      <c r="E84" s="166"/>
-      <c r="F84" s="166"/>
+      <c r="B84" s="175"/>
+      <c r="C84" s="175"/>
+      <c r="D84" s="175"/>
+      <c r="E84" s="175"/>
+      <c r="F84" s="175"/>
     </row>
     <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A85" s="175" t="s">
+      <c r="A85" s="171" t="s">
         <v>29</v>
       </c>
-      <c r="B85" s="175"/>
-      <c r="C85" s="175"/>
-      <c r="D85" s="175"/>
-      <c r="E85" s="175"/>
-      <c r="F85" s="175"/>
+      <c r="B85" s="171"/>
+      <c r="C85" s="171"/>
+      <c r="D85" s="171"/>
+      <c r="E85" s="171"/>
+      <c r="F85" s="171"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="21"/>
@@ -15154,26 +16079,26 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="21"/>
-      <c r="B87" s="173"/>
-      <c r="C87" s="173"/>
-      <c r="D87" s="173"/>
-      <c r="E87" s="173"/>
+      <c r="B87" s="168"/>
+      <c r="C87" s="168"/>
+      <c r="D87" s="168"/>
+      <c r="E87" s="168"/>
       <c r="F87" s="21"/>
     </row>
     <row r="88" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A88" s="165" t="s">
+      <c r="A88" s="174" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="165"/>
-      <c r="C88" s="165"/>
-      <c r="D88" s="165"/>
-      <c r="E88" s="165"/>
-      <c r="F88" s="165"/>
+      <c r="B88" s="174"/>
+      <c r="C88" s="174"/>
+      <c r="D88" s="174"/>
+      <c r="E88" s="174"/>
+      <c r="F88" s="174"/>
     </row>
     <row r="90" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="170"/>
-      <c r="C90" s="171"/>
-      <c r="D90" s="171"/>
+      <c r="B90" s="165"/>
+      <c r="C90" s="166"/>
+      <c r="D90" s="166"/>
     </row>
     <row r="91" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
@@ -15183,6 +16108,38 @@
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="B87:E87"/>
+    <mergeCell ref="A88:F88"/>
+    <mergeCell ref="B90:D90"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B79:D79"/>
+    <mergeCell ref="B83:E83"/>
+    <mergeCell ref="A84:F84"/>
+    <mergeCell ref="A85:F85"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B53:D53"/>
     <mergeCell ref="B43:D43"/>
     <mergeCell ref="A30:F30"/>
     <mergeCell ref="B33:D33"/>
@@ -15195,38 +16152,6 @@
     <mergeCell ref="B40:D40"/>
     <mergeCell ref="B41:D41"/>
     <mergeCell ref="B42:D42"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="B87:E87"/>
-    <mergeCell ref="A88:F88"/>
-    <mergeCell ref="B90:D90"/>
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="B79:D79"/>
-    <mergeCell ref="B83:E83"/>
-    <mergeCell ref="A84:F84"/>
-    <mergeCell ref="A85:F85"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B77:B79 B12:B20 B33:B68" xr:uid="{6AFAA126-C9B0-41E9-A1BF-E5EA5B07B8B2}">

--- a/Factures_Excel/1611 - Racine Petits Fruits 2014 Inc.xlsx
+++ b/Factures_Excel/1611 - Racine Petits Fruits 2014 Inc.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Administration\APP\GCF\Factures_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89053D2B-CE30-4A9C-AB58-DEBCC6FBB435}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDA52BBA-790E-4D27-90EE-679A1E2A9FDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="20-02-22" sheetId="4" r:id="rId1"/>
@@ -30,9 +30,12 @@
     <sheet name="2024-11-16 - 24-24641" sheetId="18" r:id="rId15"/>
     <sheet name="2024-12-22 - 24-24727" sheetId="19" r:id="rId16"/>
     <sheet name="2025-03-01 - 25-24772" sheetId="20" r:id="rId17"/>
+    <sheet name="2025-04-05 - 25-24901" sheetId="22" r:id="rId18"/>
+    <sheet name="2025-04-05 - 25-24902" sheetId="23" r:id="rId19"/>
+    <sheet name="2025-04-05 - 25-24903" sheetId="24" r:id="rId20"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId18"/>
+    <externalReference r:id="rId21"/>
   </externalReferences>
   <definedNames>
     <definedName name="dnrServices">OFFSET([1]Admin!$Z$11,,,COUNTA([1]Admin!$Z:$Z)-1,1)</definedName>
@@ -58,6 +61,9 @@
     <definedName name="_xlnm.Print_Area" localSheetId="14">'2024-11-16 - 24-24641'!$A$1:$F$89</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="15">'2024-12-22 - 24-24727'!$A$1:$F$88</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="16">'2025-03-01 - 25-24772'!$A$1:$F$88</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="17">'2025-04-05 - 25-24901'!$A$1:$F$88</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="18">'2025-04-05 - 25-24902'!$A$1:$F$88</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="19">'2025-04-05 - 25-24903'!$A$1:$F$88</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'21-03-23'!$A$1:$F$90</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'22-12-22'!$A$1:$F$89</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="8">'28-03-24'!$A$1:$F$89</definedName>
@@ -83,7 +89,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="165">
   <si>
     <t>NOTE D'HONORAIRES</t>
   </si>
@@ -532,6 +538,54 @@
   <si>
     <t xml:space="preserve"> - Analyse, réflexions et recherches fiscales permettant de déterminer le plan d'action fiscal optimal;</t>
   </si>
+  <si>
+    <t>Le 5 AVRIL 2025</t>
+  </si>
+  <si>
+    <t>25-24901</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Analyse, réflexions, recherches fiscales et calculs permettant de déterminer les conséquences fiscales potentielles d'une transaction hybride;</t>
+  </si>
+  <si>
+    <t>Daniel Racine</t>
+  </si>
+  <si>
+    <t>FIDUCIE FAMILIALE RACINE 2022</t>
+  </si>
+  <si>
+    <t>147 RUE MATHIAS</t>
+  </si>
+  <si>
+    <t>Sainte-Anne-des-Plaines, Québec, J5N 2S5</t>
+  </si>
+  <si>
+    <t>25-24902</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Préparation des déclarations de revenus ;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Travail additionnel pour fournir les PBR et CV de toutes les actions détenues ;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Travail additionnel différentes annexes ;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Lecture et rédaction de divers courriels ;</t>
+  </si>
+  <si>
+    <t>Annie Perrier</t>
+  </si>
+  <si>
+    <t>FIDUCIE FAMILIALE PERRIER 2022</t>
+  </si>
+  <si>
+    <t>Sainte-Anne-des-Plaines, Québec, J5N J5N 2S5</t>
+  </si>
+  <si>
+    <t>25-24903</t>
+  </si>
 </sst>
 </file>
 
@@ -879,7 +933,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -901,6 +955,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1109,7 +1169,7 @@
     <xf numFmtId="9" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="193">
+  <cellXfs count="194">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1509,6 +1569,9 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="4" fontId="24" fillId="5" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2093,6 +2156,204 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{702506F6-F88C-D930-2283-AD0E53ECE5EA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1" y="0"/>
+          <a:ext cx="11678161" cy="3175000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing17.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>210062</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17409" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB23538A-9366-5C35-17E7-0EE5C38933ED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1" y="0"/>
+          <a:ext cx="11678161" cy="3175000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing18.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>210062</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18433" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48A22740-BDCF-99FA-7359-2B91E95A8759}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1" y="0"/>
+          <a:ext cx="11678161" cy="3175000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing19.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>210062</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19457" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7A849FE-20FC-FE22-78A7-45E29D76CC97}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3338,14 +3599,14 @@
       <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="172" t="s">
+      <c r="A30" s="173" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="172"/>
-      <c r="C30" s="172"/>
-      <c r="D30" s="172"/>
-      <c r="E30" s="172"/>
-      <c r="F30" s="172"/>
+      <c r="B30" s="173"/>
+      <c r="C30" s="173"/>
+      <c r="D30" s="173"/>
+      <c r="E30" s="173"/>
+      <c r="F30" s="173"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="17"/>
@@ -3366,289 +3627,289 @@
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
-      <c r="B33" s="169"/>
-      <c r="C33" s="169"/>
-      <c r="D33" s="169"/>
+      <c r="B33" s="170"/>
+      <c r="C33" s="170"/>
+      <c r="D33" s="170"/>
       <c r="E33" s="28"/>
       <c r="F33" s="21"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="21"/>
-      <c r="B34" s="169" t="s">
+      <c r="B34" s="170" t="s">
         <v>60</v>
       </c>
-      <c r="C34" s="169"/>
-      <c r="D34" s="169"/>
+      <c r="C34" s="170"/>
+      <c r="D34" s="170"/>
       <c r="E34" s="28"/>
       <c r="F34" s="21"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
-      <c r="B35" s="169"/>
-      <c r="C35" s="169"/>
-      <c r="D35" s="169"/>
+      <c r="B35" s="170"/>
+      <c r="C35" s="170"/>
+      <c r="D35" s="170"/>
       <c r="E35" s="28"/>
       <c r="F35" s="21"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="21"/>
-      <c r="B36" s="169" t="s">
+      <c r="B36" s="170" t="s">
         <v>54</v>
       </c>
-      <c r="C36" s="169"/>
-      <c r="D36" s="169"/>
+      <c r="C36" s="170"/>
+      <c r="D36" s="170"/>
       <c r="E36" s="28"/>
       <c r="F36" s="21"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
-      <c r="B37" s="169"/>
-      <c r="C37" s="169"/>
-      <c r="D37" s="169"/>
+      <c r="B37" s="170"/>
+      <c r="C37" s="170"/>
+      <c r="D37" s="170"/>
       <c r="E37" s="28"/>
       <c r="F37" s="21"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="21"/>
-      <c r="B38" s="169" t="s">
+      <c r="B38" s="170" t="s">
         <v>31</v>
       </c>
-      <c r="C38" s="169"/>
-      <c r="D38" s="169"/>
+      <c r="C38" s="170"/>
+      <c r="D38" s="170"/>
       <c r="E38" s="28"/>
       <c r="F38" s="21"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="21"/>
-      <c r="B39" s="169"/>
-      <c r="C39" s="169"/>
-      <c r="D39" s="169"/>
+      <c r="B39" s="170"/>
+      <c r="C39" s="170"/>
+      <c r="D39" s="170"/>
       <c r="E39" s="28"/>
       <c r="F39" s="21"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="21"/>
-      <c r="B40" s="169" t="s">
+      <c r="B40" s="170" t="s">
         <v>30</v>
       </c>
-      <c r="C40" s="169"/>
-      <c r="D40" s="169"/>
+      <c r="C40" s="170"/>
+      <c r="D40" s="170"/>
       <c r="E40" s="28"/>
       <c r="F40" s="21"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="21"/>
-      <c r="B41" s="169"/>
-      <c r="C41" s="169"/>
-      <c r="D41" s="169"/>
+      <c r="B41" s="170"/>
+      <c r="C41" s="170"/>
+      <c r="D41" s="170"/>
       <c r="E41" s="28"/>
       <c r="F41" s="21"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="21"/>
-      <c r="B42" s="169" t="s">
+      <c r="B42" s="170" t="s">
         <v>2</v>
       </c>
-      <c r="C42" s="169"/>
-      <c r="D42" s="169"/>
+      <c r="C42" s="170"/>
+      <c r="D42" s="170"/>
       <c r="E42" s="28"/>
       <c r="F42" s="21"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="21"/>
-      <c r="B43" s="169"/>
-      <c r="C43" s="169"/>
-      <c r="D43" s="169"/>
+      <c r="B43" s="170"/>
+      <c r="C43" s="170"/>
+      <c r="D43" s="170"/>
       <c r="E43" s="28"/>
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
-      <c r="B44" s="169" t="s">
+      <c r="B44" s="170" t="s">
         <v>20</v>
       </c>
-      <c r="C44" s="169"/>
-      <c r="D44" s="169"/>
+      <c r="C44" s="170"/>
+      <c r="D44" s="170"/>
       <c r="E44" s="28"/>
       <c r="F44" s="21"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="21"/>
-      <c r="B45" s="169"/>
-      <c r="C45" s="169"/>
-      <c r="D45" s="169"/>
+      <c r="B45" s="170"/>
+      <c r="C45" s="170"/>
+      <c r="D45" s="170"/>
       <c r="E45" s="28"/>
       <c r="F45" s="21"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="21"/>
-      <c r="B46" s="169" t="s">
+      <c r="B46" s="170" t="s">
         <v>43</v>
       </c>
-      <c r="C46" s="169"/>
-      <c r="D46" s="169"/>
+      <c r="C46" s="170"/>
+      <c r="D46" s="170"/>
       <c r="E46" s="28"/>
       <c r="F46" s="21"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="21"/>
-      <c r="B47" s="169"/>
-      <c r="C47" s="169"/>
-      <c r="D47" s="169"/>
+      <c r="B47" s="170"/>
+      <c r="C47" s="170"/>
+      <c r="D47" s="170"/>
       <c r="E47" s="28"/>
       <c r="F47" s="21"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="21"/>
-      <c r="B48" s="169" t="s">
+      <c r="B48" s="170" t="s">
         <v>34</v>
       </c>
-      <c r="C48" s="169"/>
-      <c r="D48" s="169"/>
+      <c r="C48" s="170"/>
+      <c r="D48" s="170"/>
       <c r="E48" s="28"/>
       <c r="F48" s="21"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="21"/>
-      <c r="B49" s="169"/>
-      <c r="C49" s="169"/>
-      <c r="D49" s="169"/>
+      <c r="B49" s="170"/>
+      <c r="C49" s="170"/>
+      <c r="D49" s="170"/>
       <c r="E49" s="28"/>
       <c r="F49" s="21"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="21"/>
-      <c r="B50" s="169" t="s">
+      <c r="B50" s="170" t="s">
         <v>38</v>
       </c>
-      <c r="C50" s="169"/>
-      <c r="D50" s="169"/>
+      <c r="C50" s="170"/>
+      <c r="D50" s="170"/>
       <c r="E50" s="28"/>
       <c r="F50" s="21"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="21"/>
-      <c r="B51" s="169"/>
-      <c r="C51" s="169"/>
-      <c r="D51" s="169"/>
+      <c r="B51" s="170"/>
+      <c r="C51" s="170"/>
+      <c r="D51" s="170"/>
       <c r="E51" s="28"/>
       <c r="F51" s="21"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="21"/>
-      <c r="B52" s="169" t="s">
+      <c r="B52" s="170" t="s">
         <v>44</v>
       </c>
-      <c r="C52" s="169"/>
-      <c r="D52" s="169"/>
+      <c r="C52" s="170"/>
+      <c r="D52" s="170"/>
       <c r="E52" s="28"/>
       <c r="F52" s="21"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="21"/>
-      <c r="B53" s="169"/>
-      <c r="C53" s="169"/>
-      <c r="D53" s="169"/>
+      <c r="B53" s="170"/>
+      <c r="C53" s="170"/>
+      <c r="D53" s="170"/>
       <c r="E53" s="28"/>
       <c r="F53" s="21"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="21"/>
-      <c r="B54" s="169" t="s">
+      <c r="B54" s="170" t="s">
         <v>45</v>
       </c>
-      <c r="C54" s="169"/>
-      <c r="D54" s="169"/>
+      <c r="C54" s="170"/>
+      <c r="D54" s="170"/>
       <c r="E54" s="28"/>
       <c r="F54" s="21"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="21"/>
-      <c r="B55" s="169"/>
-      <c r="C55" s="169"/>
-      <c r="D55" s="169"/>
+      <c r="B55" s="170"/>
+      <c r="C55" s="170"/>
+      <c r="D55" s="170"/>
       <c r="E55" s="28"/>
       <c r="F55" s="21"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="21"/>
-      <c r="B56" s="169" t="s">
+      <c r="B56" s="170" t="s">
         <v>19</v>
       </c>
-      <c r="C56" s="169"/>
-      <c r="D56" s="169"/>
+      <c r="C56" s="170"/>
+      <c r="D56" s="170"/>
       <c r="E56" s="28"/>
       <c r="F56" s="21"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="21"/>
-      <c r="B57" s="169"/>
-      <c r="C57" s="169"/>
-      <c r="D57" s="169"/>
+      <c r="B57" s="170"/>
+      <c r="C57" s="170"/>
+      <c r="D57" s="170"/>
       <c r="E57" s="28"/>
       <c r="F57" s="21"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="21"/>
-      <c r="B58" s="169" t="s">
+      <c r="B58" s="170" t="s">
         <v>21</v>
       </c>
-      <c r="C58" s="169"/>
-      <c r="D58" s="169"/>
+      <c r="C58" s="170"/>
+      <c r="D58" s="170"/>
       <c r="E58" s="28"/>
       <c r="F58" s="21"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="21"/>
-      <c r="B59" s="169"/>
-      <c r="C59" s="169"/>
-      <c r="D59" s="169"/>
+      <c r="B59" s="170"/>
+      <c r="C59" s="170"/>
+      <c r="D59" s="170"/>
       <c r="E59" s="28"/>
       <c r="F59" s="21"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="21"/>
-      <c r="B60" s="169" t="s">
+      <c r="B60" s="170" t="s">
         <v>8</v>
       </c>
-      <c r="C60" s="169"/>
-      <c r="D60" s="169"/>
+      <c r="C60" s="170"/>
+      <c r="D60" s="170"/>
       <c r="E60" s="28"/>
       <c r="F60" s="21"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="21"/>
-      <c r="B61" s="169"/>
-      <c r="C61" s="169"/>
-      <c r="D61" s="169"/>
+      <c r="B61" s="170"/>
+      <c r="C61" s="170"/>
+      <c r="D61" s="170"/>
       <c r="E61" s="28"/>
       <c r="F61" s="21"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="21"/>
-      <c r="B62" s="169" t="s">
+      <c r="B62" s="170" t="s">
         <v>46</v>
       </c>
-      <c r="C62" s="169"/>
-      <c r="D62" s="169"/>
+      <c r="C62" s="170"/>
+      <c r="D62" s="170"/>
       <c r="E62" s="28"/>
       <c r="F62" s="21"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="21"/>
-      <c r="B63" s="169"/>
-      <c r="C63" s="169"/>
-      <c r="D63" s="169"/>
+      <c r="B63" s="170"/>
+      <c r="C63" s="170"/>
+      <c r="D63" s="170"/>
       <c r="E63" s="28"/>
       <c r="F63" s="21"/>
     </row>
     <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A64" s="21"/>
-      <c r="B64" s="169" t="s">
+      <c r="B64" s="170" t="s">
         <v>32</v>
       </c>
-      <c r="C64" s="169"/>
-      <c r="D64" s="169"/>
+      <c r="C64" s="170"/>
+      <c r="D64" s="170"/>
       <c r="E64" s="28"/>
       <c r="F64" s="21"/>
     </row>
@@ -3678,17 +3939,17 @@
     </row>
     <row r="67" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A67" s="21"/>
-      <c r="B67" s="169"/>
-      <c r="C67" s="169"/>
-      <c r="D67" s="169"/>
+      <c r="B67" s="170"/>
+      <c r="C67" s="170"/>
+      <c r="D67" s="170"/>
       <c r="E67" s="28"/>
       <c r="F67" s="21"/>
     </row>
     <row r="68" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="21"/>
-      <c r="B68" s="169"/>
-      <c r="C68" s="169"/>
-      <c r="D68" s="169"/>
+      <c r="B68" s="170"/>
+      <c r="C68" s="170"/>
+      <c r="D68" s="170"/>
       <c r="E68" s="28"/>
       <c r="F68" s="21"/>
     </row>
@@ -3795,19 +4056,19 @@
     </row>
     <row r="77" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A77" s="21"/>
-      <c r="B77" s="173"/>
-      <c r="C77" s="173"/>
-      <c r="D77" s="173"/>
+      <c r="B77" s="174"/>
+      <c r="C77" s="174"/>
+      <c r="D77" s="174"/>
       <c r="E77" s="36"/>
       <c r="F77" s="21"/>
     </row>
     <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="21"/>
-      <c r="B78" s="170" t="s">
+      <c r="B78" s="171" t="s">
         <v>17</v>
       </c>
-      <c r="C78" s="170"/>
-      <c r="D78" s="170"/>
+      <c r="C78" s="171"/>
+      <c r="D78" s="171"/>
       <c r="E78" s="36">
         <v>0</v>
       </c>
@@ -3815,9 +4076,9 @@
     </row>
     <row r="79" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="21"/>
-      <c r="B79" s="173"/>
-      <c r="C79" s="173"/>
-      <c r="D79" s="173"/>
+      <c r="B79" s="174"/>
+      <c r="C79" s="174"/>
+      <c r="D79" s="174"/>
       <c r="E79" s="36"/>
       <c r="F79" s="21"/>
     </row>
@@ -3852,31 +4113,31 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="21"/>
-      <c r="B83" s="167"/>
-      <c r="C83" s="167"/>
-      <c r="D83" s="167"/>
-      <c r="E83" s="167"/>
+      <c r="B83" s="168"/>
+      <c r="C83" s="168"/>
+      <c r="D83" s="168"/>
+      <c r="E83" s="168"/>
       <c r="F83" s="21"/>
     </row>
     <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="175" t="s">
+      <c r="A84" s="176" t="s">
         <v>28</v>
       </c>
-      <c r="B84" s="175"/>
-      <c r="C84" s="175"/>
-      <c r="D84" s="175"/>
-      <c r="E84" s="175"/>
-      <c r="F84" s="175"/>
+      <c r="B84" s="176"/>
+      <c r="C84" s="176"/>
+      <c r="D84" s="176"/>
+      <c r="E84" s="176"/>
+      <c r="F84" s="176"/>
     </row>
     <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A85" s="171" t="s">
+      <c r="A85" s="172" t="s">
         <v>29</v>
       </c>
-      <c r="B85" s="171"/>
-      <c r="C85" s="171"/>
-      <c r="D85" s="171"/>
-      <c r="E85" s="171"/>
-      <c r="F85" s="171"/>
+      <c r="B85" s="172"/>
+      <c r="C85" s="172"/>
+      <c r="D85" s="172"/>
+      <c r="E85" s="172"/>
+      <c r="F85" s="172"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="21"/>
@@ -3888,26 +4149,26 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="21"/>
-      <c r="B87" s="168"/>
-      <c r="C87" s="168"/>
-      <c r="D87" s="168"/>
-      <c r="E87" s="168"/>
+      <c r="B87" s="169"/>
+      <c r="C87" s="169"/>
+      <c r="D87" s="169"/>
+      <c r="E87" s="169"/>
       <c r="F87" s="21"/>
     </row>
     <row r="88" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A88" s="174" t="s">
+      <c r="A88" s="175" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="174"/>
-      <c r="C88" s="174"/>
-      <c r="D88" s="174"/>
-      <c r="E88" s="174"/>
-      <c r="F88" s="174"/>
+      <c r="B88" s="175"/>
+      <c r="C88" s="175"/>
+      <c r="D88" s="175"/>
+      <c r="E88" s="175"/>
+      <c r="F88" s="175"/>
     </row>
     <row r="90" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="165"/>
-      <c r="C90" s="166"/>
-      <c r="D90" s="166"/>
+      <c r="B90" s="166"/>
+      <c r="C90" s="167"/>
+      <c r="D90" s="167"/>
     </row>
     <row r="91" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
@@ -4119,14 +4380,14 @@
       <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="172" t="s">
+      <c r="A30" s="173" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="172"/>
-      <c r="C30" s="172"/>
-      <c r="D30" s="172"/>
-      <c r="E30" s="172"/>
-      <c r="F30" s="172"/>
+      <c r="B30" s="173"/>
+      <c r="C30" s="173"/>
+      <c r="D30" s="173"/>
+      <c r="E30" s="173"/>
+      <c r="F30" s="173"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="17"/>
@@ -4147,273 +4408,273 @@
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
-      <c r="B33" s="169"/>
-      <c r="C33" s="169"/>
-      <c r="D33" s="169"/>
+      <c r="B33" s="170"/>
+      <c r="C33" s="170"/>
+      <c r="D33" s="170"/>
       <c r="E33" s="28"/>
       <c r="F33" s="21"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="21"/>
-      <c r="B34" s="169" t="s">
+      <c r="B34" s="170" t="s">
         <v>33</v>
       </c>
-      <c r="C34" s="169"/>
-      <c r="D34" s="169"/>
+      <c r="C34" s="170"/>
+      <c r="D34" s="170"/>
       <c r="E34" s="28"/>
       <c r="F34" s="21"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
-      <c r="B35" s="169"/>
-      <c r="C35" s="169"/>
-      <c r="D35" s="169"/>
+      <c r="B35" s="170"/>
+      <c r="C35" s="170"/>
+      <c r="D35" s="170"/>
       <c r="E35" s="28"/>
       <c r="F35" s="21"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="21"/>
-      <c r="B36" s="169" t="s">
+      <c r="B36" s="170" t="s">
         <v>31</v>
       </c>
-      <c r="C36" s="169"/>
-      <c r="D36" s="169"/>
+      <c r="C36" s="170"/>
+      <c r="D36" s="170"/>
       <c r="E36" s="28"/>
       <c r="F36" s="21"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
-      <c r="B37" s="169"/>
-      <c r="C37" s="169"/>
-      <c r="D37" s="169"/>
+      <c r="B37" s="170"/>
+      <c r="C37" s="170"/>
+      <c r="D37" s="170"/>
       <c r="E37" s="28"/>
       <c r="F37" s="21"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="21"/>
-      <c r="B38" s="169" t="s">
+      <c r="B38" s="170" t="s">
         <v>107</v>
       </c>
-      <c r="C38" s="169"/>
-      <c r="D38" s="169"/>
+      <c r="C38" s="170"/>
+      <c r="D38" s="170"/>
       <c r="E38" s="28"/>
       <c r="F38" s="21"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="21"/>
-      <c r="B39" s="169"/>
-      <c r="C39" s="169"/>
-      <c r="D39" s="169"/>
+      <c r="B39" s="170"/>
+      <c r="C39" s="170"/>
+      <c r="D39" s="170"/>
       <c r="E39" s="28"/>
       <c r="F39" s="21"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="21"/>
-      <c r="B40" s="169" t="s">
+      <c r="B40" s="170" t="s">
         <v>38</v>
       </c>
-      <c r="C40" s="169"/>
-      <c r="D40" s="169"/>
+      <c r="C40" s="170"/>
+      <c r="D40" s="170"/>
       <c r="E40" s="28"/>
       <c r="F40" s="21"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="21"/>
-      <c r="B41" s="169"/>
-      <c r="C41" s="169"/>
-      <c r="D41" s="169"/>
+      <c r="B41" s="170"/>
+      <c r="C41" s="170"/>
+      <c r="D41" s="170"/>
       <c r="E41" s="28"/>
       <c r="F41" s="21"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="21"/>
-      <c r="B42" s="169"/>
-      <c r="C42" s="169"/>
-      <c r="D42" s="169"/>
+      <c r="B42" s="170"/>
+      <c r="C42" s="170"/>
+      <c r="D42" s="170"/>
       <c r="E42" s="28"/>
       <c r="F42" s="21"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="21"/>
-      <c r="B43" s="169"/>
-      <c r="C43" s="169"/>
-      <c r="D43" s="169"/>
+      <c r="B43" s="170"/>
+      <c r="C43" s="170"/>
+      <c r="D43" s="170"/>
       <c r="E43" s="28"/>
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
-      <c r="B44" s="169"/>
-      <c r="C44" s="169"/>
-      <c r="D44" s="169"/>
+      <c r="B44" s="170"/>
+      <c r="C44" s="170"/>
+      <c r="D44" s="170"/>
       <c r="E44" s="28"/>
       <c r="F44" s="21"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="21"/>
-      <c r="B45" s="169"/>
-      <c r="C45" s="169"/>
-      <c r="D45" s="169"/>
+      <c r="B45" s="170"/>
+      <c r="C45" s="170"/>
+      <c r="D45" s="170"/>
       <c r="E45" s="28"/>
       <c r="F45" s="21"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="21"/>
-      <c r="B46" s="169"/>
-      <c r="C46" s="169"/>
-      <c r="D46" s="169"/>
+      <c r="B46" s="170"/>
+      <c r="C46" s="170"/>
+      <c r="D46" s="170"/>
       <c r="E46" s="28"/>
       <c r="F46" s="21"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="21"/>
-      <c r="B47" s="169"/>
-      <c r="C47" s="169"/>
-      <c r="D47" s="169"/>
+      <c r="B47" s="170"/>
+      <c r="C47" s="170"/>
+      <c r="D47" s="170"/>
       <c r="E47" s="28"/>
       <c r="F47" s="21"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="21"/>
-      <c r="B48" s="169"/>
-      <c r="C48" s="169"/>
-      <c r="D48" s="169"/>
+      <c r="B48" s="170"/>
+      <c r="C48" s="170"/>
+      <c r="D48" s="170"/>
       <c r="E48" s="28"/>
       <c r="F48" s="21"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="21"/>
-      <c r="B49" s="169"/>
-      <c r="C49" s="169"/>
-      <c r="D49" s="169"/>
+      <c r="B49" s="170"/>
+      <c r="C49" s="170"/>
+      <c r="D49" s="170"/>
       <c r="E49" s="28"/>
       <c r="F49" s="21"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="21"/>
-      <c r="B50" s="169"/>
-      <c r="C50" s="169"/>
-      <c r="D50" s="169"/>
+      <c r="B50" s="170"/>
+      <c r="C50" s="170"/>
+      <c r="D50" s="170"/>
       <c r="E50" s="28"/>
       <c r="F50" s="21"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="21"/>
-      <c r="B51" s="169"/>
-      <c r="C51" s="169"/>
-      <c r="D51" s="169"/>
+      <c r="B51" s="170"/>
+      <c r="C51" s="170"/>
+      <c r="D51" s="170"/>
       <c r="E51" s="28"/>
       <c r="F51" s="21"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="21"/>
-      <c r="B52" s="169"/>
-      <c r="C52" s="169"/>
-      <c r="D52" s="169"/>
+      <c r="B52" s="170"/>
+      <c r="C52" s="170"/>
+      <c r="D52" s="170"/>
       <c r="E52" s="28"/>
       <c r="F52" s="21"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="21"/>
-      <c r="B53" s="169"/>
-      <c r="C53" s="169"/>
-      <c r="D53" s="169"/>
+      <c r="B53" s="170"/>
+      <c r="C53" s="170"/>
+      <c r="D53" s="170"/>
       <c r="E53" s="28"/>
       <c r="F53" s="21"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="21"/>
-      <c r="B54" s="169"/>
-      <c r="C54" s="169"/>
-      <c r="D54" s="169"/>
+      <c r="B54" s="170"/>
+      <c r="C54" s="170"/>
+      <c r="D54" s="170"/>
       <c r="E54" s="28"/>
       <c r="F54" s="21"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="21"/>
-      <c r="B55" s="169"/>
-      <c r="C55" s="169"/>
-      <c r="D55" s="169"/>
+      <c r="B55" s="170"/>
+      <c r="C55" s="170"/>
+      <c r="D55" s="170"/>
       <c r="E55" s="28"/>
       <c r="F55" s="21"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="21"/>
-      <c r="B56" s="169"/>
-      <c r="C56" s="169"/>
-      <c r="D56" s="169"/>
+      <c r="B56" s="170"/>
+      <c r="C56" s="170"/>
+      <c r="D56" s="170"/>
       <c r="E56" s="28"/>
       <c r="F56" s="21"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="21"/>
-      <c r="B57" s="169"/>
-      <c r="C57" s="169"/>
-      <c r="D57" s="169"/>
+      <c r="B57" s="170"/>
+      <c r="C57" s="170"/>
+      <c r="D57" s="170"/>
       <c r="E57" s="28"/>
       <c r="F57" s="21"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="21"/>
-      <c r="B58" s="169"/>
-      <c r="C58" s="169"/>
-      <c r="D58" s="169"/>
+      <c r="B58" s="170"/>
+      <c r="C58" s="170"/>
+      <c r="D58" s="170"/>
       <c r="E58" s="28"/>
       <c r="F58" s="21"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="21"/>
-      <c r="B59" s="169"/>
-      <c r="C59" s="169"/>
-      <c r="D59" s="169"/>
+      <c r="B59" s="170"/>
+      <c r="C59" s="170"/>
+      <c r="D59" s="170"/>
       <c r="E59" s="28"/>
       <c r="F59" s="21"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="21"/>
-      <c r="B60" s="169"/>
-      <c r="C60" s="169"/>
-      <c r="D60" s="169"/>
+      <c r="B60" s="170"/>
+      <c r="C60" s="170"/>
+      <c r="D60" s="170"/>
       <c r="E60" s="28"/>
       <c r="F60" s="21"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="21"/>
-      <c r="B61" s="169"/>
-      <c r="C61" s="169"/>
-      <c r="D61" s="169"/>
+      <c r="B61" s="170"/>
+      <c r="C61" s="170"/>
+      <c r="D61" s="170"/>
       <c r="E61" s="28"/>
       <c r="F61" s="21"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="21"/>
-      <c r="B62" s="169"/>
-      <c r="C62" s="169"/>
-      <c r="D62" s="169"/>
+      <c r="B62" s="170"/>
+      <c r="C62" s="170"/>
+      <c r="D62" s="170"/>
       <c r="E62" s="28"/>
       <c r="F62" s="21"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="21"/>
-      <c r="B63" s="169"/>
-      <c r="C63" s="169"/>
-      <c r="D63" s="169"/>
+      <c r="B63" s="170"/>
+      <c r="C63" s="170"/>
+      <c r="D63" s="170"/>
       <c r="E63" s="28"/>
       <c r="F63" s="21"/>
     </row>
     <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A64" s="21"/>
-      <c r="B64" s="169"/>
-      <c r="C64" s="169"/>
-      <c r="D64" s="169"/>
+      <c r="B64" s="170"/>
+      <c r="C64" s="170"/>
+      <c r="D64" s="170"/>
       <c r="E64" s="28"/>
       <c r="F64" s="21"/>
     </row>
     <row r="65" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A65" s="21"/>
-      <c r="B65" s="169"/>
-      <c r="C65" s="169"/>
-      <c r="D65" s="169"/>
+      <c r="B65" s="170"/>
+      <c r="C65" s="170"/>
+      <c r="D65" s="170"/>
       <c r="E65" s="28"/>
       <c r="F65" s="21"/>
     </row>
@@ -4443,17 +4704,17 @@
     </row>
     <row r="68" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A68" s="21"/>
-      <c r="B68" s="169"/>
-      <c r="C68" s="169"/>
-      <c r="D68" s="169"/>
+      <c r="B68" s="170"/>
+      <c r="C68" s="170"/>
+      <c r="D68" s="170"/>
       <c r="E68" s="28"/>
       <c r="F68" s="21"/>
     </row>
     <row r="69" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="21"/>
-      <c r="B69" s="169"/>
-      <c r="C69" s="169"/>
-      <c r="D69" s="169"/>
+      <c r="B69" s="170"/>
+      <c r="C69" s="170"/>
+      <c r="D69" s="170"/>
       <c r="E69" s="28"/>
       <c r="F69" s="21"/>
     </row>
@@ -4560,19 +4821,19 @@
     </row>
     <row r="78" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A78" s="21"/>
-      <c r="B78" s="173"/>
-      <c r="C78" s="173"/>
-      <c r="D78" s="173"/>
+      <c r="B78" s="174"/>
+      <c r="C78" s="174"/>
+      <c r="D78" s="174"/>
       <c r="E78" s="36"/>
       <c r="F78" s="21"/>
     </row>
     <row r="79" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="21"/>
-      <c r="B79" s="170" t="s">
+      <c r="B79" s="171" t="s">
         <v>17</v>
       </c>
-      <c r="C79" s="170"/>
-      <c r="D79" s="170"/>
+      <c r="C79" s="171"/>
+      <c r="D79" s="171"/>
       <c r="E79" s="36">
         <v>0</v>
       </c>
@@ -4580,9 +4841,9 @@
     </row>
     <row r="80" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A80" s="21"/>
-      <c r="B80" s="173"/>
-      <c r="C80" s="173"/>
-      <c r="D80" s="173"/>
+      <c r="B80" s="174"/>
+      <c r="C80" s="174"/>
+      <c r="D80" s="174"/>
       <c r="E80" s="36"/>
       <c r="F80" s="21"/>
     </row>
@@ -4617,31 +4878,31 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" s="21"/>
-      <c r="B84" s="167"/>
-      <c r="C84" s="167"/>
-      <c r="D84" s="167"/>
-      <c r="E84" s="167"/>
+      <c r="B84" s="168"/>
+      <c r="C84" s="168"/>
+      <c r="D84" s="168"/>
+      <c r="E84" s="168"/>
       <c r="F84" s="21"/>
     </row>
     <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A85" s="175" t="s">
+      <c r="A85" s="176" t="s">
         <v>28</v>
       </c>
-      <c r="B85" s="175"/>
-      <c r="C85" s="175"/>
-      <c r="D85" s="175"/>
-      <c r="E85" s="175"/>
-      <c r="F85" s="175"/>
+      <c r="B85" s="176"/>
+      <c r="C85" s="176"/>
+      <c r="D85" s="176"/>
+      <c r="E85" s="176"/>
+      <c r="F85" s="176"/>
     </row>
     <row r="86" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A86" s="171" t="s">
+      <c r="A86" s="172" t="s">
         <v>29</v>
       </c>
-      <c r="B86" s="171"/>
-      <c r="C86" s="171"/>
-      <c r="D86" s="171"/>
-      <c r="E86" s="171"/>
-      <c r="F86" s="171"/>
+      <c r="B86" s="172"/>
+      <c r="C86" s="172"/>
+      <c r="D86" s="172"/>
+      <c r="E86" s="172"/>
+      <c r="F86" s="172"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="21"/>
@@ -4653,26 +4914,26 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" s="21"/>
-      <c r="B88" s="168"/>
-      <c r="C88" s="168"/>
-      <c r="D88" s="168"/>
-      <c r="E88" s="168"/>
+      <c r="B88" s="169"/>
+      <c r="C88" s="169"/>
+      <c r="D88" s="169"/>
+      <c r="E88" s="169"/>
       <c r="F88" s="21"/>
     </row>
     <row r="89" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A89" s="174" t="s">
+      <c r="A89" s="175" t="s">
         <v>7</v>
       </c>
-      <c r="B89" s="174"/>
-      <c r="C89" s="174"/>
-      <c r="D89" s="174"/>
-      <c r="E89" s="174"/>
-      <c r="F89" s="174"/>
+      <c r="B89" s="175"/>
+      <c r="C89" s="175"/>
+      <c r="D89" s="175"/>
+      <c r="E89" s="175"/>
+      <c r="F89" s="175"/>
     </row>
     <row r="91" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B91" s="165"/>
-      <c r="C91" s="166"/>
-      <c r="D91" s="166"/>
+      <c r="B91" s="166"/>
+      <c r="C91" s="167"/>
+      <c r="D91" s="167"/>
     </row>
     <row r="92" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
@@ -4884,14 +5145,14 @@
       <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="172" t="s">
+      <c r="A30" s="173" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="172"/>
-      <c r="C30" s="172"/>
-      <c r="D30" s="172"/>
-      <c r="E30" s="172"/>
-      <c r="F30" s="172"/>
+      <c r="B30" s="173"/>
+      <c r="C30" s="173"/>
+      <c r="D30" s="173"/>
+      <c r="E30" s="173"/>
+      <c r="F30" s="173"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="17"/>
@@ -4912,275 +5173,275 @@
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
-      <c r="B33" s="169"/>
-      <c r="C33" s="169"/>
-      <c r="D33" s="169"/>
+      <c r="B33" s="170"/>
+      <c r="C33" s="170"/>
+      <c r="D33" s="170"/>
       <c r="E33" s="28"/>
       <c r="F33" s="21"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="21"/>
-      <c r="B34" s="169" t="s">
+      <c r="B34" s="170" t="s">
         <v>33</v>
       </c>
-      <c r="C34" s="169"/>
-      <c r="D34" s="169"/>
+      <c r="C34" s="170"/>
+      <c r="D34" s="170"/>
       <c r="E34" s="28"/>
       <c r="F34" s="21"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
-      <c r="B35" s="169"/>
-      <c r="C35" s="169"/>
-      <c r="D35" s="169"/>
+      <c r="B35" s="170"/>
+      <c r="C35" s="170"/>
+      <c r="D35" s="170"/>
       <c r="E35" s="28"/>
       <c r="F35" s="21"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="21"/>
-      <c r="B36" s="169" t="s">
+      <c r="B36" s="170" t="s">
         <v>110</v>
       </c>
-      <c r="C36" s="169"/>
-      <c r="D36" s="169"/>
+      <c r="C36" s="170"/>
+      <c r="D36" s="170"/>
       <c r="E36" s="28"/>
       <c r="F36" s="21"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
-      <c r="B37" s="169"/>
-      <c r="C37" s="169"/>
-      <c r="D37" s="169"/>
+      <c r="B37" s="170"/>
+      <c r="C37" s="170"/>
+      <c r="D37" s="170"/>
       <c r="E37" s="28"/>
       <c r="F37" s="21"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="21"/>
-      <c r="B38" s="169" t="s">
+      <c r="B38" s="170" t="s">
         <v>38</v>
       </c>
-      <c r="C38" s="169"/>
-      <c r="D38" s="169"/>
+      <c r="C38" s="170"/>
+      <c r="D38" s="170"/>
       <c r="E38" s="28"/>
       <c r="F38" s="21"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="21"/>
-      <c r="B39" s="169"/>
-      <c r="C39" s="169"/>
-      <c r="D39" s="169"/>
+      <c r="B39" s="170"/>
+      <c r="C39" s="170"/>
+      <c r="D39" s="170"/>
       <c r="E39" s="28"/>
       <c r="F39" s="21"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="21"/>
-      <c r="B40" s="169" t="s">
+      <c r="B40" s="170" t="s">
         <v>111</v>
       </c>
-      <c r="C40" s="169"/>
-      <c r="D40" s="169"/>
+      <c r="C40" s="170"/>
+      <c r="D40" s="170"/>
       <c r="E40" s="28"/>
       <c r="F40" s="21"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="21"/>
-      <c r="B41" s="169"/>
-      <c r="C41" s="169"/>
-      <c r="D41" s="169"/>
+      <c r="B41" s="170"/>
+      <c r="C41" s="170"/>
+      <c r="D41" s="170"/>
       <c r="E41" s="28"/>
       <c r="F41" s="21"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="21"/>
-      <c r="B42" s="169" t="s">
+      <c r="B42" s="170" t="s">
         <v>95</v>
       </c>
-      <c r="C42" s="169"/>
-      <c r="D42" s="169"/>
+      <c r="C42" s="170"/>
+      <c r="D42" s="170"/>
       <c r="E42" s="28"/>
       <c r="F42" s="21"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="21"/>
-      <c r="B43" s="169"/>
-      <c r="C43" s="169"/>
-      <c r="D43" s="169"/>
+      <c r="B43" s="170"/>
+      <c r="C43" s="170"/>
+      <c r="D43" s="170"/>
       <c r="E43" s="28"/>
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
-      <c r="B44" s="169"/>
-      <c r="C44" s="169"/>
-      <c r="D44" s="169"/>
+      <c r="B44" s="170"/>
+      <c r="C44" s="170"/>
+      <c r="D44" s="170"/>
       <c r="E44" s="28"/>
       <c r="F44" s="21"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="21"/>
-      <c r="B45" s="169"/>
-      <c r="C45" s="169"/>
-      <c r="D45" s="169"/>
+      <c r="B45" s="170"/>
+      <c r="C45" s="170"/>
+      <c r="D45" s="170"/>
       <c r="E45" s="28"/>
       <c r="F45" s="21"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="21"/>
-      <c r="B46" s="169"/>
-      <c r="C46" s="169"/>
-      <c r="D46" s="169"/>
+      <c r="B46" s="170"/>
+      <c r="C46" s="170"/>
+      <c r="D46" s="170"/>
       <c r="E46" s="28"/>
       <c r="F46" s="21"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="21"/>
-      <c r="B47" s="169"/>
-      <c r="C47" s="169"/>
-      <c r="D47" s="169"/>
+      <c r="B47" s="170"/>
+      <c r="C47" s="170"/>
+      <c r="D47" s="170"/>
       <c r="E47" s="28"/>
       <c r="F47" s="21"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="21"/>
-      <c r="B48" s="169"/>
-      <c r="C48" s="169"/>
-      <c r="D48" s="169"/>
+      <c r="B48" s="170"/>
+      <c r="C48" s="170"/>
+      <c r="D48" s="170"/>
       <c r="E48" s="28"/>
       <c r="F48" s="21"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="21"/>
-      <c r="B49" s="169"/>
-      <c r="C49" s="169"/>
-      <c r="D49" s="169"/>
+      <c r="B49" s="170"/>
+      <c r="C49" s="170"/>
+      <c r="D49" s="170"/>
       <c r="E49" s="28"/>
       <c r="F49" s="21"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="21"/>
-      <c r="B50" s="169"/>
-      <c r="C50" s="169"/>
-      <c r="D50" s="169"/>
+      <c r="B50" s="170"/>
+      <c r="C50" s="170"/>
+      <c r="D50" s="170"/>
       <c r="E50" s="28"/>
       <c r="F50" s="21"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="21"/>
-      <c r="B51" s="169"/>
-      <c r="C51" s="169"/>
-      <c r="D51" s="169"/>
+      <c r="B51" s="170"/>
+      <c r="C51" s="170"/>
+      <c r="D51" s="170"/>
       <c r="E51" s="28"/>
       <c r="F51" s="21"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="21"/>
-      <c r="B52" s="169"/>
-      <c r="C52" s="169"/>
-      <c r="D52" s="169"/>
+      <c r="B52" s="170"/>
+      <c r="C52" s="170"/>
+      <c r="D52" s="170"/>
       <c r="E52" s="28"/>
       <c r="F52" s="21"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="21"/>
-      <c r="B53" s="169"/>
-      <c r="C53" s="169"/>
-      <c r="D53" s="169"/>
+      <c r="B53" s="170"/>
+      <c r="C53" s="170"/>
+      <c r="D53" s="170"/>
       <c r="E53" s="28"/>
       <c r="F53" s="21"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="21"/>
-      <c r="B54" s="169"/>
-      <c r="C54" s="169"/>
-      <c r="D54" s="169"/>
+      <c r="B54" s="170"/>
+      <c r="C54" s="170"/>
+      <c r="D54" s="170"/>
       <c r="E54" s="28"/>
       <c r="F54" s="21"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="21"/>
-      <c r="B55" s="169"/>
-      <c r="C55" s="169"/>
-      <c r="D55" s="169"/>
+      <c r="B55" s="170"/>
+      <c r="C55" s="170"/>
+      <c r="D55" s="170"/>
       <c r="E55" s="28"/>
       <c r="F55" s="21"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="21"/>
-      <c r="B56" s="169"/>
-      <c r="C56" s="169"/>
-      <c r="D56" s="169"/>
+      <c r="B56" s="170"/>
+      <c r="C56" s="170"/>
+      <c r="D56" s="170"/>
       <c r="E56" s="28"/>
       <c r="F56" s="21"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="21"/>
-      <c r="B57" s="169"/>
-      <c r="C57" s="169"/>
-      <c r="D57" s="169"/>
+      <c r="B57" s="170"/>
+      <c r="C57" s="170"/>
+      <c r="D57" s="170"/>
       <c r="E57" s="28"/>
       <c r="F57" s="21"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="21"/>
-      <c r="B58" s="169"/>
-      <c r="C58" s="169"/>
-      <c r="D58" s="169"/>
+      <c r="B58" s="170"/>
+      <c r="C58" s="170"/>
+      <c r="D58" s="170"/>
       <c r="E58" s="28"/>
       <c r="F58" s="21"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="21"/>
-      <c r="B59" s="169"/>
-      <c r="C59" s="169"/>
-      <c r="D59" s="169"/>
+      <c r="B59" s="170"/>
+      <c r="C59" s="170"/>
+      <c r="D59" s="170"/>
       <c r="E59" s="28"/>
       <c r="F59" s="21"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="21"/>
-      <c r="B60" s="169"/>
-      <c r="C60" s="169"/>
-      <c r="D60" s="169"/>
+      <c r="B60" s="170"/>
+      <c r="C60" s="170"/>
+      <c r="D60" s="170"/>
       <c r="E60" s="28"/>
       <c r="F60" s="21"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="21"/>
-      <c r="B61" s="169"/>
-      <c r="C61" s="169"/>
-      <c r="D61" s="169"/>
+      <c r="B61" s="170"/>
+      <c r="C61" s="170"/>
+      <c r="D61" s="170"/>
       <c r="E61" s="28"/>
       <c r="F61" s="21"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="21"/>
-      <c r="B62" s="169"/>
-      <c r="C62" s="169"/>
-      <c r="D62" s="169"/>
+      <c r="B62" s="170"/>
+      <c r="C62" s="170"/>
+      <c r="D62" s="170"/>
       <c r="E62" s="28"/>
       <c r="F62" s="21"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="21"/>
-      <c r="B63" s="169"/>
-      <c r="C63" s="169"/>
-      <c r="D63" s="169"/>
+      <c r="B63" s="170"/>
+      <c r="C63" s="170"/>
+      <c r="D63" s="170"/>
       <c r="E63" s="28"/>
       <c r="F63" s="21"/>
     </row>
     <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A64" s="21"/>
-      <c r="B64" s="169"/>
-      <c r="C64" s="169"/>
-      <c r="D64" s="169"/>
+      <c r="B64" s="170"/>
+      <c r="C64" s="170"/>
+      <c r="D64" s="170"/>
       <c r="E64" s="28"/>
       <c r="F64" s="21"/>
     </row>
     <row r="65" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A65" s="21"/>
-      <c r="B65" s="169"/>
-      <c r="C65" s="169"/>
-      <c r="D65" s="169"/>
+      <c r="B65" s="170"/>
+      <c r="C65" s="170"/>
+      <c r="D65" s="170"/>
       <c r="E65" s="28"/>
       <c r="F65" s="21"/>
     </row>
@@ -5210,17 +5471,17 @@
     </row>
     <row r="68" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A68" s="21"/>
-      <c r="B68" s="169"/>
-      <c r="C68" s="169"/>
-      <c r="D68" s="169"/>
+      <c r="B68" s="170"/>
+      <c r="C68" s="170"/>
+      <c r="D68" s="170"/>
       <c r="E68" s="28"/>
       <c r="F68" s="21"/>
     </row>
     <row r="69" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="21"/>
-      <c r="B69" s="169"/>
-      <c r="C69" s="169"/>
-      <c r="D69" s="169"/>
+      <c r="B69" s="170"/>
+      <c r="C69" s="170"/>
+      <c r="D69" s="170"/>
       <c r="E69" s="28"/>
       <c r="F69" s="21"/>
     </row>
@@ -5327,19 +5588,19 @@
     </row>
     <row r="78" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A78" s="21"/>
-      <c r="B78" s="173"/>
-      <c r="C78" s="173"/>
-      <c r="D78" s="173"/>
+      <c r="B78" s="174"/>
+      <c r="C78" s="174"/>
+      <c r="D78" s="174"/>
       <c r="E78" s="36"/>
       <c r="F78" s="21"/>
     </row>
     <row r="79" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="21"/>
-      <c r="B79" s="170" t="s">
+      <c r="B79" s="171" t="s">
         <v>17</v>
       </c>
-      <c r="C79" s="170"/>
-      <c r="D79" s="170"/>
+      <c r="C79" s="171"/>
+      <c r="D79" s="171"/>
       <c r="E79" s="36">
         <v>0</v>
       </c>
@@ -5347,9 +5608,9 @@
     </row>
     <row r="80" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A80" s="21"/>
-      <c r="B80" s="173"/>
-      <c r="C80" s="173"/>
-      <c r="D80" s="173"/>
+      <c r="B80" s="174"/>
+      <c r="C80" s="174"/>
+      <c r="D80" s="174"/>
       <c r="E80" s="36"/>
       <c r="F80" s="21"/>
     </row>
@@ -5384,31 +5645,31 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" s="21"/>
-      <c r="B84" s="167"/>
-      <c r="C84" s="167"/>
-      <c r="D84" s="167"/>
-      <c r="E84" s="167"/>
+      <c r="B84" s="168"/>
+      <c r="C84" s="168"/>
+      <c r="D84" s="168"/>
+      <c r="E84" s="168"/>
       <c r="F84" s="21"/>
     </row>
     <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A85" s="175" t="s">
+      <c r="A85" s="176" t="s">
         <v>28</v>
       </c>
-      <c r="B85" s="175"/>
-      <c r="C85" s="175"/>
-      <c r="D85" s="175"/>
-      <c r="E85" s="175"/>
-      <c r="F85" s="175"/>
+      <c r="B85" s="176"/>
+      <c r="C85" s="176"/>
+      <c r="D85" s="176"/>
+      <c r="E85" s="176"/>
+      <c r="F85" s="176"/>
     </row>
     <row r="86" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A86" s="171" t="s">
+      <c r="A86" s="172" t="s">
         <v>29</v>
       </c>
-      <c r="B86" s="171"/>
-      <c r="C86" s="171"/>
-      <c r="D86" s="171"/>
-      <c r="E86" s="171"/>
-      <c r="F86" s="171"/>
+      <c r="B86" s="172"/>
+      <c r="C86" s="172"/>
+      <c r="D86" s="172"/>
+      <c r="E86" s="172"/>
+      <c r="F86" s="172"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="21"/>
@@ -5420,26 +5681,26 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" s="21"/>
-      <c r="B88" s="168"/>
-      <c r="C88" s="168"/>
-      <c r="D88" s="168"/>
-      <c r="E88" s="168"/>
+      <c r="B88" s="169"/>
+      <c r="C88" s="169"/>
+      <c r="D88" s="169"/>
+      <c r="E88" s="169"/>
       <c r="F88" s="21"/>
     </row>
     <row r="89" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A89" s="174" t="s">
+      <c r="A89" s="175" t="s">
         <v>7</v>
       </c>
-      <c r="B89" s="174"/>
-      <c r="C89" s="174"/>
-      <c r="D89" s="174"/>
-      <c r="E89" s="174"/>
-      <c r="F89" s="174"/>
+      <c r="B89" s="175"/>
+      <c r="C89" s="175"/>
+      <c r="D89" s="175"/>
+      <c r="E89" s="175"/>
+      <c r="F89" s="175"/>
     </row>
     <row r="91" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B91" s="165"/>
-      <c r="C91" s="166"/>
-      <c r="D91" s="166"/>
+      <c r="B91" s="166"/>
+      <c r="C91" s="167"/>
+      <c r="D91" s="167"/>
     </row>
     <row r="92" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
@@ -5529,10 +5790,10 @@
   <sheetData>
     <row r="1" spans="1:4" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A1" s="5"/>
-      <c r="B1" s="176" t="s">
+      <c r="B1" s="177" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="176"/>
+      <c r="C1" s="177"/>
       <c r="D1" s="12"/>
     </row>
     <row r="2" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -6165,13 +6426,13 @@
       <c r="F29" s="70"/>
     </row>
     <row r="30" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A30" s="179" t="s">
+      <c r="A30" s="180" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="179"/>
-      <c r="C30" s="179"/>
-      <c r="D30" s="179"/>
-      <c r="E30" s="179"/>
+      <c r="B30" s="180"/>
+      <c r="C30" s="180"/>
+      <c r="D30" s="180"/>
+      <c r="E30" s="180"/>
       <c r="F30" s="71"/>
     </row>
     <row r="31" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
@@ -6636,10 +6897,10 @@
     </row>
     <row r="81" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A81" s="62"/>
-      <c r="B81" s="180" t="s">
+      <c r="B81" s="181" t="s">
         <v>16</v>
       </c>
-      <c r="C81" s="181"/>
+      <c r="C81" s="182"/>
       <c r="D81" s="126"/>
       <c r="E81" s="127">
         <v>2414.48</v>
@@ -6656,30 +6917,30 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="130"/>
-      <c r="B83" s="182"/>
-      <c r="C83" s="183"/>
-      <c r="D83" s="184"/>
-      <c r="E83" s="184"/>
+      <c r="B83" s="183"/>
+      <c r="C83" s="184"/>
+      <c r="D83" s="185"/>
+      <c r="E83" s="185"/>
       <c r="F83" s="131"/>
     </row>
     <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="185" t="s">
+      <c r="A84" s="186" t="s">
         <v>28</v>
       </c>
-      <c r="B84" s="185"/>
-      <c r="C84" s="185"/>
-      <c r="D84" s="186"/>
-      <c r="E84" s="186"/>
+      <c r="B84" s="186"/>
+      <c r="C84" s="186"/>
+      <c r="D84" s="187"/>
+      <c r="E84" s="187"/>
       <c r="F84" s="54"/>
     </row>
     <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A85" s="187" t="s">
+      <c r="A85" s="188" t="s">
         <v>29</v>
       </c>
-      <c r="B85" s="187"/>
-      <c r="C85" s="187"/>
-      <c r="D85" s="188"/>
-      <c r="E85" s="188"/>
+      <c r="B85" s="188"/>
+      <c r="C85" s="188"/>
+      <c r="D85" s="189"/>
+      <c r="E85" s="189"/>
       <c r="F85" s="50"/>
     </row>
     <row r="86" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
@@ -6699,21 +6960,21 @@
       <c r="F87" s="50"/>
     </row>
     <row r="88" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A88" s="174" t="s">
+      <c r="A88" s="175" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="174"/>
-      <c r="C88" s="174"/>
-      <c r="D88" s="174"/>
-      <c r="E88" s="174"/>
-      <c r="F88" s="174"/>
+      <c r="B88" s="175"/>
+      <c r="C88" s="175"/>
+      <c r="D88" s="175"/>
+      <c r="E88" s="175"/>
+      <c r="F88" s="175"/>
     </row>
     <row r="89" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A89" s="62"/>
-      <c r="B89" s="177"/>
-      <c r="C89" s="177"/>
-      <c r="D89" s="178"/>
-      <c r="E89" s="178"/>
+      <c r="B89" s="178"/>
+      <c r="C89" s="178"/>
+      <c r="D89" s="179"/>
+      <c r="E89" s="179"/>
       <c r="F89" s="50"/>
     </row>
   </sheetData>
@@ -7007,13 +7268,13 @@
       <c r="F29" s="139"/>
     </row>
     <row r="30" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="190" t="s">
+      <c r="A30" s="191" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="190"/>
-      <c r="C30" s="190"/>
-      <c r="D30" s="190"/>
-      <c r="E30" s="190"/>
+      <c r="B30" s="191"/>
+      <c r="C30" s="191"/>
+      <c r="D30" s="191"/>
+      <c r="E30" s="191"/>
       <c r="F30" s="140"/>
     </row>
     <row r="31" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7482,10 +7743,10 @@
     </row>
     <row r="81" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="62"/>
-      <c r="B81" s="191" t="s">
+      <c r="B81" s="192" t="s">
         <v>16</v>
       </c>
-      <c r="C81" s="192"/>
+      <c r="C81" s="193"/>
       <c r="D81" s="162"/>
       <c r="E81" s="163">
         <v>4527.1499999999996</v>
@@ -7502,30 +7763,30 @@
     </row>
     <row r="83" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="130"/>
-      <c r="B83" s="182"/>
-      <c r="C83" s="183"/>
-      <c r="D83" s="183"/>
-      <c r="E83" s="183"/>
+      <c r="B83" s="183"/>
+      <c r="C83" s="184"/>
+      <c r="D83" s="184"/>
+      <c r="E83" s="184"/>
       <c r="F83" s="164"/>
     </row>
     <row r="84" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="185" t="s">
+      <c r="A84" s="186" t="s">
         <v>28</v>
       </c>
-      <c r="B84" s="185"/>
-      <c r="C84" s="185"/>
-      <c r="D84" s="185"/>
-      <c r="E84" s="185"/>
+      <c r="B84" s="186"/>
+      <c r="C84" s="186"/>
+      <c r="D84" s="186"/>
+      <c r="E84" s="186"/>
       <c r="F84" s="115"/>
     </row>
     <row r="85" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="187" t="s">
+      <c r="A85" s="188" t="s">
         <v>29</v>
       </c>
-      <c r="B85" s="187"/>
-      <c r="C85" s="187"/>
-      <c r="D85" s="187"/>
-      <c r="E85" s="187"/>
+      <c r="B85" s="188"/>
+      <c r="C85" s="188"/>
+      <c r="D85" s="188"/>
+      <c r="E85" s="188"/>
       <c r="F85" s="46"/>
     </row>
     <row r="86" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -7545,14 +7806,14 @@
       <c r="F87" s="46"/>
     </row>
     <row r="88" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="189" t="s">
+      <c r="A88" s="190" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="189"/>
-      <c r="C88" s="189"/>
-      <c r="D88" s="189"/>
-      <c r="E88" s="189"/>
-      <c r="F88" s="189"/>
+      <c r="B88" s="190"/>
+      <c r="C88" s="190"/>
+      <c r="D88" s="190"/>
+      <c r="E88" s="190"/>
+      <c r="F88" s="190"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -7838,13 +8099,13 @@
       <c r="F29" s="139"/>
     </row>
     <row r="30" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="190" t="s">
+      <c r="A30" s="191" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="190"/>
-      <c r="C30" s="190"/>
-      <c r="D30" s="190"/>
-      <c r="E30" s="190"/>
+      <c r="B30" s="191"/>
+      <c r="C30" s="191"/>
+      <c r="D30" s="191"/>
+      <c r="E30" s="191"/>
       <c r="F30" s="140"/>
     </row>
     <row r="31" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8321,10 +8582,10 @@
     </row>
     <row r="81" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="62"/>
-      <c r="B81" s="191" t="s">
+      <c r="B81" s="192" t="s">
         <v>16</v>
       </c>
-      <c r="C81" s="192"/>
+      <c r="C81" s="193"/>
       <c r="D81" s="162"/>
       <c r="E81" s="163">
         <v>6740.41</v>
@@ -8341,30 +8602,30 @@
     </row>
     <row r="83" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="130"/>
-      <c r="B83" s="182"/>
-      <c r="C83" s="183"/>
-      <c r="D83" s="183"/>
-      <c r="E83" s="183"/>
+      <c r="B83" s="183"/>
+      <c r="C83" s="184"/>
+      <c r="D83" s="184"/>
+      <c r="E83" s="184"/>
       <c r="F83" s="164"/>
     </row>
     <row r="84" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="185" t="s">
+      <c r="A84" s="186" t="s">
         <v>28</v>
       </c>
-      <c r="B84" s="185"/>
-      <c r="C84" s="185"/>
-      <c r="D84" s="185"/>
-      <c r="E84" s="185"/>
+      <c r="B84" s="186"/>
+      <c r="C84" s="186"/>
+      <c r="D84" s="186"/>
+      <c r="E84" s="186"/>
       <c r="F84" s="115"/>
     </row>
     <row r="85" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="187" t="s">
+      <c r="A85" s="188" t="s">
         <v>29</v>
       </c>
-      <c r="B85" s="187"/>
-      <c r="C85" s="187"/>
-      <c r="D85" s="187"/>
-      <c r="E85" s="187"/>
+      <c r="B85" s="188"/>
+      <c r="C85" s="188"/>
+      <c r="D85" s="188"/>
+      <c r="E85" s="188"/>
       <c r="F85" s="46"/>
     </row>
     <row r="86" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -8384,14 +8645,14 @@
       <c r="F87" s="46"/>
     </row>
     <row r="88" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="189" t="s">
+      <c r="A88" s="190" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="189"/>
-      <c r="C88" s="189"/>
-      <c r="D88" s="189"/>
-      <c r="E88" s="189"/>
-      <c r="F88" s="189"/>
+      <c r="B88" s="190"/>
+      <c r="C88" s="190"/>
+      <c r="D88" s="190"/>
+      <c r="E88" s="190"/>
+      <c r="F88" s="190"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -8677,13 +8938,13 @@
       <c r="F29" s="139"/>
     </row>
     <row r="30" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="190" t="s">
+      <c r="A30" s="191" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="190"/>
-      <c r="C30" s="190"/>
-      <c r="D30" s="190"/>
-      <c r="E30" s="190"/>
+      <c r="B30" s="191"/>
+      <c r="C30" s="191"/>
+      <c r="D30" s="191"/>
+      <c r="E30" s="191"/>
       <c r="F30" s="140"/>
     </row>
     <row r="31" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9144,10 +9405,10 @@
     </row>
     <row r="81" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="62"/>
-      <c r="B81" s="191" t="s">
+      <c r="B81" s="192" t="s">
         <v>16</v>
       </c>
-      <c r="C81" s="192"/>
+      <c r="C81" s="193"/>
       <c r="D81" s="162"/>
       <c r="E81" s="163">
         <v>2313.88</v>
@@ -9164,30 +9425,30 @@
     </row>
     <row r="83" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="130"/>
-      <c r="B83" s="182"/>
-      <c r="C83" s="183"/>
-      <c r="D83" s="183"/>
-      <c r="E83" s="183"/>
+      <c r="B83" s="183"/>
+      <c r="C83" s="184"/>
+      <c r="D83" s="184"/>
+      <c r="E83" s="184"/>
       <c r="F83" s="164"/>
     </row>
     <row r="84" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="185" t="s">
+      <c r="A84" s="186" t="s">
         <v>28</v>
       </c>
-      <c r="B84" s="185"/>
-      <c r="C84" s="185"/>
-      <c r="D84" s="185"/>
-      <c r="E84" s="185"/>
+      <c r="B84" s="186"/>
+      <c r="C84" s="186"/>
+      <c r="D84" s="186"/>
+      <c r="E84" s="186"/>
       <c r="F84" s="115"/>
     </row>
     <row r="85" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="187" t="s">
+      <c r="A85" s="188" t="s">
         <v>29</v>
       </c>
-      <c r="B85" s="187"/>
-      <c r="C85" s="187"/>
-      <c r="D85" s="187"/>
-      <c r="E85" s="187"/>
+      <c r="B85" s="188"/>
+      <c r="C85" s="188"/>
+      <c r="D85" s="188"/>
+      <c r="E85" s="188"/>
       <c r="F85" s="46"/>
     </row>
     <row r="86" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -9207,14 +9468,14 @@
       <c r="F87" s="46"/>
     </row>
     <row r="88" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="189" t="s">
+      <c r="A88" s="190" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="189"/>
-      <c r="C88" s="189"/>
-      <c r="D88" s="189"/>
-      <c r="E88" s="189"/>
-      <c r="F88" s="189"/>
+      <c r="B88" s="190"/>
+      <c r="C88" s="190"/>
+      <c r="D88" s="190"/>
+      <c r="E88" s="190"/>
+      <c r="F88" s="190"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -9239,7 +9500,7 @@
   </sheetPr>
   <dimension ref="A1:F88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:F88"/>
     </sheetView>
   </sheetViews>
@@ -9500,13 +9761,13 @@
       <c r="F29" s="139"/>
     </row>
     <row r="30" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="190" t="s">
+      <c r="A30" s="191" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="190"/>
-      <c r="C30" s="190"/>
-      <c r="D30" s="190"/>
-      <c r="E30" s="190"/>
+      <c r="B30" s="191"/>
+      <c r="C30" s="191"/>
+      <c r="D30" s="191"/>
+      <c r="E30" s="191"/>
       <c r="F30" s="140"/>
     </row>
     <row r="31" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9983,10 +10244,10 @@
     </row>
     <row r="81" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="62"/>
-      <c r="B81" s="191" t="s">
+      <c r="B81" s="192" t="s">
         <v>16</v>
       </c>
-      <c r="C81" s="192"/>
+      <c r="C81" s="193"/>
       <c r="D81" s="162"/>
       <c r="E81" s="163">
         <v>4828.95</v>
@@ -10003,30 +10264,30 @@
     </row>
     <row r="83" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="130"/>
-      <c r="B83" s="182"/>
-      <c r="C83" s="183"/>
-      <c r="D83" s="183"/>
-      <c r="E83" s="183"/>
+      <c r="B83" s="183"/>
+      <c r="C83" s="184"/>
+      <c r="D83" s="184"/>
+      <c r="E83" s="184"/>
       <c r="F83" s="164"/>
     </row>
     <row r="84" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="185" t="s">
+      <c r="A84" s="186" t="s">
         <v>28</v>
       </c>
-      <c r="B84" s="185"/>
-      <c r="C84" s="185"/>
-      <c r="D84" s="185"/>
-      <c r="E84" s="185"/>
+      <c r="B84" s="186"/>
+      <c r="C84" s="186"/>
+      <c r="D84" s="186"/>
+      <c r="E84" s="186"/>
       <c r="F84" s="115"/>
     </row>
     <row r="85" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="187" t="s">
+      <c r="A85" s="188" t="s">
         <v>29</v>
       </c>
-      <c r="B85" s="187"/>
-      <c r="C85" s="187"/>
-      <c r="D85" s="187"/>
-      <c r="E85" s="187"/>
+      <c r="B85" s="188"/>
+      <c r="C85" s="188"/>
+      <c r="D85" s="188"/>
+      <c r="E85" s="188"/>
       <c r="F85" s="46"/>
     </row>
     <row r="86" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -10046,23 +10307,1677 @@
       <c r="F87" s="46"/>
     </row>
     <row r="88" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="189" t="s">
+      <c r="A88" s="190" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="189"/>
-      <c r="C88" s="189"/>
-      <c r="D88" s="189"/>
-      <c r="E88" s="189"/>
-      <c r="F88" s="189"/>
+      <c r="B88" s="190"/>
+      <c r="C88" s="190"/>
+      <c r="D88" s="190"/>
+      <c r="E88" s="190"/>
+      <c r="F88" s="190"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A88:F88"/>
     <mergeCell ref="A30:E30"/>
     <mergeCell ref="B81:C81"/>
     <mergeCell ref="B83:E83"/>
     <mergeCell ref="A84:E84"/>
     <mergeCell ref="A85:E85"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="119" scale="63" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3497E60F-246E-4089-8E82-1BCA85D4EC12}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:F88"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F88"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.140625" customWidth="1"/>
+    <col min="2" max="2" width="120" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="54"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+    </row>
+    <row r="2" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="54"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+    </row>
+    <row r="3" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="54"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+    </row>
+    <row r="4" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="54"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+    </row>
+    <row r="5" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="54"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+    </row>
+    <row r="6" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="54"/>
+      <c r="B6" s="54"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="56"/>
+    </row>
+    <row r="7" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="54"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+    </row>
+    <row r="8" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="54"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="56"/>
+    </row>
+    <row r="9" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="54"/>
+      <c r="B9" s="54"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="165"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="56"/>
+    </row>
+    <row r="10" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="54"/>
+      <c r="B10" s="54"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="56"/>
+    </row>
+    <row r="11" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="54"/>
+      <c r="B11" s="54"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="56"/>
+    </row>
+    <row r="12" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="54"/>
+      <c r="B12" s="57"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+    </row>
+    <row r="13" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="54"/>
+      <c r="B13" s="57"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="56"/>
+    </row>
+    <row r="14" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="54"/>
+      <c r="B14" s="57"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+    </row>
+    <row r="15" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="54"/>
+      <c r="B15" s="57"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="56"/>
+      <c r="F15" s="56"/>
+    </row>
+    <row r="16" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="54"/>
+      <c r="B16" s="57"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="56"/>
+    </row>
+    <row r="17" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="54"/>
+      <c r="B17" s="57"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="56"/>
+      <c r="F17" s="56"/>
+    </row>
+    <row r="18" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="54"/>
+      <c r="B18" s="57"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
+    </row>
+    <row r="19" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="54"/>
+      <c r="B19" s="57"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="56"/>
+      <c r="F19" s="56"/>
+    </row>
+    <row r="20" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="54"/>
+      <c r="B20" s="57"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+    </row>
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="62"/>
+      <c r="B21" s="59" t="s">
+        <v>149</v>
+      </c>
+      <c r="C21" s="59"/>
+      <c r="D21" s="60"/>
+      <c r="E21" s="61"/>
+      <c r="F21" s="61"/>
+    </row>
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="62"/>
+      <c r="B22" s="62"/>
+      <c r="C22" s="62"/>
+      <c r="D22" s="60"/>
+      <c r="E22" s="61"/>
+      <c r="F22" s="61"/>
+    </row>
+    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="62"/>
+      <c r="B23" s="59" t="s">
+        <v>112</v>
+      </c>
+      <c r="C23" s="59"/>
+      <c r="D23" s="60"/>
+      <c r="E23" s="61"/>
+      <c r="F23" s="61"/>
+    </row>
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="62"/>
+      <c r="B24" s="59" t="s">
+        <v>113</v>
+      </c>
+      <c r="C24" s="62"/>
+      <c r="D24" s="60"/>
+      <c r="E24" s="61"/>
+      <c r="F24" s="61"/>
+    </row>
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="62"/>
+      <c r="B25" s="62" t="s">
+        <v>114</v>
+      </c>
+      <c r="C25" s="62"/>
+      <c r="D25" s="60"/>
+      <c r="E25" s="61"/>
+      <c r="F25" s="61"/>
+    </row>
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="62"/>
+      <c r="B26" s="62" t="s">
+        <v>126</v>
+      </c>
+      <c r="C26" s="62"/>
+      <c r="D26" s="60"/>
+      <c r="E26" s="61"/>
+      <c r="F26" s="61"/>
+    </row>
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="59"/>
+      <c r="B27" s="62"/>
+      <c r="C27" s="62"/>
+      <c r="D27" s="65"/>
+      <c r="E27" s="66"/>
+      <c r="F27" s="66"/>
+    </row>
+    <row r="28" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="62"/>
+      <c r="B28" s="59"/>
+      <c r="C28" s="59"/>
+      <c r="D28" s="66" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="67" t="s">
+        <v>150</v>
+      </c>
+      <c r="F28" s="67"/>
+    </row>
+    <row r="29" spans="1:6" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="137"/>
+      <c r="B29" s="137"/>
+      <c r="C29" s="137"/>
+      <c r="D29" s="138"/>
+      <c r="E29" s="139"/>
+      <c r="F29" s="139"/>
+    </row>
+    <row r="30" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="191" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="191"/>
+      <c r="C30" s="191"/>
+      <c r="D30" s="191"/>
+      <c r="E30" s="191"/>
+      <c r="F30" s="140"/>
+    </row>
+    <row r="31" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="141"/>
+      <c r="B31" s="141"/>
+      <c r="C31" s="141"/>
+      <c r="D31" s="141"/>
+      <c r="E31" s="141"/>
+      <c r="F31" s="141"/>
+    </row>
+    <row r="32" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="78"/>
+      <c r="B32" s="115" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="142"/>
+      <c r="D32" s="143"/>
+      <c r="E32" s="93"/>
+      <c r="F32" s="93"/>
+    </row>
+    <row r="33" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="78"/>
+      <c r="B33" s="78"/>
+      <c r="C33" s="78"/>
+      <c r="D33" s="143"/>
+      <c r="E33" s="93"/>
+      <c r="F33" s="93"/>
+    </row>
+    <row r="34" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="78"/>
+      <c r="B34" s="144" t="s">
+        <v>121</v>
+      </c>
+      <c r="C34" s="145"/>
+      <c r="D34" s="146"/>
+      <c r="E34" s="146"/>
+      <c r="F34" s="146"/>
+    </row>
+    <row r="35" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="78"/>
+      <c r="B35" s="144" t="s">
+        <v>128</v>
+      </c>
+      <c r="C35" s="147"/>
+      <c r="D35" s="146"/>
+      <c r="E35" s="146"/>
+      <c r="F35" s="146"/>
+    </row>
+    <row r="36" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="78"/>
+      <c r="B36" s="144" t="s">
+        <v>2</v>
+      </c>
+      <c r="C36" s="145"/>
+      <c r="D36" s="146"/>
+      <c r="E36" s="146"/>
+      <c r="F36" s="146"/>
+    </row>
+    <row r="37" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="78"/>
+      <c r="B37" s="144" t="s">
+        <v>128</v>
+      </c>
+      <c r="C37" s="145"/>
+      <c r="D37" s="146"/>
+      <c r="E37" s="146"/>
+      <c r="F37" s="146"/>
+    </row>
+    <row r="38" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="78"/>
+      <c r="B38" s="144" t="s">
+        <v>151</v>
+      </c>
+      <c r="C38" s="145"/>
+      <c r="D38" s="146"/>
+      <c r="E38" s="146"/>
+      <c r="F38" s="146"/>
+    </row>
+    <row r="39" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="78"/>
+      <c r="B39" s="144" t="s">
+        <v>128</v>
+      </c>
+      <c r="C39" s="145"/>
+      <c r="D39" s="146"/>
+      <c r="E39" s="146"/>
+      <c r="F39" s="146"/>
+    </row>
+    <row r="40" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="78"/>
+      <c r="B40" s="144" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40" s="147"/>
+      <c r="D40" s="146"/>
+      <c r="E40" s="146"/>
+      <c r="F40" s="146"/>
+    </row>
+    <row r="41" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="78"/>
+      <c r="B41" s="144"/>
+      <c r="C41" s="145"/>
+      <c r="D41" s="146"/>
+      <c r="E41" s="146"/>
+      <c r="F41" s="146"/>
+    </row>
+    <row r="42" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="78"/>
+      <c r="B42" s="144"/>
+      <c r="C42" s="145"/>
+      <c r="D42" s="146"/>
+      <c r="E42" s="146"/>
+      <c r="F42" s="146"/>
+    </row>
+    <row r="43" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="78"/>
+      <c r="B43" s="144"/>
+      <c r="C43" s="145"/>
+      <c r="D43" s="146"/>
+      <c r="E43" s="146"/>
+      <c r="F43" s="146"/>
+    </row>
+    <row r="44" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="78"/>
+      <c r="B44" s="144"/>
+      <c r="C44" s="145"/>
+      <c r="D44" s="146"/>
+      <c r="E44" s="146"/>
+      <c r="F44" s="146"/>
+    </row>
+    <row r="45" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="78"/>
+      <c r="B45" s="144"/>
+      <c r="C45" s="145"/>
+      <c r="D45" s="146"/>
+      <c r="E45" s="146"/>
+      <c r="F45" s="146"/>
+    </row>
+    <row r="46" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="78"/>
+      <c r="B46" s="144"/>
+      <c r="C46" s="145"/>
+      <c r="D46" s="146"/>
+      <c r="E46" s="146"/>
+      <c r="F46" s="146"/>
+    </row>
+    <row r="47" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="78"/>
+      <c r="B47" s="144"/>
+      <c r="C47" s="145"/>
+      <c r="D47" s="146"/>
+      <c r="E47" s="146"/>
+      <c r="F47" s="146"/>
+    </row>
+    <row r="48" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="78"/>
+      <c r="B48" s="144"/>
+      <c r="C48" s="145"/>
+      <c r="D48" s="146"/>
+      <c r="E48" s="146"/>
+      <c r="F48" s="146"/>
+    </row>
+    <row r="49" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="78"/>
+      <c r="B49" s="144"/>
+      <c r="C49" s="145"/>
+      <c r="D49" s="146"/>
+      <c r="E49" s="146"/>
+      <c r="F49" s="146"/>
+    </row>
+    <row r="50" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="78"/>
+      <c r="B50" s="144"/>
+      <c r="C50" s="148"/>
+      <c r="D50" s="148"/>
+      <c r="E50" s="146"/>
+      <c r="F50" s="146"/>
+    </row>
+    <row r="51" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="78"/>
+      <c r="B51" s="144"/>
+      <c r="C51" s="145"/>
+      <c r="D51" s="146"/>
+      <c r="E51" s="146"/>
+      <c r="F51" s="146"/>
+    </row>
+    <row r="52" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="78"/>
+      <c r="B52" s="144"/>
+      <c r="C52" s="145"/>
+      <c r="D52" s="146"/>
+      <c r="E52" s="146"/>
+      <c r="F52" s="146"/>
+    </row>
+    <row r="53" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="78"/>
+      <c r="B53" s="144"/>
+      <c r="C53" s="145"/>
+      <c r="D53" s="146"/>
+      <c r="E53" s="146"/>
+      <c r="F53" s="146"/>
+    </row>
+    <row r="54" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="78"/>
+      <c r="B54" s="144"/>
+      <c r="C54" s="145"/>
+      <c r="D54" s="146"/>
+      <c r="E54" s="146"/>
+      <c r="F54" s="146"/>
+    </row>
+    <row r="55" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="78"/>
+      <c r="B55" s="144"/>
+      <c r="C55" s="145"/>
+      <c r="D55" s="146"/>
+      <c r="E55" s="146"/>
+      <c r="F55" s="146"/>
+    </row>
+    <row r="56" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="78"/>
+      <c r="B56" s="144"/>
+      <c r="C56" s="145"/>
+      <c r="D56" s="146"/>
+      <c r="E56" s="146"/>
+      <c r="F56" s="146"/>
+    </row>
+    <row r="57" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="78"/>
+      <c r="B57" s="144"/>
+      <c r="C57" s="145"/>
+      <c r="D57" s="146"/>
+      <c r="E57" s="146"/>
+      <c r="F57" s="146"/>
+    </row>
+    <row r="58" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="78"/>
+      <c r="B58" s="144"/>
+      <c r="C58" s="145"/>
+      <c r="D58" s="146"/>
+      <c r="E58" s="146"/>
+      <c r="F58" s="146"/>
+    </row>
+    <row r="59" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="78"/>
+      <c r="B59" s="144"/>
+      <c r="C59" s="145"/>
+      <c r="D59" s="146"/>
+      <c r="E59" s="146"/>
+      <c r="F59" s="146"/>
+    </row>
+    <row r="60" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="78"/>
+      <c r="B60" s="144"/>
+      <c r="C60" s="145"/>
+      <c r="D60" s="146"/>
+      <c r="E60" s="146"/>
+      <c r="F60" s="146"/>
+    </row>
+    <row r="61" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="78"/>
+      <c r="B61" s="144"/>
+      <c r="C61" s="145"/>
+      <c r="D61" s="146"/>
+      <c r="E61" s="146"/>
+      <c r="F61" s="146"/>
+    </row>
+    <row r="62" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="78"/>
+      <c r="B62" s="144"/>
+      <c r="C62" s="145"/>
+      <c r="D62" s="146"/>
+      <c r="E62" s="146"/>
+      <c r="F62" s="146"/>
+    </row>
+    <row r="63" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="78"/>
+      <c r="B63" s="149"/>
+      <c r="C63" s="150"/>
+      <c r="D63" s="151"/>
+      <c r="E63" s="146"/>
+      <c r="F63" s="146"/>
+    </row>
+    <row r="64" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="78"/>
+      <c r="B64" s="149"/>
+      <c r="C64" s="92"/>
+      <c r="D64" s="93"/>
+      <c r="E64" s="146"/>
+      <c r="F64" s="146"/>
+    </row>
+    <row r="65" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="78"/>
+      <c r="B65" s="144"/>
+      <c r="C65" s="154" t="s">
+        <v>36</v>
+      </c>
+      <c r="D65" s="155" t="s">
+        <v>37</v>
+      </c>
+      <c r="E65" s="146"/>
+      <c r="F65" s="146"/>
+    </row>
+    <row r="66" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="78"/>
+      <c r="B66" s="144"/>
+      <c r="C66" s="152">
+        <v>20.75</v>
+      </c>
+      <c r="D66" s="153">
+        <v>385</v>
+      </c>
+      <c r="E66" s="157"/>
+      <c r="F66" s="157"/>
+    </row>
+    <row r="67" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="78"/>
+      <c r="B67" s="149"/>
+      <c r="C67" s="152"/>
+      <c r="D67" s="153"/>
+      <c r="E67" s="146"/>
+      <c r="F67" s="146"/>
+    </row>
+    <row r="68" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="78"/>
+      <c r="B68" s="149"/>
+      <c r="C68" s="160"/>
+      <c r="D68" s="160"/>
+      <c r="E68" s="160"/>
+      <c r="F68" s="78"/>
+    </row>
+    <row r="69" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="62"/>
+      <c r="B69" s="102" t="s">
+        <v>14</v>
+      </c>
+      <c r="C69" s="102"/>
+      <c r="D69" s="60"/>
+      <c r="E69" s="103">
+        <v>7988.75</v>
+      </c>
+      <c r="F69" s="103"/>
+    </row>
+    <row r="70" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="62"/>
+      <c r="B70" s="105" t="s">
+        <v>12</v>
+      </c>
+      <c r="C70" s="106"/>
+      <c r="D70" s="60"/>
+      <c r="E70" s="107">
+        <v>40</v>
+      </c>
+      <c r="F70" s="107"/>
+    </row>
+    <row r="71" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="62"/>
+      <c r="B71" s="161" t="s">
+        <v>123</v>
+      </c>
+      <c r="C71" s="106"/>
+      <c r="D71" s="60"/>
+      <c r="E71" s="107">
+        <v>0</v>
+      </c>
+      <c r="F71" s="107"/>
+    </row>
+    <row r="72" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="62"/>
+      <c r="B72" s="161" t="s">
+        <v>124</v>
+      </c>
+      <c r="C72" s="106"/>
+      <c r="D72" s="60"/>
+      <c r="E72" s="107">
+        <v>0</v>
+      </c>
+      <c r="F72" s="107"/>
+    </row>
+    <row r="73" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="62"/>
+      <c r="B73" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C73" s="102"/>
+      <c r="D73" s="60"/>
+      <c r="E73" s="109">
+        <v>8028.75</v>
+      </c>
+      <c r="F73" s="109"/>
+    </row>
+    <row r="74" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="62"/>
+      <c r="B74" s="106" t="s">
+        <v>5</v>
+      </c>
+      <c r="C74" s="110">
+        <v>0.05</v>
+      </c>
+      <c r="D74" s="106"/>
+      <c r="E74" s="111">
+        <v>401.44</v>
+      </c>
+      <c r="F74" s="111"/>
+    </row>
+    <row r="75" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="62"/>
+      <c r="B75" s="112" t="s">
+        <v>4</v>
+      </c>
+      <c r="C75" s="113">
+        <v>9.9750000000000005E-2</v>
+      </c>
+      <c r="D75" s="106"/>
+      <c r="E75" s="114">
+        <v>800.87</v>
+      </c>
+      <c r="F75" s="111"/>
+    </row>
+    <row r="76" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="62"/>
+      <c r="B76" s="115"/>
+      <c r="C76" s="62"/>
+      <c r="D76" s="60"/>
+      <c r="E76" s="61"/>
+      <c r="F76" s="61"/>
+    </row>
+    <row r="77" spans="1:6" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="62"/>
+      <c r="B77" s="117" t="s">
+        <v>15</v>
+      </c>
+      <c r="C77" s="102"/>
+      <c r="D77" s="118"/>
+      <c r="E77" s="119">
+        <v>9231.0600000000013</v>
+      </c>
+      <c r="F77" s="120"/>
+    </row>
+    <row r="78" spans="1:6" ht="15.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="62"/>
+      <c r="B78" s="112"/>
+      <c r="C78" s="112"/>
+      <c r="D78" s="112"/>
+      <c r="E78" s="121"/>
+      <c r="F78" s="112"/>
+    </row>
+    <row r="79" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="62"/>
+      <c r="B79" s="115" t="s">
+        <v>17</v>
+      </c>
+      <c r="C79" s="112"/>
+      <c r="D79" s="60"/>
+      <c r="E79" s="61">
+        <v>0</v>
+      </c>
+      <c r="F79" s="61"/>
+    </row>
+    <row r="80" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="62"/>
+      <c r="B80" s="102"/>
+      <c r="C80" s="112"/>
+      <c r="D80" s="112"/>
+      <c r="E80" s="121"/>
+      <c r="F80" s="112"/>
+    </row>
+    <row r="81" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="62"/>
+      <c r="B81" s="192" t="s">
+        <v>16</v>
+      </c>
+      <c r="C81" s="193"/>
+      <c r="D81" s="162"/>
+      <c r="E81" s="163">
+        <v>9231.0600000000013</v>
+      </c>
+      <c r="F81" s="61"/>
+    </row>
+    <row r="82" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="62"/>
+      <c r="B82" s="62"/>
+      <c r="C82" s="62"/>
+      <c r="D82" s="60"/>
+      <c r="E82" s="61"/>
+      <c r="F82" s="61"/>
+    </row>
+    <row r="83" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="130"/>
+      <c r="B83" s="183"/>
+      <c r="C83" s="184"/>
+      <c r="D83" s="184"/>
+      <c r="E83" s="184"/>
+      <c r="F83" s="164"/>
+    </row>
+    <row r="84" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="186" t="s">
+        <v>28</v>
+      </c>
+      <c r="B84" s="186"/>
+      <c r="C84" s="186"/>
+      <c r="D84" s="186"/>
+      <c r="E84" s="186"/>
+      <c r="F84" s="115"/>
+    </row>
+    <row r="85" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="188" t="s">
+        <v>29</v>
+      </c>
+      <c r="B85" s="188"/>
+      <c r="C85" s="188"/>
+      <c r="D85" s="188"/>
+      <c r="E85" s="188"/>
+      <c r="F85" s="46"/>
+    </row>
+    <row r="86" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="132"/>
+      <c r="B86" s="132"/>
+      <c r="C86" s="132"/>
+      <c r="D86" s="132"/>
+      <c r="E86" s="132"/>
+      <c r="F86" s="46"/>
+    </row>
+    <row r="87" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="132"/>
+      <c r="B87" s="132"/>
+      <c r="C87" s="132"/>
+      <c r="D87" s="132"/>
+      <c r="E87" s="132"/>
+      <c r="F87" s="46"/>
+    </row>
+    <row r="88" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="190" t="s">
+        <v>7</v>
+      </c>
+      <c r="B88" s="190"/>
+      <c r="C88" s="190"/>
+      <c r="D88" s="190"/>
+      <c r="E88" s="190"/>
+      <c r="F88" s="190"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
     <mergeCell ref="A88:F88"/>
+    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B83:E83"/>
+    <mergeCell ref="A84:E84"/>
+    <mergeCell ref="A85:E85"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="119" scale="63" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F62DEA4C-B775-42F9-9C41-B25E49C4331F}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:F88"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F88"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.140625" customWidth="1"/>
+    <col min="2" max="2" width="120" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="54"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+    </row>
+    <row r="2" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="54"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+    </row>
+    <row r="3" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="54"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+    </row>
+    <row r="4" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="54"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+    </row>
+    <row r="5" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="54"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+    </row>
+    <row r="6" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="54"/>
+      <c r="B6" s="54"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="56"/>
+    </row>
+    <row r="7" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="54"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+    </row>
+    <row r="8" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="54"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="56"/>
+    </row>
+    <row r="9" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="54"/>
+      <c r="B9" s="54"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="165"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="56"/>
+    </row>
+    <row r="10" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="54"/>
+      <c r="B10" s="54"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="56"/>
+    </row>
+    <row r="11" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="54"/>
+      <c r="B11" s="54"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="56"/>
+    </row>
+    <row r="12" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="54"/>
+      <c r="B12" s="57"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+    </row>
+    <row r="13" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="54"/>
+      <c r="B13" s="57"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="56"/>
+    </row>
+    <row r="14" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="54"/>
+      <c r="B14" s="57"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+    </row>
+    <row r="15" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="54"/>
+      <c r="B15" s="57"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="56"/>
+      <c r="F15" s="56"/>
+    </row>
+    <row r="16" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="54"/>
+      <c r="B16" s="57"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="56"/>
+    </row>
+    <row r="17" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="54"/>
+      <c r="B17" s="57"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="56"/>
+      <c r="F17" s="56"/>
+    </row>
+    <row r="18" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="54"/>
+      <c r="B18" s="57"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
+    </row>
+    <row r="19" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="54"/>
+      <c r="B19" s="57"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="56"/>
+      <c r="F19" s="56"/>
+    </row>
+    <row r="20" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="54"/>
+      <c r="B20" s="57"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+    </row>
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="62"/>
+      <c r="B21" s="59" t="s">
+        <v>149</v>
+      </c>
+      <c r="C21" s="59"/>
+      <c r="D21" s="60"/>
+      <c r="E21" s="61"/>
+      <c r="F21" s="61"/>
+    </row>
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="62"/>
+      <c r="B22" s="62"/>
+      <c r="C22" s="62"/>
+      <c r="D22" s="60"/>
+      <c r="E22" s="61"/>
+      <c r="F22" s="61"/>
+    </row>
+    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="62"/>
+      <c r="B23" s="59" t="s">
+        <v>152</v>
+      </c>
+      <c r="C23" s="59"/>
+      <c r="D23" s="60"/>
+      <c r="E23" s="61"/>
+      <c r="F23" s="61"/>
+    </row>
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="62"/>
+      <c r="B24" s="59" t="s">
+        <v>153</v>
+      </c>
+      <c r="C24" s="62"/>
+      <c r="D24" s="60"/>
+      <c r="E24" s="61"/>
+      <c r="F24" s="61"/>
+    </row>
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="62"/>
+      <c r="B25" s="62" t="s">
+        <v>154</v>
+      </c>
+      <c r="C25" s="62"/>
+      <c r="D25" s="60"/>
+      <c r="E25" s="61"/>
+      <c r="F25" s="61"/>
+    </row>
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="62"/>
+      <c r="B26" s="62" t="s">
+        <v>155</v>
+      </c>
+      <c r="C26" s="62"/>
+      <c r="D26" s="60"/>
+      <c r="E26" s="61"/>
+      <c r="F26" s="61"/>
+    </row>
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="59"/>
+      <c r="B27" s="62"/>
+      <c r="C27" s="62"/>
+      <c r="D27" s="65"/>
+      <c r="E27" s="66"/>
+      <c r="F27" s="66"/>
+    </row>
+    <row r="28" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="62"/>
+      <c r="B28" s="59"/>
+      <c r="C28" s="59"/>
+      <c r="D28" s="66" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="67" t="s">
+        <v>156</v>
+      </c>
+      <c r="F28" s="67"/>
+    </row>
+    <row r="29" spans="1:6" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="137"/>
+      <c r="B29" s="137"/>
+      <c r="C29" s="137"/>
+      <c r="D29" s="138"/>
+      <c r="E29" s="139"/>
+      <c r="F29" s="139"/>
+    </row>
+    <row r="30" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="191" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="191"/>
+      <c r="C30" s="191"/>
+      <c r="D30" s="191"/>
+      <c r="E30" s="191"/>
+      <c r="F30" s="140"/>
+    </row>
+    <row r="31" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="141"/>
+      <c r="B31" s="141"/>
+      <c r="C31" s="141"/>
+      <c r="D31" s="141"/>
+      <c r="E31" s="141"/>
+      <c r="F31" s="141"/>
+    </row>
+    <row r="32" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="78"/>
+      <c r="B32" s="115" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="142"/>
+      <c r="D32" s="143"/>
+      <c r="E32" s="93"/>
+      <c r="F32" s="93"/>
+    </row>
+    <row r="33" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="78"/>
+      <c r="B33" s="78"/>
+      <c r="C33" s="78"/>
+      <c r="D33" s="143"/>
+      <c r="E33" s="93"/>
+      <c r="F33" s="93"/>
+    </row>
+    <row r="34" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="78"/>
+      <c r="B34" s="144" t="s">
+        <v>157</v>
+      </c>
+      <c r="C34" s="145"/>
+      <c r="D34" s="146"/>
+      <c r="E34" s="146"/>
+      <c r="F34" s="146"/>
+    </row>
+    <row r="35" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="78"/>
+      <c r="B35" s="144" t="s">
+        <v>128</v>
+      </c>
+      <c r="C35" s="147"/>
+      <c r="D35" s="146"/>
+      <c r="E35" s="146"/>
+      <c r="F35" s="146"/>
+    </row>
+    <row r="36" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="78"/>
+      <c r="B36" s="144" t="s">
+        <v>158</v>
+      </c>
+      <c r="C36" s="145"/>
+      <c r="D36" s="146"/>
+      <c r="E36" s="146"/>
+      <c r="F36" s="146"/>
+    </row>
+    <row r="37" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="78"/>
+      <c r="B37" s="144" t="s">
+        <v>128</v>
+      </c>
+      <c r="C37" s="145"/>
+      <c r="D37" s="146"/>
+      <c r="E37" s="146"/>
+      <c r="F37" s="146"/>
+    </row>
+    <row r="38" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="78"/>
+      <c r="B38" s="144" t="s">
+        <v>159</v>
+      </c>
+      <c r="C38" s="145"/>
+      <c r="D38" s="146"/>
+      <c r="E38" s="146"/>
+      <c r="F38" s="146"/>
+    </row>
+    <row r="39" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="78"/>
+      <c r="B39" s="144" t="s">
+        <v>128</v>
+      </c>
+      <c r="C39" s="145"/>
+      <c r="D39" s="146"/>
+      <c r="E39" s="146"/>
+      <c r="F39" s="146"/>
+    </row>
+    <row r="40" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="78"/>
+      <c r="B40" s="144" t="s">
+        <v>160</v>
+      </c>
+      <c r="C40" s="147"/>
+      <c r="D40" s="146"/>
+      <c r="E40" s="146"/>
+      <c r="F40" s="146"/>
+    </row>
+    <row r="41" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="78"/>
+      <c r="B41" s="144"/>
+      <c r="C41" s="145"/>
+      <c r="D41" s="146"/>
+      <c r="E41" s="146"/>
+      <c r="F41" s="146"/>
+    </row>
+    <row r="42" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="78"/>
+      <c r="B42" s="144"/>
+      <c r="C42" s="145"/>
+      <c r="D42" s="146"/>
+      <c r="E42" s="146"/>
+      <c r="F42" s="146"/>
+    </row>
+    <row r="43" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="78"/>
+      <c r="B43" s="144"/>
+      <c r="C43" s="145"/>
+      <c r="D43" s="146"/>
+      <c r="E43" s="146"/>
+      <c r="F43" s="146"/>
+    </row>
+    <row r="44" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="78"/>
+      <c r="B44" s="144"/>
+      <c r="C44" s="145"/>
+      <c r="D44" s="146"/>
+      <c r="E44" s="146"/>
+      <c r="F44" s="146"/>
+    </row>
+    <row r="45" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="78"/>
+      <c r="B45" s="144"/>
+      <c r="C45" s="145"/>
+      <c r="D45" s="146"/>
+      <c r="E45" s="146"/>
+      <c r="F45" s="146"/>
+    </row>
+    <row r="46" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="78"/>
+      <c r="B46" s="144"/>
+      <c r="C46" s="145"/>
+      <c r="D46" s="146"/>
+      <c r="E46" s="146"/>
+      <c r="F46" s="146"/>
+    </row>
+    <row r="47" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="78"/>
+      <c r="B47" s="144"/>
+      <c r="C47" s="145"/>
+      <c r="D47" s="146"/>
+      <c r="E47" s="146"/>
+      <c r="F47" s="146"/>
+    </row>
+    <row r="48" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="78"/>
+      <c r="B48" s="144"/>
+      <c r="C48" s="145"/>
+      <c r="D48" s="146"/>
+      <c r="E48" s="146"/>
+      <c r="F48" s="146"/>
+    </row>
+    <row r="49" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="78"/>
+      <c r="B49" s="144"/>
+      <c r="C49" s="145"/>
+      <c r="D49" s="146"/>
+      <c r="E49" s="146"/>
+      <c r="F49" s="146"/>
+    </row>
+    <row r="50" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="78"/>
+      <c r="B50" s="144"/>
+      <c r="C50" s="148"/>
+      <c r="D50" s="148"/>
+      <c r="E50" s="146"/>
+      <c r="F50" s="146"/>
+    </row>
+    <row r="51" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="78"/>
+      <c r="B51" s="144"/>
+      <c r="C51" s="145"/>
+      <c r="D51" s="146"/>
+      <c r="E51" s="146"/>
+      <c r="F51" s="146"/>
+    </row>
+    <row r="52" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="78"/>
+      <c r="B52" s="144"/>
+      <c r="C52" s="145"/>
+      <c r="D52" s="146"/>
+      <c r="E52" s="146"/>
+      <c r="F52" s="146"/>
+    </row>
+    <row r="53" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="78"/>
+      <c r="B53" s="144"/>
+      <c r="C53" s="145"/>
+      <c r="D53" s="146"/>
+      <c r="E53" s="146"/>
+      <c r="F53" s="146"/>
+    </row>
+    <row r="54" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="78"/>
+      <c r="B54" s="144"/>
+      <c r="C54" s="145"/>
+      <c r="D54" s="146"/>
+      <c r="E54" s="146"/>
+      <c r="F54" s="146"/>
+    </row>
+    <row r="55" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="78"/>
+      <c r="B55" s="144"/>
+      <c r="C55" s="145"/>
+      <c r="D55" s="146"/>
+      <c r="E55" s="146"/>
+      <c r="F55" s="146"/>
+    </row>
+    <row r="56" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="78"/>
+      <c r="B56" s="144"/>
+      <c r="C56" s="145"/>
+      <c r="D56" s="146"/>
+      <c r="E56" s="146"/>
+      <c r="F56" s="146"/>
+    </row>
+    <row r="57" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="78"/>
+      <c r="B57" s="144"/>
+      <c r="C57" s="145"/>
+      <c r="D57" s="146"/>
+      <c r="E57" s="146"/>
+      <c r="F57" s="146"/>
+    </row>
+    <row r="58" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="78"/>
+      <c r="B58" s="144"/>
+      <c r="C58" s="145"/>
+      <c r="D58" s="146"/>
+      <c r="E58" s="146"/>
+      <c r="F58" s="146"/>
+    </row>
+    <row r="59" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="78"/>
+      <c r="B59" s="144"/>
+      <c r="C59" s="145"/>
+      <c r="D59" s="146"/>
+      <c r="E59" s="146"/>
+      <c r="F59" s="146"/>
+    </row>
+    <row r="60" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="78"/>
+      <c r="B60" s="144"/>
+      <c r="C60" s="145"/>
+      <c r="D60" s="146"/>
+      <c r="E60" s="146"/>
+      <c r="F60" s="146"/>
+    </row>
+    <row r="61" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="78"/>
+      <c r="B61" s="144"/>
+      <c r="C61" s="145"/>
+      <c r="D61" s="146"/>
+      <c r="E61" s="146"/>
+      <c r="F61" s="146"/>
+    </row>
+    <row r="62" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="78"/>
+      <c r="B62" s="144"/>
+      <c r="C62" s="145"/>
+      <c r="D62" s="146"/>
+      <c r="E62" s="146"/>
+      <c r="F62" s="146"/>
+    </row>
+    <row r="63" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="78"/>
+      <c r="B63" s="149"/>
+      <c r="C63" s="150"/>
+      <c r="D63" s="151"/>
+      <c r="E63" s="146"/>
+      <c r="F63" s="146"/>
+    </row>
+    <row r="64" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="78"/>
+      <c r="B64" s="149"/>
+      <c r="C64" s="92"/>
+      <c r="D64" s="93"/>
+      <c r="E64" s="146"/>
+      <c r="F64" s="146"/>
+    </row>
+    <row r="65" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="78"/>
+      <c r="B65" s="144"/>
+      <c r="C65" s="154"/>
+      <c r="D65" s="155"/>
+      <c r="E65" s="146"/>
+      <c r="F65" s="146"/>
+    </row>
+    <row r="66" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="78"/>
+      <c r="B66" s="144"/>
+      <c r="C66" s="152"/>
+      <c r="D66" s="153"/>
+      <c r="E66" s="157"/>
+      <c r="F66" s="157"/>
+    </row>
+    <row r="67" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="78"/>
+      <c r="B67" s="149"/>
+      <c r="C67" s="152"/>
+      <c r="D67" s="153"/>
+      <c r="E67" s="146"/>
+      <c r="F67" s="146"/>
+    </row>
+    <row r="68" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="78"/>
+      <c r="B68" s="149"/>
+      <c r="C68" s="160"/>
+      <c r="D68" s="160"/>
+      <c r="E68" s="160"/>
+      <c r="F68" s="78"/>
+    </row>
+    <row r="69" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="62"/>
+      <c r="B69" s="102" t="s">
+        <v>14</v>
+      </c>
+      <c r="C69" s="102"/>
+      <c r="D69" s="60"/>
+      <c r="E69" s="103">
+        <v>750</v>
+      </c>
+      <c r="F69" s="103"/>
+    </row>
+    <row r="70" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="62"/>
+      <c r="B70" s="105" t="s">
+        <v>12</v>
+      </c>
+      <c r="C70" s="106"/>
+      <c r="D70" s="60"/>
+      <c r="E70" s="107">
+        <v>0</v>
+      </c>
+      <c r="F70" s="107"/>
+    </row>
+    <row r="71" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="62"/>
+      <c r="B71" s="161" t="s">
+        <v>123</v>
+      </c>
+      <c r="C71" s="106"/>
+      <c r="D71" s="60"/>
+      <c r="E71" s="107">
+        <v>0</v>
+      </c>
+      <c r="F71" s="107"/>
+    </row>
+    <row r="72" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="62"/>
+      <c r="B72" s="161" t="s">
+        <v>124</v>
+      </c>
+      <c r="C72" s="106"/>
+      <c r="D72" s="60"/>
+      <c r="E72" s="107">
+        <v>0</v>
+      </c>
+      <c r="F72" s="107"/>
+    </row>
+    <row r="73" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="62"/>
+      <c r="B73" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C73" s="102"/>
+      <c r="D73" s="60"/>
+      <c r="E73" s="109">
+        <v>750</v>
+      </c>
+      <c r="F73" s="109"/>
+    </row>
+    <row r="74" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="62"/>
+      <c r="B74" s="106" t="s">
+        <v>5</v>
+      </c>
+      <c r="C74" s="110">
+        <v>0.05</v>
+      </c>
+      <c r="D74" s="106"/>
+      <c r="E74" s="111">
+        <v>37.5</v>
+      </c>
+      <c r="F74" s="111"/>
+    </row>
+    <row r="75" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="62"/>
+      <c r="B75" s="112" t="s">
+        <v>4</v>
+      </c>
+      <c r="C75" s="113">
+        <v>9.9750000000000005E-2</v>
+      </c>
+      <c r="D75" s="106"/>
+      <c r="E75" s="114">
+        <v>74.81</v>
+      </c>
+      <c r="F75" s="111"/>
+    </row>
+    <row r="76" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="62"/>
+      <c r="B76" s="115"/>
+      <c r="C76" s="62"/>
+      <c r="D76" s="60"/>
+      <c r="E76" s="61"/>
+      <c r="F76" s="61"/>
+    </row>
+    <row r="77" spans="1:6" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="62"/>
+      <c r="B77" s="117" t="s">
+        <v>15</v>
+      </c>
+      <c r="C77" s="102"/>
+      <c r="D77" s="118"/>
+      <c r="E77" s="119">
+        <v>862.31</v>
+      </c>
+      <c r="F77" s="120"/>
+    </row>
+    <row r="78" spans="1:6" ht="15.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="62"/>
+      <c r="B78" s="112"/>
+      <c r="C78" s="112"/>
+      <c r="D78" s="112"/>
+      <c r="E78" s="121"/>
+      <c r="F78" s="112"/>
+    </row>
+    <row r="79" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="62"/>
+      <c r="B79" s="115" t="s">
+        <v>17</v>
+      </c>
+      <c r="C79" s="112"/>
+      <c r="D79" s="60"/>
+      <c r="E79" s="61">
+        <v>0</v>
+      </c>
+      <c r="F79" s="61"/>
+    </row>
+    <row r="80" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="62"/>
+      <c r="B80" s="102"/>
+      <c r="C80" s="112"/>
+      <c r="D80" s="112"/>
+      <c r="E80" s="121"/>
+      <c r="F80" s="112"/>
+    </row>
+    <row r="81" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="62"/>
+      <c r="B81" s="192" t="s">
+        <v>16</v>
+      </c>
+      <c r="C81" s="193"/>
+      <c r="D81" s="162"/>
+      <c r="E81" s="163">
+        <v>862.31</v>
+      </c>
+      <c r="F81" s="61"/>
+    </row>
+    <row r="82" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="62"/>
+      <c r="B82" s="62"/>
+      <c r="C82" s="62"/>
+      <c r="D82" s="60"/>
+      <c r="E82" s="61"/>
+      <c r="F82" s="61"/>
+    </row>
+    <row r="83" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="130"/>
+      <c r="B83" s="183"/>
+      <c r="C83" s="184"/>
+      <c r="D83" s="184"/>
+      <c r="E83" s="184"/>
+      <c r="F83" s="164"/>
+    </row>
+    <row r="84" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="186" t="s">
+        <v>28</v>
+      </c>
+      <c r="B84" s="186"/>
+      <c r="C84" s="186"/>
+      <c r="D84" s="186"/>
+      <c r="E84" s="186"/>
+      <c r="F84" s="115"/>
+    </row>
+    <row r="85" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="188" t="s">
+        <v>29</v>
+      </c>
+      <c r="B85" s="188"/>
+      <c r="C85" s="188"/>
+      <c r="D85" s="188"/>
+      <c r="E85" s="188"/>
+      <c r="F85" s="46"/>
+    </row>
+    <row r="86" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="132"/>
+      <c r="B86" s="132"/>
+      <c r="C86" s="132"/>
+      <c r="D86" s="132"/>
+      <c r="E86" s="132"/>
+      <c r="F86" s="46"/>
+    </row>
+    <row r="87" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="132"/>
+      <c r="B87" s="132"/>
+      <c r="C87" s="132"/>
+      <c r="D87" s="132"/>
+      <c r="E87" s="132"/>
+      <c r="F87" s="46"/>
+    </row>
+    <row r="88" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="190" t="s">
+        <v>7</v>
+      </c>
+      <c r="B88" s="190"/>
+      <c r="C88" s="190"/>
+      <c r="D88" s="190"/>
+      <c r="E88" s="190"/>
+      <c r="F88" s="190"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A88:F88"/>
+    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B83:E83"/>
+    <mergeCell ref="A84:E84"/>
+    <mergeCell ref="A85:E85"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -10214,14 +12129,14 @@
       <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="172" t="s">
+      <c r="A30" s="173" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="172"/>
-      <c r="C30" s="172"/>
-      <c r="D30" s="172"/>
-      <c r="E30" s="172"/>
-      <c r="F30" s="172"/>
+      <c r="B30" s="173"/>
+      <c r="C30" s="173"/>
+      <c r="D30" s="173"/>
+      <c r="E30" s="173"/>
+      <c r="F30" s="173"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="17"/>
@@ -10242,269 +12157,269 @@
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
-      <c r="B33" s="169"/>
-      <c r="C33" s="169"/>
-      <c r="D33" s="169"/>
+      <c r="B33" s="170"/>
+      <c r="C33" s="170"/>
+      <c r="D33" s="170"/>
       <c r="E33" s="28"/>
       <c r="F33" s="21"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="21"/>
-      <c r="B34" s="169" t="s">
+      <c r="B34" s="170" t="s">
         <v>64</v>
       </c>
-      <c r="C34" s="169"/>
-      <c r="D34" s="169"/>
+      <c r="C34" s="170"/>
+      <c r="D34" s="170"/>
       <c r="E34" s="28"/>
       <c r="F34" s="21"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
-      <c r="B35" s="169"/>
-      <c r="C35" s="169"/>
-      <c r="D35" s="169"/>
+      <c r="B35" s="170"/>
+      <c r="C35" s="170"/>
+      <c r="D35" s="170"/>
       <c r="E35" s="28"/>
       <c r="F35" s="21"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="21"/>
-      <c r="B36" s="169" t="s">
+      <c r="B36" s="170" t="s">
         <v>34</v>
       </c>
-      <c r="C36" s="169"/>
-      <c r="D36" s="169"/>
+      <c r="C36" s="170"/>
+      <c r="D36" s="170"/>
       <c r="E36" s="28"/>
       <c r="F36" s="21"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
-      <c r="B37" s="169"/>
-      <c r="C37" s="169"/>
-      <c r="D37" s="169"/>
+      <c r="B37" s="170"/>
+      <c r="C37" s="170"/>
+      <c r="D37" s="170"/>
       <c r="E37" s="28"/>
       <c r="F37" s="21"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="21"/>
-      <c r="B38" s="169" t="s">
+      <c r="B38" s="170" t="s">
         <v>38</v>
       </c>
-      <c r="C38" s="169"/>
-      <c r="D38" s="169"/>
+      <c r="C38" s="170"/>
+      <c r="D38" s="170"/>
       <c r="E38" s="28"/>
       <c r="F38" s="21"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="21"/>
-      <c r="B39" s="169"/>
-      <c r="C39" s="169"/>
-      <c r="D39" s="169"/>
+      <c r="B39" s="170"/>
+      <c r="C39" s="170"/>
+      <c r="D39" s="170"/>
       <c r="E39" s="28"/>
       <c r="F39" s="21"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="21"/>
-      <c r="B40" s="169" t="s">
+      <c r="B40" s="170" t="s">
         <v>67</v>
       </c>
-      <c r="C40" s="169"/>
-      <c r="D40" s="169"/>
+      <c r="C40" s="170"/>
+      <c r="D40" s="170"/>
       <c r="E40" s="28"/>
       <c r="F40" s="21"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="21"/>
-      <c r="B41" s="169"/>
-      <c r="C41" s="169"/>
-      <c r="D41" s="169"/>
+      <c r="B41" s="170"/>
+      <c r="C41" s="170"/>
+      <c r="D41" s="170"/>
       <c r="E41" s="28"/>
       <c r="F41" s="21"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="21"/>
-      <c r="B42" s="169" t="s">
+      <c r="B42" s="170" t="s">
         <v>65</v>
       </c>
-      <c r="C42" s="169"/>
-      <c r="D42" s="169"/>
+      <c r="C42" s="170"/>
+      <c r="D42" s="170"/>
       <c r="E42" s="28"/>
       <c r="F42" s="21"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="21"/>
-      <c r="B43" s="169"/>
-      <c r="C43" s="169"/>
-      <c r="D43" s="169"/>
+      <c r="B43" s="170"/>
+      <c r="C43" s="170"/>
+      <c r="D43" s="170"/>
       <c r="E43" s="28"/>
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
-      <c r="B44" s="169" t="s">
+      <c r="B44" s="170" t="s">
         <v>66</v>
       </c>
-      <c r="C44" s="169"/>
-      <c r="D44" s="169"/>
+      <c r="C44" s="170"/>
+      <c r="D44" s="170"/>
       <c r="E44" s="28"/>
       <c r="F44" s="21"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="21"/>
-      <c r="B45" s="169"/>
-      <c r="C45" s="169"/>
-      <c r="D45" s="169"/>
+      <c r="B45" s="170"/>
+      <c r="C45" s="170"/>
+      <c r="D45" s="170"/>
       <c r="E45" s="28"/>
       <c r="F45" s="21"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="21"/>
-      <c r="B46" s="169"/>
-      <c r="C46" s="169"/>
-      <c r="D46" s="169"/>
+      <c r="B46" s="170"/>
+      <c r="C46" s="170"/>
+      <c r="D46" s="170"/>
       <c r="E46" s="28"/>
       <c r="F46" s="21"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="21"/>
-      <c r="B47" s="169"/>
-      <c r="C47" s="169"/>
-      <c r="D47" s="169"/>
+      <c r="B47" s="170"/>
+      <c r="C47" s="170"/>
+      <c r="D47" s="170"/>
       <c r="E47" s="28"/>
       <c r="F47" s="21"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="21"/>
-      <c r="B48" s="169"/>
-      <c r="C48" s="169"/>
-      <c r="D48" s="169"/>
+      <c r="B48" s="170"/>
+      <c r="C48" s="170"/>
+      <c r="D48" s="170"/>
       <c r="E48" s="28"/>
       <c r="F48" s="21"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="21"/>
-      <c r="B49" s="169"/>
-      <c r="C49" s="169"/>
-      <c r="D49" s="169"/>
+      <c r="B49" s="170"/>
+      <c r="C49" s="170"/>
+      <c r="D49" s="170"/>
       <c r="E49" s="28"/>
       <c r="F49" s="21"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="21"/>
-      <c r="B50" s="169"/>
-      <c r="C50" s="169"/>
-      <c r="D50" s="169"/>
+      <c r="B50" s="170"/>
+      <c r="C50" s="170"/>
+      <c r="D50" s="170"/>
       <c r="E50" s="28"/>
       <c r="F50" s="21"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="21"/>
-      <c r="B51" s="169"/>
-      <c r="C51" s="169"/>
-      <c r="D51" s="169"/>
+      <c r="B51" s="170"/>
+      <c r="C51" s="170"/>
+      <c r="D51" s="170"/>
       <c r="E51" s="28"/>
       <c r="F51" s="21"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="21"/>
-      <c r="B52" s="169"/>
-      <c r="C52" s="169"/>
-      <c r="D52" s="169"/>
+      <c r="B52" s="170"/>
+      <c r="C52" s="170"/>
+      <c r="D52" s="170"/>
       <c r="E52" s="28"/>
       <c r="F52" s="21"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="21"/>
-      <c r="B53" s="169"/>
-      <c r="C53" s="169"/>
-      <c r="D53" s="169"/>
+      <c r="B53" s="170"/>
+      <c r="C53" s="170"/>
+      <c r="D53" s="170"/>
       <c r="E53" s="28"/>
       <c r="F53" s="21"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="21"/>
-      <c r="B54" s="169"/>
-      <c r="C54" s="169"/>
-      <c r="D54" s="169"/>
+      <c r="B54" s="170"/>
+      <c r="C54" s="170"/>
+      <c r="D54" s="170"/>
       <c r="E54" s="28"/>
       <c r="F54" s="21"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="21"/>
-      <c r="B55" s="169"/>
-      <c r="C55" s="169"/>
-      <c r="D55" s="169"/>
+      <c r="B55" s="170"/>
+      <c r="C55" s="170"/>
+      <c r="D55" s="170"/>
       <c r="E55" s="28"/>
       <c r="F55" s="21"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="21"/>
-      <c r="B56" s="169"/>
-      <c r="C56" s="169"/>
-      <c r="D56" s="169"/>
+      <c r="B56" s="170"/>
+      <c r="C56" s="170"/>
+      <c r="D56" s="170"/>
       <c r="E56" s="28"/>
       <c r="F56" s="21"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="21"/>
-      <c r="B57" s="169"/>
-      <c r="C57" s="169"/>
-      <c r="D57" s="169"/>
+      <c r="B57" s="170"/>
+      <c r="C57" s="170"/>
+      <c r="D57" s="170"/>
       <c r="E57" s="28"/>
       <c r="F57" s="21"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="21"/>
-      <c r="B58" s="169"/>
-      <c r="C58" s="169"/>
-      <c r="D58" s="169"/>
+      <c r="B58" s="170"/>
+      <c r="C58" s="170"/>
+      <c r="D58" s="170"/>
       <c r="E58" s="28"/>
       <c r="F58" s="21"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="21"/>
-      <c r="B59" s="169"/>
-      <c r="C59" s="169"/>
-      <c r="D59" s="169"/>
+      <c r="B59" s="170"/>
+      <c r="C59" s="170"/>
+      <c r="D59" s="170"/>
       <c r="E59" s="28"/>
       <c r="F59" s="21"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="21"/>
-      <c r="B60" s="169"/>
-      <c r="C60" s="169"/>
-      <c r="D60" s="169"/>
+      <c r="B60" s="170"/>
+      <c r="C60" s="170"/>
+      <c r="D60" s="170"/>
       <c r="E60" s="28"/>
       <c r="F60" s="21"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="21"/>
-      <c r="B61" s="169"/>
-      <c r="C61" s="169"/>
-      <c r="D61" s="169"/>
+      <c r="B61" s="170"/>
+      <c r="C61" s="170"/>
+      <c r="D61" s="170"/>
       <c r="E61" s="28"/>
       <c r="F61" s="21"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="21"/>
-      <c r="B62" s="169"/>
-      <c r="C62" s="169"/>
-      <c r="D62" s="169"/>
+      <c r="B62" s="170"/>
+      <c r="C62" s="170"/>
+      <c r="D62" s="170"/>
       <c r="E62" s="28"/>
       <c r="F62" s="21"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="21"/>
-      <c r="B63" s="169"/>
-      <c r="C63" s="169"/>
-      <c r="D63" s="169"/>
+      <c r="B63" s="170"/>
+      <c r="C63" s="170"/>
+      <c r="D63" s="170"/>
       <c r="E63" s="28"/>
       <c r="F63" s="21"/>
     </row>
     <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A64" s="21"/>
-      <c r="B64" s="169"/>
-      <c r="C64" s="169"/>
-      <c r="D64" s="169"/>
+      <c r="B64" s="170"/>
+      <c r="C64" s="170"/>
+      <c r="D64" s="170"/>
       <c r="E64" s="28"/>
       <c r="F64" s="21"/>
     </row>
@@ -10534,17 +12449,17 @@
     </row>
     <row r="67" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A67" s="21"/>
-      <c r="B67" s="169"/>
-      <c r="C67" s="169"/>
-      <c r="D67" s="169"/>
+      <c r="B67" s="170"/>
+      <c r="C67" s="170"/>
+      <c r="D67" s="170"/>
       <c r="E67" s="28"/>
       <c r="F67" s="21"/>
     </row>
     <row r="68" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="21"/>
-      <c r="B68" s="169"/>
-      <c r="C68" s="169"/>
-      <c r="D68" s="169"/>
+      <c r="B68" s="170"/>
+      <c r="C68" s="170"/>
+      <c r="D68" s="170"/>
       <c r="E68" s="28"/>
       <c r="F68" s="21"/>
     </row>
@@ -10651,19 +12566,19 @@
     </row>
     <row r="77" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A77" s="21"/>
-      <c r="B77" s="173"/>
-      <c r="C77" s="173"/>
-      <c r="D77" s="173"/>
+      <c r="B77" s="174"/>
+      <c r="C77" s="174"/>
+      <c r="D77" s="174"/>
       <c r="E77" s="36"/>
       <c r="F77" s="21"/>
     </row>
     <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="21"/>
-      <c r="B78" s="170" t="s">
+      <c r="B78" s="171" t="s">
         <v>17</v>
       </c>
-      <c r="C78" s="170"/>
-      <c r="D78" s="170"/>
+      <c r="C78" s="171"/>
+      <c r="D78" s="171"/>
       <c r="E78" s="36">
         <v>0</v>
       </c>
@@ -10671,9 +12586,9 @@
     </row>
     <row r="79" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="21"/>
-      <c r="B79" s="173"/>
-      <c r="C79" s="173"/>
-      <c r="D79" s="173"/>
+      <c r="B79" s="174"/>
+      <c r="C79" s="174"/>
+      <c r="D79" s="174"/>
       <c r="E79" s="36"/>
       <c r="F79" s="21"/>
     </row>
@@ -10708,31 +12623,31 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="21"/>
-      <c r="B83" s="167"/>
-      <c r="C83" s="167"/>
-      <c r="D83" s="167"/>
-      <c r="E83" s="167"/>
+      <c r="B83" s="168"/>
+      <c r="C83" s="168"/>
+      <c r="D83" s="168"/>
+      <c r="E83" s="168"/>
       <c r="F83" s="21"/>
     </row>
     <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="175" t="s">
+      <c r="A84" s="176" t="s">
         <v>28</v>
       </c>
-      <c r="B84" s="175"/>
-      <c r="C84" s="175"/>
-      <c r="D84" s="175"/>
-      <c r="E84" s="175"/>
-      <c r="F84" s="175"/>
+      <c r="B84" s="176"/>
+      <c r="C84" s="176"/>
+      <c r="D84" s="176"/>
+      <c r="E84" s="176"/>
+      <c r="F84" s="176"/>
     </row>
     <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A85" s="171" t="s">
+      <c r="A85" s="172" t="s">
         <v>29</v>
       </c>
-      <c r="B85" s="171"/>
-      <c r="C85" s="171"/>
-      <c r="D85" s="171"/>
-      <c r="E85" s="171"/>
-      <c r="F85" s="171"/>
+      <c r="B85" s="172"/>
+      <c r="C85" s="172"/>
+      <c r="D85" s="172"/>
+      <c r="E85" s="172"/>
+      <c r="F85" s="172"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="21"/>
@@ -10744,26 +12659,26 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="21"/>
-      <c r="B87" s="168"/>
-      <c r="C87" s="168"/>
-      <c r="D87" s="168"/>
-      <c r="E87" s="168"/>
+      <c r="B87" s="169"/>
+      <c r="C87" s="169"/>
+      <c r="D87" s="169"/>
+      <c r="E87" s="169"/>
       <c r="F87" s="21"/>
     </row>
     <row r="88" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A88" s="174" t="s">
+      <c r="A88" s="175" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="174"/>
-      <c r="C88" s="174"/>
-      <c r="D88" s="174"/>
-      <c r="E88" s="174"/>
-      <c r="F88" s="174"/>
+      <c r="B88" s="175"/>
+      <c r="C88" s="175"/>
+      <c r="D88" s="175"/>
+      <c r="E88" s="175"/>
+      <c r="F88" s="175"/>
     </row>
     <row r="90" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="165"/>
-      <c r="C90" s="166"/>
-      <c r="D90" s="166"/>
+      <c r="B90" s="166"/>
+      <c r="C90" s="167"/>
+      <c r="D90" s="167"/>
     </row>
     <row r="91" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
@@ -10831,6 +12746,829 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D1F752F-C501-4153-BC5E-7A412B831AB1}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:F88"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:F88"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.140625" customWidth="1"/>
+    <col min="2" max="2" width="120" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="54"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+    </row>
+    <row r="2" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="54"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+    </row>
+    <row r="3" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="54"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+    </row>
+    <row r="4" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="54"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+    </row>
+    <row r="5" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="54"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+    </row>
+    <row r="6" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="54"/>
+      <c r="B6" s="54"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="56"/>
+    </row>
+    <row r="7" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="54"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+    </row>
+    <row r="8" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="54"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="56"/>
+    </row>
+    <row r="9" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="54"/>
+      <c r="B9" s="54"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="165"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="56"/>
+    </row>
+    <row r="10" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="54"/>
+      <c r="B10" s="54"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="56"/>
+    </row>
+    <row r="11" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="54"/>
+      <c r="B11" s="54"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="56"/>
+    </row>
+    <row r="12" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="54"/>
+      <c r="B12" s="57"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+    </row>
+    <row r="13" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="54"/>
+      <c r="B13" s="57"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="56"/>
+    </row>
+    <row r="14" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="54"/>
+      <c r="B14" s="57"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+    </row>
+    <row r="15" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="54"/>
+      <c r="B15" s="57"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="56"/>
+      <c r="F15" s="56"/>
+    </row>
+    <row r="16" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="54"/>
+      <c r="B16" s="57"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="56"/>
+    </row>
+    <row r="17" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="54"/>
+      <c r="B17" s="57"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="56"/>
+      <c r="F17" s="56"/>
+    </row>
+    <row r="18" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="54"/>
+      <c r="B18" s="57"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
+    </row>
+    <row r="19" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="54"/>
+      <c r="B19" s="57"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="56"/>
+      <c r="F19" s="56"/>
+    </row>
+    <row r="20" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="54"/>
+      <c r="B20" s="57"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+    </row>
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="62"/>
+      <c r="B21" s="59" t="s">
+        <v>149</v>
+      </c>
+      <c r="C21" s="59"/>
+      <c r="D21" s="60"/>
+      <c r="E21" s="61"/>
+      <c r="F21" s="61"/>
+    </row>
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="62"/>
+      <c r="B22" s="62"/>
+      <c r="C22" s="62"/>
+      <c r="D22" s="60"/>
+      <c r="E22" s="61"/>
+      <c r="F22" s="61"/>
+    </row>
+    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="62"/>
+      <c r="B23" s="59" t="s">
+        <v>161</v>
+      </c>
+      <c r="C23" s="59"/>
+      <c r="D23" s="60"/>
+      <c r="E23" s="61"/>
+      <c r="F23" s="61"/>
+    </row>
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="62"/>
+      <c r="B24" s="59" t="s">
+        <v>162</v>
+      </c>
+      <c r="C24" s="62"/>
+      <c r="D24" s="60"/>
+      <c r="E24" s="61"/>
+      <c r="F24" s="61"/>
+    </row>
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="62"/>
+      <c r="B25" s="62" t="s">
+        <v>154</v>
+      </c>
+      <c r="C25" s="62"/>
+      <c r="D25" s="60"/>
+      <c r="E25" s="61"/>
+      <c r="F25" s="61"/>
+    </row>
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="62"/>
+      <c r="B26" s="62" t="s">
+        <v>163</v>
+      </c>
+      <c r="C26" s="62"/>
+      <c r="D26" s="60"/>
+      <c r="E26" s="61"/>
+      <c r="F26" s="61"/>
+    </row>
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="59"/>
+      <c r="B27" s="62"/>
+      <c r="C27" s="62"/>
+      <c r="D27" s="65"/>
+      <c r="E27" s="66"/>
+      <c r="F27" s="66"/>
+    </row>
+    <row r="28" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="62"/>
+      <c r="B28" s="59"/>
+      <c r="C28" s="59"/>
+      <c r="D28" s="66" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="67" t="s">
+        <v>164</v>
+      </c>
+      <c r="F28" s="67"/>
+    </row>
+    <row r="29" spans="1:6" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="137"/>
+      <c r="B29" s="137"/>
+      <c r="C29" s="137"/>
+      <c r="D29" s="138"/>
+      <c r="E29" s="139"/>
+      <c r="F29" s="139"/>
+    </row>
+    <row r="30" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="191" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="191"/>
+      <c r="C30" s="191"/>
+      <c r="D30" s="191"/>
+      <c r="E30" s="191"/>
+      <c r="F30" s="140"/>
+    </row>
+    <row r="31" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="141"/>
+      <c r="B31" s="141"/>
+      <c r="C31" s="141"/>
+      <c r="D31" s="141"/>
+      <c r="E31" s="141"/>
+      <c r="F31" s="141"/>
+    </row>
+    <row r="32" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="78"/>
+      <c r="B32" s="115" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="142"/>
+      <c r="D32" s="143"/>
+      <c r="E32" s="93"/>
+      <c r="F32" s="93"/>
+    </row>
+    <row r="33" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="78"/>
+      <c r="B33" s="78"/>
+      <c r="C33" s="78"/>
+      <c r="D33" s="143"/>
+      <c r="E33" s="93"/>
+      <c r="F33" s="93"/>
+    </row>
+    <row r="34" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="78"/>
+      <c r="B34" s="144" t="s">
+        <v>157</v>
+      </c>
+      <c r="C34" s="145"/>
+      <c r="D34" s="146"/>
+      <c r="E34" s="146"/>
+      <c r="F34" s="146"/>
+    </row>
+    <row r="35" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="78"/>
+      <c r="B35" s="144" t="s">
+        <v>128</v>
+      </c>
+      <c r="C35" s="147"/>
+      <c r="D35" s="146"/>
+      <c r="E35" s="146"/>
+      <c r="F35" s="146"/>
+    </row>
+    <row r="36" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="78"/>
+      <c r="B36" s="144" t="s">
+        <v>158</v>
+      </c>
+      <c r="C36" s="145"/>
+      <c r="D36" s="146"/>
+      <c r="E36" s="146"/>
+      <c r="F36" s="146"/>
+    </row>
+    <row r="37" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="78"/>
+      <c r="B37" s="144" t="s">
+        <v>128</v>
+      </c>
+      <c r="C37" s="145"/>
+      <c r="D37" s="146"/>
+      <c r="E37" s="146"/>
+      <c r="F37" s="146"/>
+    </row>
+    <row r="38" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="78"/>
+      <c r="B38" s="144" t="s">
+        <v>159</v>
+      </c>
+      <c r="C38" s="145"/>
+      <c r="D38" s="146"/>
+      <c r="E38" s="146"/>
+      <c r="F38" s="146"/>
+    </row>
+    <row r="39" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="78"/>
+      <c r="B39" s="144" t="s">
+        <v>128</v>
+      </c>
+      <c r="C39" s="145"/>
+      <c r="D39" s="146"/>
+      <c r="E39" s="146"/>
+      <c r="F39" s="146"/>
+    </row>
+    <row r="40" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="78"/>
+      <c r="B40" s="144" t="s">
+        <v>160</v>
+      </c>
+      <c r="C40" s="147"/>
+      <c r="D40" s="146"/>
+      <c r="E40" s="146"/>
+      <c r="F40" s="146"/>
+    </row>
+    <row r="41" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="78"/>
+      <c r="B41" s="144"/>
+      <c r="C41" s="145"/>
+      <c r="D41" s="146"/>
+      <c r="E41" s="146"/>
+      <c r="F41" s="146"/>
+    </row>
+    <row r="42" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="78"/>
+      <c r="B42" s="144"/>
+      <c r="C42" s="145"/>
+      <c r="D42" s="146"/>
+      <c r="E42" s="146"/>
+      <c r="F42" s="146"/>
+    </row>
+    <row r="43" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="78"/>
+      <c r="B43" s="144"/>
+      <c r="C43" s="145"/>
+      <c r="D43" s="146"/>
+      <c r="E43" s="146"/>
+      <c r="F43" s="146"/>
+    </row>
+    <row r="44" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="78"/>
+      <c r="B44" s="144"/>
+      <c r="C44" s="145"/>
+      <c r="D44" s="146"/>
+      <c r="E44" s="146"/>
+      <c r="F44" s="146"/>
+    </row>
+    <row r="45" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="78"/>
+      <c r="B45" s="144"/>
+      <c r="C45" s="145"/>
+      <c r="D45" s="146"/>
+      <c r="E45" s="146"/>
+      <c r="F45" s="146"/>
+    </row>
+    <row r="46" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="78"/>
+      <c r="B46" s="144"/>
+      <c r="C46" s="145"/>
+      <c r="D46" s="146"/>
+      <c r="E46" s="146"/>
+      <c r="F46" s="146"/>
+    </row>
+    <row r="47" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="78"/>
+      <c r="B47" s="144"/>
+      <c r="C47" s="145"/>
+      <c r="D47" s="146"/>
+      <c r="E47" s="146"/>
+      <c r="F47" s="146"/>
+    </row>
+    <row r="48" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="78"/>
+      <c r="B48" s="144"/>
+      <c r="C48" s="145"/>
+      <c r="D48" s="146"/>
+      <c r="E48" s="146"/>
+      <c r="F48" s="146"/>
+    </row>
+    <row r="49" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="78"/>
+      <c r="B49" s="144"/>
+      <c r="C49" s="145"/>
+      <c r="D49" s="146"/>
+      <c r="E49" s="146"/>
+      <c r="F49" s="146"/>
+    </row>
+    <row r="50" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="78"/>
+      <c r="B50" s="144"/>
+      <c r="C50" s="148"/>
+      <c r="D50" s="148"/>
+      <c r="E50" s="146"/>
+      <c r="F50" s="146"/>
+    </row>
+    <row r="51" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="78"/>
+      <c r="B51" s="144"/>
+      <c r="C51" s="145"/>
+      <c r="D51" s="146"/>
+      <c r="E51" s="146"/>
+      <c r="F51" s="146"/>
+    </row>
+    <row r="52" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="78"/>
+      <c r="B52" s="144"/>
+      <c r="C52" s="145"/>
+      <c r="D52" s="146"/>
+      <c r="E52" s="146"/>
+      <c r="F52" s="146"/>
+    </row>
+    <row r="53" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="78"/>
+      <c r="B53" s="144"/>
+      <c r="C53" s="145"/>
+      <c r="D53" s="146"/>
+      <c r="E53" s="146"/>
+      <c r="F53" s="146"/>
+    </row>
+    <row r="54" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="78"/>
+      <c r="B54" s="144"/>
+      <c r="C54" s="145"/>
+      <c r="D54" s="146"/>
+      <c r="E54" s="146"/>
+      <c r="F54" s="146"/>
+    </row>
+    <row r="55" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="78"/>
+      <c r="B55" s="144"/>
+      <c r="C55" s="145"/>
+      <c r="D55" s="146"/>
+      <c r="E55" s="146"/>
+      <c r="F55" s="146"/>
+    </row>
+    <row r="56" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="78"/>
+      <c r="B56" s="144"/>
+      <c r="C56" s="145"/>
+      <c r="D56" s="146"/>
+      <c r="E56" s="146"/>
+      <c r="F56" s="146"/>
+    </row>
+    <row r="57" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="78"/>
+      <c r="B57" s="144"/>
+      <c r="C57" s="145"/>
+      <c r="D57" s="146"/>
+      <c r="E57" s="146"/>
+      <c r="F57" s="146"/>
+    </row>
+    <row r="58" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="78"/>
+      <c r="B58" s="144"/>
+      <c r="C58" s="145"/>
+      <c r="D58" s="146"/>
+      <c r="E58" s="146"/>
+      <c r="F58" s="146"/>
+    </row>
+    <row r="59" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="78"/>
+      <c r="B59" s="144"/>
+      <c r="C59" s="145"/>
+      <c r="D59" s="146"/>
+      <c r="E59" s="146"/>
+      <c r="F59" s="146"/>
+    </row>
+    <row r="60" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="78"/>
+      <c r="B60" s="144"/>
+      <c r="C60" s="145"/>
+      <c r="D60" s="146"/>
+      <c r="E60" s="146"/>
+      <c r="F60" s="146"/>
+    </row>
+    <row r="61" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="78"/>
+      <c r="B61" s="144"/>
+      <c r="C61" s="145"/>
+      <c r="D61" s="146"/>
+      <c r="E61" s="146"/>
+      <c r="F61" s="146"/>
+    </row>
+    <row r="62" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="78"/>
+      <c r="B62" s="144"/>
+      <c r="C62" s="145"/>
+      <c r="D62" s="146"/>
+      <c r="E62" s="146"/>
+      <c r="F62" s="146"/>
+    </row>
+    <row r="63" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="78"/>
+      <c r="B63" s="149"/>
+      <c r="C63" s="150"/>
+      <c r="D63" s="151"/>
+      <c r="E63" s="146"/>
+      <c r="F63" s="146"/>
+    </row>
+    <row r="64" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="78"/>
+      <c r="B64" s="149"/>
+      <c r="C64" s="92"/>
+      <c r="D64" s="93"/>
+      <c r="E64" s="146"/>
+      <c r="F64" s="146"/>
+    </row>
+    <row r="65" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="78"/>
+      <c r="B65" s="144"/>
+      <c r="C65" s="154"/>
+      <c r="D65" s="155"/>
+      <c r="E65" s="146"/>
+      <c r="F65" s="146"/>
+    </row>
+    <row r="66" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="78"/>
+      <c r="B66" s="144"/>
+      <c r="C66" s="152"/>
+      <c r="D66" s="153"/>
+      <c r="E66" s="157"/>
+      <c r="F66" s="157"/>
+    </row>
+    <row r="67" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="78"/>
+      <c r="B67" s="149"/>
+      <c r="C67" s="152"/>
+      <c r="D67" s="153"/>
+      <c r="E67" s="146"/>
+      <c r="F67" s="146"/>
+    </row>
+    <row r="68" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="78"/>
+      <c r="B68" s="149"/>
+      <c r="C68" s="160"/>
+      <c r="D68" s="160"/>
+      <c r="E68" s="160"/>
+      <c r="F68" s="78"/>
+    </row>
+    <row r="69" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="62"/>
+      <c r="B69" s="102" t="s">
+        <v>14</v>
+      </c>
+      <c r="C69" s="102"/>
+      <c r="D69" s="60"/>
+      <c r="E69" s="103">
+        <v>750</v>
+      </c>
+      <c r="F69" s="103"/>
+    </row>
+    <row r="70" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="62"/>
+      <c r="B70" s="105" t="s">
+        <v>12</v>
+      </c>
+      <c r="C70" s="106"/>
+      <c r="D70" s="60"/>
+      <c r="E70" s="107">
+        <v>0</v>
+      </c>
+      <c r="F70" s="107"/>
+    </row>
+    <row r="71" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="62"/>
+      <c r="B71" s="161" t="s">
+        <v>123</v>
+      </c>
+      <c r="C71" s="106"/>
+      <c r="D71" s="60"/>
+      <c r="E71" s="107">
+        <v>0</v>
+      </c>
+      <c r="F71" s="107"/>
+    </row>
+    <row r="72" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="62"/>
+      <c r="B72" s="161" t="s">
+        <v>124</v>
+      </c>
+      <c r="C72" s="106"/>
+      <c r="D72" s="60"/>
+      <c r="E72" s="107">
+        <v>0</v>
+      </c>
+      <c r="F72" s="107"/>
+    </row>
+    <row r="73" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="62"/>
+      <c r="B73" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C73" s="102"/>
+      <c r="D73" s="60"/>
+      <c r="E73" s="109">
+        <v>750</v>
+      </c>
+      <c r="F73" s="109"/>
+    </row>
+    <row r="74" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="62"/>
+      <c r="B74" s="106" t="s">
+        <v>5</v>
+      </c>
+      <c r="C74" s="110">
+        <v>0.05</v>
+      </c>
+      <c r="D74" s="106"/>
+      <c r="E74" s="111">
+        <v>37.5</v>
+      </c>
+      <c r="F74" s="111"/>
+    </row>
+    <row r="75" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="62"/>
+      <c r="B75" s="112" t="s">
+        <v>4</v>
+      </c>
+      <c r="C75" s="113">
+        <v>9.9750000000000005E-2</v>
+      </c>
+      <c r="D75" s="106"/>
+      <c r="E75" s="114">
+        <v>74.81</v>
+      </c>
+      <c r="F75" s="111"/>
+    </row>
+    <row r="76" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="62"/>
+      <c r="B76" s="115"/>
+      <c r="C76" s="62"/>
+      <c r="D76" s="60"/>
+      <c r="E76" s="61"/>
+      <c r="F76" s="61"/>
+    </row>
+    <row r="77" spans="1:6" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="62"/>
+      <c r="B77" s="117" t="s">
+        <v>15</v>
+      </c>
+      <c r="C77" s="102"/>
+      <c r="D77" s="118"/>
+      <c r="E77" s="119">
+        <v>862.31</v>
+      </c>
+      <c r="F77" s="120"/>
+    </row>
+    <row r="78" spans="1:6" ht="15.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="62"/>
+      <c r="B78" s="112"/>
+      <c r="C78" s="112"/>
+      <c r="D78" s="112"/>
+      <c r="E78" s="121"/>
+      <c r="F78" s="112"/>
+    </row>
+    <row r="79" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="62"/>
+      <c r="B79" s="115" t="s">
+        <v>17</v>
+      </c>
+      <c r="C79" s="112"/>
+      <c r="D79" s="60"/>
+      <c r="E79" s="61">
+        <v>0</v>
+      </c>
+      <c r="F79" s="61"/>
+    </row>
+    <row r="80" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="62"/>
+      <c r="B80" s="102"/>
+      <c r="C80" s="112"/>
+      <c r="D80" s="112"/>
+      <c r="E80" s="121"/>
+      <c r="F80" s="112"/>
+    </row>
+    <row r="81" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="62"/>
+      <c r="B81" s="192" t="s">
+        <v>16</v>
+      </c>
+      <c r="C81" s="193"/>
+      <c r="D81" s="162"/>
+      <c r="E81" s="163">
+        <v>862.31</v>
+      </c>
+      <c r="F81" s="61"/>
+    </row>
+    <row r="82" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="62"/>
+      <c r="B82" s="62"/>
+      <c r="C82" s="62"/>
+      <c r="D82" s="60"/>
+      <c r="E82" s="61"/>
+      <c r="F82" s="61"/>
+    </row>
+    <row r="83" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="130"/>
+      <c r="B83" s="183"/>
+      <c r="C83" s="184"/>
+      <c r="D83" s="184"/>
+      <c r="E83" s="184"/>
+      <c r="F83" s="164"/>
+    </row>
+    <row r="84" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="186" t="s">
+        <v>28</v>
+      </c>
+      <c r="B84" s="186"/>
+      <c r="C84" s="186"/>
+      <c r="D84" s="186"/>
+      <c r="E84" s="186"/>
+      <c r="F84" s="115"/>
+    </row>
+    <row r="85" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="188" t="s">
+        <v>29</v>
+      </c>
+      <c r="B85" s="188"/>
+      <c r="C85" s="188"/>
+      <c r="D85" s="188"/>
+      <c r="E85" s="188"/>
+      <c r="F85" s="46"/>
+    </row>
+    <row r="86" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="132"/>
+      <c r="B86" s="132"/>
+      <c r="C86" s="132"/>
+      <c r="D86" s="132"/>
+      <c r="E86" s="132"/>
+      <c r="F86" s="46"/>
+    </row>
+    <row r="87" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="132"/>
+      <c r="B87" s="132"/>
+      <c r="C87" s="132"/>
+      <c r="D87" s="132"/>
+      <c r="E87" s="132"/>
+      <c r="F87" s="46"/>
+    </row>
+    <row r="88" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="190" t="s">
+        <v>7</v>
+      </c>
+      <c r="B88" s="190"/>
+      <c r="C88" s="190"/>
+      <c r="D88" s="190"/>
+      <c r="E88" s="190"/>
+      <c r="F88" s="190"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B83:E83"/>
+    <mergeCell ref="A84:E84"/>
+    <mergeCell ref="A85:E85"/>
+    <mergeCell ref="A88:F88"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="119" scale="63" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA6BAF71-09B5-410C-8293-5BA113CF7C6D}">
   <sheetPr>
@@ -10974,14 +13712,14 @@
       <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="172" t="s">
+      <c r="A30" s="173" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="172"/>
-      <c r="C30" s="172"/>
-      <c r="D30" s="172"/>
-      <c r="E30" s="172"/>
-      <c r="F30" s="172"/>
+      <c r="B30" s="173"/>
+      <c r="C30" s="173"/>
+      <c r="D30" s="173"/>
+      <c r="E30" s="173"/>
+      <c r="F30" s="173"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="17"/>
@@ -11002,265 +13740,265 @@
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
-      <c r="B33" s="169"/>
-      <c r="C33" s="169"/>
-      <c r="D33" s="169"/>
+      <c r="B33" s="170"/>
+      <c r="C33" s="170"/>
+      <c r="D33" s="170"/>
       <c r="E33" s="28"/>
       <c r="F33" s="21"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="21"/>
-      <c r="B34" s="169" t="s">
+      <c r="B34" s="170" t="s">
         <v>9</v>
       </c>
-      <c r="C34" s="169"/>
-      <c r="D34" s="169"/>
+      <c r="C34" s="170"/>
+      <c r="D34" s="170"/>
       <c r="E34" s="28"/>
       <c r="F34" s="21"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
-      <c r="B35" s="169"/>
-      <c r="C35" s="169"/>
-      <c r="D35" s="169"/>
+      <c r="B35" s="170"/>
+      <c r="C35" s="170"/>
+      <c r="D35" s="170"/>
       <c r="E35" s="28"/>
       <c r="F35" s="21"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="21"/>
-      <c r="B36" s="169" t="s">
+      <c r="B36" s="170" t="s">
         <v>70</v>
       </c>
-      <c r="C36" s="169"/>
-      <c r="D36" s="169"/>
+      <c r="C36" s="170"/>
+      <c r="D36" s="170"/>
       <c r="E36" s="28"/>
       <c r="F36" s="21"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
-      <c r="B37" s="169"/>
-      <c r="C37" s="169"/>
-      <c r="D37" s="169"/>
+      <c r="B37" s="170"/>
+      <c r="C37" s="170"/>
+      <c r="D37" s="170"/>
       <c r="E37" s="28"/>
       <c r="F37" s="21"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="21"/>
-      <c r="B38" s="169" t="s">
+      <c r="B38" s="170" t="s">
         <v>38</v>
       </c>
-      <c r="C38" s="169"/>
-      <c r="D38" s="169"/>
+      <c r="C38" s="170"/>
+      <c r="D38" s="170"/>
       <c r="E38" s="28"/>
       <c r="F38" s="21"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="21"/>
-      <c r="B39" s="169"/>
-      <c r="C39" s="169"/>
-      <c r="D39" s="169"/>
+      <c r="B39" s="170"/>
+      <c r="C39" s="170"/>
+      <c r="D39" s="170"/>
       <c r="E39" s="28"/>
       <c r="F39" s="21"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="21"/>
-      <c r="B40" s="169" t="s">
+      <c r="B40" s="170" t="s">
         <v>53</v>
       </c>
-      <c r="C40" s="169"/>
-      <c r="D40" s="169"/>
+      <c r="C40" s="170"/>
+      <c r="D40" s="170"/>
       <c r="E40" s="28"/>
       <c r="F40" s="21"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="21"/>
-      <c r="B41" s="169"/>
-      <c r="C41" s="169"/>
-      <c r="D41" s="169"/>
+      <c r="B41" s="170"/>
+      <c r="C41" s="170"/>
+      <c r="D41" s="170"/>
       <c r="E41" s="28"/>
       <c r="F41" s="21"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="21"/>
-      <c r="B42" s="169"/>
-      <c r="C42" s="169"/>
-      <c r="D42" s="169"/>
+      <c r="B42" s="170"/>
+      <c r="C42" s="170"/>
+      <c r="D42" s="170"/>
       <c r="E42" s="28"/>
       <c r="F42" s="21"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="21"/>
-      <c r="B43" s="169"/>
-      <c r="C43" s="169"/>
-      <c r="D43" s="169"/>
+      <c r="B43" s="170"/>
+      <c r="C43" s="170"/>
+      <c r="D43" s="170"/>
       <c r="E43" s="28"/>
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
-      <c r="B44" s="169"/>
-      <c r="C44" s="169"/>
-      <c r="D44" s="169"/>
+      <c r="B44" s="170"/>
+      <c r="C44" s="170"/>
+      <c r="D44" s="170"/>
       <c r="E44" s="28"/>
       <c r="F44" s="21"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="21"/>
-      <c r="B45" s="169"/>
-      <c r="C45" s="169"/>
-      <c r="D45" s="169"/>
+      <c r="B45" s="170"/>
+      <c r="C45" s="170"/>
+      <c r="D45" s="170"/>
       <c r="E45" s="28"/>
       <c r="F45" s="21"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="21"/>
-      <c r="B46" s="169"/>
-      <c r="C46" s="169"/>
-      <c r="D46" s="169"/>
+      <c r="B46" s="170"/>
+      <c r="C46" s="170"/>
+      <c r="D46" s="170"/>
       <c r="E46" s="28"/>
       <c r="F46" s="21"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="21"/>
-      <c r="B47" s="169"/>
-      <c r="C47" s="169"/>
-      <c r="D47" s="169"/>
+      <c r="B47" s="170"/>
+      <c r="C47" s="170"/>
+      <c r="D47" s="170"/>
       <c r="E47" s="28"/>
       <c r="F47" s="21"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="21"/>
-      <c r="B48" s="169"/>
-      <c r="C48" s="169"/>
-      <c r="D48" s="169"/>
+      <c r="B48" s="170"/>
+      <c r="C48" s="170"/>
+      <c r="D48" s="170"/>
       <c r="E48" s="28"/>
       <c r="F48" s="21"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="21"/>
-      <c r="B49" s="169"/>
-      <c r="C49" s="169"/>
-      <c r="D49" s="169"/>
+      <c r="B49" s="170"/>
+      <c r="C49" s="170"/>
+      <c r="D49" s="170"/>
       <c r="E49" s="28"/>
       <c r="F49" s="21"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="21"/>
-      <c r="B50" s="169"/>
-      <c r="C50" s="169"/>
-      <c r="D50" s="169"/>
+      <c r="B50" s="170"/>
+      <c r="C50" s="170"/>
+      <c r="D50" s="170"/>
       <c r="E50" s="28"/>
       <c r="F50" s="21"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="21"/>
-      <c r="B51" s="169"/>
-      <c r="C51" s="169"/>
-      <c r="D51" s="169"/>
+      <c r="B51" s="170"/>
+      <c r="C51" s="170"/>
+      <c r="D51" s="170"/>
       <c r="E51" s="28"/>
       <c r="F51" s="21"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="21"/>
-      <c r="B52" s="169"/>
-      <c r="C52" s="169"/>
-      <c r="D52" s="169"/>
+      <c r="B52" s="170"/>
+      <c r="C52" s="170"/>
+      <c r="D52" s="170"/>
       <c r="E52" s="28"/>
       <c r="F52" s="21"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="21"/>
-      <c r="B53" s="169"/>
-      <c r="C53" s="169"/>
-      <c r="D53" s="169"/>
+      <c r="B53" s="170"/>
+      <c r="C53" s="170"/>
+      <c r="D53" s="170"/>
       <c r="E53" s="28"/>
       <c r="F53" s="21"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="21"/>
-      <c r="B54" s="169"/>
-      <c r="C54" s="169"/>
-      <c r="D54" s="169"/>
+      <c r="B54" s="170"/>
+      <c r="C54" s="170"/>
+      <c r="D54" s="170"/>
       <c r="E54" s="28"/>
       <c r="F54" s="21"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="21"/>
-      <c r="B55" s="169"/>
-      <c r="C55" s="169"/>
-      <c r="D55" s="169"/>
+      <c r="B55" s="170"/>
+      <c r="C55" s="170"/>
+      <c r="D55" s="170"/>
       <c r="E55" s="28"/>
       <c r="F55" s="21"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="21"/>
-      <c r="B56" s="169"/>
-      <c r="C56" s="169"/>
-      <c r="D56" s="169"/>
+      <c r="B56" s="170"/>
+      <c r="C56" s="170"/>
+      <c r="D56" s="170"/>
       <c r="E56" s="28"/>
       <c r="F56" s="21"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="21"/>
-      <c r="B57" s="169"/>
-      <c r="C57" s="169"/>
-      <c r="D57" s="169"/>
+      <c r="B57" s="170"/>
+      <c r="C57" s="170"/>
+      <c r="D57" s="170"/>
       <c r="E57" s="28"/>
       <c r="F57" s="21"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="21"/>
-      <c r="B58" s="169"/>
-      <c r="C58" s="169"/>
-      <c r="D58" s="169"/>
+      <c r="B58" s="170"/>
+      <c r="C58" s="170"/>
+      <c r="D58" s="170"/>
       <c r="E58" s="28"/>
       <c r="F58" s="21"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="21"/>
-      <c r="B59" s="169"/>
-      <c r="C59" s="169"/>
-      <c r="D59" s="169"/>
+      <c r="B59" s="170"/>
+      <c r="C59" s="170"/>
+      <c r="D59" s="170"/>
       <c r="E59" s="28"/>
       <c r="F59" s="21"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="21"/>
-      <c r="B60" s="169"/>
-      <c r="C60" s="169"/>
-      <c r="D60" s="169"/>
+      <c r="B60" s="170"/>
+      <c r="C60" s="170"/>
+      <c r="D60" s="170"/>
       <c r="E60" s="28"/>
       <c r="F60" s="21"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="21"/>
-      <c r="B61" s="169"/>
-      <c r="C61" s="169"/>
-      <c r="D61" s="169"/>
+      <c r="B61" s="170"/>
+      <c r="C61" s="170"/>
+      <c r="D61" s="170"/>
       <c r="E61" s="28"/>
       <c r="F61" s="21"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="21"/>
-      <c r="B62" s="169"/>
-      <c r="C62" s="169"/>
-      <c r="D62" s="169"/>
+      <c r="B62" s="170"/>
+      <c r="C62" s="170"/>
+      <c r="D62" s="170"/>
       <c r="E62" s="28"/>
       <c r="F62" s="21"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="21"/>
-      <c r="B63" s="169"/>
-      <c r="C63" s="169"/>
-      <c r="D63" s="169"/>
+      <c r="B63" s="170"/>
+      <c r="C63" s="170"/>
+      <c r="D63" s="170"/>
       <c r="E63" s="28"/>
       <c r="F63" s="21"/>
     </row>
     <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A64" s="21"/>
-      <c r="B64" s="169"/>
-      <c r="C64" s="169"/>
-      <c r="D64" s="169"/>
+      <c r="B64" s="170"/>
+      <c r="C64" s="170"/>
+      <c r="D64" s="170"/>
       <c r="E64" s="28"/>
       <c r="F64" s="21"/>
     </row>
@@ -11290,17 +14028,17 @@
     </row>
     <row r="67" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A67" s="21"/>
-      <c r="B67" s="169"/>
-      <c r="C67" s="169"/>
-      <c r="D67" s="169"/>
+      <c r="B67" s="170"/>
+      <c r="C67" s="170"/>
+      <c r="D67" s="170"/>
       <c r="E67" s="28"/>
       <c r="F67" s="21"/>
     </row>
     <row r="68" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="21"/>
-      <c r="B68" s="169"/>
-      <c r="C68" s="169"/>
-      <c r="D68" s="169"/>
+      <c r="B68" s="170"/>
+      <c r="C68" s="170"/>
+      <c r="D68" s="170"/>
       <c r="E68" s="28"/>
       <c r="F68" s="21"/>
     </row>
@@ -11407,19 +14145,19 @@
     </row>
     <row r="77" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A77" s="21"/>
-      <c r="B77" s="173"/>
-      <c r="C77" s="173"/>
-      <c r="D77" s="173"/>
+      <c r="B77" s="174"/>
+      <c r="C77" s="174"/>
+      <c r="D77" s="174"/>
       <c r="E77" s="36"/>
       <c r="F77" s="21"/>
     </row>
     <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="21"/>
-      <c r="B78" s="170" t="s">
+      <c r="B78" s="171" t="s">
         <v>17</v>
       </c>
-      <c r="C78" s="170"/>
-      <c r="D78" s="170"/>
+      <c r="C78" s="171"/>
+      <c r="D78" s="171"/>
       <c r="E78" s="36">
         <v>0</v>
       </c>
@@ -11427,9 +14165,9 @@
     </row>
     <row r="79" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="21"/>
-      <c r="B79" s="173"/>
-      <c r="C79" s="173"/>
-      <c r="D79" s="173"/>
+      <c r="B79" s="174"/>
+      <c r="C79" s="174"/>
+      <c r="D79" s="174"/>
       <c r="E79" s="36"/>
       <c r="F79" s="21"/>
     </row>
@@ -11464,31 +14202,31 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="21"/>
-      <c r="B83" s="167"/>
-      <c r="C83" s="167"/>
-      <c r="D83" s="167"/>
-      <c r="E83" s="167"/>
+      <c r="B83" s="168"/>
+      <c r="C83" s="168"/>
+      <c r="D83" s="168"/>
+      <c r="E83" s="168"/>
       <c r="F83" s="21"/>
     </row>
     <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="175" t="s">
+      <c r="A84" s="176" t="s">
         <v>28</v>
       </c>
-      <c r="B84" s="175"/>
-      <c r="C84" s="175"/>
-      <c r="D84" s="175"/>
-      <c r="E84" s="175"/>
-      <c r="F84" s="175"/>
+      <c r="B84" s="176"/>
+      <c r="C84" s="176"/>
+      <c r="D84" s="176"/>
+      <c r="E84" s="176"/>
+      <c r="F84" s="176"/>
     </row>
     <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A85" s="171" t="s">
+      <c r="A85" s="172" t="s">
         <v>29</v>
       </c>
-      <c r="B85" s="171"/>
-      <c r="C85" s="171"/>
-      <c r="D85" s="171"/>
-      <c r="E85" s="171"/>
-      <c r="F85" s="171"/>
+      <c r="B85" s="172"/>
+      <c r="C85" s="172"/>
+      <c r="D85" s="172"/>
+      <c r="E85" s="172"/>
+      <c r="F85" s="172"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="21"/>
@@ -11500,26 +14238,26 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="21"/>
-      <c r="B87" s="168"/>
-      <c r="C87" s="168"/>
-      <c r="D87" s="168"/>
-      <c r="E87" s="168"/>
+      <c r="B87" s="169"/>
+      <c r="C87" s="169"/>
+      <c r="D87" s="169"/>
+      <c r="E87" s="169"/>
       <c r="F87" s="21"/>
     </row>
     <row r="88" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A88" s="174" t="s">
+      <c r="A88" s="175" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="174"/>
-      <c r="C88" s="174"/>
-      <c r="D88" s="174"/>
-      <c r="E88" s="174"/>
-      <c r="F88" s="174"/>
+      <c r="B88" s="175"/>
+      <c r="C88" s="175"/>
+      <c r="D88" s="175"/>
+      <c r="E88" s="175"/>
+      <c r="F88" s="175"/>
     </row>
     <row r="90" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="165"/>
-      <c r="C90" s="166"/>
-      <c r="D90" s="166"/>
+      <c r="B90" s="166"/>
+      <c r="C90" s="167"/>
+      <c r="D90" s="167"/>
     </row>
     <row r="91" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
@@ -11730,14 +14468,14 @@
       <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="172" t="s">
+      <c r="A30" s="173" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="172"/>
-      <c r="C30" s="172"/>
-      <c r="D30" s="172"/>
-      <c r="E30" s="172"/>
-      <c r="F30" s="172"/>
+      <c r="B30" s="173"/>
+      <c r="C30" s="173"/>
+      <c r="D30" s="173"/>
+      <c r="E30" s="173"/>
+      <c r="F30" s="173"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="17"/>
@@ -11758,269 +14496,269 @@
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
-      <c r="B33" s="169"/>
-      <c r="C33" s="169"/>
-      <c r="D33" s="169"/>
+      <c r="B33" s="170"/>
+      <c r="C33" s="170"/>
+      <c r="D33" s="170"/>
       <c r="E33" s="28"/>
       <c r="F33" s="21"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="21"/>
-      <c r="B34" s="169" t="s">
+      <c r="B34" s="170" t="s">
         <v>73</v>
       </c>
-      <c r="C34" s="169"/>
-      <c r="D34" s="169"/>
+      <c r="C34" s="170"/>
+      <c r="D34" s="170"/>
       <c r="E34" s="28"/>
       <c r="F34" s="21"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
-      <c r="B35" s="169"/>
-      <c r="C35" s="169"/>
-      <c r="D35" s="169"/>
+      <c r="B35" s="170"/>
+      <c r="C35" s="170"/>
+      <c r="D35" s="170"/>
       <c r="E35" s="28"/>
       <c r="F35" s="21"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="21"/>
-      <c r="B36" s="169" t="s">
+      <c r="B36" s="170" t="s">
         <v>74</v>
       </c>
-      <c r="C36" s="169"/>
-      <c r="D36" s="169"/>
+      <c r="C36" s="170"/>
+      <c r="D36" s="170"/>
       <c r="E36" s="28"/>
       <c r="F36" s="21"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
-      <c r="B37" s="169"/>
-      <c r="C37" s="169"/>
-      <c r="D37" s="169"/>
+      <c r="B37" s="170"/>
+      <c r="C37" s="170"/>
+      <c r="D37" s="170"/>
       <c r="E37" s="28"/>
       <c r="F37" s="21"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="21"/>
-      <c r="B38" s="169" t="s">
+      <c r="B38" s="170" t="s">
         <v>75</v>
       </c>
-      <c r="C38" s="169"/>
-      <c r="D38" s="169"/>
+      <c r="C38" s="170"/>
+      <c r="D38" s="170"/>
       <c r="E38" s="28"/>
       <c r="F38" s="21"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="21"/>
-      <c r="B39" s="169"/>
-      <c r="C39" s="169"/>
-      <c r="D39" s="169"/>
+      <c r="B39" s="170"/>
+      <c r="C39" s="170"/>
+      <c r="D39" s="170"/>
       <c r="E39" s="28"/>
       <c r="F39" s="21"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="21"/>
-      <c r="B40" s="169" t="s">
+      <c r="B40" s="170" t="s">
         <v>76</v>
       </c>
-      <c r="C40" s="169"/>
-      <c r="D40" s="169"/>
+      <c r="C40" s="170"/>
+      <c r="D40" s="170"/>
       <c r="E40" s="28"/>
       <c r="F40" s="21"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="21"/>
-      <c r="B41" s="169"/>
-      <c r="C41" s="169"/>
-      <c r="D41" s="169"/>
+      <c r="B41" s="170"/>
+      <c r="C41" s="170"/>
+      <c r="D41" s="170"/>
       <c r="E41" s="28"/>
       <c r="F41" s="21"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="21"/>
-      <c r="B42" s="169" t="s">
+      <c r="B42" s="170" t="s">
         <v>38</v>
       </c>
-      <c r="C42" s="169"/>
-      <c r="D42" s="169"/>
+      <c r="C42" s="170"/>
+      <c r="D42" s="170"/>
       <c r="E42" s="28"/>
       <c r="F42" s="21"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="21"/>
-      <c r="B43" s="169"/>
-      <c r="C43" s="169"/>
-      <c r="D43" s="169"/>
+      <c r="B43" s="170"/>
+      <c r="C43" s="170"/>
+      <c r="D43" s="170"/>
       <c r="E43" s="28"/>
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
-      <c r="B44" s="169" t="s">
+      <c r="B44" s="170" t="s">
         <v>34</v>
       </c>
-      <c r="C44" s="169"/>
-      <c r="D44" s="169"/>
+      <c r="C44" s="170"/>
+      <c r="D44" s="170"/>
       <c r="E44" s="28"/>
       <c r="F44" s="21"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="21"/>
-      <c r="B45" s="169"/>
-      <c r="C45" s="169"/>
-      <c r="D45" s="169"/>
+      <c r="B45" s="170"/>
+      <c r="C45" s="170"/>
+      <c r="D45" s="170"/>
       <c r="E45" s="28"/>
       <c r="F45" s="21"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="21"/>
-      <c r="B46" s="169"/>
-      <c r="C46" s="169"/>
-      <c r="D46" s="169"/>
+      <c r="B46" s="170"/>
+      <c r="C46" s="170"/>
+      <c r="D46" s="170"/>
       <c r="E46" s="28"/>
       <c r="F46" s="21"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="21"/>
-      <c r="B47" s="169"/>
-      <c r="C47" s="169"/>
-      <c r="D47" s="169"/>
+      <c r="B47" s="170"/>
+      <c r="C47" s="170"/>
+      <c r="D47" s="170"/>
       <c r="E47" s="28"/>
       <c r="F47" s="21"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="21"/>
-      <c r="B48" s="169"/>
-      <c r="C48" s="169"/>
-      <c r="D48" s="169"/>
+      <c r="B48" s="170"/>
+      <c r="C48" s="170"/>
+      <c r="D48" s="170"/>
       <c r="E48" s="28"/>
       <c r="F48" s="21"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="21"/>
-      <c r="B49" s="169"/>
-      <c r="C49" s="169"/>
-      <c r="D49" s="169"/>
+      <c r="B49" s="170"/>
+      <c r="C49" s="170"/>
+      <c r="D49" s="170"/>
       <c r="E49" s="28"/>
       <c r="F49" s="21"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="21"/>
-      <c r="B50" s="169"/>
-      <c r="C50" s="169"/>
-      <c r="D50" s="169"/>
+      <c r="B50" s="170"/>
+      <c r="C50" s="170"/>
+      <c r="D50" s="170"/>
       <c r="E50" s="28"/>
       <c r="F50" s="21"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="21"/>
-      <c r="B51" s="169"/>
-      <c r="C51" s="169"/>
-      <c r="D51" s="169"/>
+      <c r="B51" s="170"/>
+      <c r="C51" s="170"/>
+      <c r="D51" s="170"/>
       <c r="E51" s="28"/>
       <c r="F51" s="21"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="21"/>
-      <c r="B52" s="169"/>
-      <c r="C52" s="169"/>
-      <c r="D52" s="169"/>
+      <c r="B52" s="170"/>
+      <c r="C52" s="170"/>
+      <c r="D52" s="170"/>
       <c r="E52" s="28"/>
       <c r="F52" s="21"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="21"/>
-      <c r="B53" s="169"/>
-      <c r="C53" s="169"/>
-      <c r="D53" s="169"/>
+      <c r="B53" s="170"/>
+      <c r="C53" s="170"/>
+      <c r="D53" s="170"/>
       <c r="E53" s="28"/>
       <c r="F53" s="21"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="21"/>
-      <c r="B54" s="169"/>
-      <c r="C54" s="169"/>
-      <c r="D54" s="169"/>
+      <c r="B54" s="170"/>
+      <c r="C54" s="170"/>
+      <c r="D54" s="170"/>
       <c r="E54" s="28"/>
       <c r="F54" s="21"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="21"/>
-      <c r="B55" s="169"/>
-      <c r="C55" s="169"/>
-      <c r="D55" s="169"/>
+      <c r="B55" s="170"/>
+      <c r="C55" s="170"/>
+      <c r="D55" s="170"/>
       <c r="E55" s="28"/>
       <c r="F55" s="21"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="21"/>
-      <c r="B56" s="169"/>
-      <c r="C56" s="169"/>
-      <c r="D56" s="169"/>
+      <c r="B56" s="170"/>
+      <c r="C56" s="170"/>
+      <c r="D56" s="170"/>
       <c r="E56" s="28"/>
       <c r="F56" s="21"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="21"/>
-      <c r="B57" s="169"/>
-      <c r="C57" s="169"/>
-      <c r="D57" s="169"/>
+      <c r="B57" s="170"/>
+      <c r="C57" s="170"/>
+      <c r="D57" s="170"/>
       <c r="E57" s="28"/>
       <c r="F57" s="21"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="21"/>
-      <c r="B58" s="169"/>
-      <c r="C58" s="169"/>
-      <c r="D58" s="169"/>
+      <c r="B58" s="170"/>
+      <c r="C58" s="170"/>
+      <c r="D58" s="170"/>
       <c r="E58" s="28"/>
       <c r="F58" s="21"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="21"/>
-      <c r="B59" s="169"/>
-      <c r="C59" s="169"/>
-      <c r="D59" s="169"/>
+      <c r="B59" s="170"/>
+      <c r="C59" s="170"/>
+      <c r="D59" s="170"/>
       <c r="E59" s="28"/>
       <c r="F59" s="21"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="21"/>
-      <c r="B60" s="169"/>
-      <c r="C60" s="169"/>
-      <c r="D60" s="169"/>
+      <c r="B60" s="170"/>
+      <c r="C60" s="170"/>
+      <c r="D60" s="170"/>
       <c r="E60" s="28"/>
       <c r="F60" s="21"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="21"/>
-      <c r="B61" s="169"/>
-      <c r="C61" s="169"/>
-      <c r="D61" s="169"/>
+      <c r="B61" s="170"/>
+      <c r="C61" s="170"/>
+      <c r="D61" s="170"/>
       <c r="E61" s="28"/>
       <c r="F61" s="21"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="21"/>
-      <c r="B62" s="169"/>
-      <c r="C62" s="169"/>
-      <c r="D62" s="169"/>
+      <c r="B62" s="170"/>
+      <c r="C62" s="170"/>
+      <c r="D62" s="170"/>
       <c r="E62" s="28"/>
       <c r="F62" s="21"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="21"/>
-      <c r="B63" s="169"/>
-      <c r="C63" s="169"/>
-      <c r="D63" s="169"/>
+      <c r="B63" s="170"/>
+      <c r="C63" s="170"/>
+      <c r="D63" s="170"/>
       <c r="E63" s="28"/>
       <c r="F63" s="21"/>
     </row>
     <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A64" s="21"/>
-      <c r="B64" s="169"/>
-      <c r="C64" s="169"/>
-      <c r="D64" s="169"/>
+      <c r="B64" s="170"/>
+      <c r="C64" s="170"/>
+      <c r="D64" s="170"/>
       <c r="E64" s="28"/>
       <c r="F64" s="21"/>
     </row>
@@ -12050,17 +14788,17 @@
     </row>
     <row r="67" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A67" s="21"/>
-      <c r="B67" s="169"/>
-      <c r="C67" s="169"/>
-      <c r="D67" s="169"/>
+      <c r="B67" s="170"/>
+      <c r="C67" s="170"/>
+      <c r="D67" s="170"/>
       <c r="E67" s="28"/>
       <c r="F67" s="21"/>
     </row>
     <row r="68" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="21"/>
-      <c r="B68" s="169"/>
-      <c r="C68" s="169"/>
-      <c r="D68" s="169"/>
+      <c r="B68" s="170"/>
+      <c r="C68" s="170"/>
+      <c r="D68" s="170"/>
       <c r="E68" s="28"/>
       <c r="F68" s="21"/>
     </row>
@@ -12167,19 +14905,19 @@
     </row>
     <row r="77" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A77" s="21"/>
-      <c r="B77" s="173"/>
-      <c r="C77" s="173"/>
-      <c r="D77" s="173"/>
+      <c r="B77" s="174"/>
+      <c r="C77" s="174"/>
+      <c r="D77" s="174"/>
       <c r="E77" s="36"/>
       <c r="F77" s="21"/>
     </row>
     <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="21"/>
-      <c r="B78" s="170" t="s">
+      <c r="B78" s="171" t="s">
         <v>17</v>
       </c>
-      <c r="C78" s="170"/>
-      <c r="D78" s="170"/>
+      <c r="C78" s="171"/>
+      <c r="D78" s="171"/>
       <c r="E78" s="36">
         <v>0</v>
       </c>
@@ -12187,9 +14925,9 @@
     </row>
     <row r="79" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="21"/>
-      <c r="B79" s="173"/>
-      <c r="C79" s="173"/>
-      <c r="D79" s="173"/>
+      <c r="B79" s="174"/>
+      <c r="C79" s="174"/>
+      <c r="D79" s="174"/>
       <c r="E79" s="36"/>
       <c r="F79" s="21"/>
     </row>
@@ -12224,31 +14962,31 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="21"/>
-      <c r="B83" s="167"/>
-      <c r="C83" s="167"/>
-      <c r="D83" s="167"/>
-      <c r="E83" s="167"/>
+      <c r="B83" s="168"/>
+      <c r="C83" s="168"/>
+      <c r="D83" s="168"/>
+      <c r="E83" s="168"/>
       <c r="F83" s="21"/>
     </row>
     <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="175" t="s">
+      <c r="A84" s="176" t="s">
         <v>28</v>
       </c>
-      <c r="B84" s="175"/>
-      <c r="C84" s="175"/>
-      <c r="D84" s="175"/>
-      <c r="E84" s="175"/>
-      <c r="F84" s="175"/>
+      <c r="B84" s="176"/>
+      <c r="C84" s="176"/>
+      <c r="D84" s="176"/>
+      <c r="E84" s="176"/>
+      <c r="F84" s="176"/>
     </row>
     <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A85" s="171" t="s">
+      <c r="A85" s="172" t="s">
         <v>29</v>
       </c>
-      <c r="B85" s="171"/>
-      <c r="C85" s="171"/>
-      <c r="D85" s="171"/>
-      <c r="E85" s="171"/>
-      <c r="F85" s="171"/>
+      <c r="B85" s="172"/>
+      <c r="C85" s="172"/>
+      <c r="D85" s="172"/>
+      <c r="E85" s="172"/>
+      <c r="F85" s="172"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="21"/>
@@ -12260,26 +14998,26 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="21"/>
-      <c r="B87" s="168"/>
-      <c r="C87" s="168"/>
-      <c r="D87" s="168"/>
-      <c r="E87" s="168"/>
+      <c r="B87" s="169"/>
+      <c r="C87" s="169"/>
+      <c r="D87" s="169"/>
+      <c r="E87" s="169"/>
       <c r="F87" s="21"/>
     </row>
     <row r="88" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A88" s="174" t="s">
+      <c r="A88" s="175" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="174"/>
-      <c r="C88" s="174"/>
-      <c r="D88" s="174"/>
-      <c r="E88" s="174"/>
-      <c r="F88" s="174"/>
+      <c r="B88" s="175"/>
+      <c r="C88" s="175"/>
+      <c r="D88" s="175"/>
+      <c r="E88" s="175"/>
+      <c r="F88" s="175"/>
     </row>
     <row r="90" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="165"/>
-      <c r="C90" s="166"/>
-      <c r="D90" s="166"/>
+      <c r="B90" s="166"/>
+      <c r="C90" s="167"/>
+      <c r="D90" s="167"/>
     </row>
     <row r="91" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
@@ -12490,14 +15228,14 @@
       <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="172" t="s">
+      <c r="A30" s="173" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="172"/>
-      <c r="C30" s="172"/>
-      <c r="D30" s="172"/>
-      <c r="E30" s="172"/>
-      <c r="F30" s="172"/>
+      <c r="B30" s="173"/>
+      <c r="C30" s="173"/>
+      <c r="D30" s="173"/>
+      <c r="E30" s="173"/>
+      <c r="F30" s="173"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="17"/>
@@ -12518,263 +15256,263 @@
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
-      <c r="B33" s="169"/>
-      <c r="C33" s="169"/>
-      <c r="D33" s="169"/>
+      <c r="B33" s="170"/>
+      <c r="C33" s="170"/>
+      <c r="D33" s="170"/>
       <c r="E33" s="28"/>
       <c r="F33" s="21"/>
     </row>
     <row r="34" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="21"/>
-      <c r="B34" s="169" t="s">
+      <c r="B34" s="170" t="s">
         <v>80</v>
       </c>
-      <c r="C34" s="169"/>
-      <c r="D34" s="169"/>
+      <c r="C34" s="170"/>
+      <c r="D34" s="170"/>
       <c r="E34" s="28"/>
       <c r="F34" s="21"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
-      <c r="B35" s="169"/>
-      <c r="C35" s="169"/>
-      <c r="D35" s="169"/>
+      <c r="B35" s="170"/>
+      <c r="C35" s="170"/>
+      <c r="D35" s="170"/>
       <c r="E35" s="28"/>
       <c r="F35" s="21"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="21"/>
-      <c r="B36" s="169" t="s">
+      <c r="B36" s="170" t="s">
         <v>79</v>
       </c>
-      <c r="C36" s="169"/>
-      <c r="D36" s="169"/>
+      <c r="C36" s="170"/>
+      <c r="D36" s="170"/>
       <c r="E36" s="28"/>
       <c r="F36" s="21"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
-      <c r="B37" s="169"/>
-      <c r="C37" s="169"/>
-      <c r="D37" s="169"/>
+      <c r="B37" s="170"/>
+      <c r="C37" s="170"/>
+      <c r="D37" s="170"/>
       <c r="E37" s="28"/>
       <c r="F37" s="21"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="21"/>
-      <c r="B38" s="169" t="s">
+      <c r="B38" s="170" t="s">
         <v>38</v>
       </c>
-      <c r="C38" s="169"/>
-      <c r="D38" s="169"/>
+      <c r="C38" s="170"/>
+      <c r="D38" s="170"/>
       <c r="E38" s="28"/>
       <c r="F38" s="21"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="21"/>
-      <c r="B39" s="169"/>
-      <c r="C39" s="169"/>
-      <c r="D39" s="169"/>
+      <c r="B39" s="170"/>
+      <c r="C39" s="170"/>
+      <c r="D39" s="170"/>
       <c r="E39" s="28"/>
       <c r="F39" s="21"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="21"/>
-      <c r="B40" s="169"/>
-      <c r="C40" s="169"/>
-      <c r="D40" s="169"/>
+      <c r="B40" s="170"/>
+      <c r="C40" s="170"/>
+      <c r="D40" s="170"/>
       <c r="E40" s="28"/>
       <c r="F40" s="21"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="21"/>
-      <c r="B41" s="169"/>
-      <c r="C41" s="169"/>
-      <c r="D41" s="169"/>
+      <c r="B41" s="170"/>
+      <c r="C41" s="170"/>
+      <c r="D41" s="170"/>
       <c r="E41" s="28"/>
       <c r="F41" s="21"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="21"/>
-      <c r="B42" s="169"/>
-      <c r="C42" s="169"/>
-      <c r="D42" s="169"/>
+      <c r="B42" s="170"/>
+      <c r="C42" s="170"/>
+      <c r="D42" s="170"/>
       <c r="E42" s="28"/>
       <c r="F42" s="21"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="21"/>
-      <c r="B43" s="169"/>
-      <c r="C43" s="169"/>
-      <c r="D43" s="169"/>
+      <c r="B43" s="170"/>
+      <c r="C43" s="170"/>
+      <c r="D43" s="170"/>
       <c r="E43" s="28"/>
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
-      <c r="B44" s="169"/>
-      <c r="C44" s="169"/>
-      <c r="D44" s="169"/>
+      <c r="B44" s="170"/>
+      <c r="C44" s="170"/>
+      <c r="D44" s="170"/>
       <c r="E44" s="28"/>
       <c r="F44" s="21"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="21"/>
-      <c r="B45" s="169"/>
-      <c r="C45" s="169"/>
-      <c r="D45" s="169"/>
+      <c r="B45" s="170"/>
+      <c r="C45" s="170"/>
+      <c r="D45" s="170"/>
       <c r="E45" s="28"/>
       <c r="F45" s="21"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="21"/>
-      <c r="B46" s="169"/>
-      <c r="C46" s="169"/>
-      <c r="D46" s="169"/>
+      <c r="B46" s="170"/>
+      <c r="C46" s="170"/>
+      <c r="D46" s="170"/>
       <c r="E46" s="28"/>
       <c r="F46" s="21"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="21"/>
-      <c r="B47" s="169"/>
-      <c r="C47" s="169"/>
-      <c r="D47" s="169"/>
+      <c r="B47" s="170"/>
+      <c r="C47" s="170"/>
+      <c r="D47" s="170"/>
       <c r="E47" s="28"/>
       <c r="F47" s="21"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="21"/>
-      <c r="B48" s="169"/>
-      <c r="C48" s="169"/>
-      <c r="D48" s="169"/>
+      <c r="B48" s="170"/>
+      <c r="C48" s="170"/>
+      <c r="D48" s="170"/>
       <c r="E48" s="28"/>
       <c r="F48" s="21"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="21"/>
-      <c r="B49" s="169"/>
-      <c r="C49" s="169"/>
-      <c r="D49" s="169"/>
+      <c r="B49" s="170"/>
+      <c r="C49" s="170"/>
+      <c r="D49" s="170"/>
       <c r="E49" s="28"/>
       <c r="F49" s="21"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="21"/>
-      <c r="B50" s="169"/>
-      <c r="C50" s="169"/>
-      <c r="D50" s="169"/>
+      <c r="B50" s="170"/>
+      <c r="C50" s="170"/>
+      <c r="D50" s="170"/>
       <c r="E50" s="28"/>
       <c r="F50" s="21"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="21"/>
-      <c r="B51" s="169"/>
-      <c r="C51" s="169"/>
-      <c r="D51" s="169"/>
+      <c r="B51" s="170"/>
+      <c r="C51" s="170"/>
+      <c r="D51" s="170"/>
       <c r="E51" s="28"/>
       <c r="F51" s="21"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="21"/>
-      <c r="B52" s="169"/>
-      <c r="C52" s="169"/>
-      <c r="D52" s="169"/>
+      <c r="B52" s="170"/>
+      <c r="C52" s="170"/>
+      <c r="D52" s="170"/>
       <c r="E52" s="28"/>
       <c r="F52" s="21"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="21"/>
-      <c r="B53" s="169"/>
-      <c r="C53" s="169"/>
-      <c r="D53" s="169"/>
+      <c r="B53" s="170"/>
+      <c r="C53" s="170"/>
+      <c r="D53" s="170"/>
       <c r="E53" s="28"/>
       <c r="F53" s="21"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="21"/>
-      <c r="B54" s="169"/>
-      <c r="C54" s="169"/>
-      <c r="D54" s="169"/>
+      <c r="B54" s="170"/>
+      <c r="C54" s="170"/>
+      <c r="D54" s="170"/>
       <c r="E54" s="28"/>
       <c r="F54" s="21"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="21"/>
-      <c r="B55" s="169"/>
-      <c r="C55" s="169"/>
-      <c r="D55" s="169"/>
+      <c r="B55" s="170"/>
+      <c r="C55" s="170"/>
+      <c r="D55" s="170"/>
       <c r="E55" s="28"/>
       <c r="F55" s="21"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="21"/>
-      <c r="B56" s="169"/>
-      <c r="C56" s="169"/>
-      <c r="D56" s="169"/>
+      <c r="B56" s="170"/>
+      <c r="C56" s="170"/>
+      <c r="D56" s="170"/>
       <c r="E56" s="28"/>
       <c r="F56" s="21"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="21"/>
-      <c r="B57" s="169"/>
-      <c r="C57" s="169"/>
-      <c r="D57" s="169"/>
+      <c r="B57" s="170"/>
+      <c r="C57" s="170"/>
+      <c r="D57" s="170"/>
       <c r="E57" s="28"/>
       <c r="F57" s="21"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="21"/>
-      <c r="B58" s="169"/>
-      <c r="C58" s="169"/>
-      <c r="D58" s="169"/>
+      <c r="B58" s="170"/>
+      <c r="C58" s="170"/>
+      <c r="D58" s="170"/>
       <c r="E58" s="28"/>
       <c r="F58" s="21"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="21"/>
-      <c r="B59" s="169"/>
-      <c r="C59" s="169"/>
-      <c r="D59" s="169"/>
+      <c r="B59" s="170"/>
+      <c r="C59" s="170"/>
+      <c r="D59" s="170"/>
       <c r="E59" s="28"/>
       <c r="F59" s="21"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="21"/>
-      <c r="B60" s="169"/>
-      <c r="C60" s="169"/>
-      <c r="D60" s="169"/>
+      <c r="B60" s="170"/>
+      <c r="C60" s="170"/>
+      <c r="D60" s="170"/>
       <c r="E60" s="28"/>
       <c r="F60" s="21"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="21"/>
-      <c r="B61" s="169"/>
-      <c r="C61" s="169"/>
-      <c r="D61" s="169"/>
+      <c r="B61" s="170"/>
+      <c r="C61" s="170"/>
+      <c r="D61" s="170"/>
       <c r="E61" s="28"/>
       <c r="F61" s="21"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="21"/>
-      <c r="B62" s="169"/>
-      <c r="C62" s="169"/>
-      <c r="D62" s="169"/>
+      <c r="B62" s="170"/>
+      <c r="C62" s="170"/>
+      <c r="D62" s="170"/>
       <c r="E62" s="28"/>
       <c r="F62" s="21"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="21"/>
-      <c r="B63" s="169"/>
-      <c r="C63" s="169"/>
-      <c r="D63" s="169"/>
+      <c r="B63" s="170"/>
+      <c r="C63" s="170"/>
+      <c r="D63" s="170"/>
       <c r="E63" s="28"/>
       <c r="F63" s="21"/>
     </row>
     <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A64" s="21"/>
-      <c r="B64" s="169"/>
-      <c r="C64" s="169"/>
-      <c r="D64" s="169"/>
+      <c r="B64" s="170"/>
+      <c r="C64" s="170"/>
+      <c r="D64" s="170"/>
       <c r="E64" s="28"/>
       <c r="F64" s="21"/>
     </row>
@@ -12804,17 +15542,17 @@
     </row>
     <row r="67" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A67" s="21"/>
-      <c r="B67" s="169"/>
-      <c r="C67" s="169"/>
-      <c r="D67" s="169"/>
+      <c r="B67" s="170"/>
+      <c r="C67" s="170"/>
+      <c r="D67" s="170"/>
       <c r="E67" s="28"/>
       <c r="F67" s="21"/>
     </row>
     <row r="68" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="21"/>
-      <c r="B68" s="169"/>
-      <c r="C68" s="169"/>
-      <c r="D68" s="169"/>
+      <c r="B68" s="170"/>
+      <c r="C68" s="170"/>
+      <c r="D68" s="170"/>
       <c r="E68" s="28"/>
       <c r="F68" s="21"/>
     </row>
@@ -12921,19 +15659,19 @@
     </row>
     <row r="77" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A77" s="21"/>
-      <c r="B77" s="173"/>
-      <c r="C77" s="173"/>
-      <c r="D77" s="173"/>
+      <c r="B77" s="174"/>
+      <c r="C77" s="174"/>
+      <c r="D77" s="174"/>
       <c r="E77" s="36"/>
       <c r="F77" s="21"/>
     </row>
     <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="21"/>
-      <c r="B78" s="170" t="s">
+      <c r="B78" s="171" t="s">
         <v>17</v>
       </c>
-      <c r="C78" s="170"/>
-      <c r="D78" s="170"/>
+      <c r="C78" s="171"/>
+      <c r="D78" s="171"/>
       <c r="E78" s="36">
         <v>0</v>
       </c>
@@ -12941,9 +15679,9 @@
     </row>
     <row r="79" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="21"/>
-      <c r="B79" s="173"/>
-      <c r="C79" s="173"/>
-      <c r="D79" s="173"/>
+      <c r="B79" s="174"/>
+      <c r="C79" s="174"/>
+      <c r="D79" s="174"/>
       <c r="E79" s="36"/>
       <c r="F79" s="21"/>
     </row>
@@ -12978,31 +15716,31 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="21"/>
-      <c r="B83" s="167"/>
-      <c r="C83" s="167"/>
-      <c r="D83" s="167"/>
-      <c r="E83" s="167"/>
+      <c r="B83" s="168"/>
+      <c r="C83" s="168"/>
+      <c r="D83" s="168"/>
+      <c r="E83" s="168"/>
       <c r="F83" s="21"/>
     </row>
     <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="175" t="s">
+      <c r="A84" s="176" t="s">
         <v>28</v>
       </c>
-      <c r="B84" s="175"/>
-      <c r="C84" s="175"/>
-      <c r="D84" s="175"/>
-      <c r="E84" s="175"/>
-      <c r="F84" s="175"/>
+      <c r="B84" s="176"/>
+      <c r="C84" s="176"/>
+      <c r="D84" s="176"/>
+      <c r="E84" s="176"/>
+      <c r="F84" s="176"/>
     </row>
     <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A85" s="171" t="s">
+      <c r="A85" s="172" t="s">
         <v>29</v>
       </c>
-      <c r="B85" s="171"/>
-      <c r="C85" s="171"/>
-      <c r="D85" s="171"/>
-      <c r="E85" s="171"/>
-      <c r="F85" s="171"/>
+      <c r="B85" s="172"/>
+      <c r="C85" s="172"/>
+      <c r="D85" s="172"/>
+      <c r="E85" s="172"/>
+      <c r="F85" s="172"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="21"/>
@@ -13014,26 +15752,26 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="21"/>
-      <c r="B87" s="168"/>
-      <c r="C87" s="168"/>
-      <c r="D87" s="168"/>
-      <c r="E87" s="168"/>
+      <c r="B87" s="169"/>
+      <c r="C87" s="169"/>
+      <c r="D87" s="169"/>
+      <c r="E87" s="169"/>
       <c r="F87" s="21"/>
     </row>
     <row r="88" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A88" s="174" t="s">
+      <c r="A88" s="175" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="174"/>
-      <c r="C88" s="174"/>
-      <c r="D88" s="174"/>
-      <c r="E88" s="174"/>
-      <c r="F88" s="174"/>
+      <c r="B88" s="175"/>
+      <c r="C88" s="175"/>
+      <c r="D88" s="175"/>
+      <c r="E88" s="175"/>
+      <c r="F88" s="175"/>
     </row>
     <row r="90" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="165"/>
-      <c r="C90" s="166"/>
-      <c r="D90" s="166"/>
+      <c r="B90" s="166"/>
+      <c r="C90" s="167"/>
+      <c r="D90" s="167"/>
     </row>
     <row r="91" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
@@ -13244,14 +15982,14 @@
       <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="172" t="s">
+      <c r="A30" s="173" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="172"/>
-      <c r="C30" s="172"/>
-      <c r="D30" s="172"/>
-      <c r="E30" s="172"/>
-      <c r="F30" s="172"/>
+      <c r="B30" s="173"/>
+      <c r="C30" s="173"/>
+      <c r="D30" s="173"/>
+      <c r="E30" s="173"/>
+      <c r="F30" s="173"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="17"/>
@@ -13272,273 +16010,273 @@
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
-      <c r="B33" s="169"/>
-      <c r="C33" s="169"/>
-      <c r="D33" s="169"/>
+      <c r="B33" s="170"/>
+      <c r="C33" s="170"/>
+      <c r="D33" s="170"/>
       <c r="E33" s="28"/>
       <c r="F33" s="21"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="21"/>
-      <c r="B34" s="169" t="s">
+      <c r="B34" s="170" t="s">
         <v>83</v>
       </c>
-      <c r="C34" s="169"/>
-      <c r="D34" s="169"/>
+      <c r="C34" s="170"/>
+      <c r="D34" s="170"/>
       <c r="E34" s="28"/>
       <c r="F34" s="21"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
-      <c r="B35" s="169"/>
-      <c r="C35" s="169"/>
-      <c r="D35" s="169"/>
+      <c r="B35" s="170"/>
+      <c r="C35" s="170"/>
+      <c r="D35" s="170"/>
       <c r="E35" s="28"/>
       <c r="F35" s="21"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="21"/>
-      <c r="B36" s="169" t="s">
+      <c r="B36" s="170" t="s">
         <v>84</v>
       </c>
-      <c r="C36" s="169"/>
-      <c r="D36" s="169"/>
+      <c r="C36" s="170"/>
+      <c r="D36" s="170"/>
       <c r="E36" s="28"/>
       <c r="F36" s="21"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
-      <c r="B37" s="169"/>
-      <c r="C37" s="169"/>
-      <c r="D37" s="169"/>
+      <c r="B37" s="170"/>
+      <c r="C37" s="170"/>
+      <c r="D37" s="170"/>
       <c r="E37" s="28"/>
       <c r="F37" s="21"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="21"/>
-      <c r="B38" s="169" t="s">
+      <c r="B38" s="170" t="s">
         <v>38</v>
       </c>
-      <c r="C38" s="169"/>
-      <c r="D38" s="169"/>
+      <c r="C38" s="170"/>
+      <c r="D38" s="170"/>
       <c r="E38" s="28"/>
       <c r="F38" s="21"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="21"/>
-      <c r="B39" s="169"/>
-      <c r="C39" s="169"/>
-      <c r="D39" s="169"/>
+      <c r="B39" s="170"/>
+      <c r="C39" s="170"/>
+      <c r="D39" s="170"/>
       <c r="E39" s="28"/>
       <c r="F39" s="21"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="21"/>
-      <c r="B40" s="169" t="s">
+      <c r="B40" s="170" t="s">
         <v>85</v>
       </c>
-      <c r="C40" s="169"/>
-      <c r="D40" s="169"/>
+      <c r="C40" s="170"/>
+      <c r="D40" s="170"/>
       <c r="E40" s="28"/>
       <c r="F40" s="21"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="21"/>
-      <c r="B41" s="169"/>
-      <c r="C41" s="169"/>
-      <c r="D41" s="169"/>
+      <c r="B41" s="170"/>
+      <c r="C41" s="170"/>
+      <c r="D41" s="170"/>
       <c r="E41" s="28"/>
       <c r="F41" s="21"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="21"/>
-      <c r="B42" s="169"/>
-      <c r="C42" s="169"/>
-      <c r="D42" s="169"/>
+      <c r="B42" s="170"/>
+      <c r="C42" s="170"/>
+      <c r="D42" s="170"/>
       <c r="E42" s="28"/>
       <c r="F42" s="21"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="21"/>
-      <c r="B43" s="169"/>
-      <c r="C43" s="169"/>
-      <c r="D43" s="169"/>
+      <c r="B43" s="170"/>
+      <c r="C43" s="170"/>
+      <c r="D43" s="170"/>
       <c r="E43" s="28"/>
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
-      <c r="B44" s="169"/>
-      <c r="C44" s="169"/>
-      <c r="D44" s="169"/>
+      <c r="B44" s="170"/>
+      <c r="C44" s="170"/>
+      <c r="D44" s="170"/>
       <c r="E44" s="28"/>
       <c r="F44" s="21"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="21"/>
-      <c r="B45" s="169"/>
-      <c r="C45" s="169"/>
-      <c r="D45" s="169"/>
+      <c r="B45" s="170"/>
+      <c r="C45" s="170"/>
+      <c r="D45" s="170"/>
       <c r="E45" s="28"/>
       <c r="F45" s="21"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="21"/>
-      <c r="B46" s="169"/>
-      <c r="C46" s="169"/>
-      <c r="D46" s="169"/>
+      <c r="B46" s="170"/>
+      <c r="C46" s="170"/>
+      <c r="D46" s="170"/>
       <c r="E46" s="28"/>
       <c r="F46" s="21"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="21"/>
-      <c r="B47" s="169"/>
-      <c r="C47" s="169"/>
-      <c r="D47" s="169"/>
+      <c r="B47" s="170"/>
+      <c r="C47" s="170"/>
+      <c r="D47" s="170"/>
       <c r="E47" s="28"/>
       <c r="F47" s="21"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="21"/>
-      <c r="B48" s="169"/>
-      <c r="C48" s="169"/>
-      <c r="D48" s="169"/>
+      <c r="B48" s="170"/>
+      <c r="C48" s="170"/>
+      <c r="D48" s="170"/>
       <c r="E48" s="28"/>
       <c r="F48" s="21"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="21"/>
-      <c r="B49" s="169"/>
-      <c r="C49" s="169"/>
-      <c r="D49" s="169"/>
+      <c r="B49" s="170"/>
+      <c r="C49" s="170"/>
+      <c r="D49" s="170"/>
       <c r="E49" s="28"/>
       <c r="F49" s="21"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="21"/>
-      <c r="B50" s="169"/>
-      <c r="C50" s="169"/>
-      <c r="D50" s="169"/>
+      <c r="B50" s="170"/>
+      <c r="C50" s="170"/>
+      <c r="D50" s="170"/>
       <c r="E50" s="28"/>
       <c r="F50" s="21"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="21"/>
-      <c r="B51" s="169"/>
-      <c r="C51" s="169"/>
-      <c r="D51" s="169"/>
+      <c r="B51" s="170"/>
+      <c r="C51" s="170"/>
+      <c r="D51" s="170"/>
       <c r="E51" s="28"/>
       <c r="F51" s="21"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="21"/>
-      <c r="B52" s="169"/>
-      <c r="C52" s="169"/>
-      <c r="D52" s="169"/>
+      <c r="B52" s="170"/>
+      <c r="C52" s="170"/>
+      <c r="D52" s="170"/>
       <c r="E52" s="28"/>
       <c r="F52" s="21"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="21"/>
-      <c r="B53" s="169"/>
-      <c r="C53" s="169"/>
-      <c r="D53" s="169"/>
+      <c r="B53" s="170"/>
+      <c r="C53" s="170"/>
+      <c r="D53" s="170"/>
       <c r="E53" s="28"/>
       <c r="F53" s="21"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="21"/>
-      <c r="B54" s="169"/>
-      <c r="C54" s="169"/>
-      <c r="D54" s="169"/>
+      <c r="B54" s="170"/>
+      <c r="C54" s="170"/>
+      <c r="D54" s="170"/>
       <c r="E54" s="28"/>
       <c r="F54" s="21"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="21"/>
-      <c r="B55" s="169"/>
-      <c r="C55" s="169"/>
-      <c r="D55" s="169"/>
+      <c r="B55" s="170"/>
+      <c r="C55" s="170"/>
+      <c r="D55" s="170"/>
       <c r="E55" s="28"/>
       <c r="F55" s="21"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="21"/>
-      <c r="B56" s="169"/>
-      <c r="C56" s="169"/>
-      <c r="D56" s="169"/>
+      <c r="B56" s="170"/>
+      <c r="C56" s="170"/>
+      <c r="D56" s="170"/>
       <c r="E56" s="28"/>
       <c r="F56" s="21"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="21"/>
-      <c r="B57" s="169"/>
-      <c r="C57" s="169"/>
-      <c r="D57" s="169"/>
+      <c r="B57" s="170"/>
+      <c r="C57" s="170"/>
+      <c r="D57" s="170"/>
       <c r="E57" s="28"/>
       <c r="F57" s="21"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="21"/>
-      <c r="B58" s="169"/>
-      <c r="C58" s="169"/>
-      <c r="D58" s="169"/>
+      <c r="B58" s="170"/>
+      <c r="C58" s="170"/>
+      <c r="D58" s="170"/>
       <c r="E58" s="28"/>
       <c r="F58" s="21"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="21"/>
-      <c r="B59" s="169"/>
-      <c r="C59" s="169"/>
-      <c r="D59" s="169"/>
+      <c r="B59" s="170"/>
+      <c r="C59" s="170"/>
+      <c r="D59" s="170"/>
       <c r="E59" s="28"/>
       <c r="F59" s="21"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="21"/>
-      <c r="B60" s="169"/>
-      <c r="C60" s="169"/>
-      <c r="D60" s="169"/>
+      <c r="B60" s="170"/>
+      <c r="C60" s="170"/>
+      <c r="D60" s="170"/>
       <c r="E60" s="28"/>
       <c r="F60" s="21"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="21"/>
-      <c r="B61" s="169"/>
-      <c r="C61" s="169"/>
-      <c r="D61" s="169"/>
+      <c r="B61" s="170"/>
+      <c r="C61" s="170"/>
+      <c r="D61" s="170"/>
       <c r="E61" s="28"/>
       <c r="F61" s="21"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="21"/>
-      <c r="B62" s="169"/>
-      <c r="C62" s="169"/>
-      <c r="D62" s="169"/>
+      <c r="B62" s="170"/>
+      <c r="C62" s="170"/>
+      <c r="D62" s="170"/>
       <c r="E62" s="28"/>
       <c r="F62" s="21"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="21"/>
-      <c r="B63" s="169"/>
-      <c r="C63" s="169"/>
-      <c r="D63" s="169"/>
+      <c r="B63" s="170"/>
+      <c r="C63" s="170"/>
+      <c r="D63" s="170"/>
       <c r="E63" s="28"/>
       <c r="F63" s="21"/>
     </row>
     <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A64" s="21"/>
-      <c r="B64" s="169"/>
-      <c r="C64" s="169"/>
-      <c r="D64" s="169"/>
+      <c r="B64" s="170"/>
+      <c r="C64" s="170"/>
+      <c r="D64" s="170"/>
       <c r="E64" s="28"/>
       <c r="F64" s="21"/>
     </row>
     <row r="65" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A65" s="21"/>
-      <c r="B65" s="169"/>
-      <c r="C65" s="169"/>
-      <c r="D65" s="169"/>
+      <c r="B65" s="170"/>
+      <c r="C65" s="170"/>
+      <c r="D65" s="170"/>
       <c r="E65" s="28"/>
       <c r="F65" s="21"/>
     </row>
@@ -13568,17 +16306,17 @@
     </row>
     <row r="68" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A68" s="21"/>
-      <c r="B68" s="169"/>
-      <c r="C68" s="169"/>
-      <c r="D68" s="169"/>
+      <c r="B68" s="170"/>
+      <c r="C68" s="170"/>
+      <c r="D68" s="170"/>
       <c r="E68" s="28"/>
       <c r="F68" s="21"/>
     </row>
     <row r="69" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="21"/>
-      <c r="B69" s="169"/>
-      <c r="C69" s="169"/>
-      <c r="D69" s="169"/>
+      <c r="B69" s="170"/>
+      <c r="C69" s="170"/>
+      <c r="D69" s="170"/>
       <c r="E69" s="28"/>
       <c r="F69" s="21"/>
     </row>
@@ -13685,19 +16423,19 @@
     </row>
     <row r="78" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A78" s="21"/>
-      <c r="B78" s="173"/>
-      <c r="C78" s="173"/>
-      <c r="D78" s="173"/>
+      <c r="B78" s="174"/>
+      <c r="C78" s="174"/>
+      <c r="D78" s="174"/>
       <c r="E78" s="36"/>
       <c r="F78" s="21"/>
     </row>
     <row r="79" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="21"/>
-      <c r="B79" s="170" t="s">
+      <c r="B79" s="171" t="s">
         <v>17</v>
       </c>
-      <c r="C79" s="170"/>
-      <c r="D79" s="170"/>
+      <c r="C79" s="171"/>
+      <c r="D79" s="171"/>
       <c r="E79" s="36">
         <v>0</v>
       </c>
@@ -13705,9 +16443,9 @@
     </row>
     <row r="80" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A80" s="21"/>
-      <c r="B80" s="173"/>
-      <c r="C80" s="173"/>
-      <c r="D80" s="173"/>
+      <c r="B80" s="174"/>
+      <c r="C80" s="174"/>
+      <c r="D80" s="174"/>
       <c r="E80" s="36"/>
       <c r="F80" s="21"/>
     </row>
@@ -13742,31 +16480,31 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" s="21"/>
-      <c r="B84" s="167"/>
-      <c r="C84" s="167"/>
-      <c r="D84" s="167"/>
-      <c r="E84" s="167"/>
+      <c r="B84" s="168"/>
+      <c r="C84" s="168"/>
+      <c r="D84" s="168"/>
+      <c r="E84" s="168"/>
       <c r="F84" s="21"/>
     </row>
     <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A85" s="175" t="s">
+      <c r="A85" s="176" t="s">
         <v>28</v>
       </c>
-      <c r="B85" s="175"/>
-      <c r="C85" s="175"/>
-      <c r="D85" s="175"/>
-      <c r="E85" s="175"/>
-      <c r="F85" s="175"/>
+      <c r="B85" s="176"/>
+      <c r="C85" s="176"/>
+      <c r="D85" s="176"/>
+      <c r="E85" s="176"/>
+      <c r="F85" s="176"/>
     </row>
     <row r="86" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A86" s="171" t="s">
+      <c r="A86" s="172" t="s">
         <v>29</v>
       </c>
-      <c r="B86" s="171"/>
-      <c r="C86" s="171"/>
-      <c r="D86" s="171"/>
-      <c r="E86" s="171"/>
-      <c r="F86" s="171"/>
+      <c r="B86" s="172"/>
+      <c r="C86" s="172"/>
+      <c r="D86" s="172"/>
+      <c r="E86" s="172"/>
+      <c r="F86" s="172"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="21"/>
@@ -13778,26 +16516,26 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" s="21"/>
-      <c r="B88" s="168"/>
-      <c r="C88" s="168"/>
-      <c r="D88" s="168"/>
-      <c r="E88" s="168"/>
+      <c r="B88" s="169"/>
+      <c r="C88" s="169"/>
+      <c r="D88" s="169"/>
+      <c r="E88" s="169"/>
       <c r="F88" s="21"/>
     </row>
     <row r="89" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A89" s="174" t="s">
+      <c r="A89" s="175" t="s">
         <v>7</v>
       </c>
-      <c r="B89" s="174"/>
-      <c r="C89" s="174"/>
-      <c r="D89" s="174"/>
-      <c r="E89" s="174"/>
-      <c r="F89" s="174"/>
+      <c r="B89" s="175"/>
+      <c r="C89" s="175"/>
+      <c r="D89" s="175"/>
+      <c r="E89" s="175"/>
+      <c r="F89" s="175"/>
     </row>
     <row r="91" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B91" s="165"/>
-      <c r="C91" s="166"/>
-      <c r="D91" s="166"/>
+      <c r="B91" s="166"/>
+      <c r="C91" s="167"/>
+      <c r="D91" s="167"/>
     </row>
     <row r="92" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
@@ -14009,14 +16747,14 @@
       <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="172" t="s">
+      <c r="A30" s="173" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="172"/>
-      <c r="C30" s="172"/>
-      <c r="D30" s="172"/>
-      <c r="E30" s="172"/>
-      <c r="F30" s="172"/>
+      <c r="B30" s="173"/>
+      <c r="C30" s="173"/>
+      <c r="D30" s="173"/>
+      <c r="E30" s="173"/>
+      <c r="F30" s="173"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="17"/>
@@ -14037,275 +16775,275 @@
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
-      <c r="B33" s="169"/>
-      <c r="C33" s="169"/>
-      <c r="D33" s="169"/>
+      <c r="B33" s="170"/>
+      <c r="C33" s="170"/>
+      <c r="D33" s="170"/>
       <c r="E33" s="28"/>
       <c r="F33" s="21"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="21"/>
-      <c r="B34" s="169" t="s">
+      <c r="B34" s="170" t="s">
         <v>88</v>
       </c>
-      <c r="C34" s="169"/>
-      <c r="D34" s="169"/>
+      <c r="C34" s="170"/>
+      <c r="D34" s="170"/>
       <c r="E34" s="28"/>
       <c r="F34" s="21"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
-      <c r="B35" s="169"/>
-      <c r="C35" s="169"/>
-      <c r="D35" s="169"/>
+      <c r="B35" s="170"/>
+      <c r="C35" s="170"/>
+      <c r="D35" s="170"/>
       <c r="E35" s="28"/>
       <c r="F35" s="21"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="21"/>
-      <c r="B36" s="169" t="s">
+      <c r="B36" s="170" t="s">
         <v>89</v>
       </c>
-      <c r="C36" s="169"/>
-      <c r="D36" s="169"/>
+      <c r="C36" s="170"/>
+      <c r="D36" s="170"/>
       <c r="E36" s="28"/>
       <c r="F36" s="21"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
-      <c r="B37" s="169"/>
-      <c r="C37" s="169"/>
-      <c r="D37" s="169"/>
+      <c r="B37" s="170"/>
+      <c r="C37" s="170"/>
+      <c r="D37" s="170"/>
       <c r="E37" s="28"/>
       <c r="F37" s="21"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="21"/>
-      <c r="B38" s="169" t="s">
+      <c r="B38" s="170" t="s">
         <v>90</v>
       </c>
-      <c r="C38" s="169"/>
-      <c r="D38" s="169"/>
+      <c r="C38" s="170"/>
+      <c r="D38" s="170"/>
       <c r="E38" s="28"/>
       <c r="F38" s="21"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="21"/>
-      <c r="B39" s="169"/>
-      <c r="C39" s="169"/>
-      <c r="D39" s="169"/>
+      <c r="B39" s="170"/>
+      <c r="C39" s="170"/>
+      <c r="D39" s="170"/>
       <c r="E39" s="28"/>
       <c r="F39" s="21"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="21"/>
-      <c r="B40" s="169" t="s">
+      <c r="B40" s="170" t="s">
         <v>91</v>
       </c>
-      <c r="C40" s="169"/>
-      <c r="D40" s="169"/>
+      <c r="C40" s="170"/>
+      <c r="D40" s="170"/>
       <c r="E40" s="28"/>
       <c r="F40" s="21"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="21"/>
-      <c r="B41" s="169"/>
-      <c r="C41" s="169"/>
-      <c r="D41" s="169"/>
+      <c r="B41" s="170"/>
+      <c r="C41" s="170"/>
+      <c r="D41" s="170"/>
       <c r="E41" s="28"/>
       <c r="F41" s="21"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="21"/>
-      <c r="B42" s="169" t="s">
+      <c r="B42" s="170" t="s">
         <v>38</v>
       </c>
-      <c r="C42" s="169"/>
-      <c r="D42" s="169"/>
+      <c r="C42" s="170"/>
+      <c r="D42" s="170"/>
       <c r="E42" s="28"/>
       <c r="F42" s="21"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="21"/>
-      <c r="B43" s="169"/>
-      <c r="C43" s="169"/>
-      <c r="D43" s="169"/>
+      <c r="B43" s="170"/>
+      <c r="C43" s="170"/>
+      <c r="D43" s="170"/>
       <c r="E43" s="28"/>
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
-      <c r="B44" s="169"/>
-      <c r="C44" s="169"/>
-      <c r="D44" s="169"/>
+      <c r="B44" s="170"/>
+      <c r="C44" s="170"/>
+      <c r="D44" s="170"/>
       <c r="E44" s="28"/>
       <c r="F44" s="21"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="21"/>
-      <c r="B45" s="169"/>
-      <c r="C45" s="169"/>
-      <c r="D45" s="169"/>
+      <c r="B45" s="170"/>
+      <c r="C45" s="170"/>
+      <c r="D45" s="170"/>
       <c r="E45" s="28"/>
       <c r="F45" s="21"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="21"/>
-      <c r="B46" s="169"/>
-      <c r="C46" s="169"/>
-      <c r="D46" s="169"/>
+      <c r="B46" s="170"/>
+      <c r="C46" s="170"/>
+      <c r="D46" s="170"/>
       <c r="E46" s="28"/>
       <c r="F46" s="21"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="21"/>
-      <c r="B47" s="169"/>
-      <c r="C47" s="169"/>
-      <c r="D47" s="169"/>
+      <c r="B47" s="170"/>
+      <c r="C47" s="170"/>
+      <c r="D47" s="170"/>
       <c r="E47" s="28"/>
       <c r="F47" s="21"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="21"/>
-      <c r="B48" s="169"/>
-      <c r="C48" s="169"/>
-      <c r="D48" s="169"/>
+      <c r="B48" s="170"/>
+      <c r="C48" s="170"/>
+      <c r="D48" s="170"/>
       <c r="E48" s="28"/>
       <c r="F48" s="21"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="21"/>
-      <c r="B49" s="169"/>
-      <c r="C49" s="169"/>
-      <c r="D49" s="169"/>
+      <c r="B49" s="170"/>
+      <c r="C49" s="170"/>
+      <c r="D49" s="170"/>
       <c r="E49" s="28"/>
       <c r="F49" s="21"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="21"/>
-      <c r="B50" s="169"/>
-      <c r="C50" s="169"/>
-      <c r="D50" s="169"/>
+      <c r="B50" s="170"/>
+      <c r="C50" s="170"/>
+      <c r="D50" s="170"/>
       <c r="E50" s="28"/>
       <c r="F50" s="21"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="21"/>
-      <c r="B51" s="169"/>
-      <c r="C51" s="169"/>
-      <c r="D51" s="169"/>
+      <c r="B51" s="170"/>
+      <c r="C51" s="170"/>
+      <c r="D51" s="170"/>
       <c r="E51" s="28"/>
       <c r="F51" s="21"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="21"/>
-      <c r="B52" s="169"/>
-      <c r="C52" s="169"/>
-      <c r="D52" s="169"/>
+      <c r="B52" s="170"/>
+      <c r="C52" s="170"/>
+      <c r="D52" s="170"/>
       <c r="E52" s="28"/>
       <c r="F52" s="21"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="21"/>
-      <c r="B53" s="169"/>
-      <c r="C53" s="169"/>
-      <c r="D53" s="169"/>
+      <c r="B53" s="170"/>
+      <c r="C53" s="170"/>
+      <c r="D53" s="170"/>
       <c r="E53" s="28"/>
       <c r="F53" s="21"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="21"/>
-      <c r="B54" s="169"/>
-      <c r="C54" s="169"/>
-      <c r="D54" s="169"/>
+      <c r="B54" s="170"/>
+      <c r="C54" s="170"/>
+      <c r="D54" s="170"/>
       <c r="E54" s="28"/>
       <c r="F54" s="21"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="21"/>
-      <c r="B55" s="169"/>
-      <c r="C55" s="169"/>
-      <c r="D55" s="169"/>
+      <c r="B55" s="170"/>
+      <c r="C55" s="170"/>
+      <c r="D55" s="170"/>
       <c r="E55" s="28"/>
       <c r="F55" s="21"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="21"/>
-      <c r="B56" s="169"/>
-      <c r="C56" s="169"/>
-      <c r="D56" s="169"/>
+      <c r="B56" s="170"/>
+      <c r="C56" s="170"/>
+      <c r="D56" s="170"/>
       <c r="E56" s="28"/>
       <c r="F56" s="21"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="21"/>
-      <c r="B57" s="169"/>
-      <c r="C57" s="169"/>
-      <c r="D57" s="169"/>
+      <c r="B57" s="170"/>
+      <c r="C57" s="170"/>
+      <c r="D57" s="170"/>
       <c r="E57" s="28"/>
       <c r="F57" s="21"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="21"/>
-      <c r="B58" s="169"/>
-      <c r="C58" s="169"/>
-      <c r="D58" s="169"/>
+      <c r="B58" s="170"/>
+      <c r="C58" s="170"/>
+      <c r="D58" s="170"/>
       <c r="E58" s="28"/>
       <c r="F58" s="21"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="21"/>
-      <c r="B59" s="169"/>
-      <c r="C59" s="169"/>
-      <c r="D59" s="169"/>
+      <c r="B59" s="170"/>
+      <c r="C59" s="170"/>
+      <c r="D59" s="170"/>
       <c r="E59" s="28"/>
       <c r="F59" s="21"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="21"/>
-      <c r="B60" s="169"/>
-      <c r="C60" s="169"/>
-      <c r="D60" s="169"/>
+      <c r="B60" s="170"/>
+      <c r="C60" s="170"/>
+      <c r="D60" s="170"/>
       <c r="E60" s="28"/>
       <c r="F60" s="21"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="21"/>
-      <c r="B61" s="169"/>
-      <c r="C61" s="169"/>
-      <c r="D61" s="169"/>
+      <c r="B61" s="170"/>
+      <c r="C61" s="170"/>
+      <c r="D61" s="170"/>
       <c r="E61" s="28"/>
       <c r="F61" s="21"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="21"/>
-      <c r="B62" s="169"/>
-      <c r="C62" s="169"/>
-      <c r="D62" s="169"/>
+      <c r="B62" s="170"/>
+      <c r="C62" s="170"/>
+      <c r="D62" s="170"/>
       <c r="E62" s="28"/>
       <c r="F62" s="21"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="21"/>
-      <c r="B63" s="169"/>
-      <c r="C63" s="169"/>
-      <c r="D63" s="169"/>
+      <c r="B63" s="170"/>
+      <c r="C63" s="170"/>
+      <c r="D63" s="170"/>
       <c r="E63" s="28"/>
       <c r="F63" s="21"/>
     </row>
     <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A64" s="21"/>
-      <c r="B64" s="169"/>
-      <c r="C64" s="169"/>
-      <c r="D64" s="169"/>
+      <c r="B64" s="170"/>
+      <c r="C64" s="170"/>
+      <c r="D64" s="170"/>
       <c r="E64" s="28"/>
       <c r="F64" s="21"/>
     </row>
     <row r="65" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A65" s="21"/>
-      <c r="B65" s="169"/>
-      <c r="C65" s="169"/>
-      <c r="D65" s="169"/>
+      <c r="B65" s="170"/>
+      <c r="C65" s="170"/>
+      <c r="D65" s="170"/>
       <c r="E65" s="28"/>
       <c r="F65" s="21"/>
     </row>
@@ -14335,17 +17073,17 @@
     </row>
     <row r="68" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A68" s="21"/>
-      <c r="B68" s="169"/>
-      <c r="C68" s="169"/>
-      <c r="D68" s="169"/>
+      <c r="B68" s="170"/>
+      <c r="C68" s="170"/>
+      <c r="D68" s="170"/>
       <c r="E68" s="28"/>
       <c r="F68" s="21"/>
     </row>
     <row r="69" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="21"/>
-      <c r="B69" s="169"/>
-      <c r="C69" s="169"/>
-      <c r="D69" s="169"/>
+      <c r="B69" s="170"/>
+      <c r="C69" s="170"/>
+      <c r="D69" s="170"/>
       <c r="E69" s="28"/>
       <c r="F69" s="21"/>
     </row>
@@ -14452,19 +17190,19 @@
     </row>
     <row r="78" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A78" s="21"/>
-      <c r="B78" s="173"/>
-      <c r="C78" s="173"/>
-      <c r="D78" s="173"/>
+      <c r="B78" s="174"/>
+      <c r="C78" s="174"/>
+      <c r="D78" s="174"/>
       <c r="E78" s="36"/>
       <c r="F78" s="21"/>
     </row>
     <row r="79" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="21"/>
-      <c r="B79" s="170" t="s">
+      <c r="B79" s="171" t="s">
         <v>17</v>
       </c>
-      <c r="C79" s="170"/>
-      <c r="D79" s="170"/>
+      <c r="C79" s="171"/>
+      <c r="D79" s="171"/>
       <c r="E79" s="36">
         <v>0</v>
       </c>
@@ -14472,9 +17210,9 @@
     </row>
     <row r="80" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A80" s="21"/>
-      <c r="B80" s="173"/>
-      <c r="C80" s="173"/>
-      <c r="D80" s="173"/>
+      <c r="B80" s="174"/>
+      <c r="C80" s="174"/>
+      <c r="D80" s="174"/>
       <c r="E80" s="36"/>
       <c r="F80" s="21"/>
     </row>
@@ -14509,31 +17247,31 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" s="21"/>
-      <c r="B84" s="167"/>
-      <c r="C84" s="167"/>
-      <c r="D84" s="167"/>
-      <c r="E84" s="167"/>
+      <c r="B84" s="168"/>
+      <c r="C84" s="168"/>
+      <c r="D84" s="168"/>
+      <c r="E84" s="168"/>
       <c r="F84" s="21"/>
     </row>
     <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A85" s="175" t="s">
+      <c r="A85" s="176" t="s">
         <v>28</v>
       </c>
-      <c r="B85" s="175"/>
-      <c r="C85" s="175"/>
-      <c r="D85" s="175"/>
-      <c r="E85" s="175"/>
-      <c r="F85" s="175"/>
+      <c r="B85" s="176"/>
+      <c r="C85" s="176"/>
+      <c r="D85" s="176"/>
+      <c r="E85" s="176"/>
+      <c r="F85" s="176"/>
     </row>
     <row r="86" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A86" s="171" t="s">
+      <c r="A86" s="172" t="s">
         <v>29</v>
       </c>
-      <c r="B86" s="171"/>
-      <c r="C86" s="171"/>
-      <c r="D86" s="171"/>
-      <c r="E86" s="171"/>
-      <c r="F86" s="171"/>
+      <c r="B86" s="172"/>
+      <c r="C86" s="172"/>
+      <c r="D86" s="172"/>
+      <c r="E86" s="172"/>
+      <c r="F86" s="172"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="21"/>
@@ -14545,26 +17283,26 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" s="21"/>
-      <c r="B88" s="168"/>
-      <c r="C88" s="168"/>
-      <c r="D88" s="168"/>
-      <c r="E88" s="168"/>
+      <c r="B88" s="169"/>
+      <c r="C88" s="169"/>
+      <c r="D88" s="169"/>
+      <c r="E88" s="169"/>
       <c r="F88" s="21"/>
     </row>
     <row r="89" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A89" s="174" t="s">
+      <c r="A89" s="175" t="s">
         <v>7</v>
       </c>
-      <c r="B89" s="174"/>
-      <c r="C89" s="174"/>
-      <c r="D89" s="174"/>
-      <c r="E89" s="174"/>
-      <c r="F89" s="174"/>
+      <c r="B89" s="175"/>
+      <c r="C89" s="175"/>
+      <c r="D89" s="175"/>
+      <c r="E89" s="175"/>
+      <c r="F89" s="175"/>
     </row>
     <row r="91" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B91" s="165"/>
-      <c r="C91" s="166"/>
-      <c r="D91" s="166"/>
+      <c r="B91" s="166"/>
+      <c r="C91" s="167"/>
+      <c r="D91" s="167"/>
     </row>
     <row r="92" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
@@ -14776,14 +17514,14 @@
       <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="172" t="s">
+      <c r="A30" s="173" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="172"/>
-      <c r="C30" s="172"/>
-      <c r="D30" s="172"/>
-      <c r="E30" s="172"/>
-      <c r="F30" s="172"/>
+      <c r="B30" s="173"/>
+      <c r="C30" s="173"/>
+      <c r="D30" s="173"/>
+      <c r="E30" s="173"/>
+      <c r="F30" s="173"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="17"/>
@@ -14804,283 +17542,283 @@
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
-      <c r="B33" s="169"/>
-      <c r="C33" s="169"/>
-      <c r="D33" s="169"/>
+      <c r="B33" s="170"/>
+      <c r="C33" s="170"/>
+      <c r="D33" s="170"/>
       <c r="E33" s="28"/>
       <c r="F33" s="21"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="21"/>
-      <c r="B34" s="169"/>
-      <c r="C34" s="169"/>
-      <c r="D34" s="169"/>
+      <c r="B34" s="170"/>
+      <c r="C34" s="170"/>
+      <c r="D34" s="170"/>
       <c r="E34" s="28"/>
       <c r="F34" s="21"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
-      <c r="B35" s="169" t="s">
+      <c r="B35" s="170" t="s">
         <v>98</v>
       </c>
-      <c r="C35" s="169"/>
-      <c r="D35" s="169"/>
+      <c r="C35" s="170"/>
+      <c r="D35" s="170"/>
       <c r="E35" s="28"/>
       <c r="F35" s="21"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="21"/>
-      <c r="B36" s="169"/>
-      <c r="C36" s="169"/>
-      <c r="D36" s="169"/>
+      <c r="B36" s="170"/>
+      <c r="C36" s="170"/>
+      <c r="D36" s="170"/>
       <c r="E36" s="28"/>
       <c r="F36" s="21"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
-      <c r="B37" s="169" t="s">
+      <c r="B37" s="170" t="s">
         <v>32</v>
       </c>
-      <c r="C37" s="169"/>
-      <c r="D37" s="169"/>
+      <c r="C37" s="170"/>
+      <c r="D37" s="170"/>
       <c r="E37" s="28"/>
       <c r="F37" s="21"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="21"/>
-      <c r="B38" s="169"/>
-      <c r="C38" s="169"/>
-      <c r="D38" s="169"/>
+      <c r="B38" s="170"/>
+      <c r="C38" s="170"/>
+      <c r="D38" s="170"/>
       <c r="E38" s="28"/>
       <c r="F38" s="21"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="21"/>
-      <c r="B39" s="169" t="s">
+      <c r="B39" s="170" t="s">
         <v>9</v>
       </c>
-      <c r="C39" s="169"/>
-      <c r="D39" s="169"/>
+      <c r="C39" s="170"/>
+      <c r="D39" s="170"/>
       <c r="E39" s="28"/>
       <c r="F39" s="21"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="21"/>
-      <c r="B40" s="169"/>
-      <c r="C40" s="169"/>
-      <c r="D40" s="169"/>
+      <c r="B40" s="170"/>
+      <c r="C40" s="170"/>
+      <c r="D40" s="170"/>
       <c r="E40" s="28"/>
       <c r="F40" s="21"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="21"/>
-      <c r="B41" s="169" t="s">
+      <c r="B41" s="170" t="s">
         <v>99</v>
       </c>
-      <c r="C41" s="169"/>
-      <c r="D41" s="169"/>
+      <c r="C41" s="170"/>
+      <c r="D41" s="170"/>
       <c r="E41" s="28"/>
       <c r="F41" s="21"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="21"/>
-      <c r="B42" s="169"/>
-      <c r="C42" s="169"/>
-      <c r="D42" s="169"/>
+      <c r="B42" s="170"/>
+      <c r="C42" s="170"/>
+      <c r="D42" s="170"/>
       <c r="E42" s="28"/>
       <c r="F42" s="21"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="21"/>
-      <c r="B43" s="169" t="s">
+      <c r="B43" s="170" t="s">
         <v>48</v>
       </c>
-      <c r="C43" s="169"/>
-      <c r="D43" s="169"/>
+      <c r="C43" s="170"/>
+      <c r="D43" s="170"/>
       <c r="E43" s="28"/>
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
-      <c r="B44" s="169"/>
-      <c r="C44" s="169"/>
-      <c r="D44" s="169"/>
+      <c r="B44" s="170"/>
+      <c r="C44" s="170"/>
+      <c r="D44" s="170"/>
       <c r="E44" s="28"/>
       <c r="F44" s="21"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="21"/>
-      <c r="B45" s="169" t="s">
+      <c r="B45" s="170" t="s">
         <v>38</v>
       </c>
-      <c r="C45" s="169"/>
-      <c r="D45" s="169"/>
+      <c r="C45" s="170"/>
+      <c r="D45" s="170"/>
       <c r="E45" s="28"/>
       <c r="F45" s="21"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="21"/>
-      <c r="B46" s="169"/>
-      <c r="C46" s="169"/>
-      <c r="D46" s="169"/>
+      <c r="B46" s="170"/>
+      <c r="C46" s="170"/>
+      <c r="D46" s="170"/>
       <c r="E46" s="28"/>
       <c r="F46" s="21"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="21"/>
-      <c r="B47" s="169" t="s">
+      <c r="B47" s="170" t="s">
         <v>53</v>
       </c>
-      <c r="C47" s="169"/>
-      <c r="D47" s="169"/>
+      <c r="C47" s="170"/>
+      <c r="D47" s="170"/>
       <c r="E47" s="28"/>
       <c r="F47" s="21"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="21"/>
-      <c r="B48" s="169"/>
-      <c r="C48" s="169"/>
-      <c r="D48" s="169"/>
+      <c r="B48" s="170"/>
+      <c r="C48" s="170"/>
+      <c r="D48" s="170"/>
       <c r="E48" s="28"/>
       <c r="F48" s="21"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="21"/>
-      <c r="B49" s="169" t="s">
+      <c r="B49" s="170" t="s">
         <v>97</v>
       </c>
-      <c r="C49" s="169"/>
-      <c r="D49" s="169"/>
+      <c r="C49" s="170"/>
+      <c r="D49" s="170"/>
       <c r="E49" s="28"/>
       <c r="F49" s="21"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="21"/>
-      <c r="B50" s="169"/>
-      <c r="C50" s="169"/>
-      <c r="D50" s="169"/>
+      <c r="B50" s="170"/>
+      <c r="C50" s="170"/>
+      <c r="D50" s="170"/>
       <c r="E50" s="28"/>
       <c r="F50" s="21"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="21"/>
-      <c r="B51" s="169" t="s">
+      <c r="B51" s="170" t="s">
         <v>34</v>
       </c>
-      <c r="C51" s="169"/>
-      <c r="D51" s="169"/>
+      <c r="C51" s="170"/>
+      <c r="D51" s="170"/>
       <c r="E51" s="28"/>
       <c r="F51" s="21"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="21"/>
-      <c r="B52" s="169"/>
-      <c r="C52" s="169"/>
-      <c r="D52" s="169"/>
+      <c r="B52" s="170"/>
+      <c r="C52" s="170"/>
+      <c r="D52" s="170"/>
       <c r="E52" s="28"/>
       <c r="F52" s="21"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="21"/>
-      <c r="B53" s="169"/>
-      <c r="C53" s="169"/>
-      <c r="D53" s="169"/>
+      <c r="B53" s="170"/>
+      <c r="C53" s="170"/>
+      <c r="D53" s="170"/>
       <c r="E53" s="28"/>
       <c r="F53" s="21"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="21"/>
-      <c r="B54" s="169"/>
-      <c r="C54" s="169"/>
-      <c r="D54" s="169"/>
+      <c r="B54" s="170"/>
+      <c r="C54" s="170"/>
+      <c r="D54" s="170"/>
       <c r="E54" s="28"/>
       <c r="F54" s="21"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="21"/>
-      <c r="B55" s="169"/>
-      <c r="C55" s="169"/>
-      <c r="D55" s="169"/>
+      <c r="B55" s="170"/>
+      <c r="C55" s="170"/>
+      <c r="D55" s="170"/>
       <c r="E55" s="28"/>
       <c r="F55" s="21"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="21"/>
-      <c r="B56" s="169"/>
-      <c r="C56" s="169"/>
-      <c r="D56" s="169"/>
+      <c r="B56" s="170"/>
+      <c r="C56" s="170"/>
+      <c r="D56" s="170"/>
       <c r="E56" s="28"/>
       <c r="F56" s="21"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="21"/>
-      <c r="B57" s="169"/>
-      <c r="C57" s="169"/>
-      <c r="D57" s="169"/>
+      <c r="B57" s="170"/>
+      <c r="C57" s="170"/>
+      <c r="D57" s="170"/>
       <c r="E57" s="28"/>
       <c r="F57" s="21"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="21"/>
-      <c r="B58" s="169"/>
-      <c r="C58" s="169"/>
-      <c r="D58" s="169"/>
+      <c r="B58" s="170"/>
+      <c r="C58" s="170"/>
+      <c r="D58" s="170"/>
       <c r="E58" s="28"/>
       <c r="F58" s="21"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="21"/>
-      <c r="B59" s="169"/>
-      <c r="C59" s="169"/>
-      <c r="D59" s="169"/>
+      <c r="B59" s="170"/>
+      <c r="C59" s="170"/>
+      <c r="D59" s="170"/>
       <c r="E59" s="28"/>
       <c r="F59" s="21"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="21"/>
-      <c r="B60" s="169"/>
-      <c r="C60" s="169"/>
-      <c r="D60" s="169"/>
+      <c r="B60" s="170"/>
+      <c r="C60" s="170"/>
+      <c r="D60" s="170"/>
       <c r="E60" s="28"/>
       <c r="F60" s="21"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="21"/>
-      <c r="B61" s="169"/>
-      <c r="C61" s="169"/>
-      <c r="D61" s="169"/>
+      <c r="B61" s="170"/>
+      <c r="C61" s="170"/>
+      <c r="D61" s="170"/>
       <c r="E61" s="28"/>
       <c r="F61" s="21"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="21"/>
-      <c r="B62" s="169"/>
-      <c r="C62" s="169"/>
-      <c r="D62" s="169"/>
+      <c r="B62" s="170"/>
+      <c r="C62" s="170"/>
+      <c r="D62" s="170"/>
       <c r="E62" s="28"/>
       <c r="F62" s="21"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="21"/>
-      <c r="B63" s="169"/>
-      <c r="C63" s="169"/>
-      <c r="D63" s="169"/>
+      <c r="B63" s="170"/>
+      <c r="C63" s="170"/>
+      <c r="D63" s="170"/>
       <c r="E63" s="28"/>
       <c r="F63" s="21"/>
     </row>
     <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A64" s="21"/>
-      <c r="B64" s="169"/>
-      <c r="C64" s="169"/>
-      <c r="D64" s="169"/>
+      <c r="B64" s="170"/>
+      <c r="C64" s="170"/>
+      <c r="D64" s="170"/>
       <c r="E64" s="28"/>
       <c r="F64" s="21"/>
     </row>
     <row r="65" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A65" s="21"/>
-      <c r="B65" s="169"/>
-      <c r="C65" s="169"/>
-      <c r="D65" s="169"/>
+      <c r="B65" s="170"/>
+      <c r="C65" s="170"/>
+      <c r="D65" s="170"/>
       <c r="E65" s="28"/>
       <c r="F65" s="21"/>
     </row>
@@ -15110,17 +17848,17 @@
     </row>
     <row r="68" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A68" s="21"/>
-      <c r="B68" s="169"/>
-      <c r="C68" s="169"/>
-      <c r="D68" s="169"/>
+      <c r="B68" s="170"/>
+      <c r="C68" s="170"/>
+      <c r="D68" s="170"/>
       <c r="E68" s="28"/>
       <c r="F68" s="21"/>
     </row>
     <row r="69" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="21"/>
-      <c r="B69" s="169"/>
-      <c r="C69" s="169"/>
-      <c r="D69" s="169"/>
+      <c r="B69" s="170"/>
+      <c r="C69" s="170"/>
+      <c r="D69" s="170"/>
       <c r="E69" s="28"/>
       <c r="F69" s="21"/>
     </row>
@@ -15227,19 +17965,19 @@
     </row>
     <row r="78" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A78" s="21"/>
-      <c r="B78" s="173"/>
-      <c r="C78" s="173"/>
-      <c r="D78" s="173"/>
+      <c r="B78" s="174"/>
+      <c r="C78" s="174"/>
+      <c r="D78" s="174"/>
       <c r="E78" s="36"/>
       <c r="F78" s="21"/>
     </row>
     <row r="79" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="21"/>
-      <c r="B79" s="170" t="s">
+      <c r="B79" s="171" t="s">
         <v>17</v>
       </c>
-      <c r="C79" s="170"/>
-      <c r="D79" s="170"/>
+      <c r="C79" s="171"/>
+      <c r="D79" s="171"/>
       <c r="E79" s="36">
         <v>0</v>
       </c>
@@ -15247,9 +17985,9 @@
     </row>
     <row r="80" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A80" s="21"/>
-      <c r="B80" s="173"/>
-      <c r="C80" s="173"/>
-      <c r="D80" s="173"/>
+      <c r="B80" s="174"/>
+      <c r="C80" s="174"/>
+      <c r="D80" s="174"/>
       <c r="E80" s="36"/>
       <c r="F80" s="21"/>
     </row>
@@ -15284,31 +18022,31 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" s="21"/>
-      <c r="B84" s="167"/>
-      <c r="C84" s="167"/>
-      <c r="D84" s="167"/>
-      <c r="E84" s="167"/>
+      <c r="B84" s="168"/>
+      <c r="C84" s="168"/>
+      <c r="D84" s="168"/>
+      <c r="E84" s="168"/>
       <c r="F84" s="21"/>
     </row>
     <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A85" s="175" t="s">
+      <c r="A85" s="176" t="s">
         <v>28</v>
       </c>
-      <c r="B85" s="175"/>
-      <c r="C85" s="175"/>
-      <c r="D85" s="175"/>
-      <c r="E85" s="175"/>
-      <c r="F85" s="175"/>
+      <c r="B85" s="176"/>
+      <c r="C85" s="176"/>
+      <c r="D85" s="176"/>
+      <c r="E85" s="176"/>
+      <c r="F85" s="176"/>
     </row>
     <row r="86" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A86" s="171" t="s">
+      <c r="A86" s="172" t="s">
         <v>29</v>
       </c>
-      <c r="B86" s="171"/>
-      <c r="C86" s="171"/>
-      <c r="D86" s="171"/>
-      <c r="E86" s="171"/>
-      <c r="F86" s="171"/>
+      <c r="B86" s="172"/>
+      <c r="C86" s="172"/>
+      <c r="D86" s="172"/>
+      <c r="E86" s="172"/>
+      <c r="F86" s="172"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="21"/>
@@ -15320,26 +18058,26 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" s="21"/>
-      <c r="B88" s="168"/>
-      <c r="C88" s="168"/>
-      <c r="D88" s="168"/>
-      <c r="E88" s="168"/>
+      <c r="B88" s="169"/>
+      <c r="C88" s="169"/>
+      <c r="D88" s="169"/>
+      <c r="E88" s="169"/>
       <c r="F88" s="21"/>
     </row>
     <row r="89" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A89" s="174" t="s">
+      <c r="A89" s="175" t="s">
         <v>7</v>
       </c>
-      <c r="B89" s="174"/>
-      <c r="C89" s="174"/>
-      <c r="D89" s="174"/>
-      <c r="E89" s="174"/>
-      <c r="F89" s="174"/>
+      <c r="B89" s="175"/>
+      <c r="C89" s="175"/>
+      <c r="D89" s="175"/>
+      <c r="E89" s="175"/>
+      <c r="F89" s="175"/>
     </row>
     <row r="91" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B91" s="165"/>
-      <c r="C91" s="166"/>
-      <c r="D91" s="166"/>
+      <c r="B91" s="166"/>
+      <c r="C91" s="167"/>
+      <c r="D91" s="167"/>
     </row>
     <row r="92" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
@@ -15551,14 +18289,14 @@
       <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="172" t="s">
+      <c r="A30" s="173" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="172"/>
-      <c r="C30" s="172"/>
-      <c r="D30" s="172"/>
-      <c r="E30" s="172"/>
-      <c r="F30" s="172"/>
+      <c r="B30" s="173"/>
+      <c r="C30" s="173"/>
+      <c r="D30" s="173"/>
+      <c r="E30" s="173"/>
+      <c r="F30" s="173"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="17"/>
@@ -15579,267 +18317,267 @@
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
-      <c r="B33" s="169"/>
-      <c r="C33" s="169"/>
-      <c r="D33" s="169"/>
+      <c r="B33" s="170"/>
+      <c r="C33" s="170"/>
+      <c r="D33" s="170"/>
       <c r="E33" s="28"/>
       <c r="F33" s="21"/>
     </row>
     <row r="34" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="21"/>
-      <c r="B34" s="169" t="s">
+      <c r="B34" s="170" t="s">
         <v>88</v>
       </c>
-      <c r="C34" s="169"/>
-      <c r="D34" s="169"/>
+      <c r="C34" s="170"/>
+      <c r="D34" s="170"/>
       <c r="E34" s="28"/>
       <c r="F34" s="21"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
-      <c r="B35" s="169"/>
-      <c r="C35" s="169"/>
-      <c r="D35" s="169"/>
+      <c r="B35" s="170"/>
+      <c r="C35" s="170"/>
+      <c r="D35" s="170"/>
       <c r="E35" s="28"/>
       <c r="F35" s="21"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="21"/>
-      <c r="B36" s="169" t="s">
+      <c r="B36" s="170" t="s">
         <v>102</v>
       </c>
-      <c r="C36" s="169"/>
-      <c r="D36" s="169"/>
+      <c r="C36" s="170"/>
+      <c r="D36" s="170"/>
       <c r="E36" s="28"/>
       <c r="F36" s="21"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
-      <c r="B37" s="169"/>
-      <c r="C37" s="169"/>
-      <c r="D37" s="169"/>
+      <c r="B37" s="170"/>
+      <c r="C37" s="170"/>
+      <c r="D37" s="170"/>
       <c r="E37" s="28"/>
       <c r="F37" s="21"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="21"/>
-      <c r="B38" s="169" t="s">
+      <c r="B38" s="170" t="s">
         <v>103</v>
       </c>
-      <c r="C38" s="169"/>
-      <c r="D38" s="169"/>
+      <c r="C38" s="170"/>
+      <c r="D38" s="170"/>
       <c r="E38" s="28"/>
       <c r="F38" s="21"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="21"/>
-      <c r="B39" s="169"/>
-      <c r="C39" s="169"/>
-      <c r="D39" s="169"/>
+      <c r="B39" s="170"/>
+      <c r="C39" s="170"/>
+      <c r="D39" s="170"/>
       <c r="E39" s="28"/>
       <c r="F39" s="21"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="21"/>
-      <c r="B40" s="169" t="s">
+      <c r="B40" s="170" t="s">
         <v>104</v>
       </c>
-      <c r="C40" s="169"/>
-      <c r="D40" s="169"/>
+      <c r="C40" s="170"/>
+      <c r="D40" s="170"/>
       <c r="E40" s="28"/>
       <c r="F40" s="21"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="21"/>
-      <c r="B41" s="169"/>
-      <c r="C41" s="169"/>
-      <c r="D41" s="169"/>
+      <c r="B41" s="170"/>
+      <c r="C41" s="170"/>
+      <c r="D41" s="170"/>
       <c r="E41" s="28"/>
       <c r="F41" s="21"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="21"/>
-      <c r="B42" s="169" t="s">
+      <c r="B42" s="170" t="s">
         <v>38</v>
       </c>
-      <c r="C42" s="169"/>
-      <c r="D42" s="169"/>
+      <c r="C42" s="170"/>
+      <c r="D42" s="170"/>
       <c r="E42" s="28"/>
       <c r="F42" s="21"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="21"/>
-      <c r="B43" s="169"/>
-      <c r="C43" s="169"/>
-      <c r="D43" s="169"/>
+      <c r="B43" s="170"/>
+      <c r="C43" s="170"/>
+      <c r="D43" s="170"/>
       <c r="E43" s="28"/>
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
-      <c r="B44" s="169"/>
-      <c r="C44" s="169"/>
-      <c r="D44" s="169"/>
+      <c r="B44" s="170"/>
+      <c r="C44" s="170"/>
+      <c r="D44" s="170"/>
       <c r="E44" s="28"/>
       <c r="F44" s="21"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="21"/>
-      <c r="B45" s="169"/>
-      <c r="C45" s="169"/>
-      <c r="D45" s="169"/>
+      <c r="B45" s="170"/>
+      <c r="C45" s="170"/>
+      <c r="D45" s="170"/>
       <c r="E45" s="28"/>
       <c r="F45" s="21"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="21"/>
-      <c r="B46" s="169"/>
-      <c r="C46" s="169"/>
-      <c r="D46" s="169"/>
+      <c r="B46" s="170"/>
+      <c r="C46" s="170"/>
+      <c r="D46" s="170"/>
       <c r="E46" s="28"/>
       <c r="F46" s="21"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="21"/>
-      <c r="B47" s="169"/>
-      <c r="C47" s="169"/>
-      <c r="D47" s="169"/>
+      <c r="B47" s="170"/>
+      <c r="C47" s="170"/>
+      <c r="D47" s="170"/>
       <c r="E47" s="28"/>
       <c r="F47" s="21"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="21"/>
-      <c r="B48" s="169"/>
-      <c r="C48" s="169"/>
-      <c r="D48" s="169"/>
+      <c r="B48" s="170"/>
+      <c r="C48" s="170"/>
+      <c r="D48" s="170"/>
       <c r="E48" s="28"/>
       <c r="F48" s="21"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="21"/>
-      <c r="B49" s="169"/>
-      <c r="C49" s="169"/>
-      <c r="D49" s="169"/>
+      <c r="B49" s="170"/>
+      <c r="C49" s="170"/>
+      <c r="D49" s="170"/>
       <c r="E49" s="28"/>
       <c r="F49" s="21"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="21"/>
-      <c r="B50" s="169"/>
-      <c r="C50" s="169"/>
-      <c r="D50" s="169"/>
+      <c r="B50" s="170"/>
+      <c r="C50" s="170"/>
+      <c r="D50" s="170"/>
       <c r="E50" s="28"/>
       <c r="F50" s="21"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="21"/>
-      <c r="B51" s="169"/>
-      <c r="C51" s="169"/>
-      <c r="D51" s="169"/>
+      <c r="B51" s="170"/>
+      <c r="C51" s="170"/>
+      <c r="D51" s="170"/>
       <c r="E51" s="28"/>
       <c r="F51" s="21"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="21"/>
-      <c r="B52" s="169"/>
-      <c r="C52" s="169"/>
-      <c r="D52" s="169"/>
+      <c r="B52" s="170"/>
+      <c r="C52" s="170"/>
+      <c r="D52" s="170"/>
       <c r="E52" s="28"/>
       <c r="F52" s="21"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="21"/>
-      <c r="B53" s="169"/>
-      <c r="C53" s="169"/>
-      <c r="D53" s="169"/>
+      <c r="B53" s="170"/>
+      <c r="C53" s="170"/>
+      <c r="D53" s="170"/>
       <c r="E53" s="28"/>
       <c r="F53" s="21"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="21"/>
-      <c r="B54" s="169"/>
-      <c r="C54" s="169"/>
-      <c r="D54" s="169"/>
+      <c r="B54" s="170"/>
+      <c r="C54" s="170"/>
+      <c r="D54" s="170"/>
       <c r="E54" s="28"/>
       <c r="F54" s="21"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="21"/>
-      <c r="B55" s="169"/>
-      <c r="C55" s="169"/>
-      <c r="D55" s="169"/>
+      <c r="B55" s="170"/>
+      <c r="C55" s="170"/>
+      <c r="D55" s="170"/>
       <c r="E55" s="28"/>
       <c r="F55" s="21"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="21"/>
-      <c r="B56" s="169"/>
-      <c r="C56" s="169"/>
-      <c r="D56" s="169"/>
+      <c r="B56" s="170"/>
+      <c r="C56" s="170"/>
+      <c r="D56" s="170"/>
       <c r="E56" s="28"/>
       <c r="F56" s="21"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="21"/>
-      <c r="B57" s="169"/>
-      <c r="C57" s="169"/>
-      <c r="D57" s="169"/>
+      <c r="B57" s="170"/>
+      <c r="C57" s="170"/>
+      <c r="D57" s="170"/>
       <c r="E57" s="28"/>
       <c r="F57" s="21"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="21"/>
-      <c r="B58" s="169"/>
-      <c r="C58" s="169"/>
-      <c r="D58" s="169"/>
+      <c r="B58" s="170"/>
+      <c r="C58" s="170"/>
+      <c r="D58" s="170"/>
       <c r="E58" s="28"/>
       <c r="F58" s="21"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="21"/>
-      <c r="B59" s="169"/>
-      <c r="C59" s="169"/>
-      <c r="D59" s="169"/>
+      <c r="B59" s="170"/>
+      <c r="C59" s="170"/>
+      <c r="D59" s="170"/>
       <c r="E59" s="28"/>
       <c r="F59" s="21"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="21"/>
-      <c r="B60" s="169"/>
-      <c r="C60" s="169"/>
-      <c r="D60" s="169"/>
+      <c r="B60" s="170"/>
+      <c r="C60" s="170"/>
+      <c r="D60" s="170"/>
       <c r="E60" s="28"/>
       <c r="F60" s="21"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="21"/>
-      <c r="B61" s="169"/>
-      <c r="C61" s="169"/>
-      <c r="D61" s="169"/>
+      <c r="B61" s="170"/>
+      <c r="C61" s="170"/>
+      <c r="D61" s="170"/>
       <c r="E61" s="28"/>
       <c r="F61" s="21"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="21"/>
-      <c r="B62" s="169"/>
-      <c r="C62" s="169"/>
-      <c r="D62" s="169"/>
+      <c r="B62" s="170"/>
+      <c r="C62" s="170"/>
+      <c r="D62" s="170"/>
       <c r="E62" s="28"/>
       <c r="F62" s="21"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="21"/>
-      <c r="B63" s="169"/>
-      <c r="C63" s="169"/>
-      <c r="D63" s="169"/>
+      <c r="B63" s="170"/>
+      <c r="C63" s="170"/>
+      <c r="D63" s="170"/>
       <c r="E63" s="28"/>
       <c r="F63" s="21"/>
     </row>
     <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A64" s="21"/>
-      <c r="B64" s="169"/>
-      <c r="C64" s="169"/>
-      <c r="D64" s="169"/>
+      <c r="B64" s="170"/>
+      <c r="C64" s="170"/>
+      <c r="D64" s="170"/>
       <c r="E64" s="28"/>
       <c r="F64" s="21"/>
     </row>
@@ -15869,17 +18607,17 @@
     </row>
     <row r="67" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A67" s="21"/>
-      <c r="B67" s="169"/>
-      <c r="C67" s="169"/>
-      <c r="D67" s="169"/>
+      <c r="B67" s="170"/>
+      <c r="C67" s="170"/>
+      <c r="D67" s="170"/>
       <c r="E67" s="28"/>
       <c r="F67" s="21"/>
     </row>
     <row r="68" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="21"/>
-      <c r="B68" s="169"/>
-      <c r="C68" s="169"/>
-      <c r="D68" s="169"/>
+      <c r="B68" s="170"/>
+      <c r="C68" s="170"/>
+      <c r="D68" s="170"/>
       <c r="E68" s="28"/>
       <c r="F68" s="21"/>
     </row>
@@ -15986,19 +18724,19 @@
     </row>
     <row r="77" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A77" s="21"/>
-      <c r="B77" s="173"/>
-      <c r="C77" s="173"/>
-      <c r="D77" s="173"/>
+      <c r="B77" s="174"/>
+      <c r="C77" s="174"/>
+      <c r="D77" s="174"/>
       <c r="E77" s="36"/>
       <c r="F77" s="21"/>
     </row>
     <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="21"/>
-      <c r="B78" s="170" t="s">
+      <c r="B78" s="171" t="s">
         <v>17</v>
       </c>
-      <c r="C78" s="170"/>
-      <c r="D78" s="170"/>
+      <c r="C78" s="171"/>
+      <c r="D78" s="171"/>
       <c r="E78" s="36">
         <v>0</v>
       </c>
@@ -16006,9 +18744,9 @@
     </row>
     <row r="79" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="21"/>
-      <c r="B79" s="173"/>
-      <c r="C79" s="173"/>
-      <c r="D79" s="173"/>
+      <c r="B79" s="174"/>
+      <c r="C79" s="174"/>
+      <c r="D79" s="174"/>
       <c r="E79" s="36"/>
       <c r="F79" s="21"/>
     </row>
@@ -16043,31 +18781,31 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="21"/>
-      <c r="B83" s="167"/>
-      <c r="C83" s="167"/>
-      <c r="D83" s="167"/>
-      <c r="E83" s="167"/>
+      <c r="B83" s="168"/>
+      <c r="C83" s="168"/>
+      <c r="D83" s="168"/>
+      <c r="E83" s="168"/>
       <c r="F83" s="21"/>
     </row>
     <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="175" t="s">
+      <c r="A84" s="176" t="s">
         <v>28</v>
       </c>
-      <c r="B84" s="175"/>
-      <c r="C84" s="175"/>
-      <c r="D84" s="175"/>
-      <c r="E84" s="175"/>
-      <c r="F84" s="175"/>
+      <c r="B84" s="176"/>
+      <c r="C84" s="176"/>
+      <c r="D84" s="176"/>
+      <c r="E84" s="176"/>
+      <c r="F84" s="176"/>
     </row>
     <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A85" s="171" t="s">
+      <c r="A85" s="172" t="s">
         <v>29</v>
       </c>
-      <c r="B85" s="171"/>
-      <c r="C85" s="171"/>
-      <c r="D85" s="171"/>
-      <c r="E85" s="171"/>
-      <c r="F85" s="171"/>
+      <c r="B85" s="172"/>
+      <c r="C85" s="172"/>
+      <c r="D85" s="172"/>
+      <c r="E85" s="172"/>
+      <c r="F85" s="172"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="21"/>
@@ -16079,26 +18817,26 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="21"/>
-      <c r="B87" s="168"/>
-      <c r="C87" s="168"/>
-      <c r="D87" s="168"/>
-      <c r="E87" s="168"/>
+      <c r="B87" s="169"/>
+      <c r="C87" s="169"/>
+      <c r="D87" s="169"/>
+      <c r="E87" s="169"/>
       <c r="F87" s="21"/>
     </row>
     <row r="88" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A88" s="174" t="s">
+      <c r="A88" s="175" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="174"/>
-      <c r="C88" s="174"/>
-      <c r="D88" s="174"/>
-      <c r="E88" s="174"/>
-      <c r="F88" s="174"/>
+      <c r="B88" s="175"/>
+      <c r="C88" s="175"/>
+      <c r="D88" s="175"/>
+      <c r="E88" s="175"/>
+      <c r="F88" s="175"/>
     </row>
     <row r="90" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="165"/>
-      <c r="C90" s="166"/>
-      <c r="D90" s="166"/>
+      <c r="B90" s="166"/>
+      <c r="C90" s="167"/>
+      <c r="D90" s="167"/>
     </row>
     <row r="91" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">

--- a/Factures_Excel/1611 - Racine Petits Fruits 2014 Inc.xlsx
+++ b/Factures_Excel/1611 - Racine Petits Fruits 2014 Inc.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Administration\APP\GCF\Factures_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDA52BBA-790E-4D27-90EE-679A1E2A9FDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{209A935B-094D-4064-A7F7-B513B8FB3E7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" firstSheet="2" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="20-02-22" sheetId="4" r:id="rId1"/>
@@ -33,9 +33,10 @@
     <sheet name="2025-04-05 - 25-24901" sheetId="22" r:id="rId18"/>
     <sheet name="2025-04-05 - 25-24902" sheetId="23" r:id="rId19"/>
     <sheet name="2025-04-05 - 25-24903" sheetId="24" r:id="rId20"/>
+    <sheet name="2025-05-18 - 25-25008" sheetId="25" r:id="rId21"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId21"/>
+    <externalReference r:id="rId22"/>
   </externalReferences>
   <definedNames>
     <definedName name="dnrServices">OFFSET([1]Admin!$Z$11,,,COUNTA([1]Admin!$Z:$Z)-1,1)</definedName>
@@ -64,6 +65,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="17">'2025-04-05 - 25-24901'!$A$1:$F$88</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="18">'2025-04-05 - 25-24902'!$A$1:$F$88</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="19">'2025-04-05 - 25-24903'!$A$1:$F$88</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="20">'2025-05-18 - 25-25008'!$A$1:$F$88</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'21-03-23'!$A$1:$F$90</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'22-12-22'!$A$1:$F$89</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="8">'28-03-24'!$A$1:$F$89</definedName>
@@ -89,7 +91,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="172">
   <si>
     <t>NOTE D'HONORAIRES</t>
   </si>
@@ -585,6 +587,27 @@
   </si>
   <si>
     <t>25-24903</t>
+  </si>
+  <si>
+    <t>Le 18 MAI 2025</t>
+  </si>
+  <si>
+    <t>25-25008</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Diverses discussions téléphoniques avec vous et les juristes des deux parties sur de multiples sujets;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Préparation aux diverses rencontres et rencontres avec les conseillers des acheteurs par Vidéoconférences;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Préparation de tableaux comparatifs entre la vente d'actifs vs la vente d'actions et de tous les impacts fiscaux, avantages </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - et désavantages pour les acheteurs et les vendeurs ;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Révision des différentes version de lettres d'intention soumises;</t>
   </si>
 </sst>
 </file>
@@ -1572,6 +1595,21 @@
     <xf numFmtId="4" fontId="24" fillId="5" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1584,25 +1622,10 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2447,6 +2470,72 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing20.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>210062</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20481" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8ACC5F0C-5CF8-9E90-E09D-ECD550605E23}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1" y="0"/>
+          <a:ext cx="11678161" cy="3175000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -3599,14 +3688,14 @@
       <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="173" t="s">
+      <c r="A30" s="169" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="173"/>
-      <c r="C30" s="173"/>
-      <c r="D30" s="173"/>
-      <c r="E30" s="173"/>
-      <c r="F30" s="173"/>
+      <c r="B30" s="169"/>
+      <c r="C30" s="169"/>
+      <c r="D30" s="169"/>
+      <c r="E30" s="169"/>
+      <c r="F30" s="169"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="17"/>
@@ -3627,289 +3716,289 @@
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
-      <c r="B33" s="170"/>
-      <c r="C33" s="170"/>
-      <c r="D33" s="170"/>
+      <c r="B33" s="168"/>
+      <c r="C33" s="168"/>
+      <c r="D33" s="168"/>
       <c r="E33" s="28"/>
       <c r="F33" s="21"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="21"/>
-      <c r="B34" s="170" t="s">
+      <c r="B34" s="168" t="s">
         <v>60</v>
       </c>
-      <c r="C34" s="170"/>
-      <c r="D34" s="170"/>
+      <c r="C34" s="168"/>
+      <c r="D34" s="168"/>
       <c r="E34" s="28"/>
       <c r="F34" s="21"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
-      <c r="B35" s="170"/>
-      <c r="C35" s="170"/>
-      <c r="D35" s="170"/>
+      <c r="B35" s="168"/>
+      <c r="C35" s="168"/>
+      <c r="D35" s="168"/>
       <c r="E35" s="28"/>
       <c r="F35" s="21"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="21"/>
-      <c r="B36" s="170" t="s">
+      <c r="B36" s="168" t="s">
         <v>54</v>
       </c>
-      <c r="C36" s="170"/>
-      <c r="D36" s="170"/>
+      <c r="C36" s="168"/>
+      <c r="D36" s="168"/>
       <c r="E36" s="28"/>
       <c r="F36" s="21"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
-      <c r="B37" s="170"/>
-      <c r="C37" s="170"/>
-      <c r="D37" s="170"/>
+      <c r="B37" s="168"/>
+      <c r="C37" s="168"/>
+      <c r="D37" s="168"/>
       <c r="E37" s="28"/>
       <c r="F37" s="21"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="21"/>
-      <c r="B38" s="170" t="s">
+      <c r="B38" s="168" t="s">
         <v>31</v>
       </c>
-      <c r="C38" s="170"/>
-      <c r="D38" s="170"/>
+      <c r="C38" s="168"/>
+      <c r="D38" s="168"/>
       <c r="E38" s="28"/>
       <c r="F38" s="21"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="21"/>
-      <c r="B39" s="170"/>
-      <c r="C39" s="170"/>
-      <c r="D39" s="170"/>
+      <c r="B39" s="168"/>
+      <c r="C39" s="168"/>
+      <c r="D39" s="168"/>
       <c r="E39" s="28"/>
       <c r="F39" s="21"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="21"/>
-      <c r="B40" s="170" t="s">
+      <c r="B40" s="168" t="s">
         <v>30</v>
       </c>
-      <c r="C40" s="170"/>
-      <c r="D40" s="170"/>
+      <c r="C40" s="168"/>
+      <c r="D40" s="168"/>
       <c r="E40" s="28"/>
       <c r="F40" s="21"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="21"/>
-      <c r="B41" s="170"/>
-      <c r="C41" s="170"/>
-      <c r="D41" s="170"/>
+      <c r="B41" s="168"/>
+      <c r="C41" s="168"/>
+      <c r="D41" s="168"/>
       <c r="E41" s="28"/>
       <c r="F41" s="21"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="21"/>
-      <c r="B42" s="170" t="s">
+      <c r="B42" s="168" t="s">
         <v>2</v>
       </c>
-      <c r="C42" s="170"/>
-      <c r="D42" s="170"/>
+      <c r="C42" s="168"/>
+      <c r="D42" s="168"/>
       <c r="E42" s="28"/>
       <c r="F42" s="21"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="21"/>
-      <c r="B43" s="170"/>
-      <c r="C43" s="170"/>
-      <c r="D43" s="170"/>
+      <c r="B43" s="168"/>
+      <c r="C43" s="168"/>
+      <c r="D43" s="168"/>
       <c r="E43" s="28"/>
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
-      <c r="B44" s="170" t="s">
+      <c r="B44" s="168" t="s">
         <v>20</v>
       </c>
-      <c r="C44" s="170"/>
-      <c r="D44" s="170"/>
+      <c r="C44" s="168"/>
+      <c r="D44" s="168"/>
       <c r="E44" s="28"/>
       <c r="F44" s="21"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="21"/>
-      <c r="B45" s="170"/>
-      <c r="C45" s="170"/>
-      <c r="D45" s="170"/>
+      <c r="B45" s="168"/>
+      <c r="C45" s="168"/>
+      <c r="D45" s="168"/>
       <c r="E45" s="28"/>
       <c r="F45" s="21"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="21"/>
-      <c r="B46" s="170" t="s">
+      <c r="B46" s="168" t="s">
         <v>43</v>
       </c>
-      <c r="C46" s="170"/>
-      <c r="D46" s="170"/>
+      <c r="C46" s="168"/>
+      <c r="D46" s="168"/>
       <c r="E46" s="28"/>
       <c r="F46" s="21"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="21"/>
-      <c r="B47" s="170"/>
-      <c r="C47" s="170"/>
-      <c r="D47" s="170"/>
+      <c r="B47" s="168"/>
+      <c r="C47" s="168"/>
+      <c r="D47" s="168"/>
       <c r="E47" s="28"/>
       <c r="F47" s="21"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="21"/>
-      <c r="B48" s="170" t="s">
+      <c r="B48" s="168" t="s">
         <v>34</v>
       </c>
-      <c r="C48" s="170"/>
-      <c r="D48" s="170"/>
+      <c r="C48" s="168"/>
+      <c r="D48" s="168"/>
       <c r="E48" s="28"/>
       <c r="F48" s="21"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="21"/>
-      <c r="B49" s="170"/>
-      <c r="C49" s="170"/>
-      <c r="D49" s="170"/>
+      <c r="B49" s="168"/>
+      <c r="C49" s="168"/>
+      <c r="D49" s="168"/>
       <c r="E49" s="28"/>
       <c r="F49" s="21"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="21"/>
-      <c r="B50" s="170" t="s">
+      <c r="B50" s="168" t="s">
         <v>38</v>
       </c>
-      <c r="C50" s="170"/>
-      <c r="D50" s="170"/>
+      <c r="C50" s="168"/>
+      <c r="D50" s="168"/>
       <c r="E50" s="28"/>
       <c r="F50" s="21"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="21"/>
-      <c r="B51" s="170"/>
-      <c r="C51" s="170"/>
-      <c r="D51" s="170"/>
+      <c r="B51" s="168"/>
+      <c r="C51" s="168"/>
+      <c r="D51" s="168"/>
       <c r="E51" s="28"/>
       <c r="F51" s="21"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="21"/>
-      <c r="B52" s="170" t="s">
+      <c r="B52" s="168" t="s">
         <v>44</v>
       </c>
-      <c r="C52" s="170"/>
-      <c r="D52" s="170"/>
+      <c r="C52" s="168"/>
+      <c r="D52" s="168"/>
       <c r="E52" s="28"/>
       <c r="F52" s="21"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="21"/>
-      <c r="B53" s="170"/>
-      <c r="C53" s="170"/>
-      <c r="D53" s="170"/>
+      <c r="B53" s="168"/>
+      <c r="C53" s="168"/>
+      <c r="D53" s="168"/>
       <c r="E53" s="28"/>
       <c r="F53" s="21"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="21"/>
-      <c r="B54" s="170" t="s">
+      <c r="B54" s="168" t="s">
         <v>45</v>
       </c>
-      <c r="C54" s="170"/>
-      <c r="D54" s="170"/>
+      <c r="C54" s="168"/>
+      <c r="D54" s="168"/>
       <c r="E54" s="28"/>
       <c r="F54" s="21"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="21"/>
-      <c r="B55" s="170"/>
-      <c r="C55" s="170"/>
-      <c r="D55" s="170"/>
+      <c r="B55" s="168"/>
+      <c r="C55" s="168"/>
+      <c r="D55" s="168"/>
       <c r="E55" s="28"/>
       <c r="F55" s="21"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="21"/>
-      <c r="B56" s="170" t="s">
+      <c r="B56" s="168" t="s">
         <v>19</v>
       </c>
-      <c r="C56" s="170"/>
-      <c r="D56" s="170"/>
+      <c r="C56" s="168"/>
+      <c r="D56" s="168"/>
       <c r="E56" s="28"/>
       <c r="F56" s="21"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="21"/>
-      <c r="B57" s="170"/>
-      <c r="C57" s="170"/>
-      <c r="D57" s="170"/>
+      <c r="B57" s="168"/>
+      <c r="C57" s="168"/>
+      <c r="D57" s="168"/>
       <c r="E57" s="28"/>
       <c r="F57" s="21"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="21"/>
-      <c r="B58" s="170" t="s">
+      <c r="B58" s="168" t="s">
         <v>21</v>
       </c>
-      <c r="C58" s="170"/>
-      <c r="D58" s="170"/>
+      <c r="C58" s="168"/>
+      <c r="D58" s="168"/>
       <c r="E58" s="28"/>
       <c r="F58" s="21"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="21"/>
-      <c r="B59" s="170"/>
-      <c r="C59" s="170"/>
-      <c r="D59" s="170"/>
+      <c r="B59" s="168"/>
+      <c r="C59" s="168"/>
+      <c r="D59" s="168"/>
       <c r="E59" s="28"/>
       <c r="F59" s="21"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="21"/>
-      <c r="B60" s="170" t="s">
+      <c r="B60" s="168" t="s">
         <v>8</v>
       </c>
-      <c r="C60" s="170"/>
-      <c r="D60" s="170"/>
+      <c r="C60" s="168"/>
+      <c r="D60" s="168"/>
       <c r="E60" s="28"/>
       <c r="F60" s="21"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="21"/>
-      <c r="B61" s="170"/>
-      <c r="C61" s="170"/>
-      <c r="D61" s="170"/>
+      <c r="B61" s="168"/>
+      <c r="C61" s="168"/>
+      <c r="D61" s="168"/>
       <c r="E61" s="28"/>
       <c r="F61" s="21"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="21"/>
-      <c r="B62" s="170" t="s">
+      <c r="B62" s="168" t="s">
         <v>46</v>
       </c>
-      <c r="C62" s="170"/>
-      <c r="D62" s="170"/>
+      <c r="C62" s="168"/>
+      <c r="D62" s="168"/>
       <c r="E62" s="28"/>
       <c r="F62" s="21"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="21"/>
-      <c r="B63" s="170"/>
-      <c r="C63" s="170"/>
-      <c r="D63" s="170"/>
+      <c r="B63" s="168"/>
+      <c r="C63" s="168"/>
+      <c r="D63" s="168"/>
       <c r="E63" s="28"/>
       <c r="F63" s="21"/>
     </row>
     <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A64" s="21"/>
-      <c r="B64" s="170" t="s">
+      <c r="B64" s="168" t="s">
         <v>32</v>
       </c>
-      <c r="C64" s="170"/>
-      <c r="D64" s="170"/>
+      <c r="C64" s="168"/>
+      <c r="D64" s="168"/>
       <c r="E64" s="28"/>
       <c r="F64" s="21"/>
     </row>
@@ -3939,17 +4028,17 @@
     </row>
     <row r="67" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A67" s="21"/>
-      <c r="B67" s="170"/>
-      <c r="C67" s="170"/>
-      <c r="D67" s="170"/>
+      <c r="B67" s="168"/>
+      <c r="C67" s="168"/>
+      <c r="D67" s="168"/>
       <c r="E67" s="28"/>
       <c r="F67" s="21"/>
     </row>
     <row r="68" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="21"/>
-      <c r="B68" s="170"/>
-      <c r="C68" s="170"/>
-      <c r="D68" s="170"/>
+      <c r="B68" s="168"/>
+      <c r="C68" s="168"/>
+      <c r="D68" s="168"/>
       <c r="E68" s="28"/>
       <c r="F68" s="21"/>
     </row>
@@ -4056,19 +4145,19 @@
     </row>
     <row r="77" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A77" s="21"/>
-      <c r="B77" s="174"/>
-      <c r="C77" s="174"/>
-      <c r="D77" s="174"/>
+      <c r="B77" s="170"/>
+      <c r="C77" s="170"/>
+      <c r="D77" s="170"/>
       <c r="E77" s="36"/>
       <c r="F77" s="21"/>
     </row>
     <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="21"/>
-      <c r="B78" s="171" t="s">
+      <c r="B78" s="175" t="s">
         <v>17</v>
       </c>
-      <c r="C78" s="171"/>
-      <c r="D78" s="171"/>
+      <c r="C78" s="175"/>
+      <c r="D78" s="175"/>
       <c r="E78" s="36">
         <v>0</v>
       </c>
@@ -4076,9 +4165,9 @@
     </row>
     <row r="79" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="21"/>
-      <c r="B79" s="174"/>
-      <c r="C79" s="174"/>
-      <c r="D79" s="174"/>
+      <c r="B79" s="170"/>
+      <c r="C79" s="170"/>
+      <c r="D79" s="170"/>
       <c r="E79" s="36"/>
       <c r="F79" s="21"/>
     </row>
@@ -4113,31 +4202,31 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="21"/>
-      <c r="B83" s="168"/>
-      <c r="C83" s="168"/>
-      <c r="D83" s="168"/>
-      <c r="E83" s="168"/>
+      <c r="B83" s="173"/>
+      <c r="C83" s="173"/>
+      <c r="D83" s="173"/>
+      <c r="E83" s="173"/>
       <c r="F83" s="21"/>
     </row>
     <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="176" t="s">
+      <c r="A84" s="167" t="s">
         <v>28</v>
       </c>
-      <c r="B84" s="176"/>
-      <c r="C84" s="176"/>
-      <c r="D84" s="176"/>
-      <c r="E84" s="176"/>
-      <c r="F84" s="176"/>
+      <c r="B84" s="167"/>
+      <c r="C84" s="167"/>
+      <c r="D84" s="167"/>
+      <c r="E84" s="167"/>
+      <c r="F84" s="167"/>
     </row>
     <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A85" s="172" t="s">
+      <c r="A85" s="176" t="s">
         <v>29</v>
       </c>
-      <c r="B85" s="172"/>
-      <c r="C85" s="172"/>
-      <c r="D85" s="172"/>
-      <c r="E85" s="172"/>
-      <c r="F85" s="172"/>
+      <c r="B85" s="176"/>
+      <c r="C85" s="176"/>
+      <c r="D85" s="176"/>
+      <c r="E85" s="176"/>
+      <c r="F85" s="176"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="21"/>
@@ -4149,26 +4238,26 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="21"/>
-      <c r="B87" s="169"/>
-      <c r="C87" s="169"/>
-      <c r="D87" s="169"/>
-      <c r="E87" s="169"/>
+      <c r="B87" s="174"/>
+      <c r="C87" s="174"/>
+      <c r="D87" s="174"/>
+      <c r="E87" s="174"/>
       <c r="F87" s="21"/>
     </row>
     <row r="88" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A88" s="175" t="s">
+      <c r="A88" s="166" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="175"/>
-      <c r="C88" s="175"/>
-      <c r="D88" s="175"/>
-      <c r="E88" s="175"/>
-      <c r="F88" s="175"/>
+      <c r="B88" s="166"/>
+      <c r="C88" s="166"/>
+      <c r="D88" s="166"/>
+      <c r="E88" s="166"/>
+      <c r="F88" s="166"/>
     </row>
     <row r="90" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="166"/>
-      <c r="C90" s="167"/>
-      <c r="D90" s="167"/>
+      <c r="B90" s="171"/>
+      <c r="C90" s="172"/>
+      <c r="D90" s="172"/>
     </row>
     <row r="91" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
@@ -4178,34 +4267,6 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="A88:F88"/>
-    <mergeCell ref="A84:F84"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="B79:D79"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="B54:D54"/>
     <mergeCell ref="B90:D90"/>
     <mergeCell ref="B83:E83"/>
     <mergeCell ref="B87:E87"/>
@@ -4222,6 +4283,34 @@
     <mergeCell ref="B44:D44"/>
     <mergeCell ref="B78:D78"/>
     <mergeCell ref="A85:F85"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="B79:D79"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="A88:F88"/>
+    <mergeCell ref="A84:F84"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B52:D52"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <dataValidations count="1">
@@ -4380,14 +4469,14 @@
       <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="173" t="s">
+      <c r="A30" s="169" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="173"/>
-      <c r="C30" s="173"/>
-      <c r="D30" s="173"/>
-      <c r="E30" s="173"/>
-      <c r="F30" s="173"/>
+      <c r="B30" s="169"/>
+      <c r="C30" s="169"/>
+      <c r="D30" s="169"/>
+      <c r="E30" s="169"/>
+      <c r="F30" s="169"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="17"/>
@@ -4408,273 +4497,273 @@
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
-      <c r="B33" s="170"/>
-      <c r="C33" s="170"/>
-      <c r="D33" s="170"/>
+      <c r="B33" s="168"/>
+      <c r="C33" s="168"/>
+      <c r="D33" s="168"/>
       <c r="E33" s="28"/>
       <c r="F33" s="21"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="21"/>
-      <c r="B34" s="170" t="s">
+      <c r="B34" s="168" t="s">
         <v>33</v>
       </c>
-      <c r="C34" s="170"/>
-      <c r="D34" s="170"/>
+      <c r="C34" s="168"/>
+      <c r="D34" s="168"/>
       <c r="E34" s="28"/>
       <c r="F34" s="21"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
-      <c r="B35" s="170"/>
-      <c r="C35" s="170"/>
-      <c r="D35" s="170"/>
+      <c r="B35" s="168"/>
+      <c r="C35" s="168"/>
+      <c r="D35" s="168"/>
       <c r="E35" s="28"/>
       <c r="F35" s="21"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="21"/>
-      <c r="B36" s="170" t="s">
+      <c r="B36" s="168" t="s">
         <v>31</v>
       </c>
-      <c r="C36" s="170"/>
-      <c r="D36" s="170"/>
+      <c r="C36" s="168"/>
+      <c r="D36" s="168"/>
       <c r="E36" s="28"/>
       <c r="F36" s="21"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
-      <c r="B37" s="170"/>
-      <c r="C37" s="170"/>
-      <c r="D37" s="170"/>
+      <c r="B37" s="168"/>
+      <c r="C37" s="168"/>
+      <c r="D37" s="168"/>
       <c r="E37" s="28"/>
       <c r="F37" s="21"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="21"/>
-      <c r="B38" s="170" t="s">
+      <c r="B38" s="168" t="s">
         <v>107</v>
       </c>
-      <c r="C38" s="170"/>
-      <c r="D38" s="170"/>
+      <c r="C38" s="168"/>
+      <c r="D38" s="168"/>
       <c r="E38" s="28"/>
       <c r="F38" s="21"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="21"/>
-      <c r="B39" s="170"/>
-      <c r="C39" s="170"/>
-      <c r="D39" s="170"/>
+      <c r="B39" s="168"/>
+      <c r="C39" s="168"/>
+      <c r="D39" s="168"/>
       <c r="E39" s="28"/>
       <c r="F39" s="21"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="21"/>
-      <c r="B40" s="170" t="s">
+      <c r="B40" s="168" t="s">
         <v>38</v>
       </c>
-      <c r="C40" s="170"/>
-      <c r="D40" s="170"/>
+      <c r="C40" s="168"/>
+      <c r="D40" s="168"/>
       <c r="E40" s="28"/>
       <c r="F40" s="21"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="21"/>
-      <c r="B41" s="170"/>
-      <c r="C41" s="170"/>
-      <c r="D41" s="170"/>
+      <c r="B41" s="168"/>
+      <c r="C41" s="168"/>
+      <c r="D41" s="168"/>
       <c r="E41" s="28"/>
       <c r="F41" s="21"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="21"/>
-      <c r="B42" s="170"/>
-      <c r="C42" s="170"/>
-      <c r="D42" s="170"/>
+      <c r="B42" s="168"/>
+      <c r="C42" s="168"/>
+      <c r="D42" s="168"/>
       <c r="E42" s="28"/>
       <c r="F42" s="21"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="21"/>
-      <c r="B43" s="170"/>
-      <c r="C43" s="170"/>
-      <c r="D43" s="170"/>
+      <c r="B43" s="168"/>
+      <c r="C43" s="168"/>
+      <c r="D43" s="168"/>
       <c r="E43" s="28"/>
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
-      <c r="B44" s="170"/>
-      <c r="C44" s="170"/>
-      <c r="D44" s="170"/>
+      <c r="B44" s="168"/>
+      <c r="C44" s="168"/>
+      <c r="D44" s="168"/>
       <c r="E44" s="28"/>
       <c r="F44" s="21"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="21"/>
-      <c r="B45" s="170"/>
-      <c r="C45" s="170"/>
-      <c r="D45" s="170"/>
+      <c r="B45" s="168"/>
+      <c r="C45" s="168"/>
+      <c r="D45" s="168"/>
       <c r="E45" s="28"/>
       <c r="F45" s="21"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="21"/>
-      <c r="B46" s="170"/>
-      <c r="C46" s="170"/>
-      <c r="D46" s="170"/>
+      <c r="B46" s="168"/>
+      <c r="C46" s="168"/>
+      <c r="D46" s="168"/>
       <c r="E46" s="28"/>
       <c r="F46" s="21"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="21"/>
-      <c r="B47" s="170"/>
-      <c r="C47" s="170"/>
-      <c r="D47" s="170"/>
+      <c r="B47" s="168"/>
+      <c r="C47" s="168"/>
+      <c r="D47" s="168"/>
       <c r="E47" s="28"/>
       <c r="F47" s="21"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="21"/>
-      <c r="B48" s="170"/>
-      <c r="C48" s="170"/>
-      <c r="D48" s="170"/>
+      <c r="B48" s="168"/>
+      <c r="C48" s="168"/>
+      <c r="D48" s="168"/>
       <c r="E48" s="28"/>
       <c r="F48" s="21"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="21"/>
-      <c r="B49" s="170"/>
-      <c r="C49" s="170"/>
-      <c r="D49" s="170"/>
+      <c r="B49" s="168"/>
+      <c r="C49" s="168"/>
+      <c r="D49" s="168"/>
       <c r="E49" s="28"/>
       <c r="F49" s="21"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="21"/>
-      <c r="B50" s="170"/>
-      <c r="C50" s="170"/>
-      <c r="D50" s="170"/>
+      <c r="B50" s="168"/>
+      <c r="C50" s="168"/>
+      <c r="D50" s="168"/>
       <c r="E50" s="28"/>
       <c r="F50" s="21"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="21"/>
-      <c r="B51" s="170"/>
-      <c r="C51" s="170"/>
-      <c r="D51" s="170"/>
+      <c r="B51" s="168"/>
+      <c r="C51" s="168"/>
+      <c r="D51" s="168"/>
       <c r="E51" s="28"/>
       <c r="F51" s="21"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="21"/>
-      <c r="B52" s="170"/>
-      <c r="C52" s="170"/>
-      <c r="D52" s="170"/>
+      <c r="B52" s="168"/>
+      <c r="C52" s="168"/>
+      <c r="D52" s="168"/>
       <c r="E52" s="28"/>
       <c r="F52" s="21"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="21"/>
-      <c r="B53" s="170"/>
-      <c r="C53" s="170"/>
-      <c r="D53" s="170"/>
+      <c r="B53" s="168"/>
+      <c r="C53" s="168"/>
+      <c r="D53" s="168"/>
       <c r="E53" s="28"/>
       <c r="F53" s="21"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="21"/>
-      <c r="B54" s="170"/>
-      <c r="C54" s="170"/>
-      <c r="D54" s="170"/>
+      <c r="B54" s="168"/>
+      <c r="C54" s="168"/>
+      <c r="D54" s="168"/>
       <c r="E54" s="28"/>
       <c r="F54" s="21"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="21"/>
-      <c r="B55" s="170"/>
-      <c r="C55" s="170"/>
-      <c r="D55" s="170"/>
+      <c r="B55" s="168"/>
+      <c r="C55" s="168"/>
+      <c r="D55" s="168"/>
       <c r="E55" s="28"/>
       <c r="F55" s="21"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="21"/>
-      <c r="B56" s="170"/>
-      <c r="C56" s="170"/>
-      <c r="D56" s="170"/>
+      <c r="B56" s="168"/>
+      <c r="C56" s="168"/>
+      <c r="D56" s="168"/>
       <c r="E56" s="28"/>
       <c r="F56" s="21"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="21"/>
-      <c r="B57" s="170"/>
-      <c r="C57" s="170"/>
-      <c r="D57" s="170"/>
+      <c r="B57" s="168"/>
+      <c r="C57" s="168"/>
+      <c r="D57" s="168"/>
       <c r="E57" s="28"/>
       <c r="F57" s="21"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="21"/>
-      <c r="B58" s="170"/>
-      <c r="C58" s="170"/>
-      <c r="D58" s="170"/>
+      <c r="B58" s="168"/>
+      <c r="C58" s="168"/>
+      <c r="D58" s="168"/>
       <c r="E58" s="28"/>
       <c r="F58" s="21"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="21"/>
-      <c r="B59" s="170"/>
-      <c r="C59" s="170"/>
-      <c r="D59" s="170"/>
+      <c r="B59" s="168"/>
+      <c r="C59" s="168"/>
+      <c r="D59" s="168"/>
       <c r="E59" s="28"/>
       <c r="F59" s="21"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="21"/>
-      <c r="B60" s="170"/>
-      <c r="C60" s="170"/>
-      <c r="D60" s="170"/>
+      <c r="B60" s="168"/>
+      <c r="C60" s="168"/>
+      <c r="D60" s="168"/>
       <c r="E60" s="28"/>
       <c r="F60" s="21"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="21"/>
-      <c r="B61" s="170"/>
-      <c r="C61" s="170"/>
-      <c r="D61" s="170"/>
+      <c r="B61" s="168"/>
+      <c r="C61" s="168"/>
+      <c r="D61" s="168"/>
       <c r="E61" s="28"/>
       <c r="F61" s="21"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="21"/>
-      <c r="B62" s="170"/>
-      <c r="C62" s="170"/>
-      <c r="D62" s="170"/>
+      <c r="B62" s="168"/>
+      <c r="C62" s="168"/>
+      <c r="D62" s="168"/>
       <c r="E62" s="28"/>
       <c r="F62" s="21"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="21"/>
-      <c r="B63" s="170"/>
-      <c r="C63" s="170"/>
-      <c r="D63" s="170"/>
+      <c r="B63" s="168"/>
+      <c r="C63" s="168"/>
+      <c r="D63" s="168"/>
       <c r="E63" s="28"/>
       <c r="F63" s="21"/>
     </row>
     <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A64" s="21"/>
-      <c r="B64" s="170"/>
-      <c r="C64" s="170"/>
-      <c r="D64" s="170"/>
+      <c r="B64" s="168"/>
+      <c r="C64" s="168"/>
+      <c r="D64" s="168"/>
       <c r="E64" s="28"/>
       <c r="F64" s="21"/>
     </row>
     <row r="65" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A65" s="21"/>
-      <c r="B65" s="170"/>
-      <c r="C65" s="170"/>
-      <c r="D65" s="170"/>
+      <c r="B65" s="168"/>
+      <c r="C65" s="168"/>
+      <c r="D65" s="168"/>
       <c r="E65" s="28"/>
       <c r="F65" s="21"/>
     </row>
@@ -4704,17 +4793,17 @@
     </row>
     <row r="68" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A68" s="21"/>
-      <c r="B68" s="170"/>
-      <c r="C68" s="170"/>
-      <c r="D68" s="170"/>
+      <c r="B68" s="168"/>
+      <c r="C68" s="168"/>
+      <c r="D68" s="168"/>
       <c r="E68" s="28"/>
       <c r="F68" s="21"/>
     </row>
     <row r="69" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="21"/>
-      <c r="B69" s="170"/>
-      <c r="C69" s="170"/>
-      <c r="D69" s="170"/>
+      <c r="B69" s="168"/>
+      <c r="C69" s="168"/>
+      <c r="D69" s="168"/>
       <c r="E69" s="28"/>
       <c r="F69" s="21"/>
     </row>
@@ -4821,19 +4910,19 @@
     </row>
     <row r="78" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A78" s="21"/>
-      <c r="B78" s="174"/>
-      <c r="C78" s="174"/>
-      <c r="D78" s="174"/>
+      <c r="B78" s="170"/>
+      <c r="C78" s="170"/>
+      <c r="D78" s="170"/>
       <c r="E78" s="36"/>
       <c r="F78" s="21"/>
     </row>
     <row r="79" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="21"/>
-      <c r="B79" s="171" t="s">
+      <c r="B79" s="175" t="s">
         <v>17</v>
       </c>
-      <c r="C79" s="171"/>
-      <c r="D79" s="171"/>
+      <c r="C79" s="175"/>
+      <c r="D79" s="175"/>
       <c r="E79" s="36">
         <v>0</v>
       </c>
@@ -4841,9 +4930,9 @@
     </row>
     <row r="80" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A80" s="21"/>
-      <c r="B80" s="174"/>
-      <c r="C80" s="174"/>
-      <c r="D80" s="174"/>
+      <c r="B80" s="170"/>
+      <c r="C80" s="170"/>
+      <c r="D80" s="170"/>
       <c r="E80" s="36"/>
       <c r="F80" s="21"/>
     </row>
@@ -4878,31 +4967,31 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" s="21"/>
-      <c r="B84" s="168"/>
-      <c r="C84" s="168"/>
-      <c r="D84" s="168"/>
-      <c r="E84" s="168"/>
+      <c r="B84" s="173"/>
+      <c r="C84" s="173"/>
+      <c r="D84" s="173"/>
+      <c r="E84" s="173"/>
       <c r="F84" s="21"/>
     </row>
     <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A85" s="176" t="s">
+      <c r="A85" s="167" t="s">
         <v>28</v>
       </c>
-      <c r="B85" s="176"/>
-      <c r="C85" s="176"/>
-      <c r="D85" s="176"/>
-      <c r="E85" s="176"/>
-      <c r="F85" s="176"/>
+      <c r="B85" s="167"/>
+      <c r="C85" s="167"/>
+      <c r="D85" s="167"/>
+      <c r="E85" s="167"/>
+      <c r="F85" s="167"/>
     </row>
     <row r="86" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A86" s="172" t="s">
+      <c r="A86" s="176" t="s">
         <v>29</v>
       </c>
-      <c r="B86" s="172"/>
-      <c r="C86" s="172"/>
-      <c r="D86" s="172"/>
-      <c r="E86" s="172"/>
-      <c r="F86" s="172"/>
+      <c r="B86" s="176"/>
+      <c r="C86" s="176"/>
+      <c r="D86" s="176"/>
+      <c r="E86" s="176"/>
+      <c r="F86" s="176"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="21"/>
@@ -4914,26 +5003,26 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" s="21"/>
-      <c r="B88" s="169"/>
-      <c r="C88" s="169"/>
-      <c r="D88" s="169"/>
-      <c r="E88" s="169"/>
+      <c r="B88" s="174"/>
+      <c r="C88" s="174"/>
+      <c r="D88" s="174"/>
+      <c r="E88" s="174"/>
       <c r="F88" s="21"/>
     </row>
     <row r="89" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A89" s="175" t="s">
+      <c r="A89" s="166" t="s">
         <v>7</v>
       </c>
-      <c r="B89" s="175"/>
-      <c r="C89" s="175"/>
-      <c r="D89" s="175"/>
-      <c r="E89" s="175"/>
-      <c r="F89" s="175"/>
+      <c r="B89" s="166"/>
+      <c r="C89" s="166"/>
+      <c r="D89" s="166"/>
+      <c r="E89" s="166"/>
+      <c r="F89" s="166"/>
     </row>
     <row r="91" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B91" s="166"/>
-      <c r="C91" s="167"/>
-      <c r="D91" s="167"/>
+      <c r="B91" s="171"/>
+      <c r="C91" s="172"/>
+      <c r="D91" s="172"/>
     </row>
     <row r="92" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
@@ -4943,6 +5032,35 @@
     </row>
   </sheetData>
   <mergeCells count="45">
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B62:D62"/>
     <mergeCell ref="A89:F89"/>
     <mergeCell ref="B91:D91"/>
     <mergeCell ref="B46:D46"/>
@@ -4959,35 +5077,6 @@
     <mergeCell ref="B69:D69"/>
     <mergeCell ref="B78:D78"/>
     <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B42:D42"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B78:B80 B12:B20 B33:B69" xr:uid="{0C730B90-AA6E-44E0-8CCA-A1B935C30BD1}">
@@ -5145,14 +5234,14 @@
       <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="173" t="s">
+      <c r="A30" s="169" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="173"/>
-      <c r="C30" s="173"/>
-      <c r="D30" s="173"/>
-      <c r="E30" s="173"/>
-      <c r="F30" s="173"/>
+      <c r="B30" s="169"/>
+      <c r="C30" s="169"/>
+      <c r="D30" s="169"/>
+      <c r="E30" s="169"/>
+      <c r="F30" s="169"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="17"/>
@@ -5173,275 +5262,275 @@
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
-      <c r="B33" s="170"/>
-      <c r="C33" s="170"/>
-      <c r="D33" s="170"/>
+      <c r="B33" s="168"/>
+      <c r="C33" s="168"/>
+      <c r="D33" s="168"/>
       <c r="E33" s="28"/>
       <c r="F33" s="21"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="21"/>
-      <c r="B34" s="170" t="s">
+      <c r="B34" s="168" t="s">
         <v>33</v>
       </c>
-      <c r="C34" s="170"/>
-      <c r="D34" s="170"/>
+      <c r="C34" s="168"/>
+      <c r="D34" s="168"/>
       <c r="E34" s="28"/>
       <c r="F34" s="21"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
-      <c r="B35" s="170"/>
-      <c r="C35" s="170"/>
-      <c r="D35" s="170"/>
+      <c r="B35" s="168"/>
+      <c r="C35" s="168"/>
+      <c r="D35" s="168"/>
       <c r="E35" s="28"/>
       <c r="F35" s="21"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="21"/>
-      <c r="B36" s="170" t="s">
+      <c r="B36" s="168" t="s">
         <v>110</v>
       </c>
-      <c r="C36" s="170"/>
-      <c r="D36" s="170"/>
+      <c r="C36" s="168"/>
+      <c r="D36" s="168"/>
       <c r="E36" s="28"/>
       <c r="F36" s="21"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
-      <c r="B37" s="170"/>
-      <c r="C37" s="170"/>
-      <c r="D37" s="170"/>
+      <c r="B37" s="168"/>
+      <c r="C37" s="168"/>
+      <c r="D37" s="168"/>
       <c r="E37" s="28"/>
       <c r="F37" s="21"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="21"/>
-      <c r="B38" s="170" t="s">
+      <c r="B38" s="168" t="s">
         <v>38</v>
       </c>
-      <c r="C38" s="170"/>
-      <c r="D38" s="170"/>
+      <c r="C38" s="168"/>
+      <c r="D38" s="168"/>
       <c r="E38" s="28"/>
       <c r="F38" s="21"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="21"/>
-      <c r="B39" s="170"/>
-      <c r="C39" s="170"/>
-      <c r="D39" s="170"/>
+      <c r="B39" s="168"/>
+      <c r="C39" s="168"/>
+      <c r="D39" s="168"/>
       <c r="E39" s="28"/>
       <c r="F39" s="21"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="21"/>
-      <c r="B40" s="170" t="s">
+      <c r="B40" s="168" t="s">
         <v>111</v>
       </c>
-      <c r="C40" s="170"/>
-      <c r="D40" s="170"/>
+      <c r="C40" s="168"/>
+      <c r="D40" s="168"/>
       <c r="E40" s="28"/>
       <c r="F40" s="21"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="21"/>
-      <c r="B41" s="170"/>
-      <c r="C41" s="170"/>
-      <c r="D41" s="170"/>
+      <c r="B41" s="168"/>
+      <c r="C41" s="168"/>
+      <c r="D41" s="168"/>
       <c r="E41" s="28"/>
       <c r="F41" s="21"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="21"/>
-      <c r="B42" s="170" t="s">
+      <c r="B42" s="168" t="s">
         <v>95</v>
       </c>
-      <c r="C42" s="170"/>
-      <c r="D42" s="170"/>
+      <c r="C42" s="168"/>
+      <c r="D42" s="168"/>
       <c r="E42" s="28"/>
       <c r="F42" s="21"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="21"/>
-      <c r="B43" s="170"/>
-      <c r="C43" s="170"/>
-      <c r="D43" s="170"/>
+      <c r="B43" s="168"/>
+      <c r="C43" s="168"/>
+      <c r="D43" s="168"/>
       <c r="E43" s="28"/>
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
-      <c r="B44" s="170"/>
-      <c r="C44" s="170"/>
-      <c r="D44" s="170"/>
+      <c r="B44" s="168"/>
+      <c r="C44" s="168"/>
+      <c r="D44" s="168"/>
       <c r="E44" s="28"/>
       <c r="F44" s="21"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="21"/>
-      <c r="B45" s="170"/>
-      <c r="C45" s="170"/>
-      <c r="D45" s="170"/>
+      <c r="B45" s="168"/>
+      <c r="C45" s="168"/>
+      <c r="D45" s="168"/>
       <c r="E45" s="28"/>
       <c r="F45" s="21"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="21"/>
-      <c r="B46" s="170"/>
-      <c r="C46" s="170"/>
-      <c r="D46" s="170"/>
+      <c r="B46" s="168"/>
+      <c r="C46" s="168"/>
+      <c r="D46" s="168"/>
       <c r="E46" s="28"/>
       <c r="F46" s="21"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="21"/>
-      <c r="B47" s="170"/>
-      <c r="C47" s="170"/>
-      <c r="D47" s="170"/>
+      <c r="B47" s="168"/>
+      <c r="C47" s="168"/>
+      <c r="D47" s="168"/>
       <c r="E47" s="28"/>
       <c r="F47" s="21"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="21"/>
-      <c r="B48" s="170"/>
-      <c r="C48" s="170"/>
-      <c r="D48" s="170"/>
+      <c r="B48" s="168"/>
+      <c r="C48" s="168"/>
+      <c r="D48" s="168"/>
       <c r="E48" s="28"/>
       <c r="F48" s="21"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="21"/>
-      <c r="B49" s="170"/>
-      <c r="C49" s="170"/>
-      <c r="D49" s="170"/>
+      <c r="B49" s="168"/>
+      <c r="C49" s="168"/>
+      <c r="D49" s="168"/>
       <c r="E49" s="28"/>
       <c r="F49" s="21"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="21"/>
-      <c r="B50" s="170"/>
-      <c r="C50" s="170"/>
-      <c r="D50" s="170"/>
+      <c r="B50" s="168"/>
+      <c r="C50" s="168"/>
+      <c r="D50" s="168"/>
       <c r="E50" s="28"/>
       <c r="F50" s="21"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="21"/>
-      <c r="B51" s="170"/>
-      <c r="C51" s="170"/>
-      <c r="D51" s="170"/>
+      <c r="B51" s="168"/>
+      <c r="C51" s="168"/>
+      <c r="D51" s="168"/>
       <c r="E51" s="28"/>
       <c r="F51" s="21"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="21"/>
-      <c r="B52" s="170"/>
-      <c r="C52" s="170"/>
-      <c r="D52" s="170"/>
+      <c r="B52" s="168"/>
+      <c r="C52" s="168"/>
+      <c r="D52" s="168"/>
       <c r="E52" s="28"/>
       <c r="F52" s="21"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="21"/>
-      <c r="B53" s="170"/>
-      <c r="C53" s="170"/>
-      <c r="D53" s="170"/>
+      <c r="B53" s="168"/>
+      <c r="C53" s="168"/>
+      <c r="D53" s="168"/>
       <c r="E53" s="28"/>
       <c r="F53" s="21"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="21"/>
-      <c r="B54" s="170"/>
-      <c r="C54" s="170"/>
-      <c r="D54" s="170"/>
+      <c r="B54" s="168"/>
+      <c r="C54" s="168"/>
+      <c r="D54" s="168"/>
       <c r="E54" s="28"/>
       <c r="F54" s="21"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="21"/>
-      <c r="B55" s="170"/>
-      <c r="C55" s="170"/>
-      <c r="D55" s="170"/>
+      <c r="B55" s="168"/>
+      <c r="C55" s="168"/>
+      <c r="D55" s="168"/>
       <c r="E55" s="28"/>
       <c r="F55" s="21"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="21"/>
-      <c r="B56" s="170"/>
-      <c r="C56" s="170"/>
-      <c r="D56" s="170"/>
+      <c r="B56" s="168"/>
+      <c r="C56" s="168"/>
+      <c r="D56" s="168"/>
       <c r="E56" s="28"/>
       <c r="F56" s="21"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="21"/>
-      <c r="B57" s="170"/>
-      <c r="C57" s="170"/>
-      <c r="D57" s="170"/>
+      <c r="B57" s="168"/>
+      <c r="C57" s="168"/>
+      <c r="D57" s="168"/>
       <c r="E57" s="28"/>
       <c r="F57" s="21"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="21"/>
-      <c r="B58" s="170"/>
-      <c r="C58" s="170"/>
-      <c r="D58" s="170"/>
+      <c r="B58" s="168"/>
+      <c r="C58" s="168"/>
+      <c r="D58" s="168"/>
       <c r="E58" s="28"/>
       <c r="F58" s="21"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="21"/>
-      <c r="B59" s="170"/>
-      <c r="C59" s="170"/>
-      <c r="D59" s="170"/>
+      <c r="B59" s="168"/>
+      <c r="C59" s="168"/>
+      <c r="D59" s="168"/>
       <c r="E59" s="28"/>
       <c r="F59" s="21"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="21"/>
-      <c r="B60" s="170"/>
-      <c r="C60" s="170"/>
-      <c r="D60" s="170"/>
+      <c r="B60" s="168"/>
+      <c r="C60" s="168"/>
+      <c r="D60" s="168"/>
       <c r="E60" s="28"/>
       <c r="F60" s="21"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="21"/>
-      <c r="B61" s="170"/>
-      <c r="C61" s="170"/>
-      <c r="D61" s="170"/>
+      <c r="B61" s="168"/>
+      <c r="C61" s="168"/>
+      <c r="D61" s="168"/>
       <c r="E61" s="28"/>
       <c r="F61" s="21"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="21"/>
-      <c r="B62" s="170"/>
-      <c r="C62" s="170"/>
-      <c r="D62" s="170"/>
+      <c r="B62" s="168"/>
+      <c r="C62" s="168"/>
+      <c r="D62" s="168"/>
       <c r="E62" s="28"/>
       <c r="F62" s="21"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="21"/>
-      <c r="B63" s="170"/>
-      <c r="C63" s="170"/>
-      <c r="D63" s="170"/>
+      <c r="B63" s="168"/>
+      <c r="C63" s="168"/>
+      <c r="D63" s="168"/>
       <c r="E63" s="28"/>
       <c r="F63" s="21"/>
     </row>
     <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A64" s="21"/>
-      <c r="B64" s="170"/>
-      <c r="C64" s="170"/>
-      <c r="D64" s="170"/>
+      <c r="B64" s="168"/>
+      <c r="C64" s="168"/>
+      <c r="D64" s="168"/>
       <c r="E64" s="28"/>
       <c r="F64" s="21"/>
     </row>
     <row r="65" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A65" s="21"/>
-      <c r="B65" s="170"/>
-      <c r="C65" s="170"/>
-      <c r="D65" s="170"/>
+      <c r="B65" s="168"/>
+      <c r="C65" s="168"/>
+      <c r="D65" s="168"/>
       <c r="E65" s="28"/>
       <c r="F65" s="21"/>
     </row>
@@ -5471,17 +5560,17 @@
     </row>
     <row r="68" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A68" s="21"/>
-      <c r="B68" s="170"/>
-      <c r="C68" s="170"/>
-      <c r="D68" s="170"/>
+      <c r="B68" s="168"/>
+      <c r="C68" s="168"/>
+      <c r="D68" s="168"/>
       <c r="E68" s="28"/>
       <c r="F68" s="21"/>
     </row>
     <row r="69" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="21"/>
-      <c r="B69" s="170"/>
-      <c r="C69" s="170"/>
-      <c r="D69" s="170"/>
+      <c r="B69" s="168"/>
+      <c r="C69" s="168"/>
+      <c r="D69" s="168"/>
       <c r="E69" s="28"/>
       <c r="F69" s="21"/>
     </row>
@@ -5588,19 +5677,19 @@
     </row>
     <row r="78" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A78" s="21"/>
-      <c r="B78" s="174"/>
-      <c r="C78" s="174"/>
-      <c r="D78" s="174"/>
+      <c r="B78" s="170"/>
+      <c r="C78" s="170"/>
+      <c r="D78" s="170"/>
       <c r="E78" s="36"/>
       <c r="F78" s="21"/>
     </row>
     <row r="79" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="21"/>
-      <c r="B79" s="171" t="s">
+      <c r="B79" s="175" t="s">
         <v>17</v>
       </c>
-      <c r="C79" s="171"/>
-      <c r="D79" s="171"/>
+      <c r="C79" s="175"/>
+      <c r="D79" s="175"/>
       <c r="E79" s="36">
         <v>0</v>
       </c>
@@ -5608,9 +5697,9 @@
     </row>
     <row r="80" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A80" s="21"/>
-      <c r="B80" s="174"/>
-      <c r="C80" s="174"/>
-      <c r="D80" s="174"/>
+      <c r="B80" s="170"/>
+      <c r="C80" s="170"/>
+      <c r="D80" s="170"/>
       <c r="E80" s="36"/>
       <c r="F80" s="21"/>
     </row>
@@ -5645,31 +5734,31 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" s="21"/>
-      <c r="B84" s="168"/>
-      <c r="C84" s="168"/>
-      <c r="D84" s="168"/>
-      <c r="E84" s="168"/>
+      <c r="B84" s="173"/>
+      <c r="C84" s="173"/>
+      <c r="D84" s="173"/>
+      <c r="E84" s="173"/>
       <c r="F84" s="21"/>
     </row>
     <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A85" s="176" t="s">
+      <c r="A85" s="167" t="s">
         <v>28</v>
       </c>
-      <c r="B85" s="176"/>
-      <c r="C85" s="176"/>
-      <c r="D85" s="176"/>
-      <c r="E85" s="176"/>
-      <c r="F85" s="176"/>
+      <c r="B85" s="167"/>
+      <c r="C85" s="167"/>
+      <c r="D85" s="167"/>
+      <c r="E85" s="167"/>
+      <c r="F85" s="167"/>
     </row>
     <row r="86" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A86" s="172" t="s">
+      <c r="A86" s="176" t="s">
         <v>29</v>
       </c>
-      <c r="B86" s="172"/>
-      <c r="C86" s="172"/>
-      <c r="D86" s="172"/>
-      <c r="E86" s="172"/>
-      <c r="F86" s="172"/>
+      <c r="B86" s="176"/>
+      <c r="C86" s="176"/>
+      <c r="D86" s="176"/>
+      <c r="E86" s="176"/>
+      <c r="F86" s="176"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="21"/>
@@ -5681,26 +5770,26 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" s="21"/>
-      <c r="B88" s="169"/>
-      <c r="C88" s="169"/>
-      <c r="D88" s="169"/>
-      <c r="E88" s="169"/>
+      <c r="B88" s="174"/>
+      <c r="C88" s="174"/>
+      <c r="D88" s="174"/>
+      <c r="E88" s="174"/>
       <c r="F88" s="21"/>
     </row>
     <row r="89" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A89" s="175" t="s">
+      <c r="A89" s="166" t="s">
         <v>7</v>
       </c>
-      <c r="B89" s="175"/>
-      <c r="C89" s="175"/>
-      <c r="D89" s="175"/>
-      <c r="E89" s="175"/>
-      <c r="F89" s="175"/>
+      <c r="B89" s="166"/>
+      <c r="C89" s="166"/>
+      <c r="D89" s="166"/>
+      <c r="E89" s="166"/>
+      <c r="F89" s="166"/>
     </row>
     <row r="91" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B91" s="166"/>
-      <c r="C91" s="167"/>
-      <c r="D91" s="167"/>
+      <c r="B91" s="171"/>
+      <c r="C91" s="172"/>
+      <c r="D91" s="172"/>
     </row>
     <row r="92" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
@@ -5710,6 +5799,39 @@
     </row>
   </sheetData>
   <mergeCells count="45">
+    <mergeCell ref="B88:E88"/>
+    <mergeCell ref="A89:F89"/>
+    <mergeCell ref="B91:D91"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B79:D79"/>
+    <mergeCell ref="B80:D80"/>
+    <mergeCell ref="B84:E84"/>
+    <mergeCell ref="A85:F85"/>
+    <mergeCell ref="A86:F86"/>
+    <mergeCell ref="B69:D69"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B54:D54"/>
     <mergeCell ref="B43:D43"/>
     <mergeCell ref="A30:F30"/>
     <mergeCell ref="B33:D33"/>
@@ -5722,39 +5844,6 @@
     <mergeCell ref="B40:D40"/>
     <mergeCell ref="B41:D41"/>
     <mergeCell ref="B42:D42"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B69:D69"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="B65:D65"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="B88:E88"/>
-    <mergeCell ref="A89:F89"/>
-    <mergeCell ref="B91:D91"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="B79:D79"/>
-    <mergeCell ref="B80:D80"/>
-    <mergeCell ref="B84:E84"/>
-    <mergeCell ref="A85:F85"/>
-    <mergeCell ref="A86:F86"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B78:B80 B12:B20 B33:B69" xr:uid="{B85FCF49-C945-46D6-B449-B03438426302}">
@@ -6960,14 +7049,14 @@
       <c r="F87" s="50"/>
     </row>
     <row r="88" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A88" s="175" t="s">
+      <c r="A88" s="166" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="175"/>
-      <c r="C88" s="175"/>
-      <c r="D88" s="175"/>
-      <c r="E88" s="175"/>
-      <c r="F88" s="175"/>
+      <c r="B88" s="166"/>
+      <c r="C88" s="166"/>
+      <c r="D88" s="166"/>
+      <c r="E88" s="166"/>
+      <c r="F88" s="166"/>
     </row>
     <row r="89" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A89" s="62"/>
@@ -12129,14 +12218,14 @@
       <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="173" t="s">
+      <c r="A30" s="169" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="173"/>
-      <c r="C30" s="173"/>
-      <c r="D30" s="173"/>
-      <c r="E30" s="173"/>
-      <c r="F30" s="173"/>
+      <c r="B30" s="169"/>
+      <c r="C30" s="169"/>
+      <c r="D30" s="169"/>
+      <c r="E30" s="169"/>
+      <c r="F30" s="169"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="17"/>
@@ -12157,269 +12246,269 @@
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
-      <c r="B33" s="170"/>
-      <c r="C33" s="170"/>
-      <c r="D33" s="170"/>
+      <c r="B33" s="168"/>
+      <c r="C33" s="168"/>
+      <c r="D33" s="168"/>
       <c r="E33" s="28"/>
       <c r="F33" s="21"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="21"/>
-      <c r="B34" s="170" t="s">
+      <c r="B34" s="168" t="s">
         <v>64</v>
       </c>
-      <c r="C34" s="170"/>
-      <c r="D34" s="170"/>
+      <c r="C34" s="168"/>
+      <c r="D34" s="168"/>
       <c r="E34" s="28"/>
       <c r="F34" s="21"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
-      <c r="B35" s="170"/>
-      <c r="C35" s="170"/>
-      <c r="D35" s="170"/>
+      <c r="B35" s="168"/>
+      <c r="C35" s="168"/>
+      <c r="D35" s="168"/>
       <c r="E35" s="28"/>
       <c r="F35" s="21"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="21"/>
-      <c r="B36" s="170" t="s">
+      <c r="B36" s="168" t="s">
         <v>34</v>
       </c>
-      <c r="C36" s="170"/>
-      <c r="D36" s="170"/>
+      <c r="C36" s="168"/>
+      <c r="D36" s="168"/>
       <c r="E36" s="28"/>
       <c r="F36" s="21"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
-      <c r="B37" s="170"/>
-      <c r="C37" s="170"/>
-      <c r="D37" s="170"/>
+      <c r="B37" s="168"/>
+      <c r="C37" s="168"/>
+      <c r="D37" s="168"/>
       <c r="E37" s="28"/>
       <c r="F37" s="21"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="21"/>
-      <c r="B38" s="170" t="s">
+      <c r="B38" s="168" t="s">
         <v>38</v>
       </c>
-      <c r="C38" s="170"/>
-      <c r="D38" s="170"/>
+      <c r="C38" s="168"/>
+      <c r="D38" s="168"/>
       <c r="E38" s="28"/>
       <c r="F38" s="21"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="21"/>
-      <c r="B39" s="170"/>
-      <c r="C39" s="170"/>
-      <c r="D39" s="170"/>
+      <c r="B39" s="168"/>
+      <c r="C39" s="168"/>
+      <c r="D39" s="168"/>
       <c r="E39" s="28"/>
       <c r="F39" s="21"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="21"/>
-      <c r="B40" s="170" t="s">
+      <c r="B40" s="168" t="s">
         <v>67</v>
       </c>
-      <c r="C40" s="170"/>
-      <c r="D40" s="170"/>
+      <c r="C40" s="168"/>
+      <c r="D40" s="168"/>
       <c r="E40" s="28"/>
       <c r="F40" s="21"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="21"/>
-      <c r="B41" s="170"/>
-      <c r="C41" s="170"/>
-      <c r="D41" s="170"/>
+      <c r="B41" s="168"/>
+      <c r="C41" s="168"/>
+      <c r="D41" s="168"/>
       <c r="E41" s="28"/>
       <c r="F41" s="21"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="21"/>
-      <c r="B42" s="170" t="s">
+      <c r="B42" s="168" t="s">
         <v>65</v>
       </c>
-      <c r="C42" s="170"/>
-      <c r="D42" s="170"/>
+      <c r="C42" s="168"/>
+      <c r="D42" s="168"/>
       <c r="E42" s="28"/>
       <c r="F42" s="21"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="21"/>
-      <c r="B43" s="170"/>
-      <c r="C43" s="170"/>
-      <c r="D43" s="170"/>
+      <c r="B43" s="168"/>
+      <c r="C43" s="168"/>
+      <c r="D43" s="168"/>
       <c r="E43" s="28"/>
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
-      <c r="B44" s="170" t="s">
+      <c r="B44" s="168" t="s">
         <v>66</v>
       </c>
-      <c r="C44" s="170"/>
-      <c r="D44" s="170"/>
+      <c r="C44" s="168"/>
+      <c r="D44" s="168"/>
       <c r="E44" s="28"/>
       <c r="F44" s="21"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="21"/>
-      <c r="B45" s="170"/>
-      <c r="C45" s="170"/>
-      <c r="D45" s="170"/>
+      <c r="B45" s="168"/>
+      <c r="C45" s="168"/>
+      <c r="D45" s="168"/>
       <c r="E45" s="28"/>
       <c r="F45" s="21"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="21"/>
-      <c r="B46" s="170"/>
-      <c r="C46" s="170"/>
-      <c r="D46" s="170"/>
+      <c r="B46" s="168"/>
+      <c r="C46" s="168"/>
+      <c r="D46" s="168"/>
       <c r="E46" s="28"/>
       <c r="F46" s="21"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="21"/>
-      <c r="B47" s="170"/>
-      <c r="C47" s="170"/>
-      <c r="D47" s="170"/>
+      <c r="B47" s="168"/>
+      <c r="C47" s="168"/>
+      <c r="D47" s="168"/>
       <c r="E47" s="28"/>
       <c r="F47" s="21"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="21"/>
-      <c r="B48" s="170"/>
-      <c r="C48" s="170"/>
-      <c r="D48" s="170"/>
+      <c r="B48" s="168"/>
+      <c r="C48" s="168"/>
+      <c r="D48" s="168"/>
       <c r="E48" s="28"/>
       <c r="F48" s="21"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="21"/>
-      <c r="B49" s="170"/>
-      <c r="C49" s="170"/>
-      <c r="D49" s="170"/>
+      <c r="B49" s="168"/>
+      <c r="C49" s="168"/>
+      <c r="D49" s="168"/>
       <c r="E49" s="28"/>
       <c r="F49" s="21"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="21"/>
-      <c r="B50" s="170"/>
-      <c r="C50" s="170"/>
-      <c r="D50" s="170"/>
+      <c r="B50" s="168"/>
+      <c r="C50" s="168"/>
+      <c r="D50" s="168"/>
       <c r="E50" s="28"/>
       <c r="F50" s="21"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="21"/>
-      <c r="B51" s="170"/>
-      <c r="C51" s="170"/>
-      <c r="D51" s="170"/>
+      <c r="B51" s="168"/>
+      <c r="C51" s="168"/>
+      <c r="D51" s="168"/>
       <c r="E51" s="28"/>
       <c r="F51" s="21"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="21"/>
-      <c r="B52" s="170"/>
-      <c r="C52" s="170"/>
-      <c r="D52" s="170"/>
+      <c r="B52" s="168"/>
+      <c r="C52" s="168"/>
+      <c r="D52" s="168"/>
       <c r="E52" s="28"/>
       <c r="F52" s="21"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="21"/>
-      <c r="B53" s="170"/>
-      <c r="C53" s="170"/>
-      <c r="D53" s="170"/>
+      <c r="B53" s="168"/>
+      <c r="C53" s="168"/>
+      <c r="D53" s="168"/>
       <c r="E53" s="28"/>
       <c r="F53" s="21"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="21"/>
-      <c r="B54" s="170"/>
-      <c r="C54" s="170"/>
-      <c r="D54" s="170"/>
+      <c r="B54" s="168"/>
+      <c r="C54" s="168"/>
+      <c r="D54" s="168"/>
       <c r="E54" s="28"/>
       <c r="F54" s="21"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="21"/>
-      <c r="B55" s="170"/>
-      <c r="C55" s="170"/>
-      <c r="D55" s="170"/>
+      <c r="B55" s="168"/>
+      <c r="C55" s="168"/>
+      <c r="D55" s="168"/>
       <c r="E55" s="28"/>
       <c r="F55" s="21"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="21"/>
-      <c r="B56" s="170"/>
-      <c r="C56" s="170"/>
-      <c r="D56" s="170"/>
+      <c r="B56" s="168"/>
+      <c r="C56" s="168"/>
+      <c r="D56" s="168"/>
       <c r="E56" s="28"/>
       <c r="F56" s="21"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="21"/>
-      <c r="B57" s="170"/>
-      <c r="C57" s="170"/>
-      <c r="D57" s="170"/>
+      <c r="B57" s="168"/>
+      <c r="C57" s="168"/>
+      <c r="D57" s="168"/>
       <c r="E57" s="28"/>
       <c r="F57" s="21"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="21"/>
-      <c r="B58" s="170"/>
-      <c r="C58" s="170"/>
-      <c r="D58" s="170"/>
+      <c r="B58" s="168"/>
+      <c r="C58" s="168"/>
+      <c r="D58" s="168"/>
       <c r="E58" s="28"/>
       <c r="F58" s="21"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="21"/>
-      <c r="B59" s="170"/>
-      <c r="C59" s="170"/>
-      <c r="D59" s="170"/>
+      <c r="B59" s="168"/>
+      <c r="C59" s="168"/>
+      <c r="D59" s="168"/>
       <c r="E59" s="28"/>
       <c r="F59" s="21"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="21"/>
-      <c r="B60" s="170"/>
-      <c r="C60" s="170"/>
-      <c r="D60" s="170"/>
+      <c r="B60" s="168"/>
+      <c r="C60" s="168"/>
+      <c r="D60" s="168"/>
       <c r="E60" s="28"/>
       <c r="F60" s="21"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="21"/>
-      <c r="B61" s="170"/>
-      <c r="C61" s="170"/>
-      <c r="D61" s="170"/>
+      <c r="B61" s="168"/>
+      <c r="C61" s="168"/>
+      <c r="D61" s="168"/>
       <c r="E61" s="28"/>
       <c r="F61" s="21"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="21"/>
-      <c r="B62" s="170"/>
-      <c r="C62" s="170"/>
-      <c r="D62" s="170"/>
+      <c r="B62" s="168"/>
+      <c r="C62" s="168"/>
+      <c r="D62" s="168"/>
       <c r="E62" s="28"/>
       <c r="F62" s="21"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="21"/>
-      <c r="B63" s="170"/>
-      <c r="C63" s="170"/>
-      <c r="D63" s="170"/>
+      <c r="B63" s="168"/>
+      <c r="C63" s="168"/>
+      <c r="D63" s="168"/>
       <c r="E63" s="28"/>
       <c r="F63" s="21"/>
     </row>
     <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A64" s="21"/>
-      <c r="B64" s="170"/>
-      <c r="C64" s="170"/>
-      <c r="D64" s="170"/>
+      <c r="B64" s="168"/>
+      <c r="C64" s="168"/>
+      <c r="D64" s="168"/>
       <c r="E64" s="28"/>
       <c r="F64" s="21"/>
     </row>
@@ -12449,17 +12538,17 @@
     </row>
     <row r="67" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A67" s="21"/>
-      <c r="B67" s="170"/>
-      <c r="C67" s="170"/>
-      <c r="D67" s="170"/>
+      <c r="B67" s="168"/>
+      <c r="C67" s="168"/>
+      <c r="D67" s="168"/>
       <c r="E67" s="28"/>
       <c r="F67" s="21"/>
     </row>
     <row r="68" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="21"/>
-      <c r="B68" s="170"/>
-      <c r="C68" s="170"/>
-      <c r="D68" s="170"/>
+      <c r="B68" s="168"/>
+      <c r="C68" s="168"/>
+      <c r="D68" s="168"/>
       <c r="E68" s="28"/>
       <c r="F68" s="21"/>
     </row>
@@ -12566,19 +12655,19 @@
     </row>
     <row r="77" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A77" s="21"/>
-      <c r="B77" s="174"/>
-      <c r="C77" s="174"/>
-      <c r="D77" s="174"/>
+      <c r="B77" s="170"/>
+      <c r="C77" s="170"/>
+      <c r="D77" s="170"/>
       <c r="E77" s="36"/>
       <c r="F77" s="21"/>
     </row>
     <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="21"/>
-      <c r="B78" s="171" t="s">
+      <c r="B78" s="175" t="s">
         <v>17</v>
       </c>
-      <c r="C78" s="171"/>
-      <c r="D78" s="171"/>
+      <c r="C78" s="175"/>
+      <c r="D78" s="175"/>
       <c r="E78" s="36">
         <v>0</v>
       </c>
@@ -12586,9 +12675,9 @@
     </row>
     <row r="79" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="21"/>
-      <c r="B79" s="174"/>
-      <c r="C79" s="174"/>
-      <c r="D79" s="174"/>
+      <c r="B79" s="170"/>
+      <c r="C79" s="170"/>
+      <c r="D79" s="170"/>
       <c r="E79" s="36"/>
       <c r="F79" s="21"/>
     </row>
@@ -12623,31 +12712,31 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="21"/>
-      <c r="B83" s="168"/>
-      <c r="C83" s="168"/>
-      <c r="D83" s="168"/>
-      <c r="E83" s="168"/>
+      <c r="B83" s="173"/>
+      <c r="C83" s="173"/>
+      <c r="D83" s="173"/>
+      <c r="E83" s="173"/>
       <c r="F83" s="21"/>
     </row>
     <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="176" t="s">
+      <c r="A84" s="167" t="s">
         <v>28</v>
       </c>
-      <c r="B84" s="176"/>
-      <c r="C84" s="176"/>
-      <c r="D84" s="176"/>
-      <c r="E84" s="176"/>
-      <c r="F84" s="176"/>
+      <c r="B84" s="167"/>
+      <c r="C84" s="167"/>
+      <c r="D84" s="167"/>
+      <c r="E84" s="167"/>
+      <c r="F84" s="167"/>
     </row>
     <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A85" s="172" t="s">
+      <c r="A85" s="176" t="s">
         <v>29</v>
       </c>
-      <c r="B85" s="172"/>
-      <c r="C85" s="172"/>
-      <c r="D85" s="172"/>
-      <c r="E85" s="172"/>
-      <c r="F85" s="172"/>
+      <c r="B85" s="176"/>
+      <c r="C85" s="176"/>
+      <c r="D85" s="176"/>
+      <c r="E85" s="176"/>
+      <c r="F85" s="176"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="21"/>
@@ -12659,26 +12748,26 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="21"/>
-      <c r="B87" s="169"/>
-      <c r="C87" s="169"/>
-      <c r="D87" s="169"/>
-      <c r="E87" s="169"/>
+      <c r="B87" s="174"/>
+      <c r="C87" s="174"/>
+      <c r="D87" s="174"/>
+      <c r="E87" s="174"/>
       <c r="F87" s="21"/>
     </row>
     <row r="88" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A88" s="175" t="s">
+      <c r="A88" s="166" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="175"/>
-      <c r="C88" s="175"/>
-      <c r="D88" s="175"/>
-      <c r="E88" s="175"/>
-      <c r="F88" s="175"/>
+      <c r="B88" s="166"/>
+      <c r="C88" s="166"/>
+      <c r="D88" s="166"/>
+      <c r="E88" s="166"/>
+      <c r="F88" s="166"/>
     </row>
     <row r="90" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="166"/>
-      <c r="C90" s="167"/>
-      <c r="D90" s="167"/>
+      <c r="B90" s="171"/>
+      <c r="C90" s="172"/>
+      <c r="D90" s="172"/>
     </row>
     <row r="91" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
@@ -12688,14 +12777,30 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="A88:F88"/>
-    <mergeCell ref="B90:D90"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="B79:D79"/>
-    <mergeCell ref="B83:E83"/>
-    <mergeCell ref="A84:F84"/>
-    <mergeCell ref="A85:F85"/>
-    <mergeCell ref="B87:E87"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B54:D54"/>
     <mergeCell ref="B77:D77"/>
     <mergeCell ref="B56:D56"/>
     <mergeCell ref="B57:D57"/>
@@ -12708,30 +12813,14 @@
     <mergeCell ref="B64:D64"/>
     <mergeCell ref="B67:D67"/>
     <mergeCell ref="B68:D68"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="A88:F88"/>
+    <mergeCell ref="B90:D90"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B79:D79"/>
+    <mergeCell ref="B83:E83"/>
+    <mergeCell ref="A84:F84"/>
+    <mergeCell ref="A85:F85"/>
+    <mergeCell ref="B87:E87"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B77:B79 B12:B20 B45:B68 B33:B44" xr:uid="{07B1890D-F45C-4D74-BFDA-1FFF72BC1EC7}">
@@ -12748,6 +12837,829 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D1F752F-C501-4153-BC5E-7A412B831AB1}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:F88"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F88"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.140625" customWidth="1"/>
+    <col min="2" max="2" width="120" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="54"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+    </row>
+    <row r="2" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="54"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+    </row>
+    <row r="3" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="54"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+    </row>
+    <row r="4" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="54"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+    </row>
+    <row r="5" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="54"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+    </row>
+    <row r="6" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="54"/>
+      <c r="B6" s="54"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="56"/>
+    </row>
+    <row r="7" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="54"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+    </row>
+    <row r="8" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="54"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="56"/>
+    </row>
+    <row r="9" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="54"/>
+      <c r="B9" s="54"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="165"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="56"/>
+    </row>
+    <row r="10" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="54"/>
+      <c r="B10" s="54"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="56"/>
+    </row>
+    <row r="11" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="54"/>
+      <c r="B11" s="54"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="56"/>
+    </row>
+    <row r="12" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="54"/>
+      <c r="B12" s="57"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+    </row>
+    <row r="13" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="54"/>
+      <c r="B13" s="57"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="56"/>
+    </row>
+    <row r="14" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="54"/>
+      <c r="B14" s="57"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+    </row>
+    <row r="15" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="54"/>
+      <c r="B15" s="57"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="56"/>
+      <c r="F15" s="56"/>
+    </row>
+    <row r="16" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="54"/>
+      <c r="B16" s="57"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="56"/>
+    </row>
+    <row r="17" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="54"/>
+      <c r="B17" s="57"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="56"/>
+      <c r="F17" s="56"/>
+    </row>
+    <row r="18" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="54"/>
+      <c r="B18" s="57"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
+    </row>
+    <row r="19" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="54"/>
+      <c r="B19" s="57"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="56"/>
+      <c r="F19" s="56"/>
+    </row>
+    <row r="20" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="54"/>
+      <c r="B20" s="57"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+    </row>
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="62"/>
+      <c r="B21" s="59" t="s">
+        <v>149</v>
+      </c>
+      <c r="C21" s="59"/>
+      <c r="D21" s="60"/>
+      <c r="E21" s="61"/>
+      <c r="F21" s="61"/>
+    </row>
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="62"/>
+      <c r="B22" s="62"/>
+      <c r="C22" s="62"/>
+      <c r="D22" s="60"/>
+      <c r="E22" s="61"/>
+      <c r="F22" s="61"/>
+    </row>
+    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="62"/>
+      <c r="B23" s="59" t="s">
+        <v>161</v>
+      </c>
+      <c r="C23" s="59"/>
+      <c r="D23" s="60"/>
+      <c r="E23" s="61"/>
+      <c r="F23" s="61"/>
+    </row>
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="62"/>
+      <c r="B24" s="59" t="s">
+        <v>162</v>
+      </c>
+      <c r="C24" s="62"/>
+      <c r="D24" s="60"/>
+      <c r="E24" s="61"/>
+      <c r="F24" s="61"/>
+    </row>
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="62"/>
+      <c r="B25" s="62" t="s">
+        <v>154</v>
+      </c>
+      <c r="C25" s="62"/>
+      <c r="D25" s="60"/>
+      <c r="E25" s="61"/>
+      <c r="F25" s="61"/>
+    </row>
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="62"/>
+      <c r="B26" s="62" t="s">
+        <v>163</v>
+      </c>
+      <c r="C26" s="62"/>
+      <c r="D26" s="60"/>
+      <c r="E26" s="61"/>
+      <c r="F26" s="61"/>
+    </row>
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="59"/>
+      <c r="B27" s="62"/>
+      <c r="C27" s="62"/>
+      <c r="D27" s="65"/>
+      <c r="E27" s="66"/>
+      <c r="F27" s="66"/>
+    </row>
+    <row r="28" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="62"/>
+      <c r="B28" s="59"/>
+      <c r="C28" s="59"/>
+      <c r="D28" s="66" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="67" t="s">
+        <v>164</v>
+      </c>
+      <c r="F28" s="67"/>
+    </row>
+    <row r="29" spans="1:6" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="137"/>
+      <c r="B29" s="137"/>
+      <c r="C29" s="137"/>
+      <c r="D29" s="138"/>
+      <c r="E29" s="139"/>
+      <c r="F29" s="139"/>
+    </row>
+    <row r="30" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="191" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="191"/>
+      <c r="C30" s="191"/>
+      <c r="D30" s="191"/>
+      <c r="E30" s="191"/>
+      <c r="F30" s="140"/>
+    </row>
+    <row r="31" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="141"/>
+      <c r="B31" s="141"/>
+      <c r="C31" s="141"/>
+      <c r="D31" s="141"/>
+      <c r="E31" s="141"/>
+      <c r="F31" s="141"/>
+    </row>
+    <row r="32" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="78"/>
+      <c r="B32" s="115" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="142"/>
+      <c r="D32" s="143"/>
+      <c r="E32" s="93"/>
+      <c r="F32" s="93"/>
+    </row>
+    <row r="33" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="78"/>
+      <c r="B33" s="78"/>
+      <c r="C33" s="78"/>
+      <c r="D33" s="143"/>
+      <c r="E33" s="93"/>
+      <c r="F33" s="93"/>
+    </row>
+    <row r="34" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="78"/>
+      <c r="B34" s="144" t="s">
+        <v>157</v>
+      </c>
+      <c r="C34" s="145"/>
+      <c r="D34" s="146"/>
+      <c r="E34" s="146"/>
+      <c r="F34" s="146"/>
+    </row>
+    <row r="35" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="78"/>
+      <c r="B35" s="144" t="s">
+        <v>128</v>
+      </c>
+      <c r="C35" s="147"/>
+      <c r="D35" s="146"/>
+      <c r="E35" s="146"/>
+      <c r="F35" s="146"/>
+    </row>
+    <row r="36" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="78"/>
+      <c r="B36" s="144" t="s">
+        <v>158</v>
+      </c>
+      <c r="C36" s="145"/>
+      <c r="D36" s="146"/>
+      <c r="E36" s="146"/>
+      <c r="F36" s="146"/>
+    </row>
+    <row r="37" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="78"/>
+      <c r="B37" s="144" t="s">
+        <v>128</v>
+      </c>
+      <c r="C37" s="145"/>
+      <c r="D37" s="146"/>
+      <c r="E37" s="146"/>
+      <c r="F37" s="146"/>
+    </row>
+    <row r="38" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="78"/>
+      <c r="B38" s="144" t="s">
+        <v>159</v>
+      </c>
+      <c r="C38" s="145"/>
+      <c r="D38" s="146"/>
+      <c r="E38" s="146"/>
+      <c r="F38" s="146"/>
+    </row>
+    <row r="39" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="78"/>
+      <c r="B39" s="144" t="s">
+        <v>128</v>
+      </c>
+      <c r="C39" s="145"/>
+      <c r="D39" s="146"/>
+      <c r="E39" s="146"/>
+      <c r="F39" s="146"/>
+    </row>
+    <row r="40" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="78"/>
+      <c r="B40" s="144" t="s">
+        <v>160</v>
+      </c>
+      <c r="C40" s="147"/>
+      <c r="D40" s="146"/>
+      <c r="E40" s="146"/>
+      <c r="F40" s="146"/>
+    </row>
+    <row r="41" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="78"/>
+      <c r="B41" s="144"/>
+      <c r="C41" s="145"/>
+      <c r="D41" s="146"/>
+      <c r="E41" s="146"/>
+      <c r="F41" s="146"/>
+    </row>
+    <row r="42" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="78"/>
+      <c r="B42" s="144"/>
+      <c r="C42" s="145"/>
+      <c r="D42" s="146"/>
+      <c r="E42" s="146"/>
+      <c r="F42" s="146"/>
+    </row>
+    <row r="43" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="78"/>
+      <c r="B43" s="144"/>
+      <c r="C43" s="145"/>
+      <c r="D43" s="146"/>
+      <c r="E43" s="146"/>
+      <c r="F43" s="146"/>
+    </row>
+    <row r="44" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="78"/>
+      <c r="B44" s="144"/>
+      <c r="C44" s="145"/>
+      <c r="D44" s="146"/>
+      <c r="E44" s="146"/>
+      <c r="F44" s="146"/>
+    </row>
+    <row r="45" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="78"/>
+      <c r="B45" s="144"/>
+      <c r="C45" s="145"/>
+      <c r="D45" s="146"/>
+      <c r="E45" s="146"/>
+      <c r="F45" s="146"/>
+    </row>
+    <row r="46" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="78"/>
+      <c r="B46" s="144"/>
+      <c r="C46" s="145"/>
+      <c r="D46" s="146"/>
+      <c r="E46" s="146"/>
+      <c r="F46" s="146"/>
+    </row>
+    <row r="47" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="78"/>
+      <c r="B47" s="144"/>
+      <c r="C47" s="145"/>
+      <c r="D47" s="146"/>
+      <c r="E47" s="146"/>
+      <c r="F47" s="146"/>
+    </row>
+    <row r="48" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="78"/>
+      <c r="B48" s="144"/>
+      <c r="C48" s="145"/>
+      <c r="D48" s="146"/>
+      <c r="E48" s="146"/>
+      <c r="F48" s="146"/>
+    </row>
+    <row r="49" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="78"/>
+      <c r="B49" s="144"/>
+      <c r="C49" s="145"/>
+      <c r="D49" s="146"/>
+      <c r="E49" s="146"/>
+      <c r="F49" s="146"/>
+    </row>
+    <row r="50" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="78"/>
+      <c r="B50" s="144"/>
+      <c r="C50" s="148"/>
+      <c r="D50" s="148"/>
+      <c r="E50" s="146"/>
+      <c r="F50" s="146"/>
+    </row>
+    <row r="51" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="78"/>
+      <c r="B51" s="144"/>
+      <c r="C51" s="145"/>
+      <c r="D51" s="146"/>
+      <c r="E51" s="146"/>
+      <c r="F51" s="146"/>
+    </row>
+    <row r="52" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="78"/>
+      <c r="B52" s="144"/>
+      <c r="C52" s="145"/>
+      <c r="D52" s="146"/>
+      <c r="E52" s="146"/>
+      <c r="F52" s="146"/>
+    </row>
+    <row r="53" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="78"/>
+      <c r="B53" s="144"/>
+      <c r="C53" s="145"/>
+      <c r="D53" s="146"/>
+      <c r="E53" s="146"/>
+      <c r="F53" s="146"/>
+    </row>
+    <row r="54" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="78"/>
+      <c r="B54" s="144"/>
+      <c r="C54" s="145"/>
+      <c r="D54" s="146"/>
+      <c r="E54" s="146"/>
+      <c r="F54" s="146"/>
+    </row>
+    <row r="55" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="78"/>
+      <c r="B55" s="144"/>
+      <c r="C55" s="145"/>
+      <c r="D55" s="146"/>
+      <c r="E55" s="146"/>
+      <c r="F55" s="146"/>
+    </row>
+    <row r="56" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="78"/>
+      <c r="B56" s="144"/>
+      <c r="C56" s="145"/>
+      <c r="D56" s="146"/>
+      <c r="E56" s="146"/>
+      <c r="F56" s="146"/>
+    </row>
+    <row r="57" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="78"/>
+      <c r="B57" s="144"/>
+      <c r="C57" s="145"/>
+      <c r="D57" s="146"/>
+      <c r="E57" s="146"/>
+      <c r="F57" s="146"/>
+    </row>
+    <row r="58" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="78"/>
+      <c r="B58" s="144"/>
+      <c r="C58" s="145"/>
+      <c r="D58" s="146"/>
+      <c r="E58" s="146"/>
+      <c r="F58" s="146"/>
+    </row>
+    <row r="59" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="78"/>
+      <c r="B59" s="144"/>
+      <c r="C59" s="145"/>
+      <c r="D59" s="146"/>
+      <c r="E59" s="146"/>
+      <c r="F59" s="146"/>
+    </row>
+    <row r="60" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="78"/>
+      <c r="B60" s="144"/>
+      <c r="C60" s="145"/>
+      <c r="D60" s="146"/>
+      <c r="E60" s="146"/>
+      <c r="F60" s="146"/>
+    </row>
+    <row r="61" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="78"/>
+      <c r="B61" s="144"/>
+      <c r="C61" s="145"/>
+      <c r="D61" s="146"/>
+      <c r="E61" s="146"/>
+      <c r="F61" s="146"/>
+    </row>
+    <row r="62" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="78"/>
+      <c r="B62" s="144"/>
+      <c r="C62" s="145"/>
+      <c r="D62" s="146"/>
+      <c r="E62" s="146"/>
+      <c r="F62" s="146"/>
+    </row>
+    <row r="63" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="78"/>
+      <c r="B63" s="149"/>
+      <c r="C63" s="150"/>
+      <c r="D63" s="151"/>
+      <c r="E63" s="146"/>
+      <c r="F63" s="146"/>
+    </row>
+    <row r="64" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="78"/>
+      <c r="B64" s="149"/>
+      <c r="C64" s="92"/>
+      <c r="D64" s="93"/>
+      <c r="E64" s="146"/>
+      <c r="F64" s="146"/>
+    </row>
+    <row r="65" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="78"/>
+      <c r="B65" s="144"/>
+      <c r="C65" s="154"/>
+      <c r="D65" s="155"/>
+      <c r="E65" s="146"/>
+      <c r="F65" s="146"/>
+    </row>
+    <row r="66" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="78"/>
+      <c r="B66" s="144"/>
+      <c r="C66" s="152"/>
+      <c r="D66" s="153"/>
+      <c r="E66" s="157"/>
+      <c r="F66" s="157"/>
+    </row>
+    <row r="67" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="78"/>
+      <c r="B67" s="149"/>
+      <c r="C67" s="152"/>
+      <c r="D67" s="153"/>
+      <c r="E67" s="146"/>
+      <c r="F67" s="146"/>
+    </row>
+    <row r="68" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="78"/>
+      <c r="B68" s="149"/>
+      <c r="C68" s="160"/>
+      <c r="D68" s="160"/>
+      <c r="E68" s="160"/>
+      <c r="F68" s="78"/>
+    </row>
+    <row r="69" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="62"/>
+      <c r="B69" s="102" t="s">
+        <v>14</v>
+      </c>
+      <c r="C69" s="102"/>
+      <c r="D69" s="60"/>
+      <c r="E69" s="103">
+        <v>750</v>
+      </c>
+      <c r="F69" s="103"/>
+    </row>
+    <row r="70" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="62"/>
+      <c r="B70" s="105" t="s">
+        <v>12</v>
+      </c>
+      <c r="C70" s="106"/>
+      <c r="D70" s="60"/>
+      <c r="E70" s="107">
+        <v>0</v>
+      </c>
+      <c r="F70" s="107"/>
+    </row>
+    <row r="71" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="62"/>
+      <c r="B71" s="161" t="s">
+        <v>123</v>
+      </c>
+      <c r="C71" s="106"/>
+      <c r="D71" s="60"/>
+      <c r="E71" s="107">
+        <v>0</v>
+      </c>
+      <c r="F71" s="107"/>
+    </row>
+    <row r="72" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="62"/>
+      <c r="B72" s="161" t="s">
+        <v>124</v>
+      </c>
+      <c r="C72" s="106"/>
+      <c r="D72" s="60"/>
+      <c r="E72" s="107">
+        <v>0</v>
+      </c>
+      <c r="F72" s="107"/>
+    </row>
+    <row r="73" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="62"/>
+      <c r="B73" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C73" s="102"/>
+      <c r="D73" s="60"/>
+      <c r="E73" s="109">
+        <v>750</v>
+      </c>
+      <c r="F73" s="109"/>
+    </row>
+    <row r="74" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="62"/>
+      <c r="B74" s="106" t="s">
+        <v>5</v>
+      </c>
+      <c r="C74" s="110">
+        <v>0.05</v>
+      </c>
+      <c r="D74" s="106"/>
+      <c r="E74" s="111">
+        <v>37.5</v>
+      </c>
+      <c r="F74" s="111"/>
+    </row>
+    <row r="75" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="62"/>
+      <c r="B75" s="112" t="s">
+        <v>4</v>
+      </c>
+      <c r="C75" s="113">
+        <v>9.9750000000000005E-2</v>
+      </c>
+      <c r="D75" s="106"/>
+      <c r="E75" s="114">
+        <v>74.81</v>
+      </c>
+      <c r="F75" s="111"/>
+    </row>
+    <row r="76" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="62"/>
+      <c r="B76" s="115"/>
+      <c r="C76" s="62"/>
+      <c r="D76" s="60"/>
+      <c r="E76" s="61"/>
+      <c r="F76" s="61"/>
+    </row>
+    <row r="77" spans="1:6" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="62"/>
+      <c r="B77" s="117" t="s">
+        <v>15</v>
+      </c>
+      <c r="C77" s="102"/>
+      <c r="D77" s="118"/>
+      <c r="E77" s="119">
+        <v>862.31</v>
+      </c>
+      <c r="F77" s="120"/>
+    </row>
+    <row r="78" spans="1:6" ht="15.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="62"/>
+      <c r="B78" s="112"/>
+      <c r="C78" s="112"/>
+      <c r="D78" s="112"/>
+      <c r="E78" s="121"/>
+      <c r="F78" s="112"/>
+    </row>
+    <row r="79" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="62"/>
+      <c r="B79" s="115" t="s">
+        <v>17</v>
+      </c>
+      <c r="C79" s="112"/>
+      <c r="D79" s="60"/>
+      <c r="E79" s="61">
+        <v>0</v>
+      </c>
+      <c r="F79" s="61"/>
+    </row>
+    <row r="80" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="62"/>
+      <c r="B80" s="102"/>
+      <c r="C80" s="112"/>
+      <c r="D80" s="112"/>
+      <c r="E80" s="121"/>
+      <c r="F80" s="112"/>
+    </row>
+    <row r="81" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="62"/>
+      <c r="B81" s="192" t="s">
+        <v>16</v>
+      </c>
+      <c r="C81" s="193"/>
+      <c r="D81" s="162"/>
+      <c r="E81" s="163">
+        <v>862.31</v>
+      </c>
+      <c r="F81" s="61"/>
+    </row>
+    <row r="82" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="62"/>
+      <c r="B82" s="62"/>
+      <c r="C82" s="62"/>
+      <c r="D82" s="60"/>
+      <c r="E82" s="61"/>
+      <c r="F82" s="61"/>
+    </row>
+    <row r="83" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="130"/>
+      <c r="B83" s="183"/>
+      <c r="C83" s="184"/>
+      <c r="D83" s="184"/>
+      <c r="E83" s="184"/>
+      <c r="F83" s="164"/>
+    </row>
+    <row r="84" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="186" t="s">
+        <v>28</v>
+      </c>
+      <c r="B84" s="186"/>
+      <c r="C84" s="186"/>
+      <c r="D84" s="186"/>
+      <c r="E84" s="186"/>
+      <c r="F84" s="115"/>
+    </row>
+    <row r="85" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="188" t="s">
+        <v>29</v>
+      </c>
+      <c r="B85" s="188"/>
+      <c r="C85" s="188"/>
+      <c r="D85" s="188"/>
+      <c r="E85" s="188"/>
+      <c r="F85" s="46"/>
+    </row>
+    <row r="86" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="132"/>
+      <c r="B86" s="132"/>
+      <c r="C86" s="132"/>
+      <c r="D86" s="132"/>
+      <c r="E86" s="132"/>
+      <c r="F86" s="46"/>
+    </row>
+    <row r="87" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="132"/>
+      <c r="B87" s="132"/>
+      <c r="C87" s="132"/>
+      <c r="D87" s="132"/>
+      <c r="E87" s="132"/>
+      <c r="F87" s="46"/>
+    </row>
+    <row r="88" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="190" t="s">
+        <v>7</v>
+      </c>
+      <c r="B88" s="190"/>
+      <c r="C88" s="190"/>
+      <c r="D88" s="190"/>
+      <c r="E88" s="190"/>
+      <c r="F88" s="190"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A88:F88"/>
+    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B83:E83"/>
+    <mergeCell ref="A84:E84"/>
+    <mergeCell ref="A85:E85"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="119" scale="63" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B44E5387-E211-4FE1-96FB-8A3B08C9EAFF}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -12930,7 +13842,7 @@
     <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="62"/>
       <c r="B21" s="59" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="C21" s="59"/>
       <c r="D21" s="60"/>
@@ -12947,8 +13859,8 @@
     </row>
     <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="62"/>
-      <c r="B23" s="59" t="s">
-        <v>161</v>
+      <c r="B23" s="25" t="s">
+        <v>112</v>
       </c>
       <c r="C23" s="59"/>
       <c r="D23" s="60"/>
@@ -12957,8 +13869,8 @@
     </row>
     <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="62"/>
-      <c r="B24" s="59" t="s">
-        <v>162</v>
+      <c r="B24" s="25" t="s">
+        <v>113</v>
       </c>
       <c r="C24" s="62"/>
       <c r="D24" s="60"/>
@@ -12968,7 +13880,7 @@
     <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="62"/>
       <c r="B25" s="62" t="s">
-        <v>154</v>
+        <v>114</v>
       </c>
       <c r="C25" s="62"/>
       <c r="D25" s="60"/>
@@ -12977,8 +13889,8 @@
     </row>
     <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="62"/>
-      <c r="B26" s="62" t="s">
-        <v>163</v>
+      <c r="B26" s="136" t="s">
+        <v>126</v>
       </c>
       <c r="C26" s="62"/>
       <c r="D26" s="60"/>
@@ -13001,7 +13913,7 @@
         <v>11</v>
       </c>
       <c r="E28" s="67" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F28" s="67"/>
     </row>
@@ -13052,7 +13964,7 @@
     <row r="34" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="78"/>
       <c r="B34" s="144" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="C34" s="145"/>
       <c r="D34" s="146"/>
@@ -13072,7 +13984,7 @@
     <row r="36" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="78"/>
       <c r="B36" s="144" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="C36" s="145"/>
       <c r="D36" s="146"/>
@@ -13092,7 +14004,7 @@
     <row r="38" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="78"/>
       <c r="B38" s="144" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="C38" s="145"/>
       <c r="D38" s="146"/>
@@ -13102,7 +14014,7 @@
     <row r="39" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="78"/>
       <c r="B39" s="144" t="s">
-        <v>128</v>
+        <v>170</v>
       </c>
       <c r="C39" s="145"/>
       <c r="D39" s="146"/>
@@ -13112,7 +14024,7 @@
     <row r="40" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="78"/>
       <c r="B40" s="144" t="s">
-        <v>160</v>
+        <v>128</v>
       </c>
       <c r="C40" s="147"/>
       <c r="D40" s="146"/>
@@ -13121,7 +14033,9 @@
     </row>
     <row r="41" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="78"/>
-      <c r="B41" s="144"/>
+      <c r="B41" s="144" t="s">
+        <v>171</v>
+      </c>
       <c r="C41" s="145"/>
       <c r="D41" s="146"/>
       <c r="E41" s="146"/>
@@ -13129,7 +14043,9 @@
     </row>
     <row r="42" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="78"/>
-      <c r="B42" s="144"/>
+      <c r="B42" s="144" t="s">
+        <v>128</v>
+      </c>
       <c r="C42" s="145"/>
       <c r="D42" s="146"/>
       <c r="E42" s="146"/>
@@ -13137,7 +14053,9 @@
     </row>
     <row r="43" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="78"/>
-      <c r="B43" s="144"/>
+      <c r="B43" s="144" t="s">
+        <v>38</v>
+      </c>
       <c r="C43" s="145"/>
       <c r="D43" s="146"/>
       <c r="E43" s="146"/>
@@ -13297,7 +14215,7 @@
     </row>
     <row r="63" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="78"/>
-      <c r="B63" s="149"/>
+      <c r="B63" s="144"/>
       <c r="C63" s="150"/>
       <c r="D63" s="151"/>
       <c r="E63" s="146"/>
@@ -13305,31 +14223,39 @@
     </row>
     <row r="64" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="78"/>
-      <c r="B64" s="149"/>
-      <c r="C64" s="92"/>
-      <c r="D64" s="93"/>
+      <c r="B64" s="144"/>
+      <c r="C64" s="152"/>
+      <c r="D64" s="153"/>
       <c r="E64" s="146"/>
       <c r="F64" s="146"/>
     </row>
     <row r="65" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="78"/>
       <c r="B65" s="144"/>
-      <c r="C65" s="154"/>
-      <c r="D65" s="155"/>
+      <c r="C65" s="154" t="s">
+        <v>36</v>
+      </c>
+      <c r="D65" s="155" t="s">
+        <v>37</v>
+      </c>
       <c r="E65" s="146"/>
       <c r="F65" s="146"/>
     </row>
     <row r="66" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="78"/>
       <c r="B66" s="144"/>
-      <c r="C66" s="152"/>
-      <c r="D66" s="153"/>
+      <c r="C66" s="152">
+        <v>27.75</v>
+      </c>
+      <c r="D66" s="153">
+        <v>385</v>
+      </c>
       <c r="E66" s="157"/>
       <c r="F66" s="157"/>
     </row>
     <row r="67" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="78"/>
-      <c r="B67" s="149"/>
+      <c r="B67" s="144"/>
       <c r="C67" s="152"/>
       <c r="D67" s="153"/>
       <c r="E67" s="146"/>
@@ -13337,7 +14263,7 @@
     </row>
     <row r="68" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="78"/>
-      <c r="B68" s="149"/>
+      <c r="B68" s="144"/>
       <c r="C68" s="160"/>
       <c r="D68" s="160"/>
       <c r="E68" s="160"/>
@@ -13351,7 +14277,7 @@
       <c r="C69" s="102"/>
       <c r="D69" s="60"/>
       <c r="E69" s="103">
-        <v>750</v>
+        <v>10683.75</v>
       </c>
       <c r="F69" s="103"/>
     </row>
@@ -13399,7 +14325,7 @@
       <c r="C73" s="102"/>
       <c r="D73" s="60"/>
       <c r="E73" s="109">
-        <v>750</v>
+        <v>10683.75</v>
       </c>
       <c r="F73" s="109"/>
     </row>
@@ -13413,7 +14339,7 @@
       </c>
       <c r="D74" s="106"/>
       <c r="E74" s="111">
-        <v>37.5</v>
+        <v>534.19000000000005</v>
       </c>
       <c r="F74" s="111"/>
     </row>
@@ -13427,7 +14353,7 @@
       </c>
       <c r="D75" s="106"/>
       <c r="E75" s="114">
-        <v>74.81</v>
+        <v>1065.7</v>
       </c>
       <c r="F75" s="111"/>
     </row>
@@ -13447,7 +14373,7 @@
       <c r="C77" s="102"/>
       <c r="D77" s="118"/>
       <c r="E77" s="119">
-        <v>862.31</v>
+        <v>12283.640000000001</v>
       </c>
       <c r="F77" s="120"/>
     </row>
@@ -13487,7 +14413,7 @@
       <c r="C81" s="193"/>
       <c r="D81" s="162"/>
       <c r="E81" s="163">
-        <v>862.31</v>
+        <v>12283.640000000001</v>
       </c>
       <c r="F81" s="61"/>
     </row>
@@ -13712,14 +14638,14 @@
       <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="173" t="s">
+      <c r="A30" s="169" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="173"/>
-      <c r="C30" s="173"/>
-      <c r="D30" s="173"/>
-      <c r="E30" s="173"/>
-      <c r="F30" s="173"/>
+      <c r="B30" s="169"/>
+      <c r="C30" s="169"/>
+      <c r="D30" s="169"/>
+      <c r="E30" s="169"/>
+      <c r="F30" s="169"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="17"/>
@@ -13740,265 +14666,265 @@
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
-      <c r="B33" s="170"/>
-      <c r="C33" s="170"/>
-      <c r="D33" s="170"/>
+      <c r="B33" s="168"/>
+      <c r="C33" s="168"/>
+      <c r="D33" s="168"/>
       <c r="E33" s="28"/>
       <c r="F33" s="21"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="21"/>
-      <c r="B34" s="170" t="s">
+      <c r="B34" s="168" t="s">
         <v>9</v>
       </c>
-      <c r="C34" s="170"/>
-      <c r="D34" s="170"/>
+      <c r="C34" s="168"/>
+      <c r="D34" s="168"/>
       <c r="E34" s="28"/>
       <c r="F34" s="21"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
-      <c r="B35" s="170"/>
-      <c r="C35" s="170"/>
-      <c r="D35" s="170"/>
+      <c r="B35" s="168"/>
+      <c r="C35" s="168"/>
+      <c r="D35" s="168"/>
       <c r="E35" s="28"/>
       <c r="F35" s="21"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="21"/>
-      <c r="B36" s="170" t="s">
+      <c r="B36" s="168" t="s">
         <v>70</v>
       </c>
-      <c r="C36" s="170"/>
-      <c r="D36" s="170"/>
+      <c r="C36" s="168"/>
+      <c r="D36" s="168"/>
       <c r="E36" s="28"/>
       <c r="F36" s="21"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
-      <c r="B37" s="170"/>
-      <c r="C37" s="170"/>
-      <c r="D37" s="170"/>
+      <c r="B37" s="168"/>
+      <c r="C37" s="168"/>
+      <c r="D37" s="168"/>
       <c r="E37" s="28"/>
       <c r="F37" s="21"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="21"/>
-      <c r="B38" s="170" t="s">
+      <c r="B38" s="168" t="s">
         <v>38</v>
       </c>
-      <c r="C38" s="170"/>
-      <c r="D38" s="170"/>
+      <c r="C38" s="168"/>
+      <c r="D38" s="168"/>
       <c r="E38" s="28"/>
       <c r="F38" s="21"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="21"/>
-      <c r="B39" s="170"/>
-      <c r="C39" s="170"/>
-      <c r="D39" s="170"/>
+      <c r="B39" s="168"/>
+      <c r="C39" s="168"/>
+      <c r="D39" s="168"/>
       <c r="E39" s="28"/>
       <c r="F39" s="21"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="21"/>
-      <c r="B40" s="170" t="s">
+      <c r="B40" s="168" t="s">
         <v>53</v>
       </c>
-      <c r="C40" s="170"/>
-      <c r="D40" s="170"/>
+      <c r="C40" s="168"/>
+      <c r="D40" s="168"/>
       <c r="E40" s="28"/>
       <c r="F40" s="21"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="21"/>
-      <c r="B41" s="170"/>
-      <c r="C41" s="170"/>
-      <c r="D41" s="170"/>
+      <c r="B41" s="168"/>
+      <c r="C41" s="168"/>
+      <c r="D41" s="168"/>
       <c r="E41" s="28"/>
       <c r="F41" s="21"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="21"/>
-      <c r="B42" s="170"/>
-      <c r="C42" s="170"/>
-      <c r="D42" s="170"/>
+      <c r="B42" s="168"/>
+      <c r="C42" s="168"/>
+      <c r="D42" s="168"/>
       <c r="E42" s="28"/>
       <c r="F42" s="21"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="21"/>
-      <c r="B43" s="170"/>
-      <c r="C43" s="170"/>
-      <c r="D43" s="170"/>
+      <c r="B43" s="168"/>
+      <c r="C43" s="168"/>
+      <c r="D43" s="168"/>
       <c r="E43" s="28"/>
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
-      <c r="B44" s="170"/>
-      <c r="C44" s="170"/>
-      <c r="D44" s="170"/>
+      <c r="B44" s="168"/>
+      <c r="C44" s="168"/>
+      <c r="D44" s="168"/>
       <c r="E44" s="28"/>
       <c r="F44" s="21"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="21"/>
-      <c r="B45" s="170"/>
-      <c r="C45" s="170"/>
-      <c r="D45" s="170"/>
+      <c r="B45" s="168"/>
+      <c r="C45" s="168"/>
+      <c r="D45" s="168"/>
       <c r="E45" s="28"/>
       <c r="F45" s="21"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="21"/>
-      <c r="B46" s="170"/>
-      <c r="C46" s="170"/>
-      <c r="D46" s="170"/>
+      <c r="B46" s="168"/>
+      <c r="C46" s="168"/>
+      <c r="D46" s="168"/>
       <c r="E46" s="28"/>
       <c r="F46" s="21"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="21"/>
-      <c r="B47" s="170"/>
-      <c r="C47" s="170"/>
-      <c r="D47" s="170"/>
+      <c r="B47" s="168"/>
+      <c r="C47" s="168"/>
+      <c r="D47" s="168"/>
       <c r="E47" s="28"/>
       <c r="F47" s="21"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="21"/>
-      <c r="B48" s="170"/>
-      <c r="C48" s="170"/>
-      <c r="D48" s="170"/>
+      <c r="B48" s="168"/>
+      <c r="C48" s="168"/>
+      <c r="D48" s="168"/>
       <c r="E48" s="28"/>
       <c r="F48" s="21"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="21"/>
-      <c r="B49" s="170"/>
-      <c r="C49" s="170"/>
-      <c r="D49" s="170"/>
+      <c r="B49" s="168"/>
+      <c r="C49" s="168"/>
+      <c r="D49" s="168"/>
       <c r="E49" s="28"/>
       <c r="F49" s="21"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="21"/>
-      <c r="B50" s="170"/>
-      <c r="C50" s="170"/>
-      <c r="D50" s="170"/>
+      <c r="B50" s="168"/>
+      <c r="C50" s="168"/>
+      <c r="D50" s="168"/>
       <c r="E50" s="28"/>
       <c r="F50" s="21"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="21"/>
-      <c r="B51" s="170"/>
-      <c r="C51" s="170"/>
-      <c r="D51" s="170"/>
+      <c r="B51" s="168"/>
+      <c r="C51" s="168"/>
+      <c r="D51" s="168"/>
       <c r="E51" s="28"/>
       <c r="F51" s="21"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="21"/>
-      <c r="B52" s="170"/>
-      <c r="C52" s="170"/>
-      <c r="D52" s="170"/>
+      <c r="B52" s="168"/>
+      <c r="C52" s="168"/>
+      <c r="D52" s="168"/>
       <c r="E52" s="28"/>
       <c r="F52" s="21"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="21"/>
-      <c r="B53" s="170"/>
-      <c r="C53" s="170"/>
-      <c r="D53" s="170"/>
+      <c r="B53" s="168"/>
+      <c r="C53" s="168"/>
+      <c r="D53" s="168"/>
       <c r="E53" s="28"/>
       <c r="F53" s="21"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="21"/>
-      <c r="B54" s="170"/>
-      <c r="C54" s="170"/>
-      <c r="D54" s="170"/>
+      <c r="B54" s="168"/>
+      <c r="C54" s="168"/>
+      <c r="D54" s="168"/>
       <c r="E54" s="28"/>
       <c r="F54" s="21"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="21"/>
-      <c r="B55" s="170"/>
-      <c r="C55" s="170"/>
-      <c r="D55" s="170"/>
+      <c r="B55" s="168"/>
+      <c r="C55" s="168"/>
+      <c r="D55" s="168"/>
       <c r="E55" s="28"/>
       <c r="F55" s="21"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="21"/>
-      <c r="B56" s="170"/>
-      <c r="C56" s="170"/>
-      <c r="D56" s="170"/>
+      <c r="B56" s="168"/>
+      <c r="C56" s="168"/>
+      <c r="D56" s="168"/>
       <c r="E56" s="28"/>
       <c r="F56" s="21"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="21"/>
-      <c r="B57" s="170"/>
-      <c r="C57" s="170"/>
-      <c r="D57" s="170"/>
+      <c r="B57" s="168"/>
+      <c r="C57" s="168"/>
+      <c r="D57" s="168"/>
       <c r="E57" s="28"/>
       <c r="F57" s="21"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="21"/>
-      <c r="B58" s="170"/>
-      <c r="C58" s="170"/>
-      <c r="D58" s="170"/>
+      <c r="B58" s="168"/>
+      <c r="C58" s="168"/>
+      <c r="D58" s="168"/>
       <c r="E58" s="28"/>
       <c r="F58" s="21"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="21"/>
-      <c r="B59" s="170"/>
-      <c r="C59" s="170"/>
-      <c r="D59" s="170"/>
+      <c r="B59" s="168"/>
+      <c r="C59" s="168"/>
+      <c r="D59" s="168"/>
       <c r="E59" s="28"/>
       <c r="F59" s="21"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="21"/>
-      <c r="B60" s="170"/>
-      <c r="C60" s="170"/>
-      <c r="D60" s="170"/>
+      <c r="B60" s="168"/>
+      <c r="C60" s="168"/>
+      <c r="D60" s="168"/>
       <c r="E60" s="28"/>
       <c r="F60" s="21"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="21"/>
-      <c r="B61" s="170"/>
-      <c r="C61" s="170"/>
-      <c r="D61" s="170"/>
+      <c r="B61" s="168"/>
+      <c r="C61" s="168"/>
+      <c r="D61" s="168"/>
       <c r="E61" s="28"/>
       <c r="F61" s="21"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="21"/>
-      <c r="B62" s="170"/>
-      <c r="C62" s="170"/>
-      <c r="D62" s="170"/>
+      <c r="B62" s="168"/>
+      <c r="C62" s="168"/>
+      <c r="D62" s="168"/>
       <c r="E62" s="28"/>
       <c r="F62" s="21"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="21"/>
-      <c r="B63" s="170"/>
-      <c r="C63" s="170"/>
-      <c r="D63" s="170"/>
+      <c r="B63" s="168"/>
+      <c r="C63" s="168"/>
+      <c r="D63" s="168"/>
       <c r="E63" s="28"/>
       <c r="F63" s="21"/>
     </row>
     <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A64" s="21"/>
-      <c r="B64" s="170"/>
-      <c r="C64" s="170"/>
-      <c r="D64" s="170"/>
+      <c r="B64" s="168"/>
+      <c r="C64" s="168"/>
+      <c r="D64" s="168"/>
       <c r="E64" s="28"/>
       <c r="F64" s="21"/>
     </row>
@@ -14028,17 +14954,17 @@
     </row>
     <row r="67" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A67" s="21"/>
-      <c r="B67" s="170"/>
-      <c r="C67" s="170"/>
-      <c r="D67" s="170"/>
+      <c r="B67" s="168"/>
+      <c r="C67" s="168"/>
+      <c r="D67" s="168"/>
       <c r="E67" s="28"/>
       <c r="F67" s="21"/>
     </row>
     <row r="68" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="21"/>
-      <c r="B68" s="170"/>
-      <c r="C68" s="170"/>
-      <c r="D68" s="170"/>
+      <c r="B68" s="168"/>
+      <c r="C68" s="168"/>
+      <c r="D68" s="168"/>
       <c r="E68" s="28"/>
       <c r="F68" s="21"/>
     </row>
@@ -14145,19 +15071,19 @@
     </row>
     <row r="77" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A77" s="21"/>
-      <c r="B77" s="174"/>
-      <c r="C77" s="174"/>
-      <c r="D77" s="174"/>
+      <c r="B77" s="170"/>
+      <c r="C77" s="170"/>
+      <c r="D77" s="170"/>
       <c r="E77" s="36"/>
       <c r="F77" s="21"/>
     </row>
     <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="21"/>
-      <c r="B78" s="171" t="s">
+      <c r="B78" s="175" t="s">
         <v>17</v>
       </c>
-      <c r="C78" s="171"/>
-      <c r="D78" s="171"/>
+      <c r="C78" s="175"/>
+      <c r="D78" s="175"/>
       <c r="E78" s="36">
         <v>0</v>
       </c>
@@ -14165,9 +15091,9 @@
     </row>
     <row r="79" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="21"/>
-      <c r="B79" s="174"/>
-      <c r="C79" s="174"/>
-      <c r="D79" s="174"/>
+      <c r="B79" s="170"/>
+      <c r="C79" s="170"/>
+      <c r="D79" s="170"/>
       <c r="E79" s="36"/>
       <c r="F79" s="21"/>
     </row>
@@ -14202,31 +15128,31 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="21"/>
-      <c r="B83" s="168"/>
-      <c r="C83" s="168"/>
-      <c r="D83" s="168"/>
-      <c r="E83" s="168"/>
+      <c r="B83" s="173"/>
+      <c r="C83" s="173"/>
+      <c r="D83" s="173"/>
+      <c r="E83" s="173"/>
       <c r="F83" s="21"/>
     </row>
     <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="176" t="s">
+      <c r="A84" s="167" t="s">
         <v>28</v>
       </c>
-      <c r="B84" s="176"/>
-      <c r="C84" s="176"/>
-      <c r="D84" s="176"/>
-      <c r="E84" s="176"/>
-      <c r="F84" s="176"/>
+      <c r="B84" s="167"/>
+      <c r="C84" s="167"/>
+      <c r="D84" s="167"/>
+      <c r="E84" s="167"/>
+      <c r="F84" s="167"/>
     </row>
     <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A85" s="172" t="s">
+      <c r="A85" s="176" t="s">
         <v>29</v>
       </c>
-      <c r="B85" s="172"/>
-      <c r="C85" s="172"/>
-      <c r="D85" s="172"/>
-      <c r="E85" s="172"/>
-      <c r="F85" s="172"/>
+      <c r="B85" s="176"/>
+      <c r="C85" s="176"/>
+      <c r="D85" s="176"/>
+      <c r="E85" s="176"/>
+      <c r="F85" s="176"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="21"/>
@@ -14238,26 +15164,786 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="21"/>
-      <c r="B87" s="169"/>
-      <c r="C87" s="169"/>
-      <c r="D87" s="169"/>
-      <c r="E87" s="169"/>
+      <c r="B87" s="174"/>
+      <c r="C87" s="174"/>
+      <c r="D87" s="174"/>
+      <c r="E87" s="174"/>
       <c r="F87" s="21"/>
     </row>
     <row r="88" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A88" s="175" t="s">
+      <c r="A88" s="166" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="175"/>
-      <c r="C88" s="175"/>
-      <c r="D88" s="175"/>
-      <c r="E88" s="175"/>
-      <c r="F88" s="175"/>
+      <c r="B88" s="166"/>
+      <c r="C88" s="166"/>
+      <c r="D88" s="166"/>
+      <c r="E88" s="166"/>
+      <c r="F88" s="166"/>
     </row>
     <row r="90" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="166"/>
-      <c r="C90" s="167"/>
-      <c r="D90" s="167"/>
+      <c r="B90" s="171"/>
+      <c r="C90" s="172"/>
+      <c r="D90" s="172"/>
+    </row>
+    <row r="91" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B92" s="16"/>
+      <c r="C92" s="16"/>
+      <c r="D92" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="44">
+    <mergeCell ref="A88:F88"/>
+    <mergeCell ref="B90:D90"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B79:D79"/>
+    <mergeCell ref="B83:E83"/>
+    <mergeCell ref="A84:F84"/>
+    <mergeCell ref="A85:F85"/>
+    <mergeCell ref="B87:E87"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B42:D42"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B77:B79 B12:B20 B33:B68" xr:uid="{F63D506F-F83F-443F-AF37-651526223AA2}">
+      <formula1>Liste_Activités</formula1>
+    </dataValidation>
+  </dataValidations>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="131" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AE3B675-DC11-46F4-ACB2-343090D91EC4}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A12:F92"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" topLeftCell="A40" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35:D35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="120" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="11.42578125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B12" s="3"/>
+      <c r="E12" s="4"/>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B13" s="3"/>
+      <c r="E13" s="4"/>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B14" s="3"/>
+      <c r="E14" s="4"/>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B15" s="3"/>
+      <c r="E15" s="4"/>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B16" s="3"/>
+      <c r="E16" s="4"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B17" s="3"/>
+      <c r="E17" s="4"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B18" s="3"/>
+      <c r="E18" s="4"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B19" s="3"/>
+      <c r="E19" s="4"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B20" s="3"/>
+      <c r="E20" s="4"/>
+    </row>
+    <row r="21" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A21" s="17"/>
+      <c r="B21" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+    </row>
+    <row r="22" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A22" s="17"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+    </row>
+    <row r="23" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A23" s="17"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+    </row>
+    <row r="24" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A24" s="17"/>
+      <c r="B24" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+    </row>
+    <row r="25" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A25" s="17"/>
+      <c r="B25" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+    </row>
+    <row r="26" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="17"/>
+      <c r="B26" s="53" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="18"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="21"/>
+    </row>
+    <row r="28" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A28" s="17"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="F28" s="21"/>
+    </row>
+    <row r="29" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="19"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="20"/>
+    </row>
+    <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="169" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="169"/>
+      <c r="C30" s="169"/>
+      <c r="D30" s="169"/>
+      <c r="E30" s="169"/>
+      <c r="F30" s="169"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="17"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+    </row>
+    <row r="32" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A32" s="21"/>
+      <c r="B32" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="21"/>
+    </row>
+    <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A33" s="21"/>
+      <c r="B33" s="168"/>
+      <c r="C33" s="168"/>
+      <c r="D33" s="168"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="21"/>
+    </row>
+    <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A34" s="21"/>
+      <c r="B34" s="168" t="s">
+        <v>73</v>
+      </c>
+      <c r="C34" s="168"/>
+      <c r="D34" s="168"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="21"/>
+    </row>
+    <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A35" s="21"/>
+      <c r="B35" s="168"/>
+      <c r="C35" s="168"/>
+      <c r="D35" s="168"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="21"/>
+    </row>
+    <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A36" s="21"/>
+      <c r="B36" s="168" t="s">
+        <v>74</v>
+      </c>
+      <c r="C36" s="168"/>
+      <c r="D36" s="168"/>
+      <c r="E36" s="28"/>
+      <c r="F36" s="21"/>
+    </row>
+    <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A37" s="21"/>
+      <c r="B37" s="168"/>
+      <c r="C37" s="168"/>
+      <c r="D37" s="168"/>
+      <c r="E37" s="28"/>
+      <c r="F37" s="21"/>
+    </row>
+    <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A38" s="21"/>
+      <c r="B38" s="168" t="s">
+        <v>75</v>
+      </c>
+      <c r="C38" s="168"/>
+      <c r="D38" s="168"/>
+      <c r="E38" s="28"/>
+      <c r="F38" s="21"/>
+    </row>
+    <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A39" s="21"/>
+      <c r="B39" s="168"/>
+      <c r="C39" s="168"/>
+      <c r="D39" s="168"/>
+      <c r="E39" s="28"/>
+      <c r="F39" s="21"/>
+    </row>
+    <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A40" s="21"/>
+      <c r="B40" s="168" t="s">
+        <v>76</v>
+      </c>
+      <c r="C40" s="168"/>
+      <c r="D40" s="168"/>
+      <c r="E40" s="28"/>
+      <c r="F40" s="21"/>
+    </row>
+    <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A41" s="21"/>
+      <c r="B41" s="168"/>
+      <c r="C41" s="168"/>
+      <c r="D41" s="168"/>
+      <c r="E41" s="28"/>
+      <c r="F41" s="21"/>
+    </row>
+    <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A42" s="21"/>
+      <c r="B42" s="168" t="s">
+        <v>38</v>
+      </c>
+      <c r="C42" s="168"/>
+      <c r="D42" s="168"/>
+      <c r="E42" s="28"/>
+      <c r="F42" s="21"/>
+    </row>
+    <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A43" s="21"/>
+      <c r="B43" s="168"/>
+      <c r="C43" s="168"/>
+      <c r="D43" s="168"/>
+      <c r="E43" s="28"/>
+      <c r="F43" s="21"/>
+    </row>
+    <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A44" s="21"/>
+      <c r="B44" s="168" t="s">
+        <v>34</v>
+      </c>
+      <c r="C44" s="168"/>
+      <c r="D44" s="168"/>
+      <c r="E44" s="28"/>
+      <c r="F44" s="21"/>
+    </row>
+    <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A45" s="21"/>
+      <c r="B45" s="168"/>
+      <c r="C45" s="168"/>
+      <c r="D45" s="168"/>
+      <c r="E45" s="28"/>
+      <c r="F45" s="21"/>
+    </row>
+    <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A46" s="21"/>
+      <c r="B46" s="168"/>
+      <c r="C46" s="168"/>
+      <c r="D46" s="168"/>
+      <c r="E46" s="28"/>
+      <c r="F46" s="21"/>
+    </row>
+    <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A47" s="21"/>
+      <c r="B47" s="168"/>
+      <c r="C47" s="168"/>
+      <c r="D47" s="168"/>
+      <c r="E47" s="28"/>
+      <c r="F47" s="21"/>
+    </row>
+    <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A48" s="21"/>
+      <c r="B48" s="168"/>
+      <c r="C48" s="168"/>
+      <c r="D48" s="168"/>
+      <c r="E48" s="28"/>
+      <c r="F48" s="21"/>
+    </row>
+    <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A49" s="21"/>
+      <c r="B49" s="168"/>
+      <c r="C49" s="168"/>
+      <c r="D49" s="168"/>
+      <c r="E49" s="28"/>
+      <c r="F49" s="21"/>
+    </row>
+    <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A50" s="21"/>
+      <c r="B50" s="168"/>
+      <c r="C50" s="168"/>
+      <c r="D50" s="168"/>
+      <c r="E50" s="28"/>
+      <c r="F50" s="21"/>
+    </row>
+    <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A51" s="21"/>
+      <c r="B51" s="168"/>
+      <c r="C51" s="168"/>
+      <c r="D51" s="168"/>
+      <c r="E51" s="28"/>
+      <c r="F51" s="21"/>
+    </row>
+    <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A52" s="21"/>
+      <c r="B52" s="168"/>
+      <c r="C52" s="168"/>
+      <c r="D52" s="168"/>
+      <c r="E52" s="28"/>
+      <c r="F52" s="21"/>
+    </row>
+    <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A53" s="21"/>
+      <c r="B53" s="168"/>
+      <c r="C53" s="168"/>
+      <c r="D53" s="168"/>
+      <c r="E53" s="28"/>
+      <c r="F53" s="21"/>
+    </row>
+    <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A54" s="21"/>
+      <c r="B54" s="168"/>
+      <c r="C54" s="168"/>
+      <c r="D54" s="168"/>
+      <c r="E54" s="28"/>
+      <c r="F54" s="21"/>
+    </row>
+    <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A55" s="21"/>
+      <c r="B55" s="168"/>
+      <c r="C55" s="168"/>
+      <c r="D55" s="168"/>
+      <c r="E55" s="28"/>
+      <c r="F55" s="21"/>
+    </row>
+    <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A56" s="21"/>
+      <c r="B56" s="168"/>
+      <c r="C56" s="168"/>
+      <c r="D56" s="168"/>
+      <c r="E56" s="28"/>
+      <c r="F56" s="21"/>
+    </row>
+    <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A57" s="21"/>
+      <c r="B57" s="168"/>
+      <c r="C57" s="168"/>
+      <c r="D57" s="168"/>
+      <c r="E57" s="28"/>
+      <c r="F57" s="21"/>
+    </row>
+    <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A58" s="21"/>
+      <c r="B58" s="168"/>
+      <c r="C58" s="168"/>
+      <c r="D58" s="168"/>
+      <c r="E58" s="28"/>
+      <c r="F58" s="21"/>
+    </row>
+    <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A59" s="21"/>
+      <c r="B59" s="168"/>
+      <c r="C59" s="168"/>
+      <c r="D59" s="168"/>
+      <c r="E59" s="28"/>
+      <c r="F59" s="21"/>
+    </row>
+    <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A60" s="21"/>
+      <c r="B60" s="168"/>
+      <c r="C60" s="168"/>
+      <c r="D60" s="168"/>
+      <c r="E60" s="28"/>
+      <c r="F60" s="21"/>
+    </row>
+    <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A61" s="21"/>
+      <c r="B61" s="168"/>
+      <c r="C61" s="168"/>
+      <c r="D61" s="168"/>
+      <c r="E61" s="28"/>
+      <c r="F61" s="21"/>
+    </row>
+    <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A62" s="21"/>
+      <c r="B62" s="168"/>
+      <c r="C62" s="168"/>
+      <c r="D62" s="168"/>
+      <c r="E62" s="28"/>
+      <c r="F62" s="21"/>
+    </row>
+    <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A63" s="21"/>
+      <c r="B63" s="168"/>
+      <c r="C63" s="168"/>
+      <c r="D63" s="168"/>
+      <c r="E63" s="28"/>
+      <c r="F63" s="21"/>
+    </row>
+    <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A64" s="21"/>
+      <c r="B64" s="168"/>
+      <c r="C64" s="168"/>
+      <c r="D64" s="168"/>
+      <c r="E64" s="28"/>
+      <c r="F64" s="21"/>
+    </row>
+    <row r="65" spans="1:6" s="50" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A65" s="46"/>
+      <c r="B65" s="47"/>
+      <c r="C65" s="48" t="s">
+        <v>36</v>
+      </c>
+      <c r="D65" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="E65" s="49"/>
+      <c r="F65" s="46"/>
+    </row>
+    <row r="66" spans="1:6" s="50" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A66" s="46"/>
+      <c r="B66" s="47"/>
+      <c r="C66" s="51">
+        <v>12.75</v>
+      </c>
+      <c r="D66" s="52">
+        <v>325</v>
+      </c>
+      <c r="E66" s="49"/>
+      <c r="F66" s="46"/>
+    </row>
+    <row r="67" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A67" s="21"/>
+      <c r="B67" s="168"/>
+      <c r="C67" s="168"/>
+      <c r="D67" s="168"/>
+      <c r="E67" s="28"/>
+      <c r="F67" s="21"/>
+    </row>
+    <row r="68" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="21"/>
+      <c r="B68" s="168"/>
+      <c r="C68" s="168"/>
+      <c r="D68" s="168"/>
+      <c r="E68" s="28"/>
+      <c r="F68" s="21"/>
+    </row>
+    <row r="69" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="21"/>
+      <c r="B69" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C69" s="26"/>
+      <c r="D69" s="26"/>
+      <c r="E69" s="29">
+        <f>D66*C66</f>
+        <v>4143.75</v>
+      </c>
+      <c r="F69" s="21"/>
+    </row>
+    <row r="70" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="21"/>
+      <c r="B70" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="C70" s="26"/>
+      <c r="D70" s="26"/>
+      <c r="E70" s="30">
+        <v>0</v>
+      </c>
+      <c r="F70" s="21"/>
+    </row>
+    <row r="71" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="21"/>
+      <c r="B71" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="C71" s="26"/>
+      <c r="D71" s="26"/>
+      <c r="E71" s="30">
+        <v>0</v>
+      </c>
+      <c r="F71" s="21"/>
+    </row>
+    <row r="72" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="21"/>
+      <c r="B72" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C72" s="26"/>
+      <c r="D72" s="26"/>
+      <c r="E72" s="29">
+        <f>SUM(E69:E71)</f>
+        <v>4143.75</v>
+      </c>
+      <c r="F72" s="21"/>
+    </row>
+    <row r="73" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="21"/>
+      <c r="B73" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C73" s="31">
+        <v>0.05</v>
+      </c>
+      <c r="D73" s="26"/>
+      <c r="E73" s="35">
+        <f>ROUND(E72*C73,2)</f>
+        <v>207.19</v>
+      </c>
+      <c r="F73" s="21"/>
+    </row>
+    <row r="74" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="21"/>
+      <c r="B74" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C74" s="42">
+        <v>9.9750000000000005E-2</v>
+      </c>
+      <c r="D74" s="26"/>
+      <c r="E74" s="43">
+        <f>ROUND(E72*C74,2)</f>
+        <v>413.34</v>
+      </c>
+      <c r="F74" s="21"/>
+    </row>
+    <row r="75" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="21"/>
+      <c r="B75" s="26"/>
+      <c r="C75" s="26"/>
+      <c r="D75" s="26"/>
+      <c r="E75" s="32"/>
+      <c r="F75" s="21"/>
+    </row>
+    <row r="76" spans="1:6" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="21"/>
+      <c r="B76" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C76" s="26"/>
+      <c r="D76" s="26"/>
+      <c r="E76" s="33">
+        <f>SUM(E72:E74)</f>
+        <v>4764.28</v>
+      </c>
+      <c r="F76" s="21"/>
+    </row>
+    <row r="77" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="21"/>
+      <c r="B77" s="170"/>
+      <c r="C77" s="170"/>
+      <c r="D77" s="170"/>
+      <c r="E77" s="36"/>
+      <c r="F77" s="21"/>
+    </row>
+    <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A78" s="21"/>
+      <c r="B78" s="175" t="s">
+        <v>17</v>
+      </c>
+      <c r="C78" s="175"/>
+      <c r="D78" s="175"/>
+      <c r="E78" s="36">
+        <v>0</v>
+      </c>
+      <c r="F78" s="21"/>
+    </row>
+    <row r="79" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A79" s="21"/>
+      <c r="B79" s="170"/>
+      <c r="C79" s="170"/>
+      <c r="D79" s="170"/>
+      <c r="E79" s="36"/>
+      <c r="F79" s="21"/>
+    </row>
+    <row r="80" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="21"/>
+      <c r="B80" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="C80" s="38"/>
+      <c r="D80" s="38"/>
+      <c r="E80" s="39">
+        <f>E76-E78</f>
+        <v>4764.28</v>
+      </c>
+      <c r="F80" s="21"/>
+    </row>
+    <row r="81" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="21"/>
+      <c r="B81" s="21"/>
+      <c r="C81" s="21"/>
+      <c r="D81" s="21"/>
+      <c r="E81" s="21"/>
+      <c r="F81" s="21"/>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A82" s="21"/>
+      <c r="B82" s="21"/>
+      <c r="C82" s="21"/>
+      <c r="D82" s="21"/>
+      <c r="E82" s="21"/>
+      <c r="F82" s="21"/>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A83" s="21"/>
+      <c r="B83" s="173"/>
+      <c r="C83" s="173"/>
+      <c r="D83" s="173"/>
+      <c r="E83" s="173"/>
+      <c r="F83" s="21"/>
+    </row>
+    <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A84" s="167" t="s">
+        <v>28</v>
+      </c>
+      <c r="B84" s="167"/>
+      <c r="C84" s="167"/>
+      <c r="D84" s="167"/>
+      <c r="E84" s="167"/>
+      <c r="F84" s="167"/>
+    </row>
+    <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A85" s="176" t="s">
+        <v>29</v>
+      </c>
+      <c r="B85" s="176"/>
+      <c r="C85" s="176"/>
+      <c r="D85" s="176"/>
+      <c r="E85" s="176"/>
+      <c r="F85" s="176"/>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A86" s="21"/>
+      <c r="B86" s="21"/>
+      <c r="C86" s="21"/>
+      <c r="D86" s="21"/>
+      <c r="E86" s="21"/>
+      <c r="F86" s="21"/>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A87" s="21"/>
+      <c r="B87" s="174"/>
+      <c r="C87" s="174"/>
+      <c r="D87" s="174"/>
+      <c r="E87" s="174"/>
+      <c r="F87" s="21"/>
+    </row>
+    <row r="88" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A88" s="166" t="s">
+        <v>7</v>
+      </c>
+      <c r="B88" s="166"/>
+      <c r="C88" s="166"/>
+      <c r="D88" s="166"/>
+      <c r="E88" s="166"/>
+      <c r="F88" s="166"/>
+    </row>
+    <row r="90" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B90" s="171"/>
+      <c r="C90" s="172"/>
+      <c r="D90" s="172"/>
     </row>
     <row r="91" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
@@ -14313,7 +15999,7 @@
     <mergeCell ref="B87:E87"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B77:B79 B12:B20 B33:B68" xr:uid="{F63D506F-F83F-443F-AF37-651526223AA2}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B77:B79 B12:B20 B33:B68" xr:uid="{8F92F1D9-33FE-4AA0-94D6-42CF382A400F}">
       <formula1>Liste_Activités</formula1>
     </dataValidation>
   </dataValidations>
@@ -14325,15 +16011,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AE3B675-DC11-46F4-ACB2-343090D91EC4}">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2501D71E-8250-4A10-89DE-BFE80B334A76}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A12:F92"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A40" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35:D35"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A19" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="B67" sqref="B67:D67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -14386,7 +16072,7 @@
     <row r="21" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="17"/>
       <c r="B21" s="25" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C21" s="21"/>
       <c r="D21" s="21"/>
@@ -14455,7 +16141,7 @@
         <v>11</v>
       </c>
       <c r="E28" s="27" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="F28" s="21"/>
     </row>
@@ -14468,14 +16154,14 @@
       <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="173" t="s">
+      <c r="A30" s="169" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="173"/>
-      <c r="C30" s="173"/>
-      <c r="D30" s="173"/>
-      <c r="E30" s="173"/>
-      <c r="F30" s="173"/>
+      <c r="B30" s="169"/>
+      <c r="C30" s="169"/>
+      <c r="D30" s="169"/>
+      <c r="E30" s="169"/>
+      <c r="F30" s="169"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="17"/>
@@ -14496,269 +16182,263 @@
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
-      <c r="B33" s="170"/>
-      <c r="C33" s="170"/>
-      <c r="D33" s="170"/>
+      <c r="B33" s="168"/>
+      <c r="C33" s="168"/>
+      <c r="D33" s="168"/>
       <c r="E33" s="28"/>
       <c r="F33" s="21"/>
     </row>
-    <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="21"/>
-      <c r="B34" s="170" t="s">
-        <v>73</v>
-      </c>
-      <c r="C34" s="170"/>
-      <c r="D34" s="170"/>
+      <c r="B34" s="168" t="s">
+        <v>80</v>
+      </c>
+      <c r="C34" s="168"/>
+      <c r="D34" s="168"/>
       <c r="E34" s="28"/>
       <c r="F34" s="21"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
-      <c r="B35" s="170"/>
-      <c r="C35" s="170"/>
-      <c r="D35" s="170"/>
+      <c r="B35" s="168"/>
+      <c r="C35" s="168"/>
+      <c r="D35" s="168"/>
       <c r="E35" s="28"/>
       <c r="F35" s="21"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="21"/>
-      <c r="B36" s="170" t="s">
-        <v>74</v>
-      </c>
-      <c r="C36" s="170"/>
-      <c r="D36" s="170"/>
+      <c r="B36" s="168" t="s">
+        <v>79</v>
+      </c>
+      <c r="C36" s="168"/>
+      <c r="D36" s="168"/>
       <c r="E36" s="28"/>
       <c r="F36" s="21"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
-      <c r="B37" s="170"/>
-      <c r="C37" s="170"/>
-      <c r="D37" s="170"/>
+      <c r="B37" s="168"/>
+      <c r="C37" s="168"/>
+      <c r="D37" s="168"/>
       <c r="E37" s="28"/>
       <c r="F37" s="21"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="21"/>
-      <c r="B38" s="170" t="s">
-        <v>75</v>
-      </c>
-      <c r="C38" s="170"/>
-      <c r="D38" s="170"/>
+      <c r="B38" s="168" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" s="168"/>
+      <c r="D38" s="168"/>
       <c r="E38" s="28"/>
       <c r="F38" s="21"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="21"/>
-      <c r="B39" s="170"/>
-      <c r="C39" s="170"/>
-      <c r="D39" s="170"/>
+      <c r="B39" s="168"/>
+      <c r="C39" s="168"/>
+      <c r="D39" s="168"/>
       <c r="E39" s="28"/>
       <c r="F39" s="21"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="21"/>
-      <c r="B40" s="170" t="s">
-        <v>76</v>
-      </c>
-      <c r="C40" s="170"/>
-      <c r="D40" s="170"/>
+      <c r="B40" s="168"/>
+      <c r="C40" s="168"/>
+      <c r="D40" s="168"/>
       <c r="E40" s="28"/>
       <c r="F40" s="21"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="21"/>
-      <c r="B41" s="170"/>
-      <c r="C41" s="170"/>
-      <c r="D41" s="170"/>
+      <c r="B41" s="168"/>
+      <c r="C41" s="168"/>
+      <c r="D41" s="168"/>
       <c r="E41" s="28"/>
       <c r="F41" s="21"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="21"/>
-      <c r="B42" s="170" t="s">
-        <v>38</v>
-      </c>
-      <c r="C42" s="170"/>
-      <c r="D42" s="170"/>
+      <c r="B42" s="168"/>
+      <c r="C42" s="168"/>
+      <c r="D42" s="168"/>
       <c r="E42" s="28"/>
       <c r="F42" s="21"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="21"/>
-      <c r="B43" s="170"/>
-      <c r="C43" s="170"/>
-      <c r="D43" s="170"/>
+      <c r="B43" s="168"/>
+      <c r="C43" s="168"/>
+      <c r="D43" s="168"/>
       <c r="E43" s="28"/>
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
-      <c r="B44" s="170" t="s">
-        <v>34</v>
-      </c>
-      <c r="C44" s="170"/>
-      <c r="D44" s="170"/>
+      <c r="B44" s="168"/>
+      <c r="C44" s="168"/>
+      <c r="D44" s="168"/>
       <c r="E44" s="28"/>
       <c r="F44" s="21"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="21"/>
-      <c r="B45" s="170"/>
-      <c r="C45" s="170"/>
-      <c r="D45" s="170"/>
+      <c r="B45" s="168"/>
+      <c r="C45" s="168"/>
+      <c r="D45" s="168"/>
       <c r="E45" s="28"/>
       <c r="F45" s="21"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="21"/>
-      <c r="B46" s="170"/>
-      <c r="C46" s="170"/>
-      <c r="D46" s="170"/>
+      <c r="B46" s="168"/>
+      <c r="C46" s="168"/>
+      <c r="D46" s="168"/>
       <c r="E46" s="28"/>
       <c r="F46" s="21"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="21"/>
-      <c r="B47" s="170"/>
-      <c r="C47" s="170"/>
-      <c r="D47" s="170"/>
+      <c r="B47" s="168"/>
+      <c r="C47" s="168"/>
+      <c r="D47" s="168"/>
       <c r="E47" s="28"/>
       <c r="F47" s="21"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="21"/>
-      <c r="B48" s="170"/>
-      <c r="C48" s="170"/>
-      <c r="D48" s="170"/>
+      <c r="B48" s="168"/>
+      <c r="C48" s="168"/>
+      <c r="D48" s="168"/>
       <c r="E48" s="28"/>
       <c r="F48" s="21"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="21"/>
-      <c r="B49" s="170"/>
-      <c r="C49" s="170"/>
-      <c r="D49" s="170"/>
+      <c r="B49" s="168"/>
+      <c r="C49" s="168"/>
+      <c r="D49" s="168"/>
       <c r="E49" s="28"/>
       <c r="F49" s="21"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="21"/>
-      <c r="B50" s="170"/>
-      <c r="C50" s="170"/>
-      <c r="D50" s="170"/>
+      <c r="B50" s="168"/>
+      <c r="C50" s="168"/>
+      <c r="D50" s="168"/>
       <c r="E50" s="28"/>
       <c r="F50" s="21"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="21"/>
-      <c r="B51" s="170"/>
-      <c r="C51" s="170"/>
-      <c r="D51" s="170"/>
+      <c r="B51" s="168"/>
+      <c r="C51" s="168"/>
+      <c r="D51" s="168"/>
       <c r="E51" s="28"/>
       <c r="F51" s="21"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="21"/>
-      <c r="B52" s="170"/>
-      <c r="C52" s="170"/>
-      <c r="D52" s="170"/>
+      <c r="B52" s="168"/>
+      <c r="C52" s="168"/>
+      <c r="D52" s="168"/>
       <c r="E52" s="28"/>
       <c r="F52" s="21"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="21"/>
-      <c r="B53" s="170"/>
-      <c r="C53" s="170"/>
-      <c r="D53" s="170"/>
+      <c r="B53" s="168"/>
+      <c r="C53" s="168"/>
+      <c r="D53" s="168"/>
       <c r="E53" s="28"/>
       <c r="F53" s="21"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="21"/>
-      <c r="B54" s="170"/>
-      <c r="C54" s="170"/>
-      <c r="D54" s="170"/>
+      <c r="B54" s="168"/>
+      <c r="C54" s="168"/>
+      <c r="D54" s="168"/>
       <c r="E54" s="28"/>
       <c r="F54" s="21"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="21"/>
-      <c r="B55" s="170"/>
-      <c r="C55" s="170"/>
-      <c r="D55" s="170"/>
+      <c r="B55" s="168"/>
+      <c r="C55" s="168"/>
+      <c r="D55" s="168"/>
       <c r="E55" s="28"/>
       <c r="F55" s="21"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="21"/>
-      <c r="B56" s="170"/>
-      <c r="C56" s="170"/>
-      <c r="D56" s="170"/>
+      <c r="B56" s="168"/>
+      <c r="C56" s="168"/>
+      <c r="D56" s="168"/>
       <c r="E56" s="28"/>
       <c r="F56" s="21"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="21"/>
-      <c r="B57" s="170"/>
-      <c r="C57" s="170"/>
-      <c r="D57" s="170"/>
+      <c r="B57" s="168"/>
+      <c r="C57" s="168"/>
+      <c r="D57" s="168"/>
       <c r="E57" s="28"/>
       <c r="F57" s="21"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="21"/>
-      <c r="B58" s="170"/>
-      <c r="C58" s="170"/>
-      <c r="D58" s="170"/>
+      <c r="B58" s="168"/>
+      <c r="C58" s="168"/>
+      <c r="D58" s="168"/>
       <c r="E58" s="28"/>
       <c r="F58" s="21"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="21"/>
-      <c r="B59" s="170"/>
-      <c r="C59" s="170"/>
-      <c r="D59" s="170"/>
+      <c r="B59" s="168"/>
+      <c r="C59" s="168"/>
+      <c r="D59" s="168"/>
       <c r="E59" s="28"/>
       <c r="F59" s="21"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="21"/>
-      <c r="B60" s="170"/>
-      <c r="C60" s="170"/>
-      <c r="D60" s="170"/>
+      <c r="B60" s="168"/>
+      <c r="C60" s="168"/>
+      <c r="D60" s="168"/>
       <c r="E60" s="28"/>
       <c r="F60" s="21"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="21"/>
-      <c r="B61" s="170"/>
-      <c r="C61" s="170"/>
-      <c r="D61" s="170"/>
+      <c r="B61" s="168"/>
+      <c r="C61" s="168"/>
+      <c r="D61" s="168"/>
       <c r="E61" s="28"/>
       <c r="F61" s="21"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="21"/>
-      <c r="B62" s="170"/>
-      <c r="C62" s="170"/>
-      <c r="D62" s="170"/>
+      <c r="B62" s="168"/>
+      <c r="C62" s="168"/>
+      <c r="D62" s="168"/>
       <c r="E62" s="28"/>
       <c r="F62" s="21"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="21"/>
-      <c r="B63" s="170"/>
-      <c r="C63" s="170"/>
-      <c r="D63" s="170"/>
+      <c r="B63" s="168"/>
+      <c r="C63" s="168"/>
+      <c r="D63" s="168"/>
       <c r="E63" s="28"/>
       <c r="F63" s="21"/>
     </row>
     <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A64" s="21"/>
-      <c r="B64" s="170"/>
-      <c r="C64" s="170"/>
-      <c r="D64" s="170"/>
+      <c r="B64" s="168"/>
+      <c r="C64" s="168"/>
+      <c r="D64" s="168"/>
       <c r="E64" s="28"/>
       <c r="F64" s="21"/>
     </row>
@@ -14778,7 +16458,7 @@
       <c r="A66" s="46"/>
       <c r="B66" s="47"/>
       <c r="C66" s="51">
-        <v>12.75</v>
+        <v>10.75</v>
       </c>
       <c r="D66" s="52">
         <v>325</v>
@@ -14788,17 +16468,17 @@
     </row>
     <row r="67" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A67" s="21"/>
-      <c r="B67" s="170"/>
-      <c r="C67" s="170"/>
-      <c r="D67" s="170"/>
+      <c r="B67" s="168"/>
+      <c r="C67" s="168"/>
+      <c r="D67" s="168"/>
       <c r="E67" s="28"/>
       <c r="F67" s="21"/>
     </row>
     <row r="68" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="21"/>
-      <c r="B68" s="170"/>
-      <c r="C68" s="170"/>
-      <c r="D68" s="170"/>
+      <c r="B68" s="168"/>
+      <c r="C68" s="168"/>
+      <c r="D68" s="168"/>
       <c r="E68" s="28"/>
       <c r="F68" s="21"/>
     </row>
@@ -14811,7 +16491,7 @@
       <c r="D69" s="26"/>
       <c r="E69" s="29">
         <f>D66*C66</f>
-        <v>4143.75</v>
+        <v>3493.75</v>
       </c>
       <c r="F69" s="21"/>
     </row>
@@ -14848,7 +16528,7 @@
       <c r="D72" s="26"/>
       <c r="E72" s="29">
         <f>SUM(E69:E71)</f>
-        <v>4143.75</v>
+        <v>3493.75</v>
       </c>
       <c r="F72" s="21"/>
     </row>
@@ -14863,7 +16543,7 @@
       <c r="D73" s="26"/>
       <c r="E73" s="35">
         <f>ROUND(E72*C73,2)</f>
-        <v>207.19</v>
+        <v>174.69</v>
       </c>
       <c r="F73" s="21"/>
     </row>
@@ -14878,7 +16558,7 @@
       <c r="D74" s="26"/>
       <c r="E74" s="43">
         <f>ROUND(E72*C74,2)</f>
-        <v>413.34</v>
+        <v>348.5</v>
       </c>
       <c r="F74" s="21"/>
     </row>
@@ -14899,25 +16579,25 @@
       <c r="D76" s="26"/>
       <c r="E76" s="33">
         <f>SUM(E72:E74)</f>
-        <v>4764.28</v>
+        <v>4016.94</v>
       </c>
       <c r="F76" s="21"/>
     </row>
     <row r="77" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A77" s="21"/>
-      <c r="B77" s="174"/>
-      <c r="C77" s="174"/>
-      <c r="D77" s="174"/>
+      <c r="B77" s="170"/>
+      <c r="C77" s="170"/>
+      <c r="D77" s="170"/>
       <c r="E77" s="36"/>
       <c r="F77" s="21"/>
     </row>
     <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="21"/>
-      <c r="B78" s="171" t="s">
+      <c r="B78" s="175" t="s">
         <v>17</v>
       </c>
-      <c r="C78" s="171"/>
-      <c r="D78" s="171"/>
+      <c r="C78" s="175"/>
+      <c r="D78" s="175"/>
       <c r="E78" s="36">
         <v>0</v>
       </c>
@@ -14925,9 +16605,9 @@
     </row>
     <row r="79" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="21"/>
-      <c r="B79" s="174"/>
-      <c r="C79" s="174"/>
-      <c r="D79" s="174"/>
+      <c r="B79" s="170"/>
+      <c r="C79" s="170"/>
+      <c r="D79" s="170"/>
       <c r="E79" s="36"/>
       <c r="F79" s="21"/>
     </row>
@@ -14940,7 +16620,7 @@
       <c r="D80" s="38"/>
       <c r="E80" s="39">
         <f>E76-E78</f>
-        <v>4764.28</v>
+        <v>4016.94</v>
       </c>
       <c r="F80" s="21"/>
     </row>
@@ -14962,31 +16642,31 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="21"/>
-      <c r="B83" s="168"/>
-      <c r="C83" s="168"/>
-      <c r="D83" s="168"/>
-      <c r="E83" s="168"/>
+      <c r="B83" s="173"/>
+      <c r="C83" s="173"/>
+      <c r="D83" s="173"/>
+      <c r="E83" s="173"/>
       <c r="F83" s="21"/>
     </row>
     <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="176" t="s">
+      <c r="A84" s="167" t="s">
         <v>28</v>
       </c>
-      <c r="B84" s="176"/>
-      <c r="C84" s="176"/>
-      <c r="D84" s="176"/>
-      <c r="E84" s="176"/>
-      <c r="F84" s="176"/>
+      <c r="B84" s="167"/>
+      <c r="C84" s="167"/>
+      <c r="D84" s="167"/>
+      <c r="E84" s="167"/>
+      <c r="F84" s="167"/>
     </row>
     <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A85" s="172" t="s">
+      <c r="A85" s="176" t="s">
         <v>29</v>
       </c>
-      <c r="B85" s="172"/>
-      <c r="C85" s="172"/>
-      <c r="D85" s="172"/>
-      <c r="E85" s="172"/>
-      <c r="F85" s="172"/>
+      <c r="B85" s="176"/>
+      <c r="C85" s="176"/>
+      <c r="D85" s="176"/>
+      <c r="E85" s="176"/>
+      <c r="F85" s="176"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="21"/>
@@ -14998,26 +16678,26 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="21"/>
-      <c r="B87" s="169"/>
-      <c r="C87" s="169"/>
-      <c r="D87" s="169"/>
-      <c r="E87" s="169"/>
+      <c r="B87" s="174"/>
+      <c r="C87" s="174"/>
+      <c r="D87" s="174"/>
+      <c r="E87" s="174"/>
       <c r="F87" s="21"/>
     </row>
     <row r="88" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A88" s="175" t="s">
+      <c r="A88" s="166" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="175"/>
-      <c r="C88" s="175"/>
-      <c r="D88" s="175"/>
-      <c r="E88" s="175"/>
-      <c r="F88" s="175"/>
+      <c r="B88" s="166"/>
+      <c r="C88" s="166"/>
+      <c r="D88" s="166"/>
+      <c r="E88" s="166"/>
+      <c r="F88" s="166"/>
     </row>
     <row r="90" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="166"/>
-      <c r="C90" s="167"/>
-      <c r="D90" s="167"/>
+      <c r="B90" s="171"/>
+      <c r="C90" s="172"/>
+      <c r="D90" s="172"/>
     </row>
     <row r="91" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
@@ -15073,760 +16753,6 @@
     <mergeCell ref="B42:D42"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B77:B79 B12:B20 B33:B68" xr:uid="{8F92F1D9-33FE-4AA0-94D6-42CF382A400F}">
-      <formula1>Liste_Activités</formula1>
-    </dataValidation>
-  </dataValidations>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="131" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-  <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2501D71E-8250-4A10-89DE-BFE80B334A76}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A12:F92"/>
-  <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A19" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="B67" sqref="B67:D67"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="5.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="120" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="11.42578125" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B12" s="3"/>
-      <c r="E12" s="4"/>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B13" s="3"/>
-      <c r="E13" s="4"/>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B14" s="3"/>
-      <c r="E14" s="4"/>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B15" s="3"/>
-      <c r="E15" s="4"/>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B16" s="3"/>
-      <c r="E16" s="4"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B17" s="3"/>
-      <c r="E17" s="4"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B18" s="3"/>
-      <c r="E18" s="4"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B19" s="3"/>
-      <c r="E19" s="4"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B20" s="3"/>
-      <c r="E20" s="4"/>
-    </row>
-    <row r="21" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A21" s="17"/>
-      <c r="B21" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-    </row>
-    <row r="22" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A22" s="17"/>
-      <c r="B22" s="26"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-    </row>
-    <row r="23" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A23" s="17"/>
-      <c r="B23" s="26"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-    </row>
-    <row r="24" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A24" s="17"/>
-      <c r="B24" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-    </row>
-    <row r="25" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A25" s="17"/>
-      <c r="B25" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-    </row>
-    <row r="26" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="17"/>
-      <c r="B26" s="53" t="s">
-        <v>58</v>
-      </c>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="18"/>
-      <c r="B27" s="21"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="21"/>
-    </row>
-    <row r="28" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A28" s="17"/>
-      <c r="B28" s="23"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="E28" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="F28" s="21"/>
-    </row>
-    <row r="29" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="19"/>
-      <c r="B29" s="19"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="20"/>
-    </row>
-    <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="173" t="s">
-        <v>0</v>
-      </c>
-      <c r="B30" s="173"/>
-      <c r="C30" s="173"/>
-      <c r="D30" s="173"/>
-      <c r="E30" s="173"/>
-      <c r="F30" s="173"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="17"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-    </row>
-    <row r="32" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A32" s="21"/>
-      <c r="B32" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="C32" s="22"/>
-      <c r="D32" s="22"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="21"/>
-    </row>
-    <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A33" s="21"/>
-      <c r="B33" s="170"/>
-      <c r="C33" s="170"/>
-      <c r="D33" s="170"/>
-      <c r="E33" s="28"/>
-      <c r="F33" s="21"/>
-    </row>
-    <row r="34" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="21"/>
-      <c r="B34" s="170" t="s">
-        <v>80</v>
-      </c>
-      <c r="C34" s="170"/>
-      <c r="D34" s="170"/>
-      <c r="E34" s="28"/>
-      <c r="F34" s="21"/>
-    </row>
-    <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A35" s="21"/>
-      <c r="B35" s="170"/>
-      <c r="C35" s="170"/>
-      <c r="D35" s="170"/>
-      <c r="E35" s="28"/>
-      <c r="F35" s="21"/>
-    </row>
-    <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A36" s="21"/>
-      <c r="B36" s="170" t="s">
-        <v>79</v>
-      </c>
-      <c r="C36" s="170"/>
-      <c r="D36" s="170"/>
-      <c r="E36" s="28"/>
-      <c r="F36" s="21"/>
-    </row>
-    <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A37" s="21"/>
-      <c r="B37" s="170"/>
-      <c r="C37" s="170"/>
-      <c r="D37" s="170"/>
-      <c r="E37" s="28"/>
-      <c r="F37" s="21"/>
-    </row>
-    <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A38" s="21"/>
-      <c r="B38" s="170" t="s">
-        <v>38</v>
-      </c>
-      <c r="C38" s="170"/>
-      <c r="D38" s="170"/>
-      <c r="E38" s="28"/>
-      <c r="F38" s="21"/>
-    </row>
-    <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A39" s="21"/>
-      <c r="B39" s="170"/>
-      <c r="C39" s="170"/>
-      <c r="D39" s="170"/>
-      <c r="E39" s="28"/>
-      <c r="F39" s="21"/>
-    </row>
-    <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A40" s="21"/>
-      <c r="B40" s="170"/>
-      <c r="C40" s="170"/>
-      <c r="D40" s="170"/>
-      <c r="E40" s="28"/>
-      <c r="F40" s="21"/>
-    </row>
-    <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A41" s="21"/>
-      <c r="B41" s="170"/>
-      <c r="C41" s="170"/>
-      <c r="D41" s="170"/>
-      <c r="E41" s="28"/>
-      <c r="F41" s="21"/>
-    </row>
-    <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A42" s="21"/>
-      <c r="B42" s="170"/>
-      <c r="C42" s="170"/>
-      <c r="D42" s="170"/>
-      <c r="E42" s="28"/>
-      <c r="F42" s="21"/>
-    </row>
-    <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A43" s="21"/>
-      <c r="B43" s="170"/>
-      <c r="C43" s="170"/>
-      <c r="D43" s="170"/>
-      <c r="E43" s="28"/>
-      <c r="F43" s="21"/>
-    </row>
-    <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A44" s="21"/>
-      <c r="B44" s="170"/>
-      <c r="C44" s="170"/>
-      <c r="D44" s="170"/>
-      <c r="E44" s="28"/>
-      <c r="F44" s="21"/>
-    </row>
-    <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A45" s="21"/>
-      <c r="B45" s="170"/>
-      <c r="C45" s="170"/>
-      <c r="D45" s="170"/>
-      <c r="E45" s="28"/>
-      <c r="F45" s="21"/>
-    </row>
-    <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A46" s="21"/>
-      <c r="B46" s="170"/>
-      <c r="C46" s="170"/>
-      <c r="D46" s="170"/>
-      <c r="E46" s="28"/>
-      <c r="F46" s="21"/>
-    </row>
-    <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A47" s="21"/>
-      <c r="B47" s="170"/>
-      <c r="C47" s="170"/>
-      <c r="D47" s="170"/>
-      <c r="E47" s="28"/>
-      <c r="F47" s="21"/>
-    </row>
-    <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A48" s="21"/>
-      <c r="B48" s="170"/>
-      <c r="C48" s="170"/>
-      <c r="D48" s="170"/>
-      <c r="E48" s="28"/>
-      <c r="F48" s="21"/>
-    </row>
-    <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A49" s="21"/>
-      <c r="B49" s="170"/>
-      <c r="C49" s="170"/>
-      <c r="D49" s="170"/>
-      <c r="E49" s="28"/>
-      <c r="F49" s="21"/>
-    </row>
-    <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A50" s="21"/>
-      <c r="B50" s="170"/>
-      <c r="C50" s="170"/>
-      <c r="D50" s="170"/>
-      <c r="E50" s="28"/>
-      <c r="F50" s="21"/>
-    </row>
-    <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A51" s="21"/>
-      <c r="B51" s="170"/>
-      <c r="C51" s="170"/>
-      <c r="D51" s="170"/>
-      <c r="E51" s="28"/>
-      <c r="F51" s="21"/>
-    </row>
-    <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A52" s="21"/>
-      <c r="B52" s="170"/>
-      <c r="C52" s="170"/>
-      <c r="D52" s="170"/>
-      <c r="E52" s="28"/>
-      <c r="F52" s="21"/>
-    </row>
-    <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A53" s="21"/>
-      <c r="B53" s="170"/>
-      <c r="C53" s="170"/>
-      <c r="D53" s="170"/>
-      <c r="E53" s="28"/>
-      <c r="F53" s="21"/>
-    </row>
-    <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A54" s="21"/>
-      <c r="B54" s="170"/>
-      <c r="C54" s="170"/>
-      <c r="D54" s="170"/>
-      <c r="E54" s="28"/>
-      <c r="F54" s="21"/>
-    </row>
-    <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A55" s="21"/>
-      <c r="B55" s="170"/>
-      <c r="C55" s="170"/>
-      <c r="D55" s="170"/>
-      <c r="E55" s="28"/>
-      <c r="F55" s="21"/>
-    </row>
-    <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A56" s="21"/>
-      <c r="B56" s="170"/>
-      <c r="C56" s="170"/>
-      <c r="D56" s="170"/>
-      <c r="E56" s="28"/>
-      <c r="F56" s="21"/>
-    </row>
-    <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A57" s="21"/>
-      <c r="B57" s="170"/>
-      <c r="C57" s="170"/>
-      <c r="D57" s="170"/>
-      <c r="E57" s="28"/>
-      <c r="F57" s="21"/>
-    </row>
-    <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A58" s="21"/>
-      <c r="B58" s="170"/>
-      <c r="C58" s="170"/>
-      <c r="D58" s="170"/>
-      <c r="E58" s="28"/>
-      <c r="F58" s="21"/>
-    </row>
-    <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A59" s="21"/>
-      <c r="B59" s="170"/>
-      <c r="C59" s="170"/>
-      <c r="D59" s="170"/>
-      <c r="E59" s="28"/>
-      <c r="F59" s="21"/>
-    </row>
-    <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A60" s="21"/>
-      <c r="B60" s="170"/>
-      <c r="C60" s="170"/>
-      <c r="D60" s="170"/>
-      <c r="E60" s="28"/>
-      <c r="F60" s="21"/>
-    </row>
-    <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A61" s="21"/>
-      <c r="B61" s="170"/>
-      <c r="C61" s="170"/>
-      <c r="D61" s="170"/>
-      <c r="E61" s="28"/>
-      <c r="F61" s="21"/>
-    </row>
-    <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A62" s="21"/>
-      <c r="B62" s="170"/>
-      <c r="C62" s="170"/>
-      <c r="D62" s="170"/>
-      <c r="E62" s="28"/>
-      <c r="F62" s="21"/>
-    </row>
-    <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A63" s="21"/>
-      <c r="B63" s="170"/>
-      <c r="C63" s="170"/>
-      <c r="D63" s="170"/>
-      <c r="E63" s="28"/>
-      <c r="F63" s="21"/>
-    </row>
-    <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A64" s="21"/>
-      <c r="B64" s="170"/>
-      <c r="C64" s="170"/>
-      <c r="D64" s="170"/>
-      <c r="E64" s="28"/>
-      <c r="F64" s="21"/>
-    </row>
-    <row r="65" spans="1:6" s="50" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A65" s="46"/>
-      <c r="B65" s="47"/>
-      <c r="C65" s="48" t="s">
-        <v>36</v>
-      </c>
-      <c r="D65" s="48" t="s">
-        <v>37</v>
-      </c>
-      <c r="E65" s="49"/>
-      <c r="F65" s="46"/>
-    </row>
-    <row r="66" spans="1:6" s="50" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A66" s="46"/>
-      <c r="B66" s="47"/>
-      <c r="C66" s="51">
-        <v>10.75</v>
-      </c>
-      <c r="D66" s="52">
-        <v>325</v>
-      </c>
-      <c r="E66" s="49"/>
-      <c r="F66" s="46"/>
-    </row>
-    <row r="67" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A67" s="21"/>
-      <c r="B67" s="170"/>
-      <c r="C67" s="170"/>
-      <c r="D67" s="170"/>
-      <c r="E67" s="28"/>
-      <c r="F67" s="21"/>
-    </row>
-    <row r="68" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="21"/>
-      <c r="B68" s="170"/>
-      <c r="C68" s="170"/>
-      <c r="D68" s="170"/>
-      <c r="E68" s="28"/>
-      <c r="F68" s="21"/>
-    </row>
-    <row r="69" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="21"/>
-      <c r="B69" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="C69" s="26"/>
-      <c r="D69" s="26"/>
-      <c r="E69" s="29">
-        <f>D66*C66</f>
-        <v>3493.75</v>
-      </c>
-      <c r="F69" s="21"/>
-    </row>
-    <row r="70" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="21"/>
-      <c r="B70" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="C70" s="26"/>
-      <c r="D70" s="26"/>
-      <c r="E70" s="30">
-        <v>0</v>
-      </c>
-      <c r="F70" s="21"/>
-    </row>
-    <row r="71" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="21"/>
-      <c r="B71" s="34" t="s">
-        <v>61</v>
-      </c>
-      <c r="C71" s="26"/>
-      <c r="D71" s="26"/>
-      <c r="E71" s="30">
-        <v>0</v>
-      </c>
-      <c r="F71" s="21"/>
-    </row>
-    <row r="72" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="21"/>
-      <c r="B72" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="C72" s="26"/>
-      <c r="D72" s="26"/>
-      <c r="E72" s="29">
-        <f>SUM(E69:E71)</f>
-        <v>3493.75</v>
-      </c>
-      <c r="F72" s="21"/>
-    </row>
-    <row r="73" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="21"/>
-      <c r="B73" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="C73" s="31">
-        <v>0.05</v>
-      </c>
-      <c r="D73" s="26"/>
-      <c r="E73" s="35">
-        <f>ROUND(E72*C73,2)</f>
-        <v>174.69</v>
-      </c>
-      <c r="F73" s="21"/>
-    </row>
-    <row r="74" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="21"/>
-      <c r="B74" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="C74" s="42">
-        <v>9.9750000000000005E-2</v>
-      </c>
-      <c r="D74" s="26"/>
-      <c r="E74" s="43">
-        <f>ROUND(E72*C74,2)</f>
-        <v>348.5</v>
-      </c>
-      <c r="F74" s="21"/>
-    </row>
-    <row r="75" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="21"/>
-      <c r="B75" s="26"/>
-      <c r="C75" s="26"/>
-      <c r="D75" s="26"/>
-      <c r="E75" s="32"/>
-      <c r="F75" s="21"/>
-    </row>
-    <row r="76" spans="1:6" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="21"/>
-      <c r="B76" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="C76" s="26"/>
-      <c r="D76" s="26"/>
-      <c r="E76" s="33">
-        <f>SUM(E72:E74)</f>
-        <v>4016.94</v>
-      </c>
-      <c r="F76" s="21"/>
-    </row>
-    <row r="77" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="21"/>
-      <c r="B77" s="174"/>
-      <c r="C77" s="174"/>
-      <c r="D77" s="174"/>
-      <c r="E77" s="36"/>
-      <c r="F77" s="21"/>
-    </row>
-    <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A78" s="21"/>
-      <c r="B78" s="171" t="s">
-        <v>17</v>
-      </c>
-      <c r="C78" s="171"/>
-      <c r="D78" s="171"/>
-      <c r="E78" s="36">
-        <v>0</v>
-      </c>
-      <c r="F78" s="21"/>
-    </row>
-    <row r="79" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A79" s="21"/>
-      <c r="B79" s="174"/>
-      <c r="C79" s="174"/>
-      <c r="D79" s="174"/>
-      <c r="E79" s="36"/>
-      <c r="F79" s="21"/>
-    </row>
-    <row r="80" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="21"/>
-      <c r="B80" s="37" t="s">
-        <v>16</v>
-      </c>
-      <c r="C80" s="38"/>
-      <c r="D80" s="38"/>
-      <c r="E80" s="39">
-        <f>E76-E78</f>
-        <v>4016.94</v>
-      </c>
-      <c r="F80" s="21"/>
-    </row>
-    <row r="81" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="21"/>
-      <c r="B81" s="21"/>
-      <c r="C81" s="21"/>
-      <c r="D81" s="21"/>
-      <c r="E81" s="21"/>
-      <c r="F81" s="21"/>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A82" s="21"/>
-      <c r="B82" s="21"/>
-      <c r="C82" s="21"/>
-      <c r="D82" s="21"/>
-      <c r="E82" s="21"/>
-      <c r="F82" s="21"/>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A83" s="21"/>
-      <c r="B83" s="168"/>
-      <c r="C83" s="168"/>
-      <c r="D83" s="168"/>
-      <c r="E83" s="168"/>
-      <c r="F83" s="21"/>
-    </row>
-    <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="176" t="s">
-        <v>28</v>
-      </c>
-      <c r="B84" s="176"/>
-      <c r="C84" s="176"/>
-      <c r="D84" s="176"/>
-      <c r="E84" s="176"/>
-      <c r="F84" s="176"/>
-    </row>
-    <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A85" s="172" t="s">
-        <v>29</v>
-      </c>
-      <c r="B85" s="172"/>
-      <c r="C85" s="172"/>
-      <c r="D85" s="172"/>
-      <c r="E85" s="172"/>
-      <c r="F85" s="172"/>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A86" s="21"/>
-      <c r="B86" s="21"/>
-      <c r="C86" s="21"/>
-      <c r="D86" s="21"/>
-      <c r="E86" s="21"/>
-      <c r="F86" s="21"/>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A87" s="21"/>
-      <c r="B87" s="169"/>
-      <c r="C87" s="169"/>
-      <c r="D87" s="169"/>
-      <c r="E87" s="169"/>
-      <c r="F87" s="21"/>
-    </row>
-    <row r="88" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A88" s="175" t="s">
-        <v>7</v>
-      </c>
-      <c r="B88" s="175"/>
-      <c r="C88" s="175"/>
-      <c r="D88" s="175"/>
-      <c r="E88" s="175"/>
-      <c r="F88" s="175"/>
-    </row>
-    <row r="90" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="166"/>
-      <c r="C90" s="167"/>
-      <c r="D90" s="167"/>
-    </row>
-    <row r="91" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B92" s="16"/>
-      <c r="C92" s="16"/>
-      <c r="D92" s="16"/>
-    </row>
-  </sheetData>
-  <mergeCells count="44">
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="A88:F88"/>
-    <mergeCell ref="B90:D90"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="B79:D79"/>
-    <mergeCell ref="B83:E83"/>
-    <mergeCell ref="A84:F84"/>
-    <mergeCell ref="A85:F85"/>
-    <mergeCell ref="B87:E87"/>
-  </mergeCells>
-  <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B77:B79 B12:B20 B33:B68" xr:uid="{2367A061-2D4B-4AF1-8737-3BB494371874}">
       <formula1>Liste_Activités</formula1>
     </dataValidation>
@@ -15982,14 +16908,14 @@
       <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="173" t="s">
+      <c r="A30" s="169" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="173"/>
-      <c r="C30" s="173"/>
-      <c r="D30" s="173"/>
-      <c r="E30" s="173"/>
-      <c r="F30" s="173"/>
+      <c r="B30" s="169"/>
+      <c r="C30" s="169"/>
+      <c r="D30" s="169"/>
+      <c r="E30" s="169"/>
+      <c r="F30" s="169"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="17"/>
@@ -16010,273 +16936,273 @@
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
-      <c r="B33" s="170"/>
-      <c r="C33" s="170"/>
-      <c r="D33" s="170"/>
+      <c r="B33" s="168"/>
+      <c r="C33" s="168"/>
+      <c r="D33" s="168"/>
       <c r="E33" s="28"/>
       <c r="F33" s="21"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="21"/>
-      <c r="B34" s="170" t="s">
+      <c r="B34" s="168" t="s">
         <v>83</v>
       </c>
-      <c r="C34" s="170"/>
-      <c r="D34" s="170"/>
+      <c r="C34" s="168"/>
+      <c r="D34" s="168"/>
       <c r="E34" s="28"/>
       <c r="F34" s="21"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
-      <c r="B35" s="170"/>
-      <c r="C35" s="170"/>
-      <c r="D35" s="170"/>
+      <c r="B35" s="168"/>
+      <c r="C35" s="168"/>
+      <c r="D35" s="168"/>
       <c r="E35" s="28"/>
       <c r="F35" s="21"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="21"/>
-      <c r="B36" s="170" t="s">
+      <c r="B36" s="168" t="s">
         <v>84</v>
       </c>
-      <c r="C36" s="170"/>
-      <c r="D36" s="170"/>
+      <c r="C36" s="168"/>
+      <c r="D36" s="168"/>
       <c r="E36" s="28"/>
       <c r="F36" s="21"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
-      <c r="B37" s="170"/>
-      <c r="C37" s="170"/>
-      <c r="D37" s="170"/>
+      <c r="B37" s="168"/>
+      <c r="C37" s="168"/>
+      <c r="D37" s="168"/>
       <c r="E37" s="28"/>
       <c r="F37" s="21"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="21"/>
-      <c r="B38" s="170" t="s">
+      <c r="B38" s="168" t="s">
         <v>38</v>
       </c>
-      <c r="C38" s="170"/>
-      <c r="D38" s="170"/>
+      <c r="C38" s="168"/>
+      <c r="D38" s="168"/>
       <c r="E38" s="28"/>
       <c r="F38" s="21"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="21"/>
-      <c r="B39" s="170"/>
-      <c r="C39" s="170"/>
-      <c r="D39" s="170"/>
+      <c r="B39" s="168"/>
+      <c r="C39" s="168"/>
+      <c r="D39" s="168"/>
       <c r="E39" s="28"/>
       <c r="F39" s="21"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="21"/>
-      <c r="B40" s="170" t="s">
+      <c r="B40" s="168" t="s">
         <v>85</v>
       </c>
-      <c r="C40" s="170"/>
-      <c r="D40" s="170"/>
+      <c r="C40" s="168"/>
+      <c r="D40" s="168"/>
       <c r="E40" s="28"/>
       <c r="F40" s="21"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="21"/>
-      <c r="B41" s="170"/>
-      <c r="C41" s="170"/>
-      <c r="D41" s="170"/>
+      <c r="B41" s="168"/>
+      <c r="C41" s="168"/>
+      <c r="D41" s="168"/>
       <c r="E41" s="28"/>
       <c r="F41" s="21"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="21"/>
-      <c r="B42" s="170"/>
-      <c r="C42" s="170"/>
-      <c r="D42" s="170"/>
+      <c r="B42" s="168"/>
+      <c r="C42" s="168"/>
+      <c r="D42" s="168"/>
       <c r="E42" s="28"/>
       <c r="F42" s="21"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="21"/>
-      <c r="B43" s="170"/>
-      <c r="C43" s="170"/>
-      <c r="D43" s="170"/>
+      <c r="B43" s="168"/>
+      <c r="C43" s="168"/>
+      <c r="D43" s="168"/>
       <c r="E43" s="28"/>
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
-      <c r="B44" s="170"/>
-      <c r="C44" s="170"/>
-      <c r="D44" s="170"/>
+      <c r="B44" s="168"/>
+      <c r="C44" s="168"/>
+      <c r="D44" s="168"/>
       <c r="E44" s="28"/>
       <c r="F44" s="21"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="21"/>
-      <c r="B45" s="170"/>
-      <c r="C45" s="170"/>
-      <c r="D45" s="170"/>
+      <c r="B45" s="168"/>
+      <c r="C45" s="168"/>
+      <c r="D45" s="168"/>
       <c r="E45" s="28"/>
       <c r="F45" s="21"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="21"/>
-      <c r="B46" s="170"/>
-      <c r="C46" s="170"/>
-      <c r="D46" s="170"/>
+      <c r="B46" s="168"/>
+      <c r="C46" s="168"/>
+      <c r="D46" s="168"/>
       <c r="E46" s="28"/>
       <c r="F46" s="21"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="21"/>
-      <c r="B47" s="170"/>
-      <c r="C47" s="170"/>
-      <c r="D47" s="170"/>
+      <c r="B47" s="168"/>
+      <c r="C47" s="168"/>
+      <c r="D47" s="168"/>
       <c r="E47" s="28"/>
       <c r="F47" s="21"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="21"/>
-      <c r="B48" s="170"/>
-      <c r="C48" s="170"/>
-      <c r="D48" s="170"/>
+      <c r="B48" s="168"/>
+      <c r="C48" s="168"/>
+      <c r="D48" s="168"/>
       <c r="E48" s="28"/>
       <c r="F48" s="21"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="21"/>
-      <c r="B49" s="170"/>
-      <c r="C49" s="170"/>
-      <c r="D49" s="170"/>
+      <c r="B49" s="168"/>
+      <c r="C49" s="168"/>
+      <c r="D49" s="168"/>
       <c r="E49" s="28"/>
       <c r="F49" s="21"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="21"/>
-      <c r="B50" s="170"/>
-      <c r="C50" s="170"/>
-      <c r="D50" s="170"/>
+      <c r="B50" s="168"/>
+      <c r="C50" s="168"/>
+      <c r="D50" s="168"/>
       <c r="E50" s="28"/>
       <c r="F50" s="21"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="21"/>
-      <c r="B51" s="170"/>
-      <c r="C51" s="170"/>
-      <c r="D51" s="170"/>
+      <c r="B51" s="168"/>
+      <c r="C51" s="168"/>
+      <c r="D51" s="168"/>
       <c r="E51" s="28"/>
       <c r="F51" s="21"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="21"/>
-      <c r="B52" s="170"/>
-      <c r="C52" s="170"/>
-      <c r="D52" s="170"/>
+      <c r="B52" s="168"/>
+      <c r="C52" s="168"/>
+      <c r="D52" s="168"/>
       <c r="E52" s="28"/>
       <c r="F52" s="21"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="21"/>
-      <c r="B53" s="170"/>
-      <c r="C53" s="170"/>
-      <c r="D53" s="170"/>
+      <c r="B53" s="168"/>
+      <c r="C53" s="168"/>
+      <c r="D53" s="168"/>
       <c r="E53" s="28"/>
       <c r="F53" s="21"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="21"/>
-      <c r="B54" s="170"/>
-      <c r="C54" s="170"/>
-      <c r="D54" s="170"/>
+      <c r="B54" s="168"/>
+      <c r="C54" s="168"/>
+      <c r="D54" s="168"/>
       <c r="E54" s="28"/>
       <c r="F54" s="21"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="21"/>
-      <c r="B55" s="170"/>
-      <c r="C55" s="170"/>
-      <c r="D55" s="170"/>
+      <c r="B55" s="168"/>
+      <c r="C55" s="168"/>
+      <c r="D55" s="168"/>
       <c r="E55" s="28"/>
       <c r="F55" s="21"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="21"/>
-      <c r="B56" s="170"/>
-      <c r="C56" s="170"/>
-      <c r="D56" s="170"/>
+      <c r="B56" s="168"/>
+      <c r="C56" s="168"/>
+      <c r="D56" s="168"/>
       <c r="E56" s="28"/>
       <c r="F56" s="21"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="21"/>
-      <c r="B57" s="170"/>
-      <c r="C57" s="170"/>
-      <c r="D57" s="170"/>
+      <c r="B57" s="168"/>
+      <c r="C57" s="168"/>
+      <c r="D57" s="168"/>
       <c r="E57" s="28"/>
       <c r="F57" s="21"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="21"/>
-      <c r="B58" s="170"/>
-      <c r="C58" s="170"/>
-      <c r="D58" s="170"/>
+      <c r="B58" s="168"/>
+      <c r="C58" s="168"/>
+      <c r="D58" s="168"/>
       <c r="E58" s="28"/>
       <c r="F58" s="21"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="21"/>
-      <c r="B59" s="170"/>
-      <c r="C59" s="170"/>
-      <c r="D59" s="170"/>
+      <c r="B59" s="168"/>
+      <c r="C59" s="168"/>
+      <c r="D59" s="168"/>
       <c r="E59" s="28"/>
       <c r="F59" s="21"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="21"/>
-      <c r="B60" s="170"/>
-      <c r="C60" s="170"/>
-      <c r="D60" s="170"/>
+      <c r="B60" s="168"/>
+      <c r="C60" s="168"/>
+      <c r="D60" s="168"/>
       <c r="E60" s="28"/>
       <c r="F60" s="21"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="21"/>
-      <c r="B61" s="170"/>
-      <c r="C61" s="170"/>
-      <c r="D61" s="170"/>
+      <c r="B61" s="168"/>
+      <c r="C61" s="168"/>
+      <c r="D61" s="168"/>
       <c r="E61" s="28"/>
       <c r="F61" s="21"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="21"/>
-      <c r="B62" s="170"/>
-      <c r="C62" s="170"/>
-      <c r="D62" s="170"/>
+      <c r="B62" s="168"/>
+      <c r="C62" s="168"/>
+      <c r="D62" s="168"/>
       <c r="E62" s="28"/>
       <c r="F62" s="21"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="21"/>
-      <c r="B63" s="170"/>
-      <c r="C63" s="170"/>
-      <c r="D63" s="170"/>
+      <c r="B63" s="168"/>
+      <c r="C63" s="168"/>
+      <c r="D63" s="168"/>
       <c r="E63" s="28"/>
       <c r="F63" s="21"/>
     </row>
     <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A64" s="21"/>
-      <c r="B64" s="170"/>
-      <c r="C64" s="170"/>
-      <c r="D64" s="170"/>
+      <c r="B64" s="168"/>
+      <c r="C64" s="168"/>
+      <c r="D64" s="168"/>
       <c r="E64" s="28"/>
       <c r="F64" s="21"/>
     </row>
     <row r="65" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A65" s="21"/>
-      <c r="B65" s="170"/>
-      <c r="C65" s="170"/>
-      <c r="D65" s="170"/>
+      <c r="B65" s="168"/>
+      <c r="C65" s="168"/>
+      <c r="D65" s="168"/>
       <c r="E65" s="28"/>
       <c r="F65" s="21"/>
     </row>
@@ -16306,17 +17232,17 @@
     </row>
     <row r="68" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A68" s="21"/>
-      <c r="B68" s="170"/>
-      <c r="C68" s="170"/>
-      <c r="D68" s="170"/>
+      <c r="B68" s="168"/>
+      <c r="C68" s="168"/>
+      <c r="D68" s="168"/>
       <c r="E68" s="28"/>
       <c r="F68" s="21"/>
     </row>
     <row r="69" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="21"/>
-      <c r="B69" s="170"/>
-      <c r="C69" s="170"/>
-      <c r="D69" s="170"/>
+      <c r="B69" s="168"/>
+      <c r="C69" s="168"/>
+      <c r="D69" s="168"/>
       <c r="E69" s="28"/>
       <c r="F69" s="21"/>
     </row>
@@ -16423,19 +17349,19 @@
     </row>
     <row r="78" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A78" s="21"/>
-      <c r="B78" s="174"/>
-      <c r="C78" s="174"/>
-      <c r="D78" s="174"/>
+      <c r="B78" s="170"/>
+      <c r="C78" s="170"/>
+      <c r="D78" s="170"/>
       <c r="E78" s="36"/>
       <c r="F78" s="21"/>
     </row>
     <row r="79" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="21"/>
-      <c r="B79" s="171" t="s">
+      <c r="B79" s="175" t="s">
         <v>17</v>
       </c>
-      <c r="C79" s="171"/>
-      <c r="D79" s="171"/>
+      <c r="C79" s="175"/>
+      <c r="D79" s="175"/>
       <c r="E79" s="36">
         <v>0</v>
       </c>
@@ -16443,9 +17369,9 @@
     </row>
     <row r="80" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A80" s="21"/>
-      <c r="B80" s="174"/>
-      <c r="C80" s="174"/>
-      <c r="D80" s="174"/>
+      <c r="B80" s="170"/>
+      <c r="C80" s="170"/>
+      <c r="D80" s="170"/>
       <c r="E80" s="36"/>
       <c r="F80" s="21"/>
     </row>
@@ -16480,31 +17406,31 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" s="21"/>
-      <c r="B84" s="168"/>
-      <c r="C84" s="168"/>
-      <c r="D84" s="168"/>
-      <c r="E84" s="168"/>
+      <c r="B84" s="173"/>
+      <c r="C84" s="173"/>
+      <c r="D84" s="173"/>
+      <c r="E84" s="173"/>
       <c r="F84" s="21"/>
     </row>
     <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A85" s="176" t="s">
+      <c r="A85" s="167" t="s">
         <v>28</v>
       </c>
-      <c r="B85" s="176"/>
-      <c r="C85" s="176"/>
-      <c r="D85" s="176"/>
-      <c r="E85" s="176"/>
-      <c r="F85" s="176"/>
+      <c r="B85" s="167"/>
+      <c r="C85" s="167"/>
+      <c r="D85" s="167"/>
+      <c r="E85" s="167"/>
+      <c r="F85" s="167"/>
     </row>
     <row r="86" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A86" s="172" t="s">
+      <c r="A86" s="176" t="s">
         <v>29</v>
       </c>
-      <c r="B86" s="172"/>
-      <c r="C86" s="172"/>
-      <c r="D86" s="172"/>
-      <c r="E86" s="172"/>
-      <c r="F86" s="172"/>
+      <c r="B86" s="176"/>
+      <c r="C86" s="176"/>
+      <c r="D86" s="176"/>
+      <c r="E86" s="176"/>
+      <c r="F86" s="176"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="21"/>
@@ -16516,26 +17442,26 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" s="21"/>
-      <c r="B88" s="169"/>
-      <c r="C88" s="169"/>
-      <c r="D88" s="169"/>
-      <c r="E88" s="169"/>
+      <c r="B88" s="174"/>
+      <c r="C88" s="174"/>
+      <c r="D88" s="174"/>
+      <c r="E88" s="174"/>
       <c r="F88" s="21"/>
     </row>
     <row r="89" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A89" s="175" t="s">
+      <c r="A89" s="166" t="s">
         <v>7</v>
       </c>
-      <c r="B89" s="175"/>
-      <c r="C89" s="175"/>
-      <c r="D89" s="175"/>
-      <c r="E89" s="175"/>
-      <c r="F89" s="175"/>
+      <c r="B89" s="166"/>
+      <c r="C89" s="166"/>
+      <c r="D89" s="166"/>
+      <c r="E89" s="166"/>
+      <c r="F89" s="166"/>
     </row>
     <row r="91" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B91" s="166"/>
-      <c r="C91" s="167"/>
-      <c r="D91" s="167"/>
+      <c r="B91" s="171"/>
+      <c r="C91" s="172"/>
+      <c r="D91" s="172"/>
     </row>
     <row r="92" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
@@ -16545,6 +17471,35 @@
     </row>
   </sheetData>
   <mergeCells count="45">
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B62:D62"/>
     <mergeCell ref="A89:F89"/>
     <mergeCell ref="B91:D91"/>
     <mergeCell ref="B41:D41"/>
@@ -16561,35 +17516,6 @@
     <mergeCell ref="B69:D69"/>
     <mergeCell ref="B78:D78"/>
     <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="B43:D43"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B78:B80 B12:B20 B33:B69" xr:uid="{C26FE616-E523-41D4-B8D6-F857B5768EA8}">
@@ -16747,14 +17673,14 @@
       <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="173" t="s">
+      <c r="A30" s="169" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="173"/>
-      <c r="C30" s="173"/>
-      <c r="D30" s="173"/>
-      <c r="E30" s="173"/>
-      <c r="F30" s="173"/>
+      <c r="B30" s="169"/>
+      <c r="C30" s="169"/>
+      <c r="D30" s="169"/>
+      <c r="E30" s="169"/>
+      <c r="F30" s="169"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="17"/>
@@ -16775,275 +17701,275 @@
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
-      <c r="B33" s="170"/>
-      <c r="C33" s="170"/>
-      <c r="D33" s="170"/>
+      <c r="B33" s="168"/>
+      <c r="C33" s="168"/>
+      <c r="D33" s="168"/>
       <c r="E33" s="28"/>
       <c r="F33" s="21"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="21"/>
-      <c r="B34" s="170" t="s">
+      <c r="B34" s="168" t="s">
         <v>88</v>
       </c>
-      <c r="C34" s="170"/>
-      <c r="D34" s="170"/>
+      <c r="C34" s="168"/>
+      <c r="D34" s="168"/>
       <c r="E34" s="28"/>
       <c r="F34" s="21"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
-      <c r="B35" s="170"/>
-      <c r="C35" s="170"/>
-      <c r="D35" s="170"/>
+      <c r="B35" s="168"/>
+      <c r="C35" s="168"/>
+      <c r="D35" s="168"/>
       <c r="E35" s="28"/>
       <c r="F35" s="21"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="21"/>
-      <c r="B36" s="170" t="s">
+      <c r="B36" s="168" t="s">
         <v>89</v>
       </c>
-      <c r="C36" s="170"/>
-      <c r="D36" s="170"/>
+      <c r="C36" s="168"/>
+      <c r="D36" s="168"/>
       <c r="E36" s="28"/>
       <c r="F36" s="21"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
-      <c r="B37" s="170"/>
-      <c r="C37" s="170"/>
-      <c r="D37" s="170"/>
+      <c r="B37" s="168"/>
+      <c r="C37" s="168"/>
+      <c r="D37" s="168"/>
       <c r="E37" s="28"/>
       <c r="F37" s="21"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="21"/>
-      <c r="B38" s="170" t="s">
+      <c r="B38" s="168" t="s">
         <v>90</v>
       </c>
-      <c r="C38" s="170"/>
-      <c r="D38" s="170"/>
+      <c r="C38" s="168"/>
+      <c r="D38" s="168"/>
       <c r="E38" s="28"/>
       <c r="F38" s="21"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="21"/>
-      <c r="B39" s="170"/>
-      <c r="C39" s="170"/>
-      <c r="D39" s="170"/>
+      <c r="B39" s="168"/>
+      <c r="C39" s="168"/>
+      <c r="D39" s="168"/>
       <c r="E39" s="28"/>
       <c r="F39" s="21"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="21"/>
-      <c r="B40" s="170" t="s">
+      <c r="B40" s="168" t="s">
         <v>91</v>
       </c>
-      <c r="C40" s="170"/>
-      <c r="D40" s="170"/>
+      <c r="C40" s="168"/>
+      <c r="D40" s="168"/>
       <c r="E40" s="28"/>
       <c r="F40" s="21"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="21"/>
-      <c r="B41" s="170"/>
-      <c r="C41" s="170"/>
-      <c r="D41" s="170"/>
+      <c r="B41" s="168"/>
+      <c r="C41" s="168"/>
+      <c r="D41" s="168"/>
       <c r="E41" s="28"/>
       <c r="F41" s="21"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="21"/>
-      <c r="B42" s="170" t="s">
+      <c r="B42" s="168" t="s">
         <v>38</v>
       </c>
-      <c r="C42" s="170"/>
-      <c r="D42" s="170"/>
+      <c r="C42" s="168"/>
+      <c r="D42" s="168"/>
       <c r="E42" s="28"/>
       <c r="F42" s="21"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="21"/>
-      <c r="B43" s="170"/>
-      <c r="C43" s="170"/>
-      <c r="D43" s="170"/>
+      <c r="B43" s="168"/>
+      <c r="C43" s="168"/>
+      <c r="D43" s="168"/>
       <c r="E43" s="28"/>
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
-      <c r="B44" s="170"/>
-      <c r="C44" s="170"/>
-      <c r="D44" s="170"/>
+      <c r="B44" s="168"/>
+      <c r="C44" s="168"/>
+      <c r="D44" s="168"/>
       <c r="E44" s="28"/>
       <c r="F44" s="21"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="21"/>
-      <c r="B45" s="170"/>
-      <c r="C45" s="170"/>
-      <c r="D45" s="170"/>
+      <c r="B45" s="168"/>
+      <c r="C45" s="168"/>
+      <c r="D45" s="168"/>
       <c r="E45" s="28"/>
       <c r="F45" s="21"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="21"/>
-      <c r="B46" s="170"/>
-      <c r="C46" s="170"/>
-      <c r="D46" s="170"/>
+      <c r="B46" s="168"/>
+      <c r="C46" s="168"/>
+      <c r="D46" s="168"/>
       <c r="E46" s="28"/>
       <c r="F46" s="21"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="21"/>
-      <c r="B47" s="170"/>
-      <c r="C47" s="170"/>
-      <c r="D47" s="170"/>
+      <c r="B47" s="168"/>
+      <c r="C47" s="168"/>
+      <c r="D47" s="168"/>
       <c r="E47" s="28"/>
       <c r="F47" s="21"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="21"/>
-      <c r="B48" s="170"/>
-      <c r="C48" s="170"/>
-      <c r="D48" s="170"/>
+      <c r="B48" s="168"/>
+      <c r="C48" s="168"/>
+      <c r="D48" s="168"/>
       <c r="E48" s="28"/>
       <c r="F48" s="21"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="21"/>
-      <c r="B49" s="170"/>
-      <c r="C49" s="170"/>
-      <c r="D49" s="170"/>
+      <c r="B49" s="168"/>
+      <c r="C49" s="168"/>
+      <c r="D49" s="168"/>
       <c r="E49" s="28"/>
       <c r="F49" s="21"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="21"/>
-      <c r="B50" s="170"/>
-      <c r="C50" s="170"/>
-      <c r="D50" s="170"/>
+      <c r="B50" s="168"/>
+      <c r="C50" s="168"/>
+      <c r="D50" s="168"/>
       <c r="E50" s="28"/>
       <c r="F50" s="21"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="21"/>
-      <c r="B51" s="170"/>
-      <c r="C51" s="170"/>
-      <c r="D51" s="170"/>
+      <c r="B51" s="168"/>
+      <c r="C51" s="168"/>
+      <c r="D51" s="168"/>
       <c r="E51" s="28"/>
       <c r="F51" s="21"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="21"/>
-      <c r="B52" s="170"/>
-      <c r="C52" s="170"/>
-      <c r="D52" s="170"/>
+      <c r="B52" s="168"/>
+      <c r="C52" s="168"/>
+      <c r="D52" s="168"/>
       <c r="E52" s="28"/>
       <c r="F52" s="21"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="21"/>
-      <c r="B53" s="170"/>
-      <c r="C53" s="170"/>
-      <c r="D53" s="170"/>
+      <c r="B53" s="168"/>
+      <c r="C53" s="168"/>
+      <c r="D53" s="168"/>
       <c r="E53" s="28"/>
       <c r="F53" s="21"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="21"/>
-      <c r="B54" s="170"/>
-      <c r="C54" s="170"/>
-      <c r="D54" s="170"/>
+      <c r="B54" s="168"/>
+      <c r="C54" s="168"/>
+      <c r="D54" s="168"/>
       <c r="E54" s="28"/>
       <c r="F54" s="21"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="21"/>
-      <c r="B55" s="170"/>
-      <c r="C55" s="170"/>
-      <c r="D55" s="170"/>
+      <c r="B55" s="168"/>
+      <c r="C55" s="168"/>
+      <c r="D55" s="168"/>
       <c r="E55" s="28"/>
       <c r="F55" s="21"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="21"/>
-      <c r="B56" s="170"/>
-      <c r="C56" s="170"/>
-      <c r="D56" s="170"/>
+      <c r="B56" s="168"/>
+      <c r="C56" s="168"/>
+      <c r="D56" s="168"/>
       <c r="E56" s="28"/>
       <c r="F56" s="21"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="21"/>
-      <c r="B57" s="170"/>
-      <c r="C57" s="170"/>
-      <c r="D57" s="170"/>
+      <c r="B57" s="168"/>
+      <c r="C57" s="168"/>
+      <c r="D57" s="168"/>
       <c r="E57" s="28"/>
       <c r="F57" s="21"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="21"/>
-      <c r="B58" s="170"/>
-      <c r="C58" s="170"/>
-      <c r="D58" s="170"/>
+      <c r="B58" s="168"/>
+      <c r="C58" s="168"/>
+      <c r="D58" s="168"/>
       <c r="E58" s="28"/>
       <c r="F58" s="21"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="21"/>
-      <c r="B59" s="170"/>
-      <c r="C59" s="170"/>
-      <c r="D59" s="170"/>
+      <c r="B59" s="168"/>
+      <c r="C59" s="168"/>
+      <c r="D59" s="168"/>
       <c r="E59" s="28"/>
       <c r="F59" s="21"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="21"/>
-      <c r="B60" s="170"/>
-      <c r="C60" s="170"/>
-      <c r="D60" s="170"/>
+      <c r="B60" s="168"/>
+      <c r="C60" s="168"/>
+      <c r="D60" s="168"/>
       <c r="E60" s="28"/>
       <c r="F60" s="21"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="21"/>
-      <c r="B61" s="170"/>
-      <c r="C61" s="170"/>
-      <c r="D61" s="170"/>
+      <c r="B61" s="168"/>
+      <c r="C61" s="168"/>
+      <c r="D61" s="168"/>
       <c r="E61" s="28"/>
       <c r="F61" s="21"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="21"/>
-      <c r="B62" s="170"/>
-      <c r="C62" s="170"/>
-      <c r="D62" s="170"/>
+      <c r="B62" s="168"/>
+      <c r="C62" s="168"/>
+      <c r="D62" s="168"/>
       <c r="E62" s="28"/>
       <c r="F62" s="21"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="21"/>
-      <c r="B63" s="170"/>
-      <c r="C63" s="170"/>
-      <c r="D63" s="170"/>
+      <c r="B63" s="168"/>
+      <c r="C63" s="168"/>
+      <c r="D63" s="168"/>
       <c r="E63" s="28"/>
       <c r="F63" s="21"/>
     </row>
     <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A64" s="21"/>
-      <c r="B64" s="170"/>
-      <c r="C64" s="170"/>
-      <c r="D64" s="170"/>
+      <c r="B64" s="168"/>
+      <c r="C64" s="168"/>
+      <c r="D64" s="168"/>
       <c r="E64" s="28"/>
       <c r="F64" s="21"/>
     </row>
     <row r="65" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A65" s="21"/>
-      <c r="B65" s="170"/>
-      <c r="C65" s="170"/>
-      <c r="D65" s="170"/>
+      <c r="B65" s="168"/>
+      <c r="C65" s="168"/>
+      <c r="D65" s="168"/>
       <c r="E65" s="28"/>
       <c r="F65" s="21"/>
     </row>
@@ -17073,17 +17999,17 @@
     </row>
     <row r="68" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A68" s="21"/>
-      <c r="B68" s="170"/>
-      <c r="C68" s="170"/>
-      <c r="D68" s="170"/>
+      <c r="B68" s="168"/>
+      <c r="C68" s="168"/>
+      <c r="D68" s="168"/>
       <c r="E68" s="28"/>
       <c r="F68" s="21"/>
     </row>
     <row r="69" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="21"/>
-      <c r="B69" s="170"/>
-      <c r="C69" s="170"/>
-      <c r="D69" s="170"/>
+      <c r="B69" s="168"/>
+      <c r="C69" s="168"/>
+      <c r="D69" s="168"/>
       <c r="E69" s="28"/>
       <c r="F69" s="21"/>
     </row>
@@ -17190,19 +18116,19 @@
     </row>
     <row r="78" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A78" s="21"/>
-      <c r="B78" s="174"/>
-      <c r="C78" s="174"/>
-      <c r="D78" s="174"/>
+      <c r="B78" s="170"/>
+      <c r="C78" s="170"/>
+      <c r="D78" s="170"/>
       <c r="E78" s="36"/>
       <c r="F78" s="21"/>
     </row>
     <row r="79" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="21"/>
-      <c r="B79" s="171" t="s">
+      <c r="B79" s="175" t="s">
         <v>17</v>
       </c>
-      <c r="C79" s="171"/>
-      <c r="D79" s="171"/>
+      <c r="C79" s="175"/>
+      <c r="D79" s="175"/>
       <c r="E79" s="36">
         <v>0</v>
       </c>
@@ -17210,9 +18136,9 @@
     </row>
     <row r="80" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A80" s="21"/>
-      <c r="B80" s="174"/>
-      <c r="C80" s="174"/>
-      <c r="D80" s="174"/>
+      <c r="B80" s="170"/>
+      <c r="C80" s="170"/>
+      <c r="D80" s="170"/>
       <c r="E80" s="36"/>
       <c r="F80" s="21"/>
     </row>
@@ -17247,31 +18173,31 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" s="21"/>
-      <c r="B84" s="168"/>
-      <c r="C84" s="168"/>
-      <c r="D84" s="168"/>
-      <c r="E84" s="168"/>
+      <c r="B84" s="173"/>
+      <c r="C84" s="173"/>
+      <c r="D84" s="173"/>
+      <c r="E84" s="173"/>
       <c r="F84" s="21"/>
     </row>
     <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A85" s="176" t="s">
+      <c r="A85" s="167" t="s">
         <v>28</v>
       </c>
-      <c r="B85" s="176"/>
-      <c r="C85" s="176"/>
-      <c r="D85" s="176"/>
-      <c r="E85" s="176"/>
-      <c r="F85" s="176"/>
+      <c r="B85" s="167"/>
+      <c r="C85" s="167"/>
+      <c r="D85" s="167"/>
+      <c r="E85" s="167"/>
+      <c r="F85" s="167"/>
     </row>
     <row r="86" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A86" s="172" t="s">
+      <c r="A86" s="176" t="s">
         <v>29</v>
       </c>
-      <c r="B86" s="172"/>
-      <c r="C86" s="172"/>
-      <c r="D86" s="172"/>
-      <c r="E86" s="172"/>
-      <c r="F86" s="172"/>
+      <c r="B86" s="176"/>
+      <c r="C86" s="176"/>
+      <c r="D86" s="176"/>
+      <c r="E86" s="176"/>
+      <c r="F86" s="176"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="21"/>
@@ -17283,26 +18209,801 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" s="21"/>
-      <c r="B88" s="169"/>
-      <c r="C88" s="169"/>
-      <c r="D88" s="169"/>
-      <c r="E88" s="169"/>
+      <c r="B88" s="174"/>
+      <c r="C88" s="174"/>
+      <c r="D88" s="174"/>
+      <c r="E88" s="174"/>
       <c r="F88" s="21"/>
     </row>
     <row r="89" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A89" s="175" t="s">
+      <c r="A89" s="166" t="s">
         <v>7</v>
       </c>
-      <c r="B89" s="175"/>
-      <c r="C89" s="175"/>
-      <c r="D89" s="175"/>
-      <c r="E89" s="175"/>
-      <c r="F89" s="175"/>
+      <c r="B89" s="166"/>
+      <c r="C89" s="166"/>
+      <c r="D89" s="166"/>
+      <c r="E89" s="166"/>
+      <c r="F89" s="166"/>
     </row>
     <row r="91" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B91" s="166"/>
-      <c r="C91" s="167"/>
-      <c r="D91" s="167"/>
+      <c r="B91" s="171"/>
+      <c r="C91" s="172"/>
+      <c r="D91" s="172"/>
+    </row>
+    <row r="92" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B93" s="16"/>
+      <c r="C93" s="16"/>
+      <c r="D93" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="45">
+    <mergeCell ref="B88:E88"/>
+    <mergeCell ref="A89:F89"/>
+    <mergeCell ref="B91:D91"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B79:D79"/>
+    <mergeCell ref="B80:D80"/>
+    <mergeCell ref="B84:E84"/>
+    <mergeCell ref="A85:F85"/>
+    <mergeCell ref="A86:F86"/>
+    <mergeCell ref="B69:D69"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B42:D42"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B78:B80 B12:B20 B33:B69" xr:uid="{E383F8C4-BFC0-491A-9D27-5C56254EEDF2}">
+      <formula1>Liste_Activités</formula1>
+    </dataValidation>
+  </dataValidations>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="131" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E6EA1A3-5BF7-453F-90EF-F9C7BF75F7EB}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A12:F93"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" topLeftCell="A21" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44:D44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="120" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="11.42578125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B12" s="3"/>
+      <c r="E12" s="4"/>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B13" s="3"/>
+      <c r="E13" s="4"/>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B14" s="3"/>
+      <c r="E14" s="4"/>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B15" s="3"/>
+      <c r="E15" s="4"/>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B16" s="3"/>
+      <c r="E16" s="4"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B17" s="3"/>
+      <c r="E17" s="4"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B18" s="3"/>
+      <c r="E18" s="4"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B19" s="3"/>
+      <c r="E19" s="4"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B20" s="3"/>
+      <c r="E20" s="4"/>
+    </row>
+    <row r="21" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A21" s="17"/>
+      <c r="B21" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+    </row>
+    <row r="22" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A22" s="17"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+    </row>
+    <row r="23" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A23" s="17"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+    </row>
+    <row r="24" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A24" s="17"/>
+      <c r="B24" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+    </row>
+    <row r="25" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A25" s="17"/>
+      <c r="B25" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+    </row>
+    <row r="26" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="17"/>
+      <c r="B26" s="53" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="18"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="21"/>
+    </row>
+    <row r="28" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A28" s="17"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="F28" s="21"/>
+    </row>
+    <row r="29" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="19"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="20"/>
+    </row>
+    <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="169" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="169"/>
+      <c r="C30" s="169"/>
+      <c r="D30" s="169"/>
+      <c r="E30" s="169"/>
+      <c r="F30" s="169"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="17"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+    </row>
+    <row r="32" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A32" s="21"/>
+      <c r="B32" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="21"/>
+    </row>
+    <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A33" s="21"/>
+      <c r="B33" s="168"/>
+      <c r="C33" s="168"/>
+      <c r="D33" s="168"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="21"/>
+    </row>
+    <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A34" s="21"/>
+      <c r="B34" s="168"/>
+      <c r="C34" s="168"/>
+      <c r="D34" s="168"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="21"/>
+    </row>
+    <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A35" s="21"/>
+      <c r="B35" s="168" t="s">
+        <v>98</v>
+      </c>
+      <c r="C35" s="168"/>
+      <c r="D35" s="168"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="21"/>
+    </row>
+    <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A36" s="21"/>
+      <c r="B36" s="168"/>
+      <c r="C36" s="168"/>
+      <c r="D36" s="168"/>
+      <c r="E36" s="28"/>
+      <c r="F36" s="21"/>
+    </row>
+    <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A37" s="21"/>
+      <c r="B37" s="168" t="s">
+        <v>32</v>
+      </c>
+      <c r="C37" s="168"/>
+      <c r="D37" s="168"/>
+      <c r="E37" s="28"/>
+      <c r="F37" s="21"/>
+    </row>
+    <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A38" s="21"/>
+      <c r="B38" s="168"/>
+      <c r="C38" s="168"/>
+      <c r="D38" s="168"/>
+      <c r="E38" s="28"/>
+      <c r="F38" s="21"/>
+    </row>
+    <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A39" s="21"/>
+      <c r="B39" s="168" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" s="168"/>
+      <c r="D39" s="168"/>
+      <c r="E39" s="28"/>
+      <c r="F39" s="21"/>
+    </row>
+    <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A40" s="21"/>
+      <c r="B40" s="168"/>
+      <c r="C40" s="168"/>
+      <c r="D40" s="168"/>
+      <c r="E40" s="28"/>
+      <c r="F40" s="21"/>
+    </row>
+    <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A41" s="21"/>
+      <c r="B41" s="168" t="s">
+        <v>99</v>
+      </c>
+      <c r="C41" s="168"/>
+      <c r="D41" s="168"/>
+      <c r="E41" s="28"/>
+      <c r="F41" s="21"/>
+    </row>
+    <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A42" s="21"/>
+      <c r="B42" s="168"/>
+      <c r="C42" s="168"/>
+      <c r="D42" s="168"/>
+      <c r="E42" s="28"/>
+      <c r="F42" s="21"/>
+    </row>
+    <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A43" s="21"/>
+      <c r="B43" s="168" t="s">
+        <v>48</v>
+      </c>
+      <c r="C43" s="168"/>
+      <c r="D43" s="168"/>
+      <c r="E43" s="28"/>
+      <c r="F43" s="21"/>
+    </row>
+    <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A44" s="21"/>
+      <c r="B44" s="168"/>
+      <c r="C44" s="168"/>
+      <c r="D44" s="168"/>
+      <c r="E44" s="28"/>
+      <c r="F44" s="21"/>
+    </row>
+    <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A45" s="21"/>
+      <c r="B45" s="168" t="s">
+        <v>38</v>
+      </c>
+      <c r="C45" s="168"/>
+      <c r="D45" s="168"/>
+      <c r="E45" s="28"/>
+      <c r="F45" s="21"/>
+    </row>
+    <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A46" s="21"/>
+      <c r="B46" s="168"/>
+      <c r="C46" s="168"/>
+      <c r="D46" s="168"/>
+      <c r="E46" s="28"/>
+      <c r="F46" s="21"/>
+    </row>
+    <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A47" s="21"/>
+      <c r="B47" s="168" t="s">
+        <v>53</v>
+      </c>
+      <c r="C47" s="168"/>
+      <c r="D47" s="168"/>
+      <c r="E47" s="28"/>
+      <c r="F47" s="21"/>
+    </row>
+    <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A48" s="21"/>
+      <c r="B48" s="168"/>
+      <c r="C48" s="168"/>
+      <c r="D48" s="168"/>
+      <c r="E48" s="28"/>
+      <c r="F48" s="21"/>
+    </row>
+    <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A49" s="21"/>
+      <c r="B49" s="168" t="s">
+        <v>97</v>
+      </c>
+      <c r="C49" s="168"/>
+      <c r="D49" s="168"/>
+      <c r="E49" s="28"/>
+      <c r="F49" s="21"/>
+    </row>
+    <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A50" s="21"/>
+      <c r="B50" s="168"/>
+      <c r="C50" s="168"/>
+      <c r="D50" s="168"/>
+      <c r="E50" s="28"/>
+      <c r="F50" s="21"/>
+    </row>
+    <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A51" s="21"/>
+      <c r="B51" s="168" t="s">
+        <v>34</v>
+      </c>
+      <c r="C51" s="168"/>
+      <c r="D51" s="168"/>
+      <c r="E51" s="28"/>
+      <c r="F51" s="21"/>
+    </row>
+    <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A52" s="21"/>
+      <c r="B52" s="168"/>
+      <c r="C52" s="168"/>
+      <c r="D52" s="168"/>
+      <c r="E52" s="28"/>
+      <c r="F52" s="21"/>
+    </row>
+    <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A53" s="21"/>
+      <c r="B53" s="168"/>
+      <c r="C53" s="168"/>
+      <c r="D53" s="168"/>
+      <c r="E53" s="28"/>
+      <c r="F53" s="21"/>
+    </row>
+    <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A54" s="21"/>
+      <c r="B54" s="168"/>
+      <c r="C54" s="168"/>
+      <c r="D54" s="168"/>
+      <c r="E54" s="28"/>
+      <c r="F54" s="21"/>
+    </row>
+    <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A55" s="21"/>
+      <c r="B55" s="168"/>
+      <c r="C55" s="168"/>
+      <c r="D55" s="168"/>
+      <c r="E55" s="28"/>
+      <c r="F55" s="21"/>
+    </row>
+    <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A56" s="21"/>
+      <c r="B56" s="168"/>
+      <c r="C56" s="168"/>
+      <c r="D56" s="168"/>
+      <c r="E56" s="28"/>
+      <c r="F56" s="21"/>
+    </row>
+    <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A57" s="21"/>
+      <c r="B57" s="168"/>
+      <c r="C57" s="168"/>
+      <c r="D57" s="168"/>
+      <c r="E57" s="28"/>
+      <c r="F57" s="21"/>
+    </row>
+    <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A58" s="21"/>
+      <c r="B58" s="168"/>
+      <c r="C58" s="168"/>
+      <c r="D58" s="168"/>
+      <c r="E58" s="28"/>
+      <c r="F58" s="21"/>
+    </row>
+    <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A59" s="21"/>
+      <c r="B59" s="168"/>
+      <c r="C59" s="168"/>
+      <c r="D59" s="168"/>
+      <c r="E59" s="28"/>
+      <c r="F59" s="21"/>
+    </row>
+    <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A60" s="21"/>
+      <c r="B60" s="168"/>
+      <c r="C60" s="168"/>
+      <c r="D60" s="168"/>
+      <c r="E60" s="28"/>
+      <c r="F60" s="21"/>
+    </row>
+    <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A61" s="21"/>
+      <c r="B61" s="168"/>
+      <c r="C61" s="168"/>
+      <c r="D61" s="168"/>
+      <c r="E61" s="28"/>
+      <c r="F61" s="21"/>
+    </row>
+    <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A62" s="21"/>
+      <c r="B62" s="168"/>
+      <c r="C62" s="168"/>
+      <c r="D62" s="168"/>
+      <c r="E62" s="28"/>
+      <c r="F62" s="21"/>
+    </row>
+    <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A63" s="21"/>
+      <c r="B63" s="168"/>
+      <c r="C63" s="168"/>
+      <c r="D63" s="168"/>
+      <c r="E63" s="28"/>
+      <c r="F63" s="21"/>
+    </row>
+    <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A64" s="21"/>
+      <c r="B64" s="168"/>
+      <c r="C64" s="168"/>
+      <c r="D64" s="168"/>
+      <c r="E64" s="28"/>
+      <c r="F64" s="21"/>
+    </row>
+    <row r="65" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A65" s="21"/>
+      <c r="B65" s="168"/>
+      <c r="C65" s="168"/>
+      <c r="D65" s="168"/>
+      <c r="E65" s="28"/>
+      <c r="F65" s="21"/>
+    </row>
+    <row r="66" spans="1:6" s="50" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A66" s="46"/>
+      <c r="B66" s="47"/>
+      <c r="C66" s="48" t="s">
+        <v>36</v>
+      </c>
+      <c r="D66" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="E66" s="49"/>
+      <c r="F66" s="46"/>
+    </row>
+    <row r="67" spans="1:6" s="50" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A67" s="46"/>
+      <c r="B67" s="47"/>
+      <c r="C67" s="51">
+        <v>23.75</v>
+      </c>
+      <c r="D67" s="52">
+        <v>350</v>
+      </c>
+      <c r="E67" s="49"/>
+      <c r="F67" s="46"/>
+    </row>
+    <row r="68" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A68" s="21"/>
+      <c r="B68" s="168"/>
+      <c r="C68" s="168"/>
+      <c r="D68" s="168"/>
+      <c r="E68" s="28"/>
+      <c r="F68" s="21"/>
+    </row>
+    <row r="69" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="21"/>
+      <c r="B69" s="168"/>
+      <c r="C69" s="168"/>
+      <c r="D69" s="168"/>
+      <c r="E69" s="28"/>
+      <c r="F69" s="21"/>
+    </row>
+    <row r="70" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="21"/>
+      <c r="B70" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C70" s="26"/>
+      <c r="D70" s="26"/>
+      <c r="E70" s="29">
+        <f>D67*C67</f>
+        <v>8312.5</v>
+      </c>
+      <c r="F70" s="21"/>
+    </row>
+    <row r="71" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="21"/>
+      <c r="B71" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="C71" s="26"/>
+      <c r="D71" s="26"/>
+      <c r="E71" s="30">
+        <v>175</v>
+      </c>
+      <c r="F71" s="21"/>
+    </row>
+    <row r="72" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="21"/>
+      <c r="B72" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="C72" s="26"/>
+      <c r="D72" s="26"/>
+      <c r="E72" s="30">
+        <v>0</v>
+      </c>
+      <c r="F72" s="21"/>
+    </row>
+    <row r="73" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="21"/>
+      <c r="B73" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C73" s="26"/>
+      <c r="D73" s="26"/>
+      <c r="E73" s="29">
+        <f>SUM(E70:E72)</f>
+        <v>8487.5</v>
+      </c>
+      <c r="F73" s="21"/>
+    </row>
+    <row r="74" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="21"/>
+      <c r="B74" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C74" s="31">
+        <v>0.05</v>
+      </c>
+      <c r="D74" s="26"/>
+      <c r="E74" s="35">
+        <f>ROUND(E73*C74,2)</f>
+        <v>424.38</v>
+      </c>
+      <c r="F74" s="21"/>
+    </row>
+    <row r="75" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="21"/>
+      <c r="B75" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C75" s="42">
+        <v>9.9750000000000005E-2</v>
+      </c>
+      <c r="D75" s="26"/>
+      <c r="E75" s="43">
+        <f>ROUND(E73*C75,2)</f>
+        <v>846.63</v>
+      </c>
+      <c r="F75" s="21"/>
+    </row>
+    <row r="76" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="21"/>
+      <c r="B76" s="26"/>
+      <c r="C76" s="26"/>
+      <c r="D76" s="26"/>
+      <c r="E76" s="32"/>
+      <c r="F76" s="21"/>
+    </row>
+    <row r="77" spans="1:6" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="21"/>
+      <c r="B77" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C77" s="26"/>
+      <c r="D77" s="26"/>
+      <c r="E77" s="33">
+        <f>SUM(E73:E75)</f>
+        <v>9758.5099999999984</v>
+      </c>
+      <c r="F77" s="21"/>
+    </row>
+    <row r="78" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="21"/>
+      <c r="B78" s="170"/>
+      <c r="C78" s="170"/>
+      <c r="D78" s="170"/>
+      <c r="E78" s="36"/>
+      <c r="F78" s="21"/>
+    </row>
+    <row r="79" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A79" s="21"/>
+      <c r="B79" s="175" t="s">
+        <v>17</v>
+      </c>
+      <c r="C79" s="175"/>
+      <c r="D79" s="175"/>
+      <c r="E79" s="36">
+        <v>0</v>
+      </c>
+      <c r="F79" s="21"/>
+    </row>
+    <row r="80" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A80" s="21"/>
+      <c r="B80" s="170"/>
+      <c r="C80" s="170"/>
+      <c r="D80" s="170"/>
+      <c r="E80" s="36"/>
+      <c r="F80" s="21"/>
+    </row>
+    <row r="81" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="21"/>
+      <c r="B81" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="C81" s="38"/>
+      <c r="D81" s="38"/>
+      <c r="E81" s="39">
+        <f>E77-E79</f>
+        <v>9758.5099999999984</v>
+      </c>
+      <c r="F81" s="21"/>
+    </row>
+    <row r="82" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="21"/>
+      <c r="B82" s="21"/>
+      <c r="C82" s="21"/>
+      <c r="D82" s="21"/>
+      <c r="E82" s="21"/>
+      <c r="F82" s="21"/>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A83" s="21"/>
+      <c r="B83" s="21"/>
+      <c r="C83" s="21"/>
+      <c r="D83" s="21"/>
+      <c r="E83" s="21"/>
+      <c r="F83" s="21"/>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A84" s="21"/>
+      <c r="B84" s="173"/>
+      <c r="C84" s="173"/>
+      <c r="D84" s="173"/>
+      <c r="E84" s="173"/>
+      <c r="F84" s="21"/>
+    </row>
+    <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A85" s="167" t="s">
+        <v>28</v>
+      </c>
+      <c r="B85" s="167"/>
+      <c r="C85" s="167"/>
+      <c r="D85" s="167"/>
+      <c r="E85" s="167"/>
+      <c r="F85" s="167"/>
+    </row>
+    <row r="86" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A86" s="176" t="s">
+        <v>29</v>
+      </c>
+      <c r="B86" s="176"/>
+      <c r="C86" s="176"/>
+      <c r="D86" s="176"/>
+      <c r="E86" s="176"/>
+      <c r="F86" s="176"/>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A87" s="21"/>
+      <c r="B87" s="21"/>
+      <c r="C87" s="21"/>
+      <c r="D87" s="21"/>
+      <c r="E87" s="21"/>
+      <c r="F87" s="21"/>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A88" s="21"/>
+      <c r="B88" s="174"/>
+      <c r="C88" s="174"/>
+      <c r="D88" s="174"/>
+      <c r="E88" s="174"/>
+      <c r="F88" s="21"/>
+    </row>
+    <row r="89" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A89" s="166" t="s">
+        <v>7</v>
+      </c>
+      <c r="B89" s="166"/>
+      <c r="C89" s="166"/>
+      <c r="D89" s="166"/>
+      <c r="E89" s="166"/>
+      <c r="F89" s="166"/>
+    </row>
+    <row r="91" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B91" s="171"/>
+      <c r="C91" s="172"/>
+      <c r="D91" s="172"/>
     </row>
     <row r="92" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
@@ -17359,781 +19060,6 @@
     <mergeCell ref="A86:F86"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B78:B80 B12:B20 B33:B69" xr:uid="{E383F8C4-BFC0-491A-9D27-5C56254EEDF2}">
-      <formula1>Liste_Activités</formula1>
-    </dataValidation>
-  </dataValidations>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="131" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-  <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E6EA1A3-5BF7-453F-90EF-F9C7BF75F7EB}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A12:F93"/>
-  <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A21" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44:D44"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="5.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="120" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="11.42578125" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B12" s="3"/>
-      <c r="E12" s="4"/>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B13" s="3"/>
-      <c r="E13" s="4"/>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B14" s="3"/>
-      <c r="E14" s="4"/>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B15" s="3"/>
-      <c r="E15" s="4"/>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B16" s="3"/>
-      <c r="E16" s="4"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B17" s="3"/>
-      <c r="E17" s="4"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B18" s="3"/>
-      <c r="E18" s="4"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B19" s="3"/>
-      <c r="E19" s="4"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B20" s="3"/>
-      <c r="E20" s="4"/>
-    </row>
-    <row r="21" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A21" s="17"/>
-      <c r="B21" s="25" t="s">
-        <v>92</v>
-      </c>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-    </row>
-    <row r="22" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A22" s="17"/>
-      <c r="B22" s="26"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-    </row>
-    <row r="23" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A23" s="17"/>
-      <c r="B23" s="26"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-    </row>
-    <row r="24" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A24" s="17"/>
-      <c r="B24" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-    </row>
-    <row r="25" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A25" s="17"/>
-      <c r="B25" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-    </row>
-    <row r="26" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="17"/>
-      <c r="B26" s="53" t="s">
-        <v>58</v>
-      </c>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="18"/>
-      <c r="B27" s="21"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="21"/>
-    </row>
-    <row r="28" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A28" s="17"/>
-      <c r="B28" s="23"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="E28" s="27" t="s">
-        <v>93</v>
-      </c>
-      <c r="F28" s="21"/>
-    </row>
-    <row r="29" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="19"/>
-      <c r="B29" s="19"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="20"/>
-    </row>
-    <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="173" t="s">
-        <v>0</v>
-      </c>
-      <c r="B30" s="173"/>
-      <c r="C30" s="173"/>
-      <c r="D30" s="173"/>
-      <c r="E30" s="173"/>
-      <c r="F30" s="173"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="17"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-    </row>
-    <row r="32" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A32" s="21"/>
-      <c r="B32" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="C32" s="22"/>
-      <c r="D32" s="22"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="21"/>
-    </row>
-    <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A33" s="21"/>
-      <c r="B33" s="170"/>
-      <c r="C33" s="170"/>
-      <c r="D33" s="170"/>
-      <c r="E33" s="28"/>
-      <c r="F33" s="21"/>
-    </row>
-    <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A34" s="21"/>
-      <c r="B34" s="170"/>
-      <c r="C34" s="170"/>
-      <c r="D34" s="170"/>
-      <c r="E34" s="28"/>
-      <c r="F34" s="21"/>
-    </row>
-    <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A35" s="21"/>
-      <c r="B35" s="170" t="s">
-        <v>98</v>
-      </c>
-      <c r="C35" s="170"/>
-      <c r="D35" s="170"/>
-      <c r="E35" s="28"/>
-      <c r="F35" s="21"/>
-    </row>
-    <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A36" s="21"/>
-      <c r="B36" s="170"/>
-      <c r="C36" s="170"/>
-      <c r="D36" s="170"/>
-      <c r="E36" s="28"/>
-      <c r="F36" s="21"/>
-    </row>
-    <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A37" s="21"/>
-      <c r="B37" s="170" t="s">
-        <v>32</v>
-      </c>
-      <c r="C37" s="170"/>
-      <c r="D37" s="170"/>
-      <c r="E37" s="28"/>
-      <c r="F37" s="21"/>
-    </row>
-    <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A38" s="21"/>
-      <c r="B38" s="170"/>
-      <c r="C38" s="170"/>
-      <c r="D38" s="170"/>
-      <c r="E38" s="28"/>
-      <c r="F38" s="21"/>
-    </row>
-    <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A39" s="21"/>
-      <c r="B39" s="170" t="s">
-        <v>9</v>
-      </c>
-      <c r="C39" s="170"/>
-      <c r="D39" s="170"/>
-      <c r="E39" s="28"/>
-      <c r="F39" s="21"/>
-    </row>
-    <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A40" s="21"/>
-      <c r="B40" s="170"/>
-      <c r="C40" s="170"/>
-      <c r="D40" s="170"/>
-      <c r="E40" s="28"/>
-      <c r="F40" s="21"/>
-    </row>
-    <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A41" s="21"/>
-      <c r="B41" s="170" t="s">
-        <v>99</v>
-      </c>
-      <c r="C41" s="170"/>
-      <c r="D41" s="170"/>
-      <c r="E41" s="28"/>
-      <c r="F41" s="21"/>
-    </row>
-    <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A42" s="21"/>
-      <c r="B42" s="170"/>
-      <c r="C42" s="170"/>
-      <c r="D42" s="170"/>
-      <c r="E42" s="28"/>
-      <c r="F42" s="21"/>
-    </row>
-    <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A43" s="21"/>
-      <c r="B43" s="170" t="s">
-        <v>48</v>
-      </c>
-      <c r="C43" s="170"/>
-      <c r="D43" s="170"/>
-      <c r="E43" s="28"/>
-      <c r="F43" s="21"/>
-    </row>
-    <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A44" s="21"/>
-      <c r="B44" s="170"/>
-      <c r="C44" s="170"/>
-      <c r="D44" s="170"/>
-      <c r="E44" s="28"/>
-      <c r="F44" s="21"/>
-    </row>
-    <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A45" s="21"/>
-      <c r="B45" s="170" t="s">
-        <v>38</v>
-      </c>
-      <c r="C45" s="170"/>
-      <c r="D45" s="170"/>
-      <c r="E45" s="28"/>
-      <c r="F45" s="21"/>
-    </row>
-    <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A46" s="21"/>
-      <c r="B46" s="170"/>
-      <c r="C46" s="170"/>
-      <c r="D46" s="170"/>
-      <c r="E46" s="28"/>
-      <c r="F46" s="21"/>
-    </row>
-    <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A47" s="21"/>
-      <c r="B47" s="170" t="s">
-        <v>53</v>
-      </c>
-      <c r="C47" s="170"/>
-      <c r="D47" s="170"/>
-      <c r="E47" s="28"/>
-      <c r="F47" s="21"/>
-    </row>
-    <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A48" s="21"/>
-      <c r="B48" s="170"/>
-      <c r="C48" s="170"/>
-      <c r="D48" s="170"/>
-      <c r="E48" s="28"/>
-      <c r="F48" s="21"/>
-    </row>
-    <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A49" s="21"/>
-      <c r="B49" s="170" t="s">
-        <v>97</v>
-      </c>
-      <c r="C49" s="170"/>
-      <c r="D49" s="170"/>
-      <c r="E49" s="28"/>
-      <c r="F49" s="21"/>
-    </row>
-    <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A50" s="21"/>
-      <c r="B50" s="170"/>
-      <c r="C50" s="170"/>
-      <c r="D50" s="170"/>
-      <c r="E50" s="28"/>
-      <c r="F50" s="21"/>
-    </row>
-    <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A51" s="21"/>
-      <c r="B51" s="170" t="s">
-        <v>34</v>
-      </c>
-      <c r="C51" s="170"/>
-      <c r="D51" s="170"/>
-      <c r="E51" s="28"/>
-      <c r="F51" s="21"/>
-    </row>
-    <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A52" s="21"/>
-      <c r="B52" s="170"/>
-      <c r="C52" s="170"/>
-      <c r="D52" s="170"/>
-      <c r="E52" s="28"/>
-      <c r="F52" s="21"/>
-    </row>
-    <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A53" s="21"/>
-      <c r="B53" s="170"/>
-      <c r="C53" s="170"/>
-      <c r="D53" s="170"/>
-      <c r="E53" s="28"/>
-      <c r="F53" s="21"/>
-    </row>
-    <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A54" s="21"/>
-      <c r="B54" s="170"/>
-      <c r="C54" s="170"/>
-      <c r="D54" s="170"/>
-      <c r="E54" s="28"/>
-      <c r="F54" s="21"/>
-    </row>
-    <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A55" s="21"/>
-      <c r="B55" s="170"/>
-      <c r="C55" s="170"/>
-      <c r="D55" s="170"/>
-      <c r="E55" s="28"/>
-      <c r="F55" s="21"/>
-    </row>
-    <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A56" s="21"/>
-      <c r="B56" s="170"/>
-      <c r="C56" s="170"/>
-      <c r="D56" s="170"/>
-      <c r="E56" s="28"/>
-      <c r="F56" s="21"/>
-    </row>
-    <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A57" s="21"/>
-      <c r="B57" s="170"/>
-      <c r="C57" s="170"/>
-      <c r="D57" s="170"/>
-      <c r="E57" s="28"/>
-      <c r="F57" s="21"/>
-    </row>
-    <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A58" s="21"/>
-      <c r="B58" s="170"/>
-      <c r="C58" s="170"/>
-      <c r="D58" s="170"/>
-      <c r="E58" s="28"/>
-      <c r="F58" s="21"/>
-    </row>
-    <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A59" s="21"/>
-      <c r="B59" s="170"/>
-      <c r="C59" s="170"/>
-      <c r="D59" s="170"/>
-      <c r="E59" s="28"/>
-      <c r="F59" s="21"/>
-    </row>
-    <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A60" s="21"/>
-      <c r="B60" s="170"/>
-      <c r="C60" s="170"/>
-      <c r="D60" s="170"/>
-      <c r="E60" s="28"/>
-      <c r="F60" s="21"/>
-    </row>
-    <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A61" s="21"/>
-      <c r="B61" s="170"/>
-      <c r="C61" s="170"/>
-      <c r="D61" s="170"/>
-      <c r="E61" s="28"/>
-      <c r="F61" s="21"/>
-    </row>
-    <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A62" s="21"/>
-      <c r="B62" s="170"/>
-      <c r="C62" s="170"/>
-      <c r="D62" s="170"/>
-      <c r="E62" s="28"/>
-      <c r="F62" s="21"/>
-    </row>
-    <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A63" s="21"/>
-      <c r="B63" s="170"/>
-      <c r="C63" s="170"/>
-      <c r="D63" s="170"/>
-      <c r="E63" s="28"/>
-      <c r="F63" s="21"/>
-    </row>
-    <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A64" s="21"/>
-      <c r="B64" s="170"/>
-      <c r="C64" s="170"/>
-      <c r="D64" s="170"/>
-      <c r="E64" s="28"/>
-      <c r="F64" s="21"/>
-    </row>
-    <row r="65" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A65" s="21"/>
-      <c r="B65" s="170"/>
-      <c r="C65" s="170"/>
-      <c r="D65" s="170"/>
-      <c r="E65" s="28"/>
-      <c r="F65" s="21"/>
-    </row>
-    <row r="66" spans="1:6" s="50" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A66" s="46"/>
-      <c r="B66" s="47"/>
-      <c r="C66" s="48" t="s">
-        <v>36</v>
-      </c>
-      <c r="D66" s="48" t="s">
-        <v>37</v>
-      </c>
-      <c r="E66" s="49"/>
-      <c r="F66" s="46"/>
-    </row>
-    <row r="67" spans="1:6" s="50" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A67" s="46"/>
-      <c r="B67" s="47"/>
-      <c r="C67" s="51">
-        <v>23.75</v>
-      </c>
-      <c r="D67" s="52">
-        <v>350</v>
-      </c>
-      <c r="E67" s="49"/>
-      <c r="F67" s="46"/>
-    </row>
-    <row r="68" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A68" s="21"/>
-      <c r="B68" s="170"/>
-      <c r="C68" s="170"/>
-      <c r="D68" s="170"/>
-      <c r="E68" s="28"/>
-      <c r="F68" s="21"/>
-    </row>
-    <row r="69" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="21"/>
-      <c r="B69" s="170"/>
-      <c r="C69" s="170"/>
-      <c r="D69" s="170"/>
-      <c r="E69" s="28"/>
-      <c r="F69" s="21"/>
-    </row>
-    <row r="70" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="21"/>
-      <c r="B70" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="C70" s="26"/>
-      <c r="D70" s="26"/>
-      <c r="E70" s="29">
-        <f>D67*C67</f>
-        <v>8312.5</v>
-      </c>
-      <c r="F70" s="21"/>
-    </row>
-    <row r="71" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="21"/>
-      <c r="B71" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="C71" s="26"/>
-      <c r="D71" s="26"/>
-      <c r="E71" s="30">
-        <v>175</v>
-      </c>
-      <c r="F71" s="21"/>
-    </row>
-    <row r="72" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="21"/>
-      <c r="B72" s="34" t="s">
-        <v>61</v>
-      </c>
-      <c r="C72" s="26"/>
-      <c r="D72" s="26"/>
-      <c r="E72" s="30">
-        <v>0</v>
-      </c>
-      <c r="F72" s="21"/>
-    </row>
-    <row r="73" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="21"/>
-      <c r="B73" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="C73" s="26"/>
-      <c r="D73" s="26"/>
-      <c r="E73" s="29">
-        <f>SUM(E70:E72)</f>
-        <v>8487.5</v>
-      </c>
-      <c r="F73" s="21"/>
-    </row>
-    <row r="74" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="21"/>
-      <c r="B74" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="C74" s="31">
-        <v>0.05</v>
-      </c>
-      <c r="D74" s="26"/>
-      <c r="E74" s="35">
-        <f>ROUND(E73*C74,2)</f>
-        <v>424.38</v>
-      </c>
-      <c r="F74" s="21"/>
-    </row>
-    <row r="75" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="21"/>
-      <c r="B75" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="C75" s="42">
-        <v>9.9750000000000005E-2</v>
-      </c>
-      <c r="D75" s="26"/>
-      <c r="E75" s="43">
-        <f>ROUND(E73*C75,2)</f>
-        <v>846.63</v>
-      </c>
-      <c r="F75" s="21"/>
-    </row>
-    <row r="76" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="21"/>
-      <c r="B76" s="26"/>
-      <c r="C76" s="26"/>
-      <c r="D76" s="26"/>
-      <c r="E76" s="32"/>
-      <c r="F76" s="21"/>
-    </row>
-    <row r="77" spans="1:6" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="21"/>
-      <c r="B77" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="C77" s="26"/>
-      <c r="D77" s="26"/>
-      <c r="E77" s="33">
-        <f>SUM(E73:E75)</f>
-        <v>9758.5099999999984</v>
-      </c>
-      <c r="F77" s="21"/>
-    </row>
-    <row r="78" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="21"/>
-      <c r="B78" s="174"/>
-      <c r="C78" s="174"/>
-      <c r="D78" s="174"/>
-      <c r="E78" s="36"/>
-      <c r="F78" s="21"/>
-    </row>
-    <row r="79" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A79" s="21"/>
-      <c r="B79" s="171" t="s">
-        <v>17</v>
-      </c>
-      <c r="C79" s="171"/>
-      <c r="D79" s="171"/>
-      <c r="E79" s="36">
-        <v>0</v>
-      </c>
-      <c r="F79" s="21"/>
-    </row>
-    <row r="80" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A80" s="21"/>
-      <c r="B80" s="174"/>
-      <c r="C80" s="174"/>
-      <c r="D80" s="174"/>
-      <c r="E80" s="36"/>
-      <c r="F80" s="21"/>
-    </row>
-    <row r="81" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="21"/>
-      <c r="B81" s="37" t="s">
-        <v>16</v>
-      </c>
-      <c r="C81" s="38"/>
-      <c r="D81" s="38"/>
-      <c r="E81" s="39">
-        <f>E77-E79</f>
-        <v>9758.5099999999984</v>
-      </c>
-      <c r="F81" s="21"/>
-    </row>
-    <row r="82" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="21"/>
-      <c r="B82" s="21"/>
-      <c r="C82" s="21"/>
-      <c r="D82" s="21"/>
-      <c r="E82" s="21"/>
-      <c r="F82" s="21"/>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A83" s="21"/>
-      <c r="B83" s="21"/>
-      <c r="C83" s="21"/>
-      <c r="D83" s="21"/>
-      <c r="E83" s="21"/>
-      <c r="F83" s="21"/>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A84" s="21"/>
-      <c r="B84" s="168"/>
-      <c r="C84" s="168"/>
-      <c r="D84" s="168"/>
-      <c r="E84" s="168"/>
-      <c r="F84" s="21"/>
-    </row>
-    <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A85" s="176" t="s">
-        <v>28</v>
-      </c>
-      <c r="B85" s="176"/>
-      <c r="C85" s="176"/>
-      <c r="D85" s="176"/>
-      <c r="E85" s="176"/>
-      <c r="F85" s="176"/>
-    </row>
-    <row r="86" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A86" s="172" t="s">
-        <v>29</v>
-      </c>
-      <c r="B86" s="172"/>
-      <c r="C86" s="172"/>
-      <c r="D86" s="172"/>
-      <c r="E86" s="172"/>
-      <c r="F86" s="172"/>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A87" s="21"/>
-      <c r="B87" s="21"/>
-      <c r="C87" s="21"/>
-      <c r="D87" s="21"/>
-      <c r="E87" s="21"/>
-      <c r="F87" s="21"/>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A88" s="21"/>
-      <c r="B88" s="169"/>
-      <c r="C88" s="169"/>
-      <c r="D88" s="169"/>
-      <c r="E88" s="169"/>
-      <c r="F88" s="21"/>
-    </row>
-    <row r="89" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A89" s="175" t="s">
-        <v>7</v>
-      </c>
-      <c r="B89" s="175"/>
-      <c r="C89" s="175"/>
-      <c r="D89" s="175"/>
-      <c r="E89" s="175"/>
-      <c r="F89" s="175"/>
-    </row>
-    <row r="91" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B91" s="166"/>
-      <c r="C91" s="167"/>
-      <c r="D91" s="167"/>
-    </row>
-    <row r="92" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B93" s="16"/>
-      <c r="C93" s="16"/>
-      <c r="D93" s="16"/>
-    </row>
-  </sheetData>
-  <mergeCells count="45">
-    <mergeCell ref="B88:E88"/>
-    <mergeCell ref="A89:F89"/>
-    <mergeCell ref="B91:D91"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="B79:D79"/>
-    <mergeCell ref="B80:D80"/>
-    <mergeCell ref="B84:E84"/>
-    <mergeCell ref="A85:F85"/>
-    <mergeCell ref="A86:F86"/>
-    <mergeCell ref="B69:D69"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="B65:D65"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B42:D42"/>
-  </mergeCells>
-  <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B78:B80 B12:B20 B33:B69" xr:uid="{20856ED9-B4CF-42A0-905A-206F7E9B590F}">
       <formula1>Liste_Activités</formula1>
     </dataValidation>
@@ -18289,14 +19215,14 @@
       <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="173" t="s">
+      <c r="A30" s="169" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="173"/>
-      <c r="C30" s="173"/>
-      <c r="D30" s="173"/>
-      <c r="E30" s="173"/>
-      <c r="F30" s="173"/>
+      <c r="B30" s="169"/>
+      <c r="C30" s="169"/>
+      <c r="D30" s="169"/>
+      <c r="E30" s="169"/>
+      <c r="F30" s="169"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="17"/>
@@ -18317,267 +19243,267 @@
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
-      <c r="B33" s="170"/>
-      <c r="C33" s="170"/>
-      <c r="D33" s="170"/>
+      <c r="B33" s="168"/>
+      <c r="C33" s="168"/>
+      <c r="D33" s="168"/>
       <c r="E33" s="28"/>
       <c r="F33" s="21"/>
     </row>
     <row r="34" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="21"/>
-      <c r="B34" s="170" t="s">
+      <c r="B34" s="168" t="s">
         <v>88</v>
       </c>
-      <c r="C34" s="170"/>
-      <c r="D34" s="170"/>
+      <c r="C34" s="168"/>
+      <c r="D34" s="168"/>
       <c r="E34" s="28"/>
       <c r="F34" s="21"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
-      <c r="B35" s="170"/>
-      <c r="C35" s="170"/>
-      <c r="D35" s="170"/>
+      <c r="B35" s="168"/>
+      <c r="C35" s="168"/>
+      <c r="D35" s="168"/>
       <c r="E35" s="28"/>
       <c r="F35" s="21"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="21"/>
-      <c r="B36" s="170" t="s">
+      <c r="B36" s="168" t="s">
         <v>102</v>
       </c>
-      <c r="C36" s="170"/>
-      <c r="D36" s="170"/>
+      <c r="C36" s="168"/>
+      <c r="D36" s="168"/>
       <c r="E36" s="28"/>
       <c r="F36" s="21"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
-      <c r="B37" s="170"/>
-      <c r="C37" s="170"/>
-      <c r="D37" s="170"/>
+      <c r="B37" s="168"/>
+      <c r="C37" s="168"/>
+      <c r="D37" s="168"/>
       <c r="E37" s="28"/>
       <c r="F37" s="21"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="21"/>
-      <c r="B38" s="170" t="s">
+      <c r="B38" s="168" t="s">
         <v>103</v>
       </c>
-      <c r="C38" s="170"/>
-      <c r="D38" s="170"/>
+      <c r="C38" s="168"/>
+      <c r="D38" s="168"/>
       <c r="E38" s="28"/>
       <c r="F38" s="21"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="21"/>
-      <c r="B39" s="170"/>
-      <c r="C39" s="170"/>
-      <c r="D39" s="170"/>
+      <c r="B39" s="168"/>
+      <c r="C39" s="168"/>
+      <c r="D39" s="168"/>
       <c r="E39" s="28"/>
       <c r="F39" s="21"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="21"/>
-      <c r="B40" s="170" t="s">
+      <c r="B40" s="168" t="s">
         <v>104</v>
       </c>
-      <c r="C40" s="170"/>
-      <c r="D40" s="170"/>
+      <c r="C40" s="168"/>
+      <c r="D40" s="168"/>
       <c r="E40" s="28"/>
       <c r="F40" s="21"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="21"/>
-      <c r="B41" s="170"/>
-      <c r="C41" s="170"/>
-      <c r="D41" s="170"/>
+      <c r="B41" s="168"/>
+      <c r="C41" s="168"/>
+      <c r="D41" s="168"/>
       <c r="E41" s="28"/>
       <c r="F41" s="21"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="21"/>
-      <c r="B42" s="170" t="s">
+      <c r="B42" s="168" t="s">
         <v>38</v>
       </c>
-      <c r="C42" s="170"/>
-      <c r="D42" s="170"/>
+      <c r="C42" s="168"/>
+      <c r="D42" s="168"/>
       <c r="E42" s="28"/>
       <c r="F42" s="21"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="21"/>
-      <c r="B43" s="170"/>
-      <c r="C43" s="170"/>
-      <c r="D43" s="170"/>
+      <c r="B43" s="168"/>
+      <c r="C43" s="168"/>
+      <c r="D43" s="168"/>
       <c r="E43" s="28"/>
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
-      <c r="B44" s="170"/>
-      <c r="C44" s="170"/>
-      <c r="D44" s="170"/>
+      <c r="B44" s="168"/>
+      <c r="C44" s="168"/>
+      <c r="D44" s="168"/>
       <c r="E44" s="28"/>
       <c r="F44" s="21"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="21"/>
-      <c r="B45" s="170"/>
-      <c r="C45" s="170"/>
-      <c r="D45" s="170"/>
+      <c r="B45" s="168"/>
+      <c r="C45" s="168"/>
+      <c r="D45" s="168"/>
       <c r="E45" s="28"/>
       <c r="F45" s="21"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="21"/>
-      <c r="B46" s="170"/>
-      <c r="C46" s="170"/>
-      <c r="D46" s="170"/>
+      <c r="B46" s="168"/>
+      <c r="C46" s="168"/>
+      <c r="D46" s="168"/>
       <c r="E46" s="28"/>
       <c r="F46" s="21"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="21"/>
-      <c r="B47" s="170"/>
-      <c r="C47" s="170"/>
-      <c r="D47" s="170"/>
+      <c r="B47" s="168"/>
+      <c r="C47" s="168"/>
+      <c r="D47" s="168"/>
       <c r="E47" s="28"/>
       <c r="F47" s="21"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="21"/>
-      <c r="B48" s="170"/>
-      <c r="C48" s="170"/>
-      <c r="D48" s="170"/>
+      <c r="B48" s="168"/>
+      <c r="C48" s="168"/>
+      <c r="D48" s="168"/>
       <c r="E48" s="28"/>
       <c r="F48" s="21"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="21"/>
-      <c r="B49" s="170"/>
-      <c r="C49" s="170"/>
-      <c r="D49" s="170"/>
+      <c r="B49" s="168"/>
+      <c r="C49" s="168"/>
+      <c r="D49" s="168"/>
       <c r="E49" s="28"/>
       <c r="F49" s="21"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="21"/>
-      <c r="B50" s="170"/>
-      <c r="C50" s="170"/>
-      <c r="D50" s="170"/>
+      <c r="B50" s="168"/>
+      <c r="C50" s="168"/>
+      <c r="D50" s="168"/>
       <c r="E50" s="28"/>
       <c r="F50" s="21"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="21"/>
-      <c r="B51" s="170"/>
-      <c r="C51" s="170"/>
-      <c r="D51" s="170"/>
+      <c r="B51" s="168"/>
+      <c r="C51" s="168"/>
+      <c r="D51" s="168"/>
       <c r="E51" s="28"/>
       <c r="F51" s="21"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="21"/>
-      <c r="B52" s="170"/>
-      <c r="C52" s="170"/>
-      <c r="D52" s="170"/>
+      <c r="B52" s="168"/>
+      <c r="C52" s="168"/>
+      <c r="D52" s="168"/>
       <c r="E52" s="28"/>
       <c r="F52" s="21"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="21"/>
-      <c r="B53" s="170"/>
-      <c r="C53" s="170"/>
-      <c r="D53" s="170"/>
+      <c r="B53" s="168"/>
+      <c r="C53" s="168"/>
+      <c r="D53" s="168"/>
       <c r="E53" s="28"/>
       <c r="F53" s="21"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="21"/>
-      <c r="B54" s="170"/>
-      <c r="C54" s="170"/>
-      <c r="D54" s="170"/>
+      <c r="B54" s="168"/>
+      <c r="C54" s="168"/>
+      <c r="D54" s="168"/>
       <c r="E54" s="28"/>
       <c r="F54" s="21"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="21"/>
-      <c r="B55" s="170"/>
-      <c r="C55" s="170"/>
-      <c r="D55" s="170"/>
+      <c r="B55" s="168"/>
+      <c r="C55" s="168"/>
+      <c r="D55" s="168"/>
       <c r="E55" s="28"/>
       <c r="F55" s="21"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="21"/>
-      <c r="B56" s="170"/>
-      <c r="C56" s="170"/>
-      <c r="D56" s="170"/>
+      <c r="B56" s="168"/>
+      <c r="C56" s="168"/>
+      <c r="D56" s="168"/>
       <c r="E56" s="28"/>
       <c r="F56" s="21"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="21"/>
-      <c r="B57" s="170"/>
-      <c r="C57" s="170"/>
-      <c r="D57" s="170"/>
+      <c r="B57" s="168"/>
+      <c r="C57" s="168"/>
+      <c r="D57" s="168"/>
       <c r="E57" s="28"/>
       <c r="F57" s="21"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="21"/>
-      <c r="B58" s="170"/>
-      <c r="C58" s="170"/>
-      <c r="D58" s="170"/>
+      <c r="B58" s="168"/>
+      <c r="C58" s="168"/>
+      <c r="D58" s="168"/>
       <c r="E58" s="28"/>
       <c r="F58" s="21"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="21"/>
-      <c r="B59" s="170"/>
-      <c r="C59" s="170"/>
-      <c r="D59" s="170"/>
+      <c r="B59" s="168"/>
+      <c r="C59" s="168"/>
+      <c r="D59" s="168"/>
       <c r="E59" s="28"/>
       <c r="F59" s="21"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="21"/>
-      <c r="B60" s="170"/>
-      <c r="C60" s="170"/>
-      <c r="D60" s="170"/>
+      <c r="B60" s="168"/>
+      <c r="C60" s="168"/>
+      <c r="D60" s="168"/>
       <c r="E60" s="28"/>
       <c r="F60" s="21"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="21"/>
-      <c r="B61" s="170"/>
-      <c r="C61" s="170"/>
-      <c r="D61" s="170"/>
+      <c r="B61" s="168"/>
+      <c r="C61" s="168"/>
+      <c r="D61" s="168"/>
       <c r="E61" s="28"/>
       <c r="F61" s="21"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="21"/>
-      <c r="B62" s="170"/>
-      <c r="C62" s="170"/>
-      <c r="D62" s="170"/>
+      <c r="B62" s="168"/>
+      <c r="C62" s="168"/>
+      <c r="D62" s="168"/>
       <c r="E62" s="28"/>
       <c r="F62" s="21"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="21"/>
-      <c r="B63" s="170"/>
-      <c r="C63" s="170"/>
-      <c r="D63" s="170"/>
+      <c r="B63" s="168"/>
+      <c r="C63" s="168"/>
+      <c r="D63" s="168"/>
       <c r="E63" s="28"/>
       <c r="F63" s="21"/>
     </row>
     <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A64" s="21"/>
-      <c r="B64" s="170"/>
-      <c r="C64" s="170"/>
-      <c r="D64" s="170"/>
+      <c r="B64" s="168"/>
+      <c r="C64" s="168"/>
+      <c r="D64" s="168"/>
       <c r="E64" s="28"/>
       <c r="F64" s="21"/>
     </row>
@@ -18607,17 +19533,17 @@
     </row>
     <row r="67" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A67" s="21"/>
-      <c r="B67" s="170"/>
-      <c r="C67" s="170"/>
-      <c r="D67" s="170"/>
+      <c r="B67" s="168"/>
+      <c r="C67" s="168"/>
+      <c r="D67" s="168"/>
       <c r="E67" s="28"/>
       <c r="F67" s="21"/>
     </row>
     <row r="68" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="21"/>
-      <c r="B68" s="170"/>
-      <c r="C68" s="170"/>
-      <c r="D68" s="170"/>
+      <c r="B68" s="168"/>
+      <c r="C68" s="168"/>
+      <c r="D68" s="168"/>
       <c r="E68" s="28"/>
       <c r="F68" s="21"/>
     </row>
@@ -18724,19 +19650,19 @@
     </row>
     <row r="77" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A77" s="21"/>
-      <c r="B77" s="174"/>
-      <c r="C77" s="174"/>
-      <c r="D77" s="174"/>
+      <c r="B77" s="170"/>
+      <c r="C77" s="170"/>
+      <c r="D77" s="170"/>
       <c r="E77" s="36"/>
       <c r="F77" s="21"/>
     </row>
     <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="21"/>
-      <c r="B78" s="171" t="s">
+      <c r="B78" s="175" t="s">
         <v>17</v>
       </c>
-      <c r="C78" s="171"/>
-      <c r="D78" s="171"/>
+      <c r="C78" s="175"/>
+      <c r="D78" s="175"/>
       <c r="E78" s="36">
         <v>0</v>
       </c>
@@ -18744,9 +19670,9 @@
     </row>
     <row r="79" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="21"/>
-      <c r="B79" s="174"/>
-      <c r="C79" s="174"/>
-      <c r="D79" s="174"/>
+      <c r="B79" s="170"/>
+      <c r="C79" s="170"/>
+      <c r="D79" s="170"/>
       <c r="E79" s="36"/>
       <c r="F79" s="21"/>
     </row>
@@ -18781,31 +19707,31 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="21"/>
-      <c r="B83" s="168"/>
-      <c r="C83" s="168"/>
-      <c r="D83" s="168"/>
-      <c r="E83" s="168"/>
+      <c r="B83" s="173"/>
+      <c r="C83" s="173"/>
+      <c r="D83" s="173"/>
+      <c r="E83" s="173"/>
       <c r="F83" s="21"/>
     </row>
     <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="176" t="s">
+      <c r="A84" s="167" t="s">
         <v>28</v>
       </c>
-      <c r="B84" s="176"/>
-      <c r="C84" s="176"/>
-      <c r="D84" s="176"/>
-      <c r="E84" s="176"/>
-      <c r="F84" s="176"/>
+      <c r="B84" s="167"/>
+      <c r="C84" s="167"/>
+      <c r="D84" s="167"/>
+      <c r="E84" s="167"/>
+      <c r="F84" s="167"/>
     </row>
     <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A85" s="172" t="s">
+      <c r="A85" s="176" t="s">
         <v>29</v>
       </c>
-      <c r="B85" s="172"/>
-      <c r="C85" s="172"/>
-      <c r="D85" s="172"/>
-      <c r="E85" s="172"/>
-      <c r="F85" s="172"/>
+      <c r="B85" s="176"/>
+      <c r="C85" s="176"/>
+      <c r="D85" s="176"/>
+      <c r="E85" s="176"/>
+      <c r="F85" s="176"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="21"/>
@@ -18817,26 +19743,26 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="21"/>
-      <c r="B87" s="169"/>
-      <c r="C87" s="169"/>
-      <c r="D87" s="169"/>
-      <c r="E87" s="169"/>
+      <c r="B87" s="174"/>
+      <c r="C87" s="174"/>
+      <c r="D87" s="174"/>
+      <c r="E87" s="174"/>
       <c r="F87" s="21"/>
     </row>
     <row r="88" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A88" s="175" t="s">
+      <c r="A88" s="166" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="175"/>
-      <c r="C88" s="175"/>
-      <c r="D88" s="175"/>
-      <c r="E88" s="175"/>
-      <c r="F88" s="175"/>
+      <c r="B88" s="166"/>
+      <c r="C88" s="166"/>
+      <c r="D88" s="166"/>
+      <c r="E88" s="166"/>
+      <c r="F88" s="166"/>
     </row>
     <row r="90" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="166"/>
-      <c r="C90" s="167"/>
-      <c r="D90" s="167"/>
+      <c r="B90" s="171"/>
+      <c r="C90" s="172"/>
+      <c r="D90" s="172"/>
     </row>
     <row r="91" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
@@ -18846,15 +19772,29 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="B87:E87"/>
-    <mergeCell ref="A88:F88"/>
-    <mergeCell ref="B90:D90"/>
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="B79:D79"/>
-    <mergeCell ref="B83:E83"/>
-    <mergeCell ref="A84:F84"/>
-    <mergeCell ref="A85:F85"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B53:D53"/>
     <mergeCell ref="B68:D68"/>
     <mergeCell ref="B55:D55"/>
     <mergeCell ref="B56:D56"/>
@@ -18867,29 +19807,15 @@
     <mergeCell ref="B63:D63"/>
     <mergeCell ref="B64:D64"/>
     <mergeCell ref="B67:D67"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B87:E87"/>
+    <mergeCell ref="A88:F88"/>
+    <mergeCell ref="B90:D90"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B79:D79"/>
+    <mergeCell ref="B83:E83"/>
+    <mergeCell ref="A84:F84"/>
+    <mergeCell ref="A85:F85"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B77:B79 B12:B20 B33:B68" xr:uid="{6AFAA126-C9B0-41E9-A1BF-E5EA5B07B8B2}">
